--- a/统计清单/2017国内编号清单.xlsx
+++ b/统计清单/2017国内编号清单.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meicai\AppData\Local\Temp\baiduyunguanjia\onlinedit\cache\335e894509e04f0237a6c7f318e81b88\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fall\统计清单\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="959">
   <si>
     <t>本地编号</t>
   </si>
@@ -3561,12 +3561,24 @@
     <t>数量</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>双色白檀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>reichenbachii - v bergamannii</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echinocereus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3682,6 +3694,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3787,7 +3807,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3895,6 +3915,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4332,8 +4353,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:L177" totalsRowShown="0">
-  <autoFilter ref="A1:L177"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:L178" totalsRowShown="0">
+  <autoFilter ref="A1:L178"/>
   <tableColumns count="12">
     <tableColumn id="1" name="145"/>
     <tableColumn id="2" name="属"/>
@@ -4673,10 +4694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L177"/>
+  <dimension ref="A1:L178"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C184" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="D177" sqref="D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10026,8 +10047,13 @@
       <c r="A174">
         <v>161</v>
       </c>
+      <c r="B174" s="3" t="s">
+        <v>958</v>
+      </c>
       <c r="C174" s="13"/>
-      <c r="D174" s="14"/>
+      <c r="D174" s="14" t="s">
+        <v>957</v>
+      </c>
       <c r="E174" s="14" t="s">
         <v>910</v>
       </c>
@@ -10098,6 +10124,24 @@
       <c r="H177" s="11"/>
       <c r="I177" s="14"/>
       <c r="J177" s="14"/>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178">
+        <v>165</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="C178" s="15"/>
+      <c r="D178" s="9"/>
+      <c r="E178" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="69"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -10197,7 +10241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E378"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="F162" sqref="A1:F162"/>
     </sheetView>
   </sheetViews>

--- a/统计清单/2017国内编号清单.xlsx
+++ b/统计清单/2017国内编号清单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fall\统计清单\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\fall\统计清单\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="960">
   <si>
     <t>本地编号</t>
   </si>
@@ -3398,10 +3398,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Halleysche Komet</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Echinopsis</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3566,11 +3562,19 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>reichenbachii - v bergamannii</t>
+    <t>Frailea pygmaea v.curvispina</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halleysche Komet</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Echinocereus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echinocereus reichenbachii - v bergamannii</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4696,8 +4700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="D177" sqref="D177"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="D175" sqref="D175:D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8814,7 +8818,7 @@
         <v>320</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>270</v>
+        <v>956</v>
       </c>
       <c r="E128" s="14" t="s">
         <v>272</v>
@@ -8837,101 +8841,101 @@
         <v>271</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
-      <c r="A129">
+    <row r="129" spans="1:12" s="28" customFormat="1">
+      <c r="A129" s="28">
         <v>119</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="28" t="s">
         <v>740</v>
       </c>
-      <c r="C129" s="13" t="s">
+      <c r="C129" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="D129" s="14" t="s">
+      <c r="D129" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="E129" s="9" t="s">
+      <c r="E129" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="F129" s="9"/>
-      <c r="G129" s="14" t="s">
+      <c r="F129" s="30"/>
+      <c r="G129" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="H129" s="14"/>
-      <c r="I129" s="9">
+      <c r="H129" s="29"/>
+      <c r="I129" s="30">
         <v>8</v>
       </c>
-      <c r="J129" s="14" t="s">
+      <c r="J129" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="K129" s="10">
+      <c r="K129" s="33">
         <v>42902</v>
       </c>
-      <c r="L129" s="12"/>
-    </row>
-    <row r="130" spans="1:12">
-      <c r="A130">
+      <c r="L129" s="34"/>
+    </row>
+    <row r="130" spans="1:12" s="28" customFormat="1">
+      <c r="A130" s="28">
         <v>119</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="28" t="s">
         <v>740</v>
       </c>
-      <c r="C130" s="13" t="s">
+      <c r="C130" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="D130" s="14" t="s">
+      <c r="D130" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="E130" s="14" t="s">
+      <c r="E130" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="F130" s="9"/>
-      <c r="G130" s="14" t="s">
+      <c r="F130" s="30"/>
+      <c r="G130" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="H130" s="14"/>
-      <c r="I130" s="9">
+      <c r="H130" s="29"/>
+      <c r="I130" s="30">
         <v>10</v>
       </c>
-      <c r="J130" s="14" t="s">
+      <c r="J130" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="K130" s="10">
+      <c r="K130" s="33">
         <v>42899</v>
       </c>
-      <c r="L130" s="12"/>
-    </row>
-    <row r="131" spans="1:12">
-      <c r="A131">
+      <c r="L130" s="34"/>
+    </row>
+    <row r="131" spans="1:12" s="28" customFormat="1">
+      <c r="A131" s="28">
         <v>119</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="28" t="s">
         <v>740</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="C131" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="D131" s="14" t="s">
+      <c r="D131" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="E131" s="14" t="s">
+      <c r="E131" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="F131" s="9"/>
-      <c r="G131" s="14" t="s">
+      <c r="F131" s="30"/>
+      <c r="G131" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H131" s="14"/>
-      <c r="I131" s="9">
+      <c r="H131" s="29"/>
+      <c r="I131" s="30">
         <v>4</v>
       </c>
-      <c r="J131" s="14" t="s">
+      <c r="J131" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="K131" s="10">
+      <c r="K131" s="33">
         <v>42899</v>
       </c>
-      <c r="L131" s="12"/>
+      <c r="L131" s="34"/>
     </row>
     <row r="132" spans="1:12" s="28" customFormat="1">
       <c r="A132" s="28">
@@ -9607,7 +9611,7 @@
         <v>143</v>
       </c>
       <c r="B156" s="52" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C156" s="53" t="s">
         <v>754</v>
@@ -10052,7 +10056,7 @@
       </c>
       <c r="C174" s="13"/>
       <c r="D174" s="14" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="E174" s="14" t="s">
         <v>910</v>
@@ -10088,11 +10092,11 @@
         <v>163</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C176" s="13"/>
       <c r="D176" s="14" t="s">
-        <v>915</v>
+        <v>957</v>
       </c>
       <c r="E176" s="14" t="s">
         <v>914</v>
@@ -10110,14 +10114,14 @@
         <v>164</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C177" s="13"/>
       <c r="D177" s="14" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E177" s="14" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="14"/>
@@ -10135,7 +10139,7 @@
       <c r="C178" s="15"/>
       <c r="D178" s="9"/>
       <c r="E178" s="9" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
@@ -10259,7 +10263,7 @@
         <v>767</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>736</v>
@@ -10268,7 +10272,7 @@
         <v>645</v>
       </c>
       <c r="E1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10318,7 +10322,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10332,7 +10336,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10346,7 +10350,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10360,7 +10364,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -10374,7 +10378,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10388,7 +10392,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -10466,7 +10470,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10542,7 +10546,7 @@
         <v>643</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -10556,7 +10560,7 @@
         <v>28</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -10622,7 +10626,7 @@
         <v>74</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -10676,7 +10680,7 @@
         <v>32</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -10714,7 +10718,7 @@
         <v>646</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -10766,7 +10770,7 @@
         <v>79</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -10780,7 +10784,7 @@
         <v>37</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -10820,7 +10824,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -10848,7 +10852,7 @@
         <v>47</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -10898,7 +10902,7 @@
         <v>52</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -10936,7 +10940,7 @@
         <v>654</v>
       </c>
       <c r="D52" s="44" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -10990,7 +10994,7 @@
         <v>84</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -11094,7 +11098,7 @@
         <v>89</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -11108,7 +11112,7 @@
         <v>57</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -11122,7 +11126,7 @@
         <v>648</v>
       </c>
       <c r="D66" s="44" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -11212,7 +11216,7 @@
         <v>653</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -11274,7 +11278,7 @@
         <v>61</v>
       </c>
       <c r="D78" s="48" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -11314,7 +11318,7 @@
         <v>650</v>
       </c>
       <c r="D81" s="44" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -11328,7 +11332,7 @@
         <v>94</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -11366,7 +11370,7 @@
         <v>64</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -11380,7 +11384,7 @@
         <v>98</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -11482,7 +11486,7 @@
         <v>67</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -11496,7 +11500,7 @@
         <v>695</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -11593,10 +11597,10 @@
         <v>711</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -11739,7 +11743,7 @@
         <v>768</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D115" s="14" t="s">
         <v>776</v>
@@ -11753,7 +11757,7 @@
         <v>769</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D116" s="14" t="s">
         <v>777</v>
@@ -11951,7 +11955,7 @@
       </c>
       <c r="B133" s="13"/>
       <c r="C133" s="14" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D133" s="14"/>
     </row>

--- a/统计清单/2017国内编号清单.xlsx
+++ b/统计清单/2017国内编号清单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\fall\统计清单\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fall\统计清单\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="962">
   <si>
     <t>本地编号</t>
   </si>
@@ -3354,10 +3354,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>引进尺寸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>引进尺寸2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3575,6 +3571,17 @@
   </si>
   <si>
     <t>Echinocereus reichenbachii - v bergamannii</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>引进价格</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echinopsis</t>
+  </si>
+  <si>
+    <t>Echinopsis</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3811,7 +3818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3920,12 +3927,204 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -4125,224 +4324,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4357,19 +4338,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:L178" totalsRowShown="0">
-  <autoFilter ref="A1:L178"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:L186" totalsRowShown="0">
+  <autoFilter ref="A1:L186"/>
   <tableColumns count="12">
     <tableColumn id="1" name="145"/>
     <tableColumn id="2" name="属"/>
-    <tableColumn id="3" name="属内编号" dataDxfId="18"/>
-    <tableColumn id="4" name="拉丁名" dataDxfId="17"/>
-    <tableColumn id="5" name="中文" dataDxfId="16"/>
-    <tableColumn id="7" name="来源编号" dataDxfId="15"/>
-    <tableColumn id="6" name="来源" dataDxfId="14"/>
-    <tableColumn id="8" name="参考链接" dataDxfId="13" dataCellStyle="超链接"/>
-    <tableColumn id="9" name="引进尺寸" dataDxfId="12"/>
-    <tableColumn id="10" name="引进尺寸2" dataDxfId="11"/>
+    <tableColumn id="3" name="属内编号" dataDxfId="6"/>
+    <tableColumn id="4" name="拉丁名" dataDxfId="5"/>
+    <tableColumn id="5" name="中文" dataDxfId="4"/>
+    <tableColumn id="7" name="来源编号" dataDxfId="3"/>
+    <tableColumn id="12" name="引进价格"/>
+    <tableColumn id="6" name="来源" dataDxfId="2"/>
+    <tableColumn id="8" name="参考链接" dataDxfId="1" dataCellStyle="超链接"/>
+    <tableColumn id="10" name="引进尺寸2" dataDxfId="0"/>
     <tableColumn id="11" name="引进日期"/>
     <tableColumn id="13" name="备注"/>
   </tableColumns>
@@ -4382,9 +4363,9 @@
   <autoFilter ref="A1:E162"/>
   <tableColumns count="5">
     <tableColumn id="1" name="145"/>
-    <tableColumn id="3" name="编号" dataDxfId="10"/>
-    <tableColumn id="5" name="中文" dataDxfId="9"/>
-    <tableColumn id="7" name="来源编号" dataDxfId="8"/>
+    <tableColumn id="3" name="编号" dataDxfId="17"/>
+    <tableColumn id="5" name="中文" dataDxfId="16"/>
+    <tableColumn id="7" name="来源编号" dataDxfId="15"/>
     <tableColumn id="2" name="数量"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4392,20 +4373,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G129" totalsRowShown="0" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G129" totalsRowShown="0" dataDxfId="14">
   <autoFilter ref="A1:G129">
     <filterColumn colId="6">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="本地编号" dataDxfId="6"/>
-    <tableColumn id="2" name="编号" dataDxfId="5"/>
-    <tableColumn id="5" name="中文名" dataDxfId="4"/>
-    <tableColumn id="6" name="购买目标" dataDxfId="3"/>
-    <tableColumn id="7" name="来源编号" dataDxfId="2"/>
-    <tableColumn id="4" name="链接" dataDxfId="1"/>
-    <tableColumn id="3" name="购买数量" dataDxfId="0"/>
+    <tableColumn id="1" name="本地编号" dataDxfId="13"/>
+    <tableColumn id="2" name="编号" dataDxfId="12"/>
+    <tableColumn id="5" name="中文名" dataDxfId="11"/>
+    <tableColumn id="6" name="购买目标" dataDxfId="10"/>
+    <tableColumn id="7" name="来源编号" dataDxfId="9"/>
+    <tableColumn id="4" name="链接" dataDxfId="8"/>
+    <tableColumn id="3" name="购买数量" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4698,10 +4679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L178"/>
+  <dimension ref="A1:L186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="D175" sqref="D175:D176"/>
+    <sheetView tabSelected="1" topLeftCell="C172" workbookViewId="0">
+      <selection activeCell="H179" sqref="H179:H186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4711,12 +4692,13 @@
     <col min="4" max="4" width="64.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" customWidth="1"/>
+    <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -4739,16 +4721,16 @@
         <v>738</v>
       </c>
       <c r="G1" s="14" t="s">
+        <v>959</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>737</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="I1" s="65" t="s">
         <v>739</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>904</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>905</v>
       </c>
       <c r="K1" s="27" t="s">
         <v>902</v>
@@ -4774,14 +4756,14 @@
         <v>330</v>
       </c>
       <c r="F2" s="40"/>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="9">
+        <v>15</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>339</v>
-      </c>
-      <c r="I2" s="9">
-        <v>15</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>355</v>
@@ -4807,14 +4789,14 @@
         <v>468</v>
       </c>
       <c r="F3" s="40"/>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="9">
+        <v>30</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>469</v>
-      </c>
-      <c r="I3" s="9">
-        <v>30</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>357</v>
@@ -4840,14 +4822,14 @@
         <v>415</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="9">
+        <v>30</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>481</v>
-      </c>
-      <c r="I4" s="9">
-        <v>30</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>357</v>
@@ -4875,14 +4857,14 @@
       <c r="F5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="9">
+        <v>30</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>5</v>
-      </c>
-      <c r="I5" s="9">
-        <v>30</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>2</v>
@@ -4910,14 +4892,14 @@
       <c r="F6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="9">
+        <v>30</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>8</v>
-      </c>
-      <c r="I6" s="9">
-        <v>30</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>2</v>
@@ -4945,14 +4927,14 @@
       <c r="F7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="9">
+        <v>30</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="I7" s="9">
-        <v>30</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>2</v>
@@ -4980,14 +4962,14 @@
       <c r="F8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="9">
+        <v>30</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="I8" s="9">
-        <v>30</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>2</v>
@@ -5015,14 +4997,14 @@
       <c r="F9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="9">
+        <v>30</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="I9" s="9">
-        <v>30</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>2</v>
@@ -5050,14 +5032,14 @@
       <c r="F10" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="9">
+        <v>30</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="I10" s="9">
-        <v>30</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>2</v>
@@ -5085,11 +5067,11 @@
       <c r="F11" s="44" t="s">
         <v>629</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="23" t="s">
         <v>590</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="9"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="14"/>
       <c r="K11" s="10">
         <v>42941</v>
@@ -5114,11 +5096,11 @@
       <c r="F12" s="44" t="s">
         <v>615</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="14"/>
       <c r="K12" s="10">
         <v>42941</v>
@@ -5141,14 +5123,14 @@
         <v>429</v>
       </c>
       <c r="F13" s="40"/>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="9">
+        <v>30</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="I13" s="11" t="s">
         <v>430</v>
-      </c>
-      <c r="I13" s="9">
-        <v>30</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>357</v>
@@ -5174,14 +5156,14 @@
         <v>437</v>
       </c>
       <c r="F14" s="40"/>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="9">
+        <v>30</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="I14" s="11" t="s">
         <v>438</v>
-      </c>
-      <c r="I14" s="9">
-        <v>30</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>357</v>
@@ -5207,14 +5189,14 @@
         <v>411</v>
       </c>
       <c r="F15" s="40"/>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="9">
+        <v>30</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="I15" s="11" t="s">
         <v>412</v>
-      </c>
-      <c r="I15" s="9">
-        <v>30</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>357</v>
@@ -5242,14 +5224,14 @@
       <c r="F16" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="9">
+        <v>30</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="I16" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="I16" s="9">
-        <v>30</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>2</v>
@@ -5275,14 +5257,14 @@
         <v>361</v>
       </c>
       <c r="F17" s="40"/>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="9">
+        <v>30</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="I17" s="11" t="s">
         <v>362</v>
-      </c>
-      <c r="I17" s="9">
-        <v>30</v>
       </c>
       <c r="J17" s="14" t="s">
         <v>357</v>
@@ -5308,14 +5290,14 @@
         <v>449</v>
       </c>
       <c r="F18" s="40"/>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="9">
+        <v>30</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="I18" s="11" t="s">
         <v>450</v>
-      </c>
-      <c r="I18" s="9">
-        <v>30</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>357</v>
@@ -5343,11 +5325,11 @@
       <c r="F19" s="44" t="s">
         <v>623</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="9"/>
+      <c r="H19" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="9"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="14"/>
       <c r="K19" s="10">
         <v>42941</v>
@@ -5370,14 +5352,14 @@
         <v>413</v>
       </c>
       <c r="F20" s="40"/>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="9">
+        <v>30</v>
+      </c>
+      <c r="H20" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="I20" s="11" t="s">
         <v>414</v>
-      </c>
-      <c r="I20" s="9">
-        <v>30</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>357</v>
@@ -5403,13 +5385,13 @@
         <v>484</v>
       </c>
       <c r="F21" s="40"/>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="9"/>
+      <c r="H21" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="I21" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="10">
         <v>42912</v>
@@ -5434,11 +5416,11 @@
       <c r="F22" s="44" t="s">
         <v>644</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="9"/>
+      <c r="H22" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="9"/>
+      <c r="I22" s="11"/>
       <c r="J22" s="14"/>
       <c r="K22" s="10">
         <v>42941</v>
@@ -5463,13 +5445,13 @@
       <c r="F23" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="9">
+        <v>30</v>
+      </c>
+      <c r="H23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="9">
+      <c r="I23" s="11" t="s">
         <v>30</v>
       </c>
       <c r="J23" s="9" t="s">
@@ -5496,14 +5478,14 @@
         <v>456</v>
       </c>
       <c r="F24" s="40"/>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="9">
+        <v>30</v>
+      </c>
+      <c r="H24" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="I24" s="11" t="s">
         <v>455</v>
-      </c>
-      <c r="I24" s="9">
-        <v>30</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>357</v>
@@ -5531,11 +5513,11 @@
       <c r="F25" s="44" t="s">
         <v>631</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="9"/>
+      <c r="H25" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="9"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="14"/>
       <c r="K25" s="10">
         <v>42941</v>
@@ -5560,11 +5542,11 @@
       <c r="F26" s="44" t="s">
         <v>606</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="9"/>
+      <c r="H26" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="9"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="14"/>
       <c r="K26" s="10">
         <v>42941</v>
@@ -5587,14 +5569,14 @@
         <v>354</v>
       </c>
       <c r="F27" s="40"/>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="9">
+        <v>30</v>
+      </c>
+      <c r="H27" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="I27" s="11" t="s">
         <v>359</v>
-      </c>
-      <c r="I27" s="9">
-        <v>30</v>
       </c>
       <c r="J27" s="14" t="s">
         <v>357</v>
@@ -5622,14 +5604,14 @@
       <c r="F28" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="9">
+        <v>30</v>
+      </c>
+      <c r="H28" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="I28" s="21" t="s">
         <v>76</v>
-      </c>
-      <c r="I28" s="9">
-        <v>30</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>2</v>
@@ -5657,11 +5639,11 @@
       <c r="F29" s="44" t="s">
         <v>639</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="9"/>
+      <c r="H29" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="9"/>
+      <c r="I29" s="11"/>
       <c r="J29" s="14"/>
       <c r="K29" s="10">
         <v>42941</v>
@@ -5686,11 +5668,11 @@
       <c r="F30" s="44" t="s">
         <v>634</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="9"/>
+      <c r="H30" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="9"/>
+      <c r="I30" s="11"/>
       <c r="J30" s="14"/>
       <c r="K30" s="10">
         <v>42941</v>
@@ -5713,14 +5695,14 @@
         <v>394</v>
       </c>
       <c r="F31" s="40"/>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="9">
+        <v>30</v>
+      </c>
+      <c r="H31" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="I31" s="11" t="s">
         <v>393</v>
-      </c>
-      <c r="I31" s="9">
-        <v>30</v>
       </c>
       <c r="J31" s="14" t="s">
         <v>357</v>
@@ -5748,14 +5730,14 @@
       <c r="F32" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="9">
+        <v>30</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="I32" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="I32" s="9">
-        <v>30</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>2</v>
@@ -5781,14 +5763,14 @@
         <v>459</v>
       </c>
       <c r="F33" s="40"/>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="9">
+        <v>30</v>
+      </c>
+      <c r="H33" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="I33" s="11" t="s">
         <v>460</v>
-      </c>
-      <c r="I33" s="9">
-        <v>30</v>
       </c>
       <c r="J33" s="14" t="s">
         <v>357</v>
@@ -5814,14 +5796,14 @@
         <v>453</v>
       </c>
       <c r="F34" s="40"/>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="9">
+        <v>30</v>
+      </c>
+      <c r="H34" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="I34" s="11" t="s">
         <v>454</v>
-      </c>
-      <c r="I34" s="9">
-        <v>30</v>
       </c>
       <c r="J34" s="14" t="s">
         <v>357</v>
@@ -5849,11 +5831,11 @@
       <c r="F35" s="44" t="s">
         <v>647</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="9"/>
+      <c r="H35" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="9"/>
+      <c r="I35" s="11"/>
       <c r="J35" s="14"/>
       <c r="K35" s="10">
         <v>42941</v>
@@ -5876,14 +5858,14 @@
         <v>391</v>
       </c>
       <c r="F36" s="40"/>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="9">
+        <v>30</v>
+      </c>
+      <c r="H36" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="I36" s="9" t="s">
         <v>390</v>
-      </c>
-      <c r="I36" s="9">
-        <v>30</v>
       </c>
       <c r="J36" s="14" t="s">
         <v>357</v>
@@ -5911,11 +5893,11 @@
       <c r="F37" s="44" t="s">
         <v>591</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="G37" s="9"/>
+      <c r="H37" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="9"/>
+      <c r="I37" s="11"/>
       <c r="J37" s="14"/>
       <c r="K37" s="10">
         <v>42941</v>
@@ -5938,14 +5920,14 @@
         <v>458</v>
       </c>
       <c r="F38" s="40"/>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="9">
+        <v>30</v>
+      </c>
+      <c r="H38" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="I38" s="11" t="s">
         <v>457</v>
-      </c>
-      <c r="I38" s="9">
-        <v>30</v>
       </c>
       <c r="J38" s="14" t="s">
         <v>357</v>
@@ -5973,14 +5955,14 @@
       <c r="F39" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="9">
+        <v>30</v>
+      </c>
+      <c r="H39" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="I39" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="I39" s="9">
-        <v>30</v>
       </c>
       <c r="J39" s="9" t="s">
         <v>2</v>
@@ -6008,14 +5990,14 @@
       <c r="F40" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="9">
+        <v>30</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="I40" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="I40" s="9">
-        <v>30</v>
       </c>
       <c r="J40" s="9" t="s">
         <v>2</v>
@@ -6043,11 +6025,11 @@
       <c r="F41" s="44" t="s">
         <v>605</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="9"/>
+      <c r="H41" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="9"/>
+      <c r="I41" s="11"/>
       <c r="J41" s="14"/>
       <c r="K41" s="10">
         <v>42941</v>
@@ -6070,14 +6052,14 @@
         <v>407</v>
       </c>
       <c r="F42" s="40"/>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="9">
+        <v>30</v>
+      </c>
+      <c r="H42" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="I42" s="11" t="s">
         <v>408</v>
-      </c>
-      <c r="I42" s="9">
-        <v>30</v>
       </c>
       <c r="J42" s="14" t="s">
         <v>357</v>
@@ -6105,14 +6087,14 @@
       <c r="F43" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="9">
+        <v>30</v>
+      </c>
+      <c r="H43" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="I43" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="I43" s="9">
-        <v>30</v>
       </c>
       <c r="J43" s="9" t="s">
         <v>2</v>
@@ -6140,11 +6122,11 @@
       <c r="F44" s="44" t="s">
         <v>598</v>
       </c>
-      <c r="G44" s="20" t="s">
+      <c r="G44" s="9"/>
+      <c r="H44" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="9"/>
+      <c r="I44" s="11"/>
       <c r="J44" s="14"/>
       <c r="K44" s="10">
         <v>42941</v>
@@ -6169,14 +6151,14 @@
       <c r="F45" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="9">
+        <v>30</v>
+      </c>
+      <c r="H45" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="I45" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="I45" s="9">
-        <v>30</v>
       </c>
       <c r="J45" s="9" t="s">
         <v>2</v>
@@ -6202,14 +6184,14 @@
         <v>366</v>
       </c>
       <c r="F46" s="40"/>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="9">
+        <v>30</v>
+      </c>
+      <c r="H46" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="I46" s="11" t="s">
         <v>367</v>
-      </c>
-      <c r="I46" s="9">
-        <v>30</v>
       </c>
       <c r="J46" s="14" t="s">
         <v>357</v>
@@ -6235,14 +6217,14 @@
         <v>451</v>
       </c>
       <c r="F47" s="40"/>
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="9">
+        <v>30</v>
+      </c>
+      <c r="H47" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="I47" s="11" t="s">
         <v>452</v>
-      </c>
-      <c r="I47" s="9">
-        <v>30</v>
       </c>
       <c r="J47" s="14" t="s">
         <v>357</v>
@@ -6268,14 +6250,14 @@
         <v>440</v>
       </c>
       <c r="F48" s="40"/>
-      <c r="G48" s="14" t="s">
+      <c r="G48" s="9">
+        <v>30</v>
+      </c>
+      <c r="H48" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="I48" s="11" t="s">
         <v>441</v>
-      </c>
-      <c r="I48" s="9">
-        <v>30</v>
       </c>
       <c r="J48" s="14" t="s">
         <v>357</v>
@@ -6303,14 +6285,14 @@
       <c r="F49" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="9">
+        <v>30</v>
+      </c>
+      <c r="H49" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="11" t="s">
+      <c r="I49" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="I49" s="9">
-        <v>30</v>
       </c>
       <c r="J49" s="9" t="s">
         <v>2</v>
@@ -6336,14 +6318,14 @@
         <v>375</v>
       </c>
       <c r="F50" s="40"/>
-      <c r="G50" s="14" t="s">
+      <c r="G50" s="9">
+        <v>30</v>
+      </c>
+      <c r="H50" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="I50" s="11" t="s">
         <v>376</v>
-      </c>
-      <c r="I50" s="9">
-        <v>30</v>
       </c>
       <c r="J50" s="14" t="s">
         <v>357</v>
@@ -6369,14 +6351,14 @@
         <v>399</v>
       </c>
       <c r="F51" s="40"/>
-      <c r="G51" s="14" t="s">
+      <c r="G51" s="9">
+        <v>30</v>
+      </c>
+      <c r="H51" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="I51" s="11" t="s">
         <v>400</v>
-      </c>
-      <c r="I51" s="9">
-        <v>30</v>
       </c>
       <c r="J51" s="14" t="s">
         <v>357</v>
@@ -6404,11 +6386,11 @@
       <c r="F52" s="44" t="s">
         <v>655</v>
       </c>
-      <c r="G52" s="20" t="s">
+      <c r="G52" s="9"/>
+      <c r="H52" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="H52" s="11"/>
-      <c r="I52" s="9"/>
+      <c r="I52" s="11"/>
       <c r="J52" s="14"/>
       <c r="K52" s="10">
         <v>42941</v>
@@ -6433,11 +6415,11 @@
       <c r="F53" s="44" t="s">
         <v>632</v>
       </c>
-      <c r="G53" s="20" t="s">
+      <c r="G53" s="9"/>
+      <c r="H53" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="H53" s="11"/>
-      <c r="I53" s="9"/>
+      <c r="I53" s="11"/>
       <c r="J53" s="14"/>
       <c r="K53" s="10">
         <v>42941</v>
@@ -6460,14 +6442,14 @@
         <v>332</v>
       </c>
       <c r="F54" s="40"/>
-      <c r="G54" s="14" t="s">
+      <c r="G54" s="9">
+        <v>25</v>
+      </c>
+      <c r="H54" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="I54" s="11" t="s">
         <v>340</v>
-      </c>
-      <c r="I54" s="9">
-        <v>25</v>
       </c>
       <c r="J54" s="14" t="s">
         <v>356</v>
@@ -6495,11 +6477,11 @@
       <c r="F55" s="44" t="s">
         <v>594</v>
       </c>
-      <c r="G55" s="20" t="s">
+      <c r="G55" s="9"/>
+      <c r="H55" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="H55" s="11"/>
-      <c r="I55" s="9"/>
+      <c r="I55" s="11"/>
       <c r="J55" s="14"/>
       <c r="K55" s="10">
         <v>42941</v>
@@ -6524,14 +6506,14 @@
       <c r="F56" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="9">
+        <v>30</v>
+      </c>
+      <c r="H56" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H56" s="21" t="s">
+      <c r="I56" s="21" t="s">
         <v>86</v>
-      </c>
-      <c r="I56" s="9">
-        <v>30</v>
       </c>
       <c r="J56" s="9" t="s">
         <v>2</v>
@@ -6559,11 +6541,11 @@
       <c r="F57" s="44" t="s">
         <v>600</v>
       </c>
-      <c r="G57" s="20" t="s">
+      <c r="G57" s="9"/>
+      <c r="H57" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="H57" s="11"/>
-      <c r="I57" s="9"/>
+      <c r="I57" s="11"/>
       <c r="J57" s="14"/>
       <c r="K57" s="10">
         <v>42941</v>
@@ -6588,11 +6570,11 @@
       <c r="F58" s="44" t="s">
         <v>637</v>
       </c>
-      <c r="G58" s="20" t="s">
+      <c r="G58" s="9"/>
+      <c r="H58" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="H58" s="11"/>
-      <c r="I58" s="9"/>
+      <c r="I58" s="11"/>
       <c r="J58" s="14"/>
       <c r="K58" s="10">
         <v>42941</v>
@@ -6615,14 +6597,14 @@
         <v>341</v>
       </c>
       <c r="F59" s="40"/>
-      <c r="G59" s="14" t="s">
+      <c r="G59" s="9">
+        <v>30</v>
+      </c>
+      <c r="H59" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H59" s="11" t="s">
+      <c r="I59" s="11" t="s">
         <v>347</v>
-      </c>
-      <c r="I59" s="9">
-        <v>30</v>
       </c>
       <c r="J59" s="14" t="s">
         <v>358</v>
@@ -6648,14 +6630,14 @@
         <v>395</v>
       </c>
       <c r="F60" s="40"/>
-      <c r="G60" s="14" t="s">
+      <c r="G60" s="9">
+        <v>30</v>
+      </c>
+      <c r="H60" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H60" s="11" t="s">
+      <c r="I60" s="11" t="s">
         <v>397</v>
-      </c>
-      <c r="I60" s="9">
-        <v>30</v>
       </c>
       <c r="J60" s="14" t="s">
         <v>357</v>
@@ -6681,14 +6663,14 @@
         <v>382</v>
       </c>
       <c r="F61" s="40"/>
-      <c r="G61" s="14" t="s">
+      <c r="G61" s="9">
+        <v>30</v>
+      </c>
+      <c r="H61" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H61" s="11" t="s">
+      <c r="I61" s="11" t="s">
         <v>383</v>
-      </c>
-      <c r="I61" s="9">
-        <v>30</v>
       </c>
       <c r="J61" s="14" t="s">
         <v>357</v>
@@ -6716,11 +6698,11 @@
       <c r="F62" s="44" t="s">
         <v>603</v>
       </c>
-      <c r="G62" s="20" t="s">
+      <c r="G62" s="9"/>
+      <c r="H62" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="H62" s="11"/>
-      <c r="I62" s="9"/>
+      <c r="I62" s="11"/>
       <c r="J62" s="14"/>
       <c r="K62" s="10">
         <v>42941</v>
@@ -6743,14 +6725,14 @@
         <v>402</v>
       </c>
       <c r="F63" s="40"/>
-      <c r="G63" s="14" t="s">
+      <c r="G63" s="9">
+        <v>30</v>
+      </c>
+      <c r="H63" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H63" s="11" t="s">
+      <c r="I63" s="11" t="s">
         <v>401</v>
-      </c>
-      <c r="I63" s="9">
-        <v>30</v>
       </c>
       <c r="J63" s="14" t="s">
         <v>357</v>
@@ -6778,14 +6760,14 @@
       <c r="F64" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="G64" s="9">
+        <v>30</v>
+      </c>
+      <c r="H64" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H64" s="11" t="s">
+      <c r="I64" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="I64" s="9">
-        <v>30</v>
       </c>
       <c r="J64" s="9" t="s">
         <v>2</v>
@@ -6813,14 +6795,14 @@
       <c r="F65" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="G65" s="9">
+        <v>30</v>
+      </c>
+      <c r="H65" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H65" s="11" t="s">
+      <c r="I65" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="I65" s="9">
-        <v>30</v>
       </c>
       <c r="J65" s="9" t="s">
         <v>2</v>
@@ -6848,11 +6830,11 @@
       <c r="F66" s="44" t="s">
         <v>649</v>
       </c>
-      <c r="G66" s="20" t="s">
+      <c r="G66" s="9"/>
+      <c r="H66" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="H66" s="11"/>
-      <c r="I66" s="9"/>
+      <c r="I66" s="11"/>
       <c r="J66" s="14"/>
       <c r="K66" s="10">
         <v>42941</v>
@@ -6875,13 +6857,13 @@
         <v>491</v>
       </c>
       <c r="F67" s="40"/>
-      <c r="G67" s="14" t="s">
+      <c r="G67" s="9"/>
+      <c r="H67" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="H67" s="11" t="s">
+      <c r="I67" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="10">
         <v>42912</v>
@@ -6906,11 +6888,11 @@
       <c r="F68" s="44" t="s">
         <v>687</v>
       </c>
-      <c r="G68" s="20" t="s">
+      <c r="G68" s="9"/>
+      <c r="H68" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="H68" s="11"/>
-      <c r="I68" s="9"/>
+      <c r="I68" s="11"/>
       <c r="J68" s="14"/>
       <c r="K68" s="10">
         <v>42941</v>
@@ -6933,14 +6915,14 @@
         <v>447</v>
       </c>
       <c r="F69" s="40"/>
-      <c r="G69" s="14" t="s">
+      <c r="G69" s="9">
+        <v>30</v>
+      </c>
+      <c r="H69" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H69" s="11" t="s">
+      <c r="I69" s="11" t="s">
         <v>448</v>
-      </c>
-      <c r="I69" s="9">
-        <v>30</v>
       </c>
       <c r="J69" s="14" t="s">
         <v>357</v>
@@ -6966,14 +6948,14 @@
         <v>342</v>
       </c>
       <c r="F70" s="40"/>
-      <c r="G70" s="14" t="s">
+      <c r="G70" s="9">
+        <v>30</v>
+      </c>
+      <c r="H70" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H70" s="11" t="s">
+      <c r="I70" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="I70" s="9">
-        <v>30</v>
       </c>
       <c r="J70" s="14" t="s">
         <v>358</v>
@@ -7001,11 +6983,11 @@
       <c r="F71" s="44" t="s">
         <v>641</v>
       </c>
-      <c r="G71" s="20" t="s">
+      <c r="G71" s="9"/>
+      <c r="H71" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="H71" s="11"/>
-      <c r="I71" s="9"/>
+      <c r="I71" s="11"/>
       <c r="J71" s="14"/>
       <c r="K71" s="10">
         <v>42941</v>
@@ -7028,14 +7010,14 @@
         <v>409</v>
       </c>
       <c r="F72" s="40"/>
-      <c r="G72" s="14" t="s">
+      <c r="G72" s="9">
+        <v>30</v>
+      </c>
+      <c r="H72" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H72" s="11" t="s">
+      <c r="I72" s="11" t="s">
         <v>410</v>
-      </c>
-      <c r="I72" s="9">
-        <v>30</v>
       </c>
       <c r="J72" s="14" t="s">
         <v>357</v>
@@ -7063,11 +7045,11 @@
       <c r="F73" s="44" t="s">
         <v>652</v>
       </c>
-      <c r="G73" s="20" t="s">
+      <c r="G73" s="9"/>
+      <c r="H73" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="H73" s="11"/>
-      <c r="I73" s="9"/>
+      <c r="I73" s="11"/>
       <c r="J73" s="14"/>
       <c r="K73" s="10">
         <v>42941</v>
@@ -7090,14 +7072,14 @@
         <v>389</v>
       </c>
       <c r="F74" s="40"/>
-      <c r="G74" s="14" t="s">
+      <c r="G74" s="9">
+        <v>30</v>
+      </c>
+      <c r="H74" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H74" s="11" t="s">
+      <c r="I74" s="11" t="s">
         <v>388</v>
-      </c>
-      <c r="I74" s="9">
-        <v>30</v>
       </c>
       <c r="J74" s="14" t="s">
         <v>357</v>
@@ -7123,14 +7105,14 @@
         <v>368</v>
       </c>
       <c r="F75" s="40"/>
-      <c r="G75" s="14" t="s">
+      <c r="G75" s="9">
+        <v>30</v>
+      </c>
+      <c r="H75" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H75" s="11" t="s">
+      <c r="I75" s="11" t="s">
         <v>369</v>
-      </c>
-      <c r="I75" s="9">
-        <v>30</v>
       </c>
       <c r="J75" s="14" t="s">
         <v>357</v>
@@ -7156,14 +7138,14 @@
         <v>380</v>
       </c>
       <c r="F76" s="40"/>
-      <c r="G76" s="14" t="s">
+      <c r="G76" s="9">
+        <v>30</v>
+      </c>
+      <c r="H76" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H76" s="11" t="s">
+      <c r="I76" s="11" t="s">
         <v>379</v>
-      </c>
-      <c r="I76" s="9">
-        <v>30</v>
       </c>
       <c r="J76" s="14" t="s">
         <v>357</v>
@@ -7189,14 +7171,14 @@
         <v>432</v>
       </c>
       <c r="F77" s="40"/>
-      <c r="G77" s="14" t="s">
+      <c r="G77" s="9">
+        <v>30</v>
+      </c>
+      <c r="H77" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H77" s="11" t="s">
+      <c r="I77" s="11" t="s">
         <v>431</v>
-      </c>
-      <c r="I77" s="9">
-        <v>30</v>
       </c>
       <c r="J77" s="14" t="s">
         <v>357</v>
@@ -7224,14 +7206,14 @@
       <c r="F78" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="G78" s="30" t="s">
+      <c r="G78" s="30">
+        <v>30</v>
+      </c>
+      <c r="H78" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H78" s="31" t="s">
+      <c r="I78" s="31" t="s">
         <v>351</v>
-      </c>
-      <c r="I78" s="30">
-        <v>30</v>
       </c>
       <c r="J78" s="30" t="s">
         <v>2</v>
@@ -7257,14 +7239,14 @@
         <v>343</v>
       </c>
       <c r="F79" s="48"/>
-      <c r="G79" s="29" t="s">
+      <c r="G79" s="30">
+        <v>30</v>
+      </c>
+      <c r="H79" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="H79" s="31" t="s">
+      <c r="I79" s="31" t="s">
         <v>351</v>
-      </c>
-      <c r="I79" s="30">
-        <v>30</v>
       </c>
       <c r="J79" s="29" t="s">
         <v>357</v>
@@ -7290,14 +7272,14 @@
         <v>463</v>
       </c>
       <c r="F80" s="40"/>
-      <c r="G80" s="14" t="s">
+      <c r="G80" s="9">
+        <v>30</v>
+      </c>
+      <c r="H80" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H80" s="11" t="s">
+      <c r="I80" s="11" t="s">
         <v>462</v>
-      </c>
-      <c r="I80" s="9">
-        <v>30</v>
       </c>
       <c r="J80" s="14" t="s">
         <v>357</v>
@@ -7325,11 +7307,11 @@
       <c r="F81" s="44" t="s">
         <v>625</v>
       </c>
-      <c r="G81" s="20" t="s">
+      <c r="G81" s="9"/>
+      <c r="H81" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="H81" s="11"/>
-      <c r="I81" s="9"/>
+      <c r="I81" s="11"/>
       <c r="J81" s="14"/>
       <c r="K81" s="10">
         <v>42941</v>
@@ -7354,11 +7336,11 @@
       <c r="F82" s="44" t="s">
         <v>651</v>
       </c>
-      <c r="G82" s="20" t="s">
+      <c r="G82" s="9"/>
+      <c r="H82" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="H82" s="11"/>
-      <c r="I82" s="9"/>
+      <c r="I82" s="11"/>
       <c r="J82" s="14"/>
       <c r="K82" s="10">
         <v>42941</v>
@@ -7383,14 +7365,14 @@
       <c r="F83" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="G83" s="9" t="s">
+      <c r="G83" s="9">
+        <v>30</v>
+      </c>
+      <c r="H83" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="11" t="s">
+      <c r="I83" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="I83" s="9">
-        <v>30</v>
       </c>
       <c r="J83" s="9" t="s">
         <v>2</v>
@@ -7416,14 +7398,14 @@
         <v>466</v>
       </c>
       <c r="F84" s="40"/>
-      <c r="G84" s="14" t="s">
+      <c r="G84" s="9">
+        <v>30</v>
+      </c>
+      <c r="H84" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H84" s="11" t="s">
+      <c r="I84" s="11" t="s">
         <v>467</v>
-      </c>
-      <c r="I84" s="9">
-        <v>30</v>
       </c>
       <c r="J84" s="14" t="s">
         <v>357</v>
@@ -7449,14 +7431,14 @@
         <v>465</v>
       </c>
       <c r="F85" s="40"/>
-      <c r="G85" s="14" t="s">
+      <c r="G85" s="9">
+        <v>30</v>
+      </c>
+      <c r="H85" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H85" s="11" t="s">
+      <c r="I85" s="11" t="s">
         <v>464</v>
-      </c>
-      <c r="I85" s="9">
-        <v>30</v>
       </c>
       <c r="J85" s="14" t="s">
         <v>357</v>
@@ -7484,14 +7466,14 @@
       <c r="F86" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="G86" s="9" t="s">
+      <c r="G86" s="9">
+        <v>30</v>
+      </c>
+      <c r="H86" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H86" s="11" t="s">
+      <c r="I86" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="I86" s="9">
-        <v>30</v>
       </c>
       <c r="J86" s="9" t="s">
         <v>2</v>
@@ -7519,14 +7501,14 @@
       <c r="F87" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="G87" s="9" t="s">
+      <c r="G87" s="9">
+        <v>30</v>
+      </c>
+      <c r="H87" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H87" s="21" t="s">
+      <c r="I87" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="I87" s="9">
-        <v>30</v>
       </c>
       <c r="J87" s="9" t="s">
         <v>2</v>
@@ -7552,14 +7534,14 @@
         <v>404</v>
       </c>
       <c r="F88" s="40"/>
-      <c r="G88" s="14" t="s">
+      <c r="G88" s="9">
+        <v>30</v>
+      </c>
+      <c r="H88" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H88" s="11" t="s">
+      <c r="I88" s="11" t="s">
         <v>403</v>
-      </c>
-      <c r="I88" s="9">
-        <v>30</v>
       </c>
       <c r="J88" s="14" t="s">
         <v>357</v>
@@ -7587,11 +7569,11 @@
       <c r="F89" s="44" t="s">
         <v>596</v>
       </c>
-      <c r="G89" s="20" t="s">
+      <c r="G89" s="9"/>
+      <c r="H89" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="H89" s="11"/>
-      <c r="I89" s="9"/>
+      <c r="I89" s="11"/>
       <c r="J89" s="14"/>
       <c r="K89" s="10">
         <v>42941</v>
@@ -7616,11 +7598,11 @@
       <c r="F90" s="44" t="s">
         <v>686</v>
       </c>
-      <c r="G90" s="20" t="s">
+      <c r="G90" s="9"/>
+      <c r="H90" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="H90" s="11"/>
-      <c r="I90" s="9"/>
+      <c r="I90" s="11"/>
       <c r="J90" s="14"/>
       <c r="K90" s="10">
         <v>42941</v>
@@ -7643,14 +7625,14 @@
         <v>433</v>
       </c>
       <c r="F91" s="40"/>
-      <c r="G91" s="14" t="s">
+      <c r="G91" s="9">
+        <v>30</v>
+      </c>
+      <c r="H91" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H91" s="11" t="s">
+      <c r="I91" s="11" t="s">
         <v>434</v>
-      </c>
-      <c r="I91" s="9">
-        <v>30</v>
       </c>
       <c r="J91" s="14" t="s">
         <v>357</v>
@@ -7676,14 +7658,14 @@
         <v>385</v>
       </c>
       <c r="F92" s="40"/>
-      <c r="G92" s="14" t="s">
+      <c r="G92" s="9">
+        <v>30</v>
+      </c>
+      <c r="H92" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H92" s="11" t="s">
+      <c r="I92" s="11" t="s">
         <v>386</v>
-      </c>
-      <c r="I92" s="9">
-        <v>30</v>
       </c>
       <c r="J92" s="14" t="s">
         <v>357</v>
@@ -7709,14 +7691,14 @@
         <v>405</v>
       </c>
       <c r="F93" s="40"/>
-      <c r="G93" s="14" t="s">
+      <c r="G93" s="9">
+        <v>30</v>
+      </c>
+      <c r="H93" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H93" s="11" t="s">
+      <c r="I93" s="11" t="s">
         <v>406</v>
-      </c>
-      <c r="I93" s="9">
-        <v>30</v>
       </c>
       <c r="J93" s="14" t="s">
         <v>357</v>
@@ -7742,14 +7724,14 @@
         <v>436</v>
       </c>
       <c r="F94" s="40"/>
-      <c r="G94" s="14" t="s">
+      <c r="G94" s="9">
+        <v>30</v>
+      </c>
+      <c r="H94" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H94" s="11" t="s">
+      <c r="I94" s="11" t="s">
         <v>435</v>
-      </c>
-      <c r="I94" s="9">
-        <v>30</v>
       </c>
       <c r="J94" s="14" t="s">
         <v>357</v>
@@ -7777,14 +7759,14 @@
       <c r="F95" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G95" s="9" t="s">
+      <c r="G95" s="9">
+        <v>30</v>
+      </c>
+      <c r="H95" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H95" s="11" t="s">
+      <c r="I95" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="I95" s="9">
-        <v>30</v>
       </c>
       <c r="J95" s="9" t="s">
         <v>2</v>
@@ -7812,13 +7794,13 @@
       <c r="F96" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="G96" s="9" t="s">
+      <c r="G96" s="9"/>
+      <c r="H96" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="H96" s="11" t="s">
+      <c r="I96" s="11" t="s">
         <v>694</v>
       </c>
-      <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="10"/>
     </row>
@@ -7842,10 +7824,10 @@
         <v>709</v>
       </c>
       <c r="G97" s="17"/>
-      <c r="H97" s="18" t="s">
+      <c r="H97" s="17"/>
+      <c r="I97" s="18" t="s">
         <v>710</v>
       </c>
-      <c r="I97" s="17"/>
       <c r="J97" s="17"/>
       <c r="K97" s="22"/>
     </row>
@@ -7866,13 +7848,13 @@
         <v>293</v>
       </c>
       <c r="F98" s="9"/>
-      <c r="G98" s="14" t="s">
+      <c r="G98" s="9">
+        <v>8</v>
+      </c>
+      <c r="H98" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="H98" s="14"/>
-      <c r="I98" s="9">
-        <v>8</v>
-      </c>
+      <c r="I98" s="14"/>
       <c r="J98" s="14" t="s">
         <v>286</v>
       </c>
@@ -7898,13 +7880,13 @@
         <v>219</v>
       </c>
       <c r="F99" s="9"/>
-      <c r="G99" s="14" t="s">
+      <c r="G99" s="9">
+        <v>10</v>
+      </c>
+      <c r="H99" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="H99" s="14"/>
-      <c r="I99" s="9">
-        <v>10</v>
-      </c>
+      <c r="I99" s="14"/>
       <c r="J99" s="14" t="s">
         <v>221</v>
       </c>
@@ -7930,13 +7912,13 @@
         <v>227</v>
       </c>
       <c r="F100" s="9"/>
-      <c r="G100" s="14" t="s">
+      <c r="G100" s="9">
+        <v>15</v>
+      </c>
+      <c r="H100" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="H100" s="14"/>
-      <c r="I100" s="9">
-        <v>15</v>
-      </c>
+      <c r="I100" s="14"/>
       <c r="J100" s="14" t="s">
         <v>221</v>
       </c>
@@ -7962,13 +7944,13 @@
         <v>218</v>
       </c>
       <c r="F101" s="30"/>
-      <c r="G101" s="29" t="s">
+      <c r="G101" s="30">
+        <v>10</v>
+      </c>
+      <c r="H101" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="H101" s="29"/>
-      <c r="I101" s="30">
-        <v>10</v>
-      </c>
+      <c r="I101" s="29"/>
       <c r="J101" s="29" t="s">
         <v>221</v>
       </c>
@@ -7994,13 +7976,13 @@
         <v>279</v>
       </c>
       <c r="F102" s="30"/>
-      <c r="G102" s="29" t="s">
+      <c r="G102" s="30">
+        <v>8</v>
+      </c>
+      <c r="H102" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="H102" s="29"/>
-      <c r="I102" s="30">
-        <v>8</v>
-      </c>
+      <c r="I102" s="29"/>
       <c r="J102" s="29" t="s">
         <v>286</v>
       </c>
@@ -8026,11 +8008,11 @@
         <v>265</v>
       </c>
       <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
+      <c r="G103" s="9">
+        <v>0</v>
+      </c>
       <c r="H103" s="9"/>
-      <c r="I103" s="9">
-        <v>0</v>
-      </c>
+      <c r="I103" s="9"/>
       <c r="J103" s="9">
         <v>0</v>
       </c>
@@ -8054,13 +8036,13 @@
         <v>244</v>
       </c>
       <c r="F104" s="14"/>
-      <c r="G104" s="14" t="s">
+      <c r="G104" s="14">
+        <v>0</v>
+      </c>
+      <c r="H104" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14">
-        <v>0</v>
-      </c>
+      <c r="I104" s="14"/>
       <c r="J104" s="14" t="s">
         <v>221</v>
       </c>
@@ -8086,13 +8068,13 @@
         <v>292</v>
       </c>
       <c r="F105" s="9"/>
-      <c r="G105" s="14" t="s">
+      <c r="G105" s="9">
+        <v>7</v>
+      </c>
+      <c r="H105" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="H105" s="14"/>
-      <c r="I105" s="9">
-        <v>7</v>
-      </c>
+      <c r="I105" s="14"/>
       <c r="J105" s="14" t="s">
         <v>221</v>
       </c>
@@ -8118,13 +8100,13 @@
         <v>282</v>
       </c>
       <c r="F106" s="9"/>
-      <c r="G106" s="14" t="s">
+      <c r="G106" s="9">
+        <v>8</v>
+      </c>
+      <c r="H106" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="H106" s="14"/>
-      <c r="I106" s="9">
-        <v>8</v>
-      </c>
+      <c r="I106" s="14"/>
       <c r="J106" s="14" t="s">
         <v>286</v>
       </c>
@@ -8150,13 +8132,13 @@
         <v>259</v>
       </c>
       <c r="F107" s="9"/>
-      <c r="G107" s="14" t="s">
+      <c r="G107" s="9">
+        <v>3</v>
+      </c>
+      <c r="H107" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="H107" s="14"/>
-      <c r="I107" s="9">
-        <v>3</v>
-      </c>
+      <c r="I107" s="14"/>
       <c r="J107" s="14" t="s">
         <v>249</v>
       </c>
@@ -8182,13 +8164,13 @@
         <v>283</v>
       </c>
       <c r="F108" s="9"/>
-      <c r="G108" s="14" t="s">
+      <c r="G108" s="9">
+        <v>8</v>
+      </c>
+      <c r="H108" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="H108" s="14"/>
-      <c r="I108" s="9">
-        <v>8</v>
-      </c>
+      <c r="I108" s="14"/>
       <c r="J108" s="14" t="s">
         <v>286</v>
       </c>
@@ -8214,13 +8196,13 @@
         <v>213</v>
       </c>
       <c r="F109" s="14"/>
-      <c r="G109" s="14" t="s">
+      <c r="G109" s="14">
+        <v>6</v>
+      </c>
+      <c r="H109" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="H109" s="14"/>
-      <c r="I109" s="14">
-        <v>6</v>
-      </c>
+      <c r="I109" s="14"/>
       <c r="J109" s="14" t="s">
         <v>222</v>
       </c>
@@ -8246,13 +8228,13 @@
         <v>277</v>
       </c>
       <c r="F110" s="9"/>
-      <c r="G110" s="14" t="s">
+      <c r="G110" s="9">
+        <v>8</v>
+      </c>
+      <c r="H110" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="H110" s="14"/>
-      <c r="I110" s="9">
-        <v>8</v>
-      </c>
+      <c r="I110" s="14"/>
       <c r="J110" s="14" t="s">
         <v>286</v>
       </c>
@@ -8278,13 +8260,13 @@
         <v>263</v>
       </c>
       <c r="F111" s="9"/>
-      <c r="G111" s="14" t="s">
+      <c r="G111" s="9">
+        <v>3</v>
+      </c>
+      <c r="H111" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="H111" s="14"/>
-      <c r="I111" s="9">
-        <v>3</v>
-      </c>
+      <c r="I111" s="14"/>
       <c r="J111" s="14" t="s">
         <v>249</v>
       </c>
@@ -8310,13 +8292,13 @@
         <v>232</v>
       </c>
       <c r="F112" s="9"/>
-      <c r="G112" s="14" t="s">
+      <c r="G112" s="9">
+        <v>15</v>
+      </c>
+      <c r="H112" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="H112" s="14"/>
-      <c r="I112" s="9">
-        <v>15</v>
-      </c>
+      <c r="I112" s="14"/>
       <c r="J112" s="14" t="s">
         <v>221</v>
       </c>
@@ -8342,13 +8324,13 @@
         <v>242</v>
       </c>
       <c r="F113" s="9"/>
-      <c r="G113" s="14" t="s">
+      <c r="G113" s="9">
+        <v>20</v>
+      </c>
+      <c r="H113" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="H113" s="14"/>
-      <c r="I113" s="9">
-        <v>20</v>
-      </c>
+      <c r="I113" s="14"/>
       <c r="J113" s="14" t="s">
         <v>221</v>
       </c>
@@ -8374,13 +8356,13 @@
         <v>233</v>
       </c>
       <c r="F114" s="9"/>
-      <c r="G114" s="14" t="s">
+      <c r="G114" s="9">
+        <v>15</v>
+      </c>
+      <c r="H114" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="H114" s="14"/>
-      <c r="I114" s="9">
-        <v>15</v>
-      </c>
+      <c r="I114" s="14"/>
       <c r="J114" s="14" t="s">
         <v>221</v>
       </c>
@@ -8406,13 +8388,13 @@
         <v>239</v>
       </c>
       <c r="F115" s="9"/>
-      <c r="G115" s="14" t="s">
+      <c r="G115" s="9">
+        <v>20</v>
+      </c>
+      <c r="H115" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="H115" s="14"/>
-      <c r="I115" s="9">
-        <v>20</v>
-      </c>
+      <c r="I115" s="14"/>
       <c r="J115" s="14" t="s">
         <v>221</v>
       </c>
@@ -8438,13 +8420,13 @@
         <v>243</v>
       </c>
       <c r="F116" s="30"/>
-      <c r="G116" s="29" t="s">
+      <c r="G116" s="30">
+        <v>7</v>
+      </c>
+      <c r="H116" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="H116" s="29"/>
-      <c r="I116" s="30">
-        <v>7</v>
-      </c>
+      <c r="I116" s="29"/>
       <c r="J116" s="29" t="s">
         <v>221</v>
       </c>
@@ -8470,13 +8452,13 @@
         <v>215</v>
       </c>
       <c r="F117" s="30"/>
-      <c r="G117" s="29" t="s">
+      <c r="G117" s="30">
+        <v>8</v>
+      </c>
+      <c r="H117" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="H117" s="29"/>
-      <c r="I117" s="30">
-        <v>8</v>
-      </c>
+      <c r="I117" s="29"/>
       <c r="J117" s="29" t="s">
         <v>221</v>
       </c>
@@ -8502,13 +8484,13 @@
         <v>275</v>
       </c>
       <c r="F118" s="30"/>
-      <c r="G118" s="29" t="s">
+      <c r="G118" s="30">
+        <v>8</v>
+      </c>
+      <c r="H118" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="H118" s="29"/>
-      <c r="I118" s="30">
-        <v>8</v>
-      </c>
+      <c r="I118" s="29"/>
       <c r="J118" s="29" t="s">
         <v>287</v>
       </c>
@@ -8534,13 +8516,13 @@
         <v>284</v>
       </c>
       <c r="F119" s="30"/>
-      <c r="G119" s="29" t="s">
+      <c r="G119" s="30">
+        <v>8</v>
+      </c>
+      <c r="H119" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="H119" s="29"/>
-      <c r="I119" s="30">
-        <v>8</v>
-      </c>
+      <c r="I119" s="29"/>
       <c r="J119" s="29" t="s">
         <v>286</v>
       </c>
@@ -8566,13 +8548,13 @@
         <v>274</v>
       </c>
       <c r="F120" s="30"/>
-      <c r="G120" s="29" t="s">
+      <c r="G120" s="30">
+        <v>8</v>
+      </c>
+      <c r="H120" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H120" s="29"/>
-      <c r="I120" s="30">
-        <v>8</v>
-      </c>
+      <c r="I120" s="29"/>
       <c r="J120" s="29" t="s">
         <v>246</v>
       </c>
@@ -8598,13 +8580,13 @@
         <v>278</v>
       </c>
       <c r="F121" s="30"/>
-      <c r="G121" s="29" t="s">
+      <c r="G121" s="30">
+        <v>8</v>
+      </c>
+      <c r="H121" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="H121" s="29"/>
-      <c r="I121" s="30">
-        <v>8</v>
-      </c>
+      <c r="I121" s="29"/>
       <c r="J121" s="29" t="s">
         <v>286</v>
       </c>
@@ -8630,13 +8612,13 @@
         <v>266</v>
       </c>
       <c r="F122" s="9"/>
-      <c r="G122" s="14" t="s">
+      <c r="G122" s="9">
+        <v>25</v>
+      </c>
+      <c r="H122" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="H122" s="14"/>
-      <c r="I122" s="9">
-        <v>25</v>
-      </c>
+      <c r="I122" s="14"/>
       <c r="J122" s="14" t="s">
         <v>221</v>
       </c>
@@ -8662,13 +8644,13 @@
         <v>229</v>
       </c>
       <c r="F123" s="9"/>
-      <c r="G123" s="14" t="s">
+      <c r="G123" s="9">
+        <v>15</v>
+      </c>
+      <c r="H123" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="H123" s="14"/>
-      <c r="I123" s="9">
-        <v>15</v>
-      </c>
+      <c r="I123" s="14"/>
       <c r="J123" s="14" t="s">
         <v>221</v>
       </c>
@@ -8694,13 +8676,13 @@
         <v>248</v>
       </c>
       <c r="F124" s="9"/>
-      <c r="G124" s="14" t="s">
+      <c r="G124" s="9">
+        <v>8</v>
+      </c>
+      <c r="H124" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="H124" s="14"/>
-      <c r="I124" s="9">
-        <v>8</v>
-      </c>
+      <c r="I124" s="14"/>
       <c r="J124" s="14" t="s">
         <v>245</v>
       </c>
@@ -8726,13 +8708,13 @@
         <v>248</v>
       </c>
       <c r="F125" s="9"/>
-      <c r="G125" s="14" t="s">
+      <c r="G125" s="9">
+        <v>3</v>
+      </c>
+      <c r="H125" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="H125" s="14"/>
-      <c r="I125" s="9">
-        <v>3</v>
-      </c>
+      <c r="I125" s="14"/>
       <c r="J125" s="14" t="s">
         <v>250</v>
       </c>
@@ -8758,13 +8740,13 @@
         <v>261</v>
       </c>
       <c r="F126" s="9"/>
-      <c r="G126" s="14" t="s">
+      <c r="G126" s="9">
+        <v>10</v>
+      </c>
+      <c r="H126" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="H126" s="14"/>
-      <c r="I126" s="9">
-        <v>10</v>
-      </c>
+      <c r="I126" s="14"/>
       <c r="J126" s="14" t="s">
         <v>221</v>
       </c>
@@ -8790,13 +8772,13 @@
         <v>224</v>
       </c>
       <c r="F127" s="14"/>
-      <c r="G127" s="14" t="s">
+      <c r="G127" s="14">
+        <v>5.3</v>
+      </c>
+      <c r="H127" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14">
-        <v>5.3</v>
-      </c>
+      <c r="I127" s="14"/>
       <c r="J127" s="14" t="s">
         <v>222</v>
       </c>
@@ -8818,19 +8800,19 @@
         <v>320</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E128" s="14" t="s">
         <v>272</v>
       </c>
       <c r="F128" s="9"/>
-      <c r="G128" s="14" t="s">
+      <c r="G128" s="9">
+        <v>5</v>
+      </c>
+      <c r="H128" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="H128" s="14"/>
-      <c r="I128" s="9">
-        <v>5</v>
-      </c>
+      <c r="I128" s="14"/>
       <c r="J128" s="14" t="s">
         <v>221</v>
       </c>
@@ -8858,13 +8840,13 @@
         <v>276</v>
       </c>
       <c r="F129" s="30"/>
-      <c r="G129" s="29" t="s">
+      <c r="G129" s="30">
+        <v>8</v>
+      </c>
+      <c r="H129" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="H129" s="29"/>
-      <c r="I129" s="30">
-        <v>8</v>
-      </c>
+      <c r="I129" s="29"/>
       <c r="J129" s="29" t="s">
         <v>286</v>
       </c>
@@ -8890,13 +8872,13 @@
         <v>273</v>
       </c>
       <c r="F130" s="30"/>
-      <c r="G130" s="29" t="s">
+      <c r="G130" s="30">
+        <v>10</v>
+      </c>
+      <c r="H130" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="H130" s="29"/>
-      <c r="I130" s="30">
-        <v>10</v>
-      </c>
+      <c r="I130" s="29"/>
       <c r="J130" s="29" t="s">
         <v>221</v>
       </c>
@@ -8922,13 +8904,13 @@
         <v>247</v>
       </c>
       <c r="F131" s="30"/>
-      <c r="G131" s="29" t="s">
+      <c r="G131" s="30">
+        <v>4</v>
+      </c>
+      <c r="H131" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H131" s="29"/>
-      <c r="I131" s="30">
-        <v>4</v>
-      </c>
+      <c r="I131" s="29"/>
       <c r="J131" s="29" t="s">
         <v>250</v>
       </c>
@@ -8954,13 +8936,13 @@
         <v>231</v>
       </c>
       <c r="F132" s="30"/>
-      <c r="G132" s="29" t="s">
+      <c r="G132" s="30">
+        <v>15</v>
+      </c>
+      <c r="H132" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="H132" s="29"/>
-      <c r="I132" s="30">
-        <v>15</v>
-      </c>
+      <c r="I132" s="29"/>
       <c r="J132" s="29" t="s">
         <v>221</v>
       </c>
@@ -8986,13 +8968,13 @@
         <v>231</v>
       </c>
       <c r="F133" s="30"/>
-      <c r="G133" s="29" t="s">
+      <c r="G133" s="30">
+        <v>8</v>
+      </c>
+      <c r="H133" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="H133" s="29"/>
-      <c r="I133" s="30">
-        <v>8</v>
-      </c>
+      <c r="I133" s="29"/>
       <c r="J133" s="29" t="s">
         <v>286</v>
       </c>
@@ -9018,13 +9000,13 @@
         <v>216</v>
       </c>
       <c r="F134" s="9"/>
-      <c r="G134" s="14" t="s">
+      <c r="G134" s="9">
+        <v>8</v>
+      </c>
+      <c r="H134" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="H134" s="14"/>
-      <c r="I134" s="9">
-        <v>8</v>
-      </c>
+      <c r="I134" s="14"/>
       <c r="J134" s="14" t="s">
         <v>221</v>
       </c>
@@ -9050,13 +9032,13 @@
         <v>256</v>
       </c>
       <c r="F135" s="9"/>
-      <c r="G135" s="14" t="s">
+      <c r="G135" s="9">
+        <v>8</v>
+      </c>
+      <c r="H135" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="H135" s="14"/>
-      <c r="I135" s="9">
-        <v>8</v>
-      </c>
+      <c r="I135" s="14"/>
       <c r="J135" s="14" t="s">
         <v>246</v>
       </c>
@@ -9082,13 +9064,13 @@
         <v>225</v>
       </c>
       <c r="F136" s="9"/>
-      <c r="G136" s="14" t="s">
+      <c r="G136" s="9">
+        <v>10</v>
+      </c>
+      <c r="H136" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="H136" s="14"/>
-      <c r="I136" s="9">
-        <v>10</v>
-      </c>
+      <c r="I136" s="14"/>
       <c r="J136" s="14" t="s">
         <v>221</v>
       </c>
@@ -9112,13 +9094,13 @@
       </c>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
-      <c r="G137" s="14" t="s">
+      <c r="G137" s="9">
+        <v>10</v>
+      </c>
+      <c r="H137" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="H137" s="14"/>
-      <c r="I137" s="9">
-        <v>10</v>
-      </c>
+      <c r="I137" s="14"/>
       <c r="J137" s="14" t="s">
         <v>221</v>
       </c>
@@ -9142,13 +9124,13 @@
       </c>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
-      <c r="G138" s="14" t="s">
+      <c r="G138" s="9">
+        <v>8</v>
+      </c>
+      <c r="H138" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="H138" s="14"/>
-      <c r="I138" s="9">
-        <v>8</v>
-      </c>
+      <c r="I138" s="14"/>
       <c r="J138" s="14" t="s">
         <v>286</v>
       </c>
@@ -9174,13 +9156,13 @@
         <v>236</v>
       </c>
       <c r="F139" s="9"/>
-      <c r="G139" s="14" t="s">
+      <c r="G139" s="9">
+        <v>30</v>
+      </c>
+      <c r="H139" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="H139" s="14"/>
-      <c r="I139" s="9">
-        <v>30</v>
-      </c>
+      <c r="I139" s="14"/>
       <c r="J139" s="14" t="s">
         <v>221</v>
       </c>
@@ -9206,13 +9188,13 @@
         <v>296</v>
       </c>
       <c r="F140" s="17"/>
-      <c r="G140" s="25" t="s">
+      <c r="G140" s="17">
+        <v>8</v>
+      </c>
+      <c r="H140" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="H140" s="25"/>
-      <c r="I140" s="17">
-        <v>8</v>
-      </c>
+      <c r="I140" s="25"/>
       <c r="J140" s="25" t="s">
         <v>287</v>
       </c>
@@ -9238,7 +9220,7 @@
       <c r="F141" s="9">
         <v>3</v>
       </c>
-      <c r="G141" s="14" t="s">
+      <c r="H141" s="14" t="s">
         <v>511</v>
       </c>
       <c r="J141" s="9">
@@ -9265,7 +9247,7 @@
       <c r="F142" s="9">
         <v>4</v>
       </c>
-      <c r="G142" s="14" t="s">
+      <c r="H142" s="14" t="s">
         <v>511</v>
       </c>
       <c r="J142" s="9">
@@ -9292,7 +9274,7 @@
       <c r="F143" s="9">
         <v>6</v>
       </c>
-      <c r="G143" s="14" t="s">
+      <c r="H143" s="14" t="s">
         <v>511</v>
       </c>
       <c r="J143" s="9">
@@ -9319,8 +9301,8 @@
         <v>698</v>
       </c>
       <c r="F144" s="9"/>
-      <c r="H144" s="10"/>
-      <c r="I144" s="14"/>
+      <c r="G144" s="14"/>
+      <c r="I144" s="10"/>
       <c r="J144" s="9">
         <v>80</v>
       </c>
@@ -9391,10 +9373,10 @@
       <c r="F147" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="G147" s="14" t="s">
+      <c r="H147" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H147" s="11" t="s">
+      <c r="I147" s="11" t="s">
         <v>71</v>
       </c>
       <c r="J147" s="14"/>
@@ -9419,10 +9401,10 @@
         <v>488</v>
       </c>
       <c r="F148" s="14"/>
-      <c r="G148" s="14" t="s">
+      <c r="H148" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="H148" s="11" t="s">
+      <c r="I148" s="11" t="s">
         <v>487</v>
       </c>
       <c r="J148" s="14"/>
@@ -9447,10 +9429,10 @@
         <v>333</v>
       </c>
       <c r="F149" s="14"/>
-      <c r="G149" s="14" t="s">
+      <c r="H149" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="H149" s="11" t="s">
+      <c r="I149" s="11" t="s">
         <v>338</v>
       </c>
       <c r="J149" s="14"/>
@@ -9475,10 +9457,10 @@
         <v>485</v>
       </c>
       <c r="F150" s="14"/>
-      <c r="G150" s="14" t="s">
+      <c r="H150" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="H150" s="11" t="s">
+      <c r="I150" s="11" t="s">
         <v>486</v>
       </c>
       <c r="J150" s="14"/>
@@ -9504,10 +9486,10 @@
       </c>
       <c r="F151" s="14"/>
       <c r="G151" s="14"/>
-      <c r="H151" s="11" t="s">
+      <c r="H151" s="14"/>
+      <c r="I151" s="11" t="s">
         <v>715</v>
       </c>
-      <c r="I151" s="14"/>
       <c r="J151" s="14"/>
     </row>
     <row r="152" spans="1:11">
@@ -9528,10 +9510,10 @@
       </c>
       <c r="F152" s="14"/>
       <c r="G152" s="14"/>
-      <c r="H152" s="11" t="s">
+      <c r="H152" s="14"/>
+      <c r="I152" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="I152" s="14"/>
       <c r="J152" s="14"/>
     </row>
     <row r="153" spans="1:11">
@@ -9552,10 +9534,10 @@
       </c>
       <c r="F153" s="14"/>
       <c r="G153" s="14"/>
-      <c r="H153" s="11" t="s">
+      <c r="H153" s="14"/>
+      <c r="I153" s="11" t="s">
         <v>723</v>
       </c>
-      <c r="I153" s="14"/>
       <c r="J153" s="14"/>
     </row>
     <row r="154" spans="1:11">
@@ -9576,10 +9558,10 @@
       </c>
       <c r="F154" s="14"/>
       <c r="G154" s="14"/>
-      <c r="H154" s="11" t="s">
+      <c r="H154" s="14"/>
+      <c r="I154" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="I154" s="14"/>
       <c r="J154" s="14"/>
     </row>
     <row r="155" spans="1:11">
@@ -9600,10 +9582,10 @@
       </c>
       <c r="F155" s="25"/>
       <c r="G155" s="25"/>
-      <c r="H155" s="18" t="s">
+      <c r="H155" s="25"/>
+      <c r="I155" s="18" t="s">
         <v>727</v>
       </c>
-      <c r="I155" s="25"/>
       <c r="J155" s="25"/>
     </row>
     <row r="156" spans="1:11">
@@ -9611,7 +9593,7 @@
         <v>143</v>
       </c>
       <c r="B156" s="52" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C156" s="53" t="s">
         <v>754</v>
@@ -9624,8 +9606,8 @@
       </c>
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
-      <c r="H156" s="36"/>
-      <c r="I156" s="9"/>
+      <c r="H156" s="9"/>
+      <c r="I156" s="36"/>
       <c r="J156" s="9"/>
     </row>
     <row r="157" spans="1:11">
@@ -9645,13 +9627,13 @@
         <v>761</v>
       </c>
       <c r="F157" s="9"/>
-      <c r="G157" s="9" t="s">
+      <c r="G157" s="9"/>
+      <c r="H157" s="9" t="s">
         <v>762</v>
       </c>
-      <c r="H157" s="37" t="s">
+      <c r="I157" s="37" t="s">
         <v>757</v>
       </c>
-      <c r="I157" s="9"/>
       <c r="J157" s="9"/>
     </row>
     <row r="158" spans="1:11">
@@ -9671,13 +9653,13 @@
         <v>763</v>
       </c>
       <c r="F158" s="9"/>
-      <c r="G158" s="9" t="s">
+      <c r="G158" s="9"/>
+      <c r="H158" s="9" t="s">
         <v>762</v>
       </c>
-      <c r="H158" s="37" t="s">
+      <c r="I158" s="37" t="s">
         <v>765</v>
       </c>
-      <c r="I158" s="9"/>
       <c r="J158" s="9"/>
     </row>
     <row r="159" spans="1:11">
@@ -9699,11 +9681,11 @@
       <c r="F159" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="G159" s="9" t="s">
+      <c r="G159" s="9"/>
+      <c r="H159" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="H159" s="36"/>
-      <c r="I159" s="9"/>
+      <c r="I159" s="36"/>
       <c r="J159" s="9"/>
     </row>
     <row r="160" spans="1:11">
@@ -9725,11 +9707,11 @@
       <c r="F160" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="G160" s="9" t="s">
+      <c r="G160" s="9"/>
+      <c r="H160" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="H160" s="36"/>
-      <c r="I160" s="9"/>
+      <c r="I160" s="36"/>
       <c r="J160" s="9"/>
     </row>
     <row r="161" spans="1:11">
@@ -9748,8 +9730,8 @@
       </c>
       <c r="F161" s="14"/>
       <c r="G161" s="14"/>
-      <c r="H161" s="11"/>
-      <c r="I161" s="14"/>
+      <c r="H161" s="14"/>
+      <c r="I161" s="11"/>
       <c r="J161" s="14"/>
     </row>
     <row r="162" spans="1:11">
@@ -9768,8 +9750,8 @@
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
-      <c r="H162" s="11"/>
-      <c r="I162" s="14"/>
+      <c r="H162" s="14"/>
+      <c r="I162" s="11"/>
       <c r="J162" s="14"/>
     </row>
     <row r="163" spans="1:11">
@@ -9788,8 +9770,8 @@
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
-      <c r="H163" s="11"/>
-      <c r="I163" s="14"/>
+      <c r="H163" s="14"/>
+      <c r="I163" s="11"/>
       <c r="J163" s="14"/>
     </row>
     <row r="164" spans="1:11">
@@ -9808,8 +9790,8 @@
       </c>
       <c r="F164" s="14"/>
       <c r="G164" s="14"/>
-      <c r="H164" s="11"/>
-      <c r="I164" s="14"/>
+      <c r="H164" s="14"/>
+      <c r="I164" s="11"/>
       <c r="J164" s="14"/>
     </row>
     <row r="165" spans="1:11">
@@ -9828,8 +9810,8 @@
       </c>
       <c r="F165" s="14"/>
       <c r="G165" s="14"/>
-      <c r="H165" s="11"/>
-      <c r="I165" s="14"/>
+      <c r="H165" s="14"/>
+      <c r="I165" s="11"/>
       <c r="J165" s="14"/>
     </row>
     <row r="166" spans="1:11">
@@ -9848,8 +9830,8 @@
       </c>
       <c r="F166" s="14"/>
       <c r="G166" s="14"/>
-      <c r="H166" s="11"/>
-      <c r="I166" s="14"/>
+      <c r="H166" s="14"/>
+      <c r="I166" s="11"/>
       <c r="J166" s="14"/>
     </row>
     <row r="167" spans="1:11">
@@ -9868,8 +9850,8 @@
       </c>
       <c r="F167" s="14"/>
       <c r="G167" s="14"/>
-      <c r="H167" s="11"/>
-      <c r="I167" s="14"/>
+      <c r="H167" s="14"/>
+      <c r="I167" s="11"/>
       <c r="J167" s="14"/>
     </row>
     <row r="168" spans="1:11">
@@ -9889,14 +9871,14 @@
         <v>672</v>
       </c>
       <c r="F168" s="9"/>
-      <c r="G168" s="9" t="s">
+      <c r="G168" s="9">
+        <v>50</v>
+      </c>
+      <c r="H168" s="9" t="s">
         <v>898</v>
       </c>
-      <c r="H168" s="58" t="s">
+      <c r="I168" s="58" t="s">
         <v>681</v>
-      </c>
-      <c r="I168" s="9">
-        <v>50</v>
       </c>
       <c r="J168" s="9"/>
       <c r="K168" s="66">
@@ -9920,14 +9902,14 @@
         <v>863</v>
       </c>
       <c r="F169" s="14"/>
-      <c r="G169" s="14" t="s">
+      <c r="G169" s="14">
+        <v>30</v>
+      </c>
+      <c r="H169" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H169" s="55" t="s">
+      <c r="I169" s="55" t="s">
         <v>864</v>
-      </c>
-      <c r="I169" s="14">
-        <v>30</v>
       </c>
       <c r="J169" s="14"/>
       <c r="K169" s="66">
@@ -9951,14 +9933,14 @@
         <v>881</v>
       </c>
       <c r="F170" s="14"/>
-      <c r="G170" s="14" t="s">
+      <c r="G170" s="14">
+        <v>50</v>
+      </c>
+      <c r="H170" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H170" s="55" t="s">
+      <c r="I170" s="55" t="s">
         <v>882</v>
-      </c>
-      <c r="I170" s="14">
-        <v>50</v>
       </c>
       <c r="J170" s="14"/>
       <c r="K170" s="66">
@@ -9982,13 +9964,13 @@
         <v>588</v>
       </c>
       <c r="F171" s="63"/>
-      <c r="G171" s="63" t="s">
+      <c r="G171" s="63">
+        <v>50</v>
+      </c>
+      <c r="H171" s="63" t="s">
         <v>482</v>
       </c>
-      <c r="H171" s="64"/>
-      <c r="I171" s="63">
-        <v>50</v>
-      </c>
+      <c r="I171" s="64"/>
       <c r="J171" s="63"/>
       <c r="K171" s="66">
         <v>42984</v>
@@ -9999,7 +9981,7 @@
         <v>159</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>900</v>
+        <v>961</v>
       </c>
       <c r="C172" s="59" t="s">
         <v>202</v>
@@ -10011,13 +9993,13 @@
         <v>608</v>
       </c>
       <c r="F172" s="14"/>
-      <c r="G172" s="14" t="s">
+      <c r="G172" s="14">
+        <v>30</v>
+      </c>
+      <c r="H172" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H172" s="55"/>
-      <c r="I172" s="14">
-        <v>30</v>
-      </c>
+      <c r="I172" s="55"/>
       <c r="J172" s="14"/>
       <c r="K172" s="66">
         <v>42984</v>
@@ -10028,23 +10010,23 @@
         <v>160</v>
       </c>
       <c r="B173" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="D173" s="14" t="s">
         <v>907</v>
       </c>
-      <c r="C173" s="13" t="s">
-        <v>906</v>
-      </c>
-      <c r="D173" s="14" t="s">
+      <c r="E173" s="14" t="s">
         <v>908</v>
       </c>
-      <c r="E173" s="14" t="s">
-        <v>909</v>
-      </c>
       <c r="F173" s="14"/>
-      <c r="G173" s="14" t="s">
+      <c r="G173" s="14"/>
+      <c r="H173" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H173" s="11"/>
-      <c r="I173" s="14"/>
+      <c r="I173" s="11"/>
       <c r="J173" s="14"/>
     </row>
     <row r="174" spans="1:11">
@@ -10052,21 +10034,21 @@
         <v>161</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C174" s="13"/>
       <c r="D174" s="14" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E174" s="14" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F174" s="14"/>
-      <c r="G174" s="14" t="s">
+      <c r="G174" s="14"/>
+      <c r="H174" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="H174" s="11"/>
-      <c r="I174" s="14"/>
+      <c r="I174" s="11"/>
       <c r="J174" s="14"/>
     </row>
     <row r="175" spans="1:11">
@@ -10074,17 +10056,17 @@
         <v>162</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C175" s="13"/>
       <c r="D175" s="14"/>
       <c r="E175" s="14" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F175" s="14"/>
       <c r="G175" s="14"/>
-      <c r="H175" s="11"/>
-      <c r="I175" s="14"/>
+      <c r="H175" s="14"/>
+      <c r="I175" s="11"/>
       <c r="J175" s="14"/>
     </row>
     <row r="176" spans="1:11">
@@ -10092,21 +10074,21 @@
         <v>163</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C176" s="13"/>
       <c r="D176" s="14" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E176" s="14" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F176" s="14"/>
       <c r="G176" s="14"/>
-      <c r="H176" s="37" t="s">
-        <v>913</v>
-      </c>
-      <c r="I176" s="14"/>
+      <c r="H176" s="14"/>
+      <c r="I176" s="37" t="s">
+        <v>912</v>
+      </c>
       <c r="J176" s="14"/>
     </row>
     <row r="177" spans="1:10">
@@ -10114,19 +10096,19 @@
         <v>164</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C177" s="13"/>
       <c r="D177" s="14" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E177" s="14" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="14"/>
-      <c r="H177" s="11"/>
-      <c r="I177" s="14"/>
+      <c r="H177" s="14"/>
+      <c r="I177" s="11"/>
       <c r="J177" s="14"/>
     </row>
     <row r="178" spans="1:10">
@@ -10139,99 +10121,307 @@
       <c r="C178" s="15"/>
       <c r="D178" s="9"/>
       <c r="E178" s="9" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
-      <c r="H178" s="69"/>
-      <c r="I178" s="9"/>
+      <c r="H178" s="9"/>
+      <c r="I178" s="69"/>
       <c r="J178" s="9"/>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179">
+        <v>166</v>
+      </c>
+      <c r="B179" t="s">
+        <v>960</v>
+      </c>
+      <c r="C179" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="D179" s="57" t="s">
+        <v>514</v>
+      </c>
+      <c r="E179" s="57" t="s">
+        <v>585</v>
+      </c>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9">
+        <v>100</v>
+      </c>
+      <c r="H179" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="I179" s="69"/>
+      <c r="J179" s="9"/>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180">
+        <v>167</v>
+      </c>
+      <c r="B180" t="s">
+        <v>960</v>
+      </c>
+      <c r="C180" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="D180" s="60" t="s">
+        <v>675</v>
+      </c>
+      <c r="E180" s="60" t="s">
+        <v>676</v>
+      </c>
+      <c r="F180" s="14"/>
+      <c r="G180" s="14">
+        <v>50</v>
+      </c>
+      <c r="H180" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="I180" s="11"/>
+      <c r="J180" s="14"/>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181">
+        <v>168</v>
+      </c>
+      <c r="B181" t="s">
+        <v>960</v>
+      </c>
+      <c r="C181" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="D181" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="E181" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="F181" s="63"/>
+      <c r="G181" s="63">
+        <v>50</v>
+      </c>
+      <c r="H181" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="I181" s="70"/>
+      <c r="J181" s="63"/>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182">
+        <v>169</v>
+      </c>
+      <c r="B182" t="s">
+        <v>960</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="F182" s="14"/>
+      <c r="G182">
+        <v>30</v>
+      </c>
+      <c r="H182" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="I182" s="11"/>
+      <c r="J182" s="14"/>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183">
+        <v>170</v>
+      </c>
+      <c r="B183" t="s">
+        <v>960</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="F183" s="14"/>
+      <c r="G183">
+        <v>30</v>
+      </c>
+      <c r="H183" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="I183" s="11"/>
+      <c r="J183" s="14"/>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184">
+        <v>171</v>
+      </c>
+      <c r="B184" t="s">
+        <v>960</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="F184" s="14"/>
+      <c r="G184">
+        <v>30</v>
+      </c>
+      <c r="H184" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="I184" s="11"/>
+      <c r="J184" s="14"/>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185">
+        <v>172</v>
+      </c>
+      <c r="B185" t="s">
+        <v>960</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="F185" s="14"/>
+      <c r="G185">
+        <v>30</v>
+      </c>
+      <c r="H185" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="I185" s="11"/>
+      <c r="J185" s="14"/>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186">
+        <v>173</v>
+      </c>
+      <c r="B186" t="s">
+        <v>960</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="F186" s="14"/>
+      <c r="G186">
+        <v>30</v>
+      </c>
+      <c r="H186" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="I186" s="11"/>
+      <c r="J186" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H40" r:id="rId1"/>
-    <hyperlink ref="H23" r:id="rId2"/>
-    <hyperlink ref="H78" r:id="rId3"/>
-    <hyperlink ref="H65" r:id="rId4"/>
-    <hyperlink ref="H16" r:id="rId5"/>
-    <hyperlink ref="H86" r:id="rId6"/>
-    <hyperlink ref="H45" r:id="rId7"/>
-    <hyperlink ref="H49" r:id="rId8"/>
-    <hyperlink ref="H32" r:id="rId9"/>
-    <hyperlink ref="H43" r:id="rId10"/>
-    <hyperlink ref="H6" r:id="rId11"/>
-    <hyperlink ref="H5" r:id="rId12"/>
-    <hyperlink ref="H10" r:id="rId13"/>
-    <hyperlink ref="H8" r:id="rId14"/>
-    <hyperlink ref="H7" r:id="rId15"/>
-    <hyperlink ref="H9" r:id="rId16"/>
-    <hyperlink ref="H83" r:id="rId17"/>
-    <hyperlink ref="H28" r:id="rId18"/>
-    <hyperlink ref="H64" r:id="rId19"/>
-    <hyperlink ref="H39" r:id="rId20"/>
-    <hyperlink ref="H56" r:id="rId21"/>
-    <hyperlink ref="H87" r:id="rId22"/>
-    <hyperlink ref="H2" r:id="rId23"/>
-    <hyperlink ref="H54" r:id="rId24"/>
-    <hyperlink ref="H70" r:id="rId25"/>
-    <hyperlink ref="H79" r:id="rId26"/>
-    <hyperlink ref="H27" r:id="rId27"/>
-    <hyperlink ref="H17" r:id="rId28"/>
-    <hyperlink ref="H46" r:id="rId29"/>
-    <hyperlink ref="H75" r:id="rId30"/>
-    <hyperlink ref="H50" r:id="rId31"/>
-    <hyperlink ref="H76" r:id="rId32"/>
-    <hyperlink ref="H61" r:id="rId33"/>
-    <hyperlink ref="H92" r:id="rId34"/>
-    <hyperlink ref="H74" r:id="rId35"/>
-    <hyperlink ref="H31" r:id="rId36"/>
-    <hyperlink ref="H60" r:id="rId37"/>
-    <hyperlink ref="H51" r:id="rId38"/>
-    <hyperlink ref="H63" r:id="rId39"/>
-    <hyperlink ref="H88" r:id="rId40"/>
-    <hyperlink ref="H93" r:id="rId41"/>
-    <hyperlink ref="H42" r:id="rId42"/>
-    <hyperlink ref="H72" r:id="rId43"/>
-    <hyperlink ref="H15" r:id="rId44"/>
-    <hyperlink ref="H20" r:id="rId45"/>
-    <hyperlink ref="H4" r:id="rId46"/>
-    <hyperlink ref="H13" r:id="rId47"/>
-    <hyperlink ref="H77" r:id="rId48"/>
-    <hyperlink ref="H91" r:id="rId49"/>
-    <hyperlink ref="H94" r:id="rId50"/>
-    <hyperlink ref="H14" r:id="rId51"/>
-    <hyperlink ref="H48" r:id="rId52"/>
-    <hyperlink ref="H69" r:id="rId53"/>
-    <hyperlink ref="H18" r:id="rId54"/>
-    <hyperlink ref="H47" r:id="rId55"/>
-    <hyperlink ref="H34" r:id="rId56"/>
-    <hyperlink ref="H24" r:id="rId57"/>
-    <hyperlink ref="H38" r:id="rId58"/>
-    <hyperlink ref="H33" r:id="rId59"/>
-    <hyperlink ref="H80" r:id="rId60"/>
-    <hyperlink ref="H85" r:id="rId61"/>
-    <hyperlink ref="H84" r:id="rId62"/>
-    <hyperlink ref="H3" r:id="rId63"/>
-    <hyperlink ref="H21" r:id="rId64"/>
-    <hyperlink ref="H67" r:id="rId65"/>
-    <hyperlink ref="H96" r:id="rId66"/>
-    <hyperlink ref="H97" r:id="rId67"/>
-    <hyperlink ref="H147" r:id="rId68"/>
-    <hyperlink ref="H149" r:id="rId69"/>
-    <hyperlink ref="H150" r:id="rId70"/>
-    <hyperlink ref="H148" r:id="rId71"/>
-    <hyperlink ref="H151" r:id="rId72"/>
-    <hyperlink ref="H152" r:id="rId73"/>
-    <hyperlink ref="H153" r:id="rId74"/>
-    <hyperlink ref="H154" r:id="rId75"/>
-    <hyperlink ref="H155" r:id="rId76"/>
-    <hyperlink ref="H157" r:id="rId77"/>
-    <hyperlink ref="H158" r:id="rId78"/>
-    <hyperlink ref="H168" r:id="rId79"/>
-    <hyperlink ref="H169" r:id="rId80"/>
-    <hyperlink ref="H170" r:id="rId81"/>
-    <hyperlink ref="H176" r:id="rId82"/>
+    <hyperlink ref="I40" r:id="rId1"/>
+    <hyperlink ref="I23" r:id="rId2"/>
+    <hyperlink ref="I78" r:id="rId3"/>
+    <hyperlink ref="I65" r:id="rId4"/>
+    <hyperlink ref="I16" r:id="rId5"/>
+    <hyperlink ref="I86" r:id="rId6"/>
+    <hyperlink ref="I45" r:id="rId7"/>
+    <hyperlink ref="I49" r:id="rId8"/>
+    <hyperlink ref="I32" r:id="rId9"/>
+    <hyperlink ref="I43" r:id="rId10"/>
+    <hyperlink ref="I6" r:id="rId11"/>
+    <hyperlink ref="I5" r:id="rId12"/>
+    <hyperlink ref="I10" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="I7" r:id="rId15"/>
+    <hyperlink ref="I9" r:id="rId16"/>
+    <hyperlink ref="I83" r:id="rId17"/>
+    <hyperlink ref="I28" r:id="rId18"/>
+    <hyperlink ref="I64" r:id="rId19"/>
+    <hyperlink ref="I39" r:id="rId20"/>
+    <hyperlink ref="I56" r:id="rId21"/>
+    <hyperlink ref="I87" r:id="rId22"/>
+    <hyperlink ref="I2" r:id="rId23"/>
+    <hyperlink ref="I54" r:id="rId24"/>
+    <hyperlink ref="I70" r:id="rId25"/>
+    <hyperlink ref="I79" r:id="rId26"/>
+    <hyperlink ref="I27" r:id="rId27"/>
+    <hyperlink ref="I17" r:id="rId28"/>
+    <hyperlink ref="I46" r:id="rId29"/>
+    <hyperlink ref="I75" r:id="rId30"/>
+    <hyperlink ref="I50" r:id="rId31"/>
+    <hyperlink ref="I76" r:id="rId32"/>
+    <hyperlink ref="I61" r:id="rId33"/>
+    <hyperlink ref="I92" r:id="rId34"/>
+    <hyperlink ref="I74" r:id="rId35"/>
+    <hyperlink ref="I31" r:id="rId36"/>
+    <hyperlink ref="I60" r:id="rId37"/>
+    <hyperlink ref="I51" r:id="rId38"/>
+    <hyperlink ref="I63" r:id="rId39"/>
+    <hyperlink ref="I88" r:id="rId40"/>
+    <hyperlink ref="I93" r:id="rId41"/>
+    <hyperlink ref="I42" r:id="rId42"/>
+    <hyperlink ref="I72" r:id="rId43"/>
+    <hyperlink ref="I15" r:id="rId44"/>
+    <hyperlink ref="I20" r:id="rId45"/>
+    <hyperlink ref="I4" r:id="rId46"/>
+    <hyperlink ref="I13" r:id="rId47"/>
+    <hyperlink ref="I77" r:id="rId48"/>
+    <hyperlink ref="I91" r:id="rId49"/>
+    <hyperlink ref="I94" r:id="rId50"/>
+    <hyperlink ref="I14" r:id="rId51"/>
+    <hyperlink ref="I48" r:id="rId52"/>
+    <hyperlink ref="I69" r:id="rId53"/>
+    <hyperlink ref="I18" r:id="rId54"/>
+    <hyperlink ref="I47" r:id="rId55"/>
+    <hyperlink ref="I34" r:id="rId56"/>
+    <hyperlink ref="I24" r:id="rId57"/>
+    <hyperlink ref="I38" r:id="rId58"/>
+    <hyperlink ref="I33" r:id="rId59"/>
+    <hyperlink ref="I80" r:id="rId60"/>
+    <hyperlink ref="I85" r:id="rId61"/>
+    <hyperlink ref="I84" r:id="rId62"/>
+    <hyperlink ref="I3" r:id="rId63"/>
+    <hyperlink ref="I21" r:id="rId64"/>
+    <hyperlink ref="I67" r:id="rId65"/>
+    <hyperlink ref="I96" r:id="rId66"/>
+    <hyperlink ref="I97" r:id="rId67"/>
+    <hyperlink ref="I147" r:id="rId68"/>
+    <hyperlink ref="I149" r:id="rId69"/>
+    <hyperlink ref="I150" r:id="rId70"/>
+    <hyperlink ref="I148" r:id="rId71"/>
+    <hyperlink ref="I151" r:id="rId72"/>
+    <hyperlink ref="I152" r:id="rId73"/>
+    <hyperlink ref="I153" r:id="rId74"/>
+    <hyperlink ref="I154" r:id="rId75"/>
+    <hyperlink ref="I155" r:id="rId76"/>
+    <hyperlink ref="I157" r:id="rId77"/>
+    <hyperlink ref="I158" r:id="rId78"/>
+    <hyperlink ref="I168" r:id="rId79"/>
+    <hyperlink ref="I169" r:id="rId80"/>
+    <hyperlink ref="I170" r:id="rId81"/>
+    <hyperlink ref="I176" r:id="rId82"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId83"/>
@@ -10245,8 +10435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E378"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F162" sqref="A1:F162"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134:C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10263,7 +10453,7 @@
         <v>767</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>736</v>
@@ -10272,7 +10462,7 @@
         <v>645</v>
       </c>
       <c r="E1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10322,7 +10512,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10336,7 +10526,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10350,7 +10540,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10364,7 +10554,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -10378,7 +10568,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10392,7 +10582,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -10470,7 +10660,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10546,7 +10736,7 @@
         <v>643</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -10560,7 +10750,7 @@
         <v>28</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -10626,7 +10816,7 @@
         <v>74</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -10680,7 +10870,7 @@
         <v>32</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -10718,7 +10908,7 @@
         <v>646</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -10770,7 +10960,7 @@
         <v>79</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -10784,7 +10974,7 @@
         <v>37</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -10824,7 +11014,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -10852,7 +11042,7 @@
         <v>47</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -10902,7 +11092,7 @@
         <v>52</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -10940,7 +11130,7 @@
         <v>654</v>
       </c>
       <c r="D52" s="44" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -10994,7 +11184,7 @@
         <v>84</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -11098,7 +11288,7 @@
         <v>89</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -11112,7 +11302,7 @@
         <v>57</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -11126,7 +11316,7 @@
         <v>648</v>
       </c>
       <c r="D66" s="44" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -11216,7 +11406,7 @@
         <v>653</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -11278,7 +11468,7 @@
         <v>61</v>
       </c>
       <c r="D78" s="48" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -11318,7 +11508,7 @@
         <v>650</v>
       </c>
       <c r="D81" s="44" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -11332,7 +11522,7 @@
         <v>94</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -11370,7 +11560,7 @@
         <v>64</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -11384,7 +11574,7 @@
         <v>98</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -11486,7 +11676,7 @@
         <v>67</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -11500,7 +11690,7 @@
         <v>695</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -11597,10 +11787,10 @@
         <v>711</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -11743,7 +11933,7 @@
         <v>768</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D115" s="14" t="s">
         <v>776</v>
@@ -11757,7 +11947,7 @@
         <v>769</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D116" s="14" t="s">
         <v>777</v>
@@ -11912,10 +12102,10 @@
         <v>160</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D129" s="14"/>
     </row>
@@ -11925,7 +12115,7 @@
       </c>
       <c r="B130" s="13"/>
       <c r="C130" s="14" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D130" s="14"/>
     </row>
@@ -11935,7 +12125,7 @@
       </c>
       <c r="B131" s="13"/>
       <c r="C131" s="14" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D131" s="14"/>
     </row>
@@ -11945,7 +12135,7 @@
       </c>
       <c r="B132" s="13"/>
       <c r="C132" s="14" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D132" s="14"/>
     </row>
@@ -11955,53 +12145,114 @@
       </c>
       <c r="B133" s="13"/>
       <c r="C133" s="14" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D133" s="14"/>
     </row>
     <row r="134" spans="1:4">
+      <c r="A134">
+        <v>165</v>
+      </c>
       <c r="B134" s="15"/>
-      <c r="C134" s="9"/>
+      <c r="C134" s="9" t="s">
+        <v>954</v>
+      </c>
       <c r="D134" s="9"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="B135" s="67"/>
-      <c r="C135" s="68"/>
+      <c r="A135">
+        <v>166</v>
+      </c>
+      <c r="B135" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="C135" s="57" t="s">
+        <v>585</v>
+      </c>
       <c r="D135" s="68"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="B136" s="67"/>
-      <c r="C136" s="68"/>
+      <c r="A136">
+        <v>167</v>
+      </c>
+      <c r="B136" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C136" s="60" t="s">
+        <v>676</v>
+      </c>
       <c r="D136" s="68"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="B137" s="67"/>
-      <c r="C137" s="68"/>
+      <c r="A137">
+        <v>168</v>
+      </c>
+      <c r="B137" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="C137" s="62" t="s">
+        <v>683</v>
+      </c>
       <c r="D137" s="68"/>
     </row>
     <row r="138" spans="1:4">
-      <c r="B138" s="67"/>
-      <c r="C138" s="68"/>
+      <c r="A138">
+        <v>169</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>701</v>
+      </c>
       <c r="D138" s="68"/>
     </row>
     <row r="139" spans="1:4">
-      <c r="B139" s="67"/>
-      <c r="C139" s="68"/>
+      <c r="A139">
+        <v>170</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>825</v>
+      </c>
       <c r="D139" s="68"/>
     </row>
     <row r="140" spans="1:4">
-      <c r="B140" s="67"/>
-      <c r="C140" s="68"/>
+      <c r="A140">
+        <v>171</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>859</v>
+      </c>
       <c r="D140" s="68"/>
     </row>
     <row r="141" spans="1:4">
-      <c r="B141" s="67"/>
-      <c r="C141" s="68"/>
+      <c r="A141">
+        <v>172</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>869</v>
+      </c>
       <c r="D141" s="68"/>
     </row>
     <row r="142" spans="1:4">
-      <c r="B142" s="67"/>
-      <c r="C142" s="68"/>
+      <c r="A142">
+        <v>173</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>871</v>
+      </c>
       <c r="D142" s="68"/>
     </row>
     <row r="143" spans="1:4">
@@ -13198,8 +13449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C123" sqref="A3:C123"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13209,8 +13460,8 @@
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="47.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.75" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
@@ -13280,7 +13531,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" hidden="1">
       <c r="A4" s="4" t="s">
         <v>105</v>
       </c>
@@ -13295,7 +13546,9 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
@@ -13975,7 +14228,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" hidden="1">
       <c r="A41" s="4" t="s">
         <v>138</v>
       </c>
@@ -13988,11 +14241,13 @@
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="5"/>
+      <c r="G41" s="5">
+        <v>1</v>
+      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" ht="12.75" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>139</v>
       </c>
@@ -14011,7 +14266,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" hidden="1">
       <c r="A43" s="4" t="s">
         <v>140</v>
       </c>
@@ -14026,7 +14281,9 @@
       <c r="F43" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="G43" s="5"/>
+      <c r="G43" s="5">
+        <v>1</v>
+      </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
@@ -14047,7 +14304,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" hidden="1">
       <c r="A45" s="4" t="s">
         <v>141</v>
       </c>
@@ -14062,7 +14319,9 @@
       <c r="F45" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="G45" s="5"/>
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
@@ -14404,7 +14663,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" hidden="1">
       <c r="A64" s="4" t="s">
         <v>155</v>
       </c>
@@ -14419,7 +14678,9 @@
       <c r="F64" s="7" t="s">
         <v>824</v>
       </c>
-      <c r="G64" s="5"/>
+      <c r="G64" s="5">
+        <v>1</v>
+      </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
@@ -14775,7 +15036,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" hidden="1">
       <c r="A83" s="4" t="s">
         <v>172</v>
       </c>
@@ -14790,7 +15051,9 @@
       <c r="F83" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="G83" s="5"/>
+      <c r="G83" s="5">
+        <v>1</v>
+      </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
@@ -14893,7 +15156,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" hidden="1">
       <c r="A89" s="4" t="s">
         <v>178</v>
       </c>
@@ -14908,7 +15171,9 @@
       <c r="F89" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="G89" s="5"/>
+      <c r="G89" s="5">
+        <v>1</v>
+      </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
@@ -14986,7 +15251,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" hidden="1">
       <c r="A94" s="4" t="s">
         <v>181</v>
       </c>
@@ -15001,7 +15266,9 @@
       <c r="F94" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="G94" s="5"/>
+      <c r="G94" s="5">
+        <v>1</v>
+      </c>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>

--- a/统计清单/2017国内编号清单.xlsx
+++ b/统计清单/2017国内编号清单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fall\统计清单\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\fall\统计清单\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3936,197 +3936,6 @@
   <dxfs count="18">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -4324,6 +4133,197 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4343,14 +4343,14 @@
   <tableColumns count="12">
     <tableColumn id="1" name="145"/>
     <tableColumn id="2" name="属"/>
-    <tableColumn id="3" name="属内编号" dataDxfId="6"/>
-    <tableColumn id="4" name="拉丁名" dataDxfId="5"/>
-    <tableColumn id="5" name="中文" dataDxfId="4"/>
-    <tableColumn id="7" name="来源编号" dataDxfId="3"/>
+    <tableColumn id="3" name="属内编号" dataDxfId="17"/>
+    <tableColumn id="4" name="拉丁名" dataDxfId="16"/>
+    <tableColumn id="5" name="中文" dataDxfId="15"/>
+    <tableColumn id="7" name="来源编号" dataDxfId="14"/>
     <tableColumn id="12" name="引进价格"/>
-    <tableColumn id="6" name="来源" dataDxfId="2"/>
-    <tableColumn id="8" name="参考链接" dataDxfId="1" dataCellStyle="超链接"/>
-    <tableColumn id="10" name="引进尺寸2" dataDxfId="0"/>
+    <tableColumn id="6" name="来源" dataDxfId="13"/>
+    <tableColumn id="8" name="参考链接" dataDxfId="12" dataCellStyle="超链接"/>
+    <tableColumn id="10" name="引进尺寸2" dataDxfId="11"/>
     <tableColumn id="11" name="引进日期"/>
     <tableColumn id="13" name="备注"/>
   </tableColumns>
@@ -4363,9 +4363,9 @@
   <autoFilter ref="A1:E162"/>
   <tableColumns count="5">
     <tableColumn id="1" name="145"/>
-    <tableColumn id="3" name="编号" dataDxfId="17"/>
-    <tableColumn id="5" name="中文" dataDxfId="16"/>
-    <tableColumn id="7" name="来源编号" dataDxfId="15"/>
+    <tableColumn id="3" name="编号" dataDxfId="10"/>
+    <tableColumn id="5" name="中文" dataDxfId="9"/>
+    <tableColumn id="7" name="来源编号" dataDxfId="8"/>
     <tableColumn id="2" name="数量"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4373,20 +4373,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G129" totalsRowShown="0" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G129" totalsRowShown="0" dataDxfId="7">
   <autoFilter ref="A1:G129">
     <filterColumn colId="6">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="本地编号" dataDxfId="13"/>
-    <tableColumn id="2" name="编号" dataDxfId="12"/>
-    <tableColumn id="5" name="中文名" dataDxfId="11"/>
-    <tableColumn id="6" name="购买目标" dataDxfId="10"/>
-    <tableColumn id="7" name="来源编号" dataDxfId="9"/>
-    <tableColumn id="4" name="链接" dataDxfId="8"/>
-    <tableColumn id="3" name="购买数量" dataDxfId="7"/>
+    <tableColumn id="1" name="本地编号" dataDxfId="6"/>
+    <tableColumn id="2" name="编号" dataDxfId="5"/>
+    <tableColumn id="5" name="中文名" dataDxfId="4"/>
+    <tableColumn id="6" name="购买目标" dataDxfId="3"/>
+    <tableColumn id="7" name="来源编号" dataDxfId="2"/>
+    <tableColumn id="4" name="链接" dataDxfId="1"/>
+    <tableColumn id="3" name="购买数量" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4681,7 +4681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C172" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
       <selection activeCell="H179" sqref="H179:H186"/>
     </sheetView>
   </sheetViews>
@@ -13937,7 +13937,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" hidden="1">
+    <row r="26" spans="1:10" ht="27" hidden="1">
       <c r="A26" s="4" t="s">
         <v>125</v>
       </c>
@@ -14266,7 +14266,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" hidden="1">
+    <row r="43" spans="1:10" ht="27" hidden="1">
       <c r="A43" s="4" t="s">
         <v>140</v>
       </c>
@@ -14304,7 +14304,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" hidden="1">
+    <row r="45" spans="1:10" ht="27" hidden="1">
       <c r="A45" s="4" t="s">
         <v>141</v>
       </c>
@@ -14490,7 +14490,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" ht="27">
       <c r="A55" s="4" t="s">
         <v>148</v>
       </c>
@@ -14526,7 +14526,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" ht="27">
       <c r="A57" s="4" t="s">
         <v>149</v>
       </c>
@@ -14545,7 +14545,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" ht="27">
       <c r="A58" s="4" t="s">
         <v>150</v>
       </c>
@@ -14621,7 +14621,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" ht="27">
       <c r="A62" s="4" t="s">
         <v>153</v>
       </c>
@@ -14663,7 +14663,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" hidden="1">
+    <row r="64" spans="1:10" ht="27" hidden="1">
       <c r="A64" s="4" t="s">
         <v>155</v>
       </c>
@@ -14684,7 +14684,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" ht="27">
       <c r="A65" s="4" t="s">
         <v>156</v>
       </c>
@@ -14720,7 +14720,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" ht="27">
       <c r="A67" s="4" t="s">
         <v>157</v>
       </c>
@@ -14779,7 +14779,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" ht="27">
       <c r="A70" s="4" t="s">
         <v>159</v>
       </c>
@@ -14844,7 +14844,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" ht="27">
       <c r="A73" s="4" t="s">
         <v>162</v>
       </c>
@@ -14865,7 +14865,7 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" ht="27">
       <c r="A74" s="4" t="s">
         <v>163</v>
       </c>
@@ -14884,7 +14884,7 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" ht="27">
       <c r="A75" s="4" t="s">
         <v>164</v>
       </c>
@@ -14903,7 +14903,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" ht="27">
       <c r="A76" s="4" t="s">
         <v>165</v>
       </c>
@@ -14922,7 +14922,7 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" ht="27">
       <c r="A77" s="4" t="s">
         <v>166</v>
       </c>
@@ -14941,7 +14941,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" ht="27">
       <c r="A78" s="4" t="s">
         <v>167</v>
       </c>
@@ -14977,7 +14977,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" ht="27">
       <c r="A80" s="4" t="s">
         <v>169</v>
       </c>
@@ -14996,7 +14996,7 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" ht="27">
       <c r="A81" s="4" t="s">
         <v>170</v>
       </c>
@@ -15036,7 +15036,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10" hidden="1">
+    <row r="83" spans="1:10" ht="27" hidden="1">
       <c r="A83" s="4" t="s">
         <v>172</v>
       </c>
@@ -15097,7 +15097,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" hidden="1">
+    <row r="86" spans="1:10" ht="27" hidden="1">
       <c r="A86" s="4" t="s">
         <v>175</v>
       </c>
@@ -15137,7 +15137,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" ht="27">
       <c r="A88" s="4" t="s">
         <v>177</v>
       </c>
@@ -15156,7 +15156,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10" hidden="1">
+    <row r="89" spans="1:10" ht="27" hidden="1">
       <c r="A89" s="4" t="s">
         <v>178</v>
       </c>
@@ -15251,7 +15251,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" hidden="1">
+    <row r="94" spans="1:10" ht="27" hidden="1">
       <c r="A94" s="4" t="s">
         <v>181</v>
       </c>
@@ -15272,7 +15272,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" ht="27">
       <c r="A95" s="4" t="s">
         <v>182</v>
       </c>
@@ -15348,7 +15348,7 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" ht="27">
       <c r="A99" s="4" t="s">
         <v>185</v>
       </c>
@@ -15451,7 +15451,7 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" ht="27">
       <c r="A104" s="4" t="s">
         <v>190</v>
       </c>
@@ -15578,7 +15578,7 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" ht="27">
       <c r="A111" s="4" t="s">
         <v>196</v>
       </c>
@@ -15785,7 +15785,7 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" ht="27">
       <c r="A122" s="4" t="s">
         <v>204</v>
       </c>
@@ -15804,7 +15804,7 @@
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" ht="27">
       <c r="A123" s="4" t="s">
         <v>205</v>
       </c>

--- a/统计清单/2017国内编号清单.xlsx
+++ b/统计清单/2017国内编号清单.xlsx
@@ -2712,10 +2712,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Trichocereus Indio Magic MEX33</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Hildewintera Humkes Röschen</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2809,10 +2805,6 @@
   </si>
   <si>
     <t>黄金荷花 火焰花色</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lobivia bit</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -3582,6 +3574,14 @@
   </si>
   <si>
     <t>Echinopsis</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lobivia bit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trichocereus Indio Magic MEX33</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3936,197 +3936,6 @@
   <dxfs count="18">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -4324,6 +4133,197 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4343,14 +4343,14 @@
   <tableColumns count="12">
     <tableColumn id="1" name="145"/>
     <tableColumn id="2" name="属"/>
-    <tableColumn id="3" name="属内编号" dataDxfId="6"/>
-    <tableColumn id="4" name="拉丁名" dataDxfId="5"/>
-    <tableColumn id="5" name="中文" dataDxfId="4"/>
-    <tableColumn id="7" name="来源编号" dataDxfId="3"/>
+    <tableColumn id="3" name="属内编号" dataDxfId="17"/>
+    <tableColumn id="4" name="拉丁名" dataDxfId="16"/>
+    <tableColumn id="5" name="中文" dataDxfId="15"/>
+    <tableColumn id="7" name="来源编号" dataDxfId="14"/>
     <tableColumn id="12" name="引进价格"/>
-    <tableColumn id="6" name="来源" dataDxfId="2"/>
-    <tableColumn id="8" name="参考链接" dataDxfId="1" dataCellStyle="超链接"/>
-    <tableColumn id="10" name="引进尺寸2" dataDxfId="0"/>
+    <tableColumn id="6" name="来源" dataDxfId="13"/>
+    <tableColumn id="8" name="参考链接" dataDxfId="12" dataCellStyle="超链接"/>
+    <tableColumn id="10" name="引进尺寸2" dataDxfId="11"/>
     <tableColumn id="11" name="引进日期"/>
     <tableColumn id="13" name="备注"/>
   </tableColumns>
@@ -4363,9 +4363,9 @@
   <autoFilter ref="A1:E162"/>
   <tableColumns count="5">
     <tableColumn id="1" name="145"/>
-    <tableColumn id="3" name="编号" dataDxfId="17"/>
-    <tableColumn id="5" name="中文" dataDxfId="16"/>
-    <tableColumn id="7" name="来源编号" dataDxfId="15"/>
+    <tableColumn id="3" name="编号" dataDxfId="10"/>
+    <tableColumn id="5" name="中文" dataDxfId="9"/>
+    <tableColumn id="7" name="来源编号" dataDxfId="8"/>
     <tableColumn id="2" name="数量"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4373,20 +4373,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G129" totalsRowShown="0" dataDxfId="14">
-  <autoFilter ref="A1:G129">
-    <filterColumn colId="6">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G129" totalsRowShown="0" dataDxfId="7">
+  <autoFilter ref="A1:G129"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="本地编号" dataDxfId="13"/>
-    <tableColumn id="2" name="编号" dataDxfId="12"/>
-    <tableColumn id="5" name="中文名" dataDxfId="11"/>
-    <tableColumn id="6" name="购买目标" dataDxfId="10"/>
-    <tableColumn id="7" name="来源编号" dataDxfId="9"/>
-    <tableColumn id="4" name="链接" dataDxfId="8"/>
-    <tableColumn id="3" name="购买数量" dataDxfId="7"/>
+    <tableColumn id="1" name="本地编号" dataDxfId="6"/>
+    <tableColumn id="2" name="编号" dataDxfId="5"/>
+    <tableColumn id="5" name="中文名" dataDxfId="4"/>
+    <tableColumn id="6" name="购买目标" dataDxfId="3"/>
+    <tableColumn id="7" name="来源编号" dataDxfId="2"/>
+    <tableColumn id="4" name="链接" dataDxfId="1"/>
+    <tableColumn id="3" name="购买数量" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4681,8 +4677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C172" workbookViewId="0">
-      <selection activeCell="H179" sqref="H179:H186"/>
+    <sheetView tabSelected="1" topLeftCell="C64" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4703,7 +4699,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>733</v>
@@ -4721,7 +4717,7 @@
         <v>738</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>737</v>
@@ -4730,13 +4726,13 @@
         <v>739</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -4750,7 +4746,7 @@
         <v>500</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E2" s="40" t="s">
         <v>330</v>
@@ -4780,10 +4776,10 @@
         <v>732</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>468</v>
@@ -4816,7 +4812,7 @@
         <v>501</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>415</v>
@@ -4849,7 +4845,7 @@
         <v>502</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E5" s="40" t="s">
         <v>1</v>
@@ -4884,7 +4880,7 @@
         <v>503</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>6</v>
@@ -4919,7 +4915,7 @@
         <v>504</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E7" s="40" t="s">
         <v>9</v>
@@ -4954,7 +4950,7 @@
         <v>505</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>12</v>
@@ -4989,7 +4985,7 @@
         <v>506</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E9" s="40" t="s">
         <v>15</v>
@@ -5024,7 +5020,7 @@
         <v>507</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E10" s="40" t="s">
         <v>18</v>
@@ -5059,7 +5055,7 @@
         <v>103</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E11" s="43" t="s">
         <v>584</v>
@@ -5849,7 +5845,7 @@
         <v>732</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D36" s="40" t="s">
         <v>418</v>
@@ -7302,7 +7298,7 @@
         <v>568</v>
       </c>
       <c r="E81" s="43" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F81" s="44" t="s">
         <v>625</v>
@@ -7522,7 +7518,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="38" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C88" s="42" t="s">
         <v>203</v>
@@ -7751,7 +7747,7 @@
         <v>499</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>67</v>
@@ -8800,7 +8796,7 @@
         <v>320</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E128" s="14" t="s">
         <v>272</v>
@@ -9214,7 +9210,7 @@
         <v>741</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="9">
@@ -9268,7 +9264,7 @@
         <v>510</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9">
@@ -9313,7 +9309,7 @@
         <v>132</v>
       </c>
       <c r="B145" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C145" s="41" t="s">
         <v>699</v>
@@ -9336,16 +9332,16 @@
         <v>133</v>
       </c>
       <c r="B146" s="38" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C146" s="50" t="s">
+        <v>793</v>
+      </c>
+      <c r="D146" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="E146" s="51" t="s">
         <v>795</v>
-      </c>
-      <c r="D146" s="51" t="s">
-        <v>750</v>
-      </c>
-      <c r="E146" s="51" t="s">
-        <v>797</v>
       </c>
       <c r="F146" s="51"/>
       <c r="G146" s="17"/>
@@ -9395,7 +9391,7 @@
         <v>496</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>748</v>
+        <v>961</v>
       </c>
       <c r="E148" s="14" t="s">
         <v>488</v>
@@ -9503,7 +9499,7 @@
         <v>717</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E152" s="14" t="s">
         <v>716</v>
@@ -9527,7 +9523,7 @@
         <v>719</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E153" s="14" t="s">
         <v>721</v>
@@ -9551,7 +9547,7 @@
         <v>724</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E154" s="14" t="s">
         <v>722</v>
@@ -9593,16 +9589,16 @@
         <v>143</v>
       </c>
       <c r="B156" s="52" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C156" s="53" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D156" s="54" t="s">
         <v>730</v>
       </c>
       <c r="E156" s="54" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
@@ -9618,21 +9614,21 @@
         <v>743</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D157" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="E157" s="9" t="s">
         <v>760</v>
-      </c>
-      <c r="E157" s="9" t="s">
-        <v>761</v>
       </c>
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
       <c r="H157" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I157" s="37" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J157" s="9"/>
     </row>
@@ -9641,24 +9637,24 @@
         <v>145</v>
       </c>
       <c r="B158" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
       <c r="H158" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I158" s="37" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J158" s="9"/>
     </row>
@@ -9670,20 +9666,20 @@
         <v>742</v>
       </c>
       <c r="C159" s="15" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D159" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="E159" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="E159" s="9" t="s">
-        <v>772</v>
-      </c>
       <c r="F159" s="9" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G159" s="9"/>
       <c r="H159" s="9" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="I159" s="36"/>
       <c r="J159" s="9"/>
@@ -9696,20 +9692,20 @@
         <v>742</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>773</v>
+        <v>960</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F160" s="9" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G160" s="9"/>
       <c r="H160" s="9" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="I160" s="36"/>
       <c r="J160" s="9"/>
@@ -9719,14 +9715,14 @@
         <v>148</v>
       </c>
       <c r="B161" s="38" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C161" s="41" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D161" s="40"/>
       <c r="E161" s="40" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F161" s="14"/>
       <c r="G161" s="14"/>
@@ -9739,14 +9735,14 @@
         <v>149</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D162" s="14"/>
       <c r="E162" s="14" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
@@ -9759,14 +9755,14 @@
         <v>150</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D163" s="14"/>
       <c r="E163" s="14" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -9779,14 +9775,14 @@
         <v>151</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D164" s="14"/>
       <c r="E164" s="14" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F164" s="14"/>
       <c r="G164" s="14"/>
@@ -9799,14 +9795,14 @@
         <v>152</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D165" s="14"/>
       <c r="E165" s="14" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F165" s="14"/>
       <c r="G165" s="14"/>
@@ -9819,14 +9815,14 @@
         <v>153</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D166" s="14"/>
       <c r="E166" s="14" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F166" s="14"/>
       <c r="G166" s="14"/>
@@ -9839,14 +9835,14 @@
         <v>154</v>
       </c>
       <c r="B167" s="38" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C167" s="41" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D167" s="40"/>
       <c r="E167" s="40" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F167" s="14"/>
       <c r="G167" s="14"/>
@@ -9859,7 +9855,7 @@
         <v>155</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C168" s="56" t="s">
         <v>125</v>
@@ -9875,7 +9871,7 @@
         <v>50</v>
       </c>
       <c r="H168" s="9" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="I168" s="58" t="s">
         <v>681</v>
@@ -9890,16 +9886,16 @@
         <v>156</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C169" s="59" t="s">
         <v>175</v>
       </c>
       <c r="D169" s="60" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E169" s="60" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F169" s="14"/>
       <c r="G169" s="14">
@@ -9909,7 +9905,7 @@
         <v>482</v>
       </c>
       <c r="I169" s="55" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="J169" s="14"/>
       <c r="K169" s="66">
@@ -9921,16 +9917,16 @@
         <v>157</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C170" s="59" t="s">
         <v>186</v>
       </c>
       <c r="D170" s="60" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E170" s="60" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14">
@@ -9940,7 +9936,7 @@
         <v>482</v>
       </c>
       <c r="I170" s="55" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="J170" s="14"/>
       <c r="K170" s="66">
@@ -9952,7 +9948,7 @@
         <v>158</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C171" s="61" t="s">
         <v>187</v>
@@ -9981,7 +9977,7 @@
         <v>159</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C172" s="59" t="s">
         <v>202</v>
@@ -10010,16 +10006,16 @@
         <v>160</v>
       </c>
       <c r="B173" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>903</v>
+      </c>
+      <c r="D173" s="14" t="s">
+        <v>905</v>
+      </c>
+      <c r="E173" s="14" t="s">
         <v>906</v>
-      </c>
-      <c r="C173" s="13" t="s">
-        <v>905</v>
-      </c>
-      <c r="D173" s="14" t="s">
-        <v>907</v>
-      </c>
-      <c r="E173" s="14" t="s">
-        <v>908</v>
       </c>
       <c r="F173" s="14"/>
       <c r="G173" s="14"/>
@@ -10034,14 +10030,14 @@
         <v>161</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C174" s="13"/>
       <c r="D174" s="14" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E174" s="14" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F174" s="14"/>
       <c r="G174" s="14"/>
@@ -10056,12 +10052,12 @@
         <v>162</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C175" s="13"/>
       <c r="D175" s="14"/>
       <c r="E175" s="14" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F175" s="14"/>
       <c r="G175" s="14"/>
@@ -10074,20 +10070,20 @@
         <v>163</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C176" s="13"/>
       <c r="D176" s="14" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E176" s="14" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F176" s="14"/>
       <c r="G176" s="14"/>
       <c r="H176" s="14"/>
       <c r="I176" s="37" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="J176" s="14"/>
     </row>
@@ -10096,14 +10092,14 @@
         <v>164</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C177" s="13"/>
       <c r="D177" s="14" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E177" s="14" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="14"/>
@@ -10116,12 +10112,12 @@
         <v>165</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C178" s="15"/>
       <c r="D178" s="9"/>
       <c r="E178" s="9" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
@@ -10134,7 +10130,7 @@
         <v>166</v>
       </c>
       <c r="B179" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C179" s="56" t="s">
         <v>105</v>
@@ -10160,7 +10156,7 @@
         <v>167</v>
       </c>
       <c r="B180" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C180" s="59" t="s">
         <v>138</v>
@@ -10186,7 +10182,7 @@
         <v>168</v>
       </c>
       <c r="B181" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C181" s="61" t="s">
         <v>140</v>
@@ -10212,7 +10208,7 @@
         <v>169</v>
       </c>
       <c r="B182" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>141</v>
@@ -10238,16 +10234,16 @@
         <v>170</v>
       </c>
       <c r="B183" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>155</v>
       </c>
       <c r="D183" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="E183" s="4" t="s">
         <v>823</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>825</v>
       </c>
       <c r="F183" s="14"/>
       <c r="G183">
@@ -10264,7 +10260,7 @@
         <v>171</v>
       </c>
       <c r="B184" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>172</v>
@@ -10273,7 +10269,7 @@
         <v>670</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F184" s="14"/>
       <c r="G184">
@@ -10290,16 +10286,16 @@
         <v>172</v>
       </c>
       <c r="B185" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>178</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F185" s="14"/>
       <c r="G185">
@@ -10316,16 +10312,16 @@
         <v>173</v>
       </c>
       <c r="B186" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F186" s="14"/>
       <c r="G186">
@@ -10450,10 +10446,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>736</v>
@@ -10462,7 +10458,7 @@
         <v>645</v>
       </c>
       <c r="E1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10482,7 +10478,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>468</v>
@@ -10512,7 +10508,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10526,7 +10522,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10540,7 +10536,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10554,7 +10550,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -10568,7 +10564,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10582,7 +10578,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -10660,7 +10656,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10736,7 +10732,7 @@
         <v>643</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -10750,7 +10746,7 @@
         <v>28</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -10816,7 +10812,7 @@
         <v>74</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -10870,7 +10866,7 @@
         <v>32</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -10908,7 +10904,7 @@
         <v>646</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -10916,7 +10912,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C36" s="40" t="s">
         <v>391</v>
@@ -10960,7 +10956,7 @@
         <v>79</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -10974,7 +10970,7 @@
         <v>37</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -11014,7 +11010,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -11042,7 +11038,7 @@
         <v>47</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -11092,7 +11088,7 @@
         <v>52</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -11130,7 +11126,7 @@
         <v>654</v>
       </c>
       <c r="D52" s="44" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -11184,7 +11180,7 @@
         <v>84</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -11288,7 +11284,7 @@
         <v>89</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -11302,7 +11298,7 @@
         <v>57</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -11316,7 +11312,7 @@
         <v>648</v>
       </c>
       <c r="D66" s="44" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -11406,7 +11402,7 @@
         <v>653</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -11468,7 +11464,7 @@
         <v>61</v>
       </c>
       <c r="D78" s="48" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -11491,7 +11487,7 @@
         <v>198</v>
       </c>
       <c r="C80" s="43" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D80" s="44" t="s">
         <v>625</v>
@@ -11508,7 +11504,7 @@
         <v>650</v>
       </c>
       <c r="D81" s="44" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -11522,7 +11518,7 @@
         <v>94</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -11560,7 +11556,7 @@
         <v>64</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -11574,7 +11570,7 @@
         <v>98</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -11676,7 +11672,7 @@
         <v>67</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -11690,7 +11686,7 @@
         <v>695</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -11772,10 +11768,10 @@
         <v>133</v>
       </c>
       <c r="B102" s="50" t="s">
+        <v>793</v>
+      </c>
+      <c r="C102" s="51" t="s">
         <v>795</v>
-      </c>
-      <c r="C102" s="51" t="s">
-        <v>797</v>
       </c>
       <c r="D102" s="51"/>
     </row>
@@ -11787,10 +11783,10 @@
         <v>711</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -11894,10 +11890,10 @@
         <v>143</v>
       </c>
       <c r="B112" s="53" t="s">
+        <v>753</v>
+      </c>
+      <c r="C112" s="54" t="s">
         <v>754</v>
-      </c>
-      <c r="C112" s="54" t="s">
-        <v>755</v>
       </c>
       <c r="D112" s="9"/>
     </row>
@@ -11906,10 +11902,10 @@
         <v>144</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D113" s="9"/>
     </row>
@@ -11918,10 +11914,10 @@
         <v>145</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D114" s="9"/>
     </row>
@@ -11930,13 +11926,13 @@
         <v>146</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -11944,13 +11940,13 @@
         <v>147</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -11958,10 +11954,10 @@
         <v>148</v>
       </c>
       <c r="B117" s="41" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C117" s="40" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D117" s="14"/>
     </row>
@@ -11970,10 +11966,10 @@
         <v>149</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D118" s="14"/>
     </row>
@@ -11982,10 +11978,10 @@
         <v>150</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D119" s="14"/>
     </row>
@@ -11994,10 +11990,10 @@
         <v>151</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D120" s="14"/>
     </row>
@@ -12006,10 +12002,10 @@
         <v>152</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D121" s="14"/>
     </row>
@@ -12018,10 +12014,10 @@
         <v>153</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D122" s="14"/>
     </row>
@@ -12030,10 +12026,10 @@
         <v>154</v>
       </c>
       <c r="B123" s="41" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C123" s="40" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D123" s="14"/>
     </row>
@@ -12057,7 +12053,7 @@
         <v>175</v>
       </c>
       <c r="C125" s="60" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D125" s="14"/>
     </row>
@@ -12069,7 +12065,7 @@
         <v>186</v>
       </c>
       <c r="C126" s="60" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D126" s="14"/>
     </row>
@@ -12102,10 +12098,10 @@
         <v>160</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D129" s="14"/>
     </row>
@@ -12115,7 +12111,7 @@
       </c>
       <c r="B130" s="13"/>
       <c r="C130" s="14" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D130" s="14"/>
     </row>
@@ -12125,7 +12121,7 @@
       </c>
       <c r="B131" s="13"/>
       <c r="C131" s="14" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D131" s="14"/>
     </row>
@@ -12135,7 +12131,7 @@
       </c>
       <c r="B132" s="13"/>
       <c r="C132" s="14" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D132" s="14"/>
     </row>
@@ -12145,7 +12141,7 @@
       </c>
       <c r="B133" s="13"/>
       <c r="C133" s="14" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D133" s="14"/>
     </row>
@@ -12155,7 +12151,7 @@
       </c>
       <c r="B134" s="15"/>
       <c r="C134" s="9" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D134" s="9"/>
     </row>
@@ -12215,7 +12211,7 @@
         <v>155</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D139" s="68"/>
     </row>
@@ -12227,7 +12223,7 @@
         <v>172</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D140" s="68"/>
     </row>
@@ -12239,7 +12235,7 @@
         <v>178</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D141" s="68"/>
     </row>
@@ -12251,7 +12247,7 @@
         <v>181</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D142" s="68"/>
     </row>
@@ -13449,8 +13445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A123"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13491,7 +13487,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" hidden="1">
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>103</v>
       </c>
@@ -13531,7 +13527,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" hidden="1">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>105</v>
       </c>
@@ -13552,7 +13548,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" hidden="1">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>106</v>
       </c>
@@ -13575,7 +13571,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" hidden="1">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>107</v>
       </c>
@@ -13592,7 +13588,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" hidden="1">
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
         <v>108</v>
       </c>
@@ -13609,7 +13605,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" hidden="1">
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>109</v>
       </c>
@@ -13626,7 +13622,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" hidden="1">
+    <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -13660,7 +13656,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" hidden="1">
+    <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
         <v>111</v>
       </c>
@@ -13694,7 +13690,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" hidden="1">
+    <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
         <v>113</v>
       </c>
@@ -13711,7 +13707,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" hidden="1">
+    <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
         <v>114</v>
       </c>
@@ -13751,7 +13747,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" hidden="1">
+    <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
         <v>116</v>
       </c>
@@ -13785,7 +13781,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" hidden="1">
+    <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
         <v>118</v>
       </c>
@@ -13836,7 +13832,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" hidden="1">
+    <row r="21" spans="1:10">
       <c r="A21" s="4" t="s">
         <v>121</v>
       </c>
@@ -13859,7 +13855,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" hidden="1">
+    <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -13876,7 +13872,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" hidden="1">
+    <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
         <v>122</v>
       </c>
@@ -13914,7 +13910,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" hidden="1">
+    <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
         <v>124</v>
       </c>
@@ -13937,7 +13933,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" hidden="1">
+    <row r="26" spans="1:10" ht="27">
       <c r="A26" s="4" t="s">
         <v>125</v>
       </c>
@@ -13948,7 +13944,7 @@
         <v>672</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="7" t="s">
@@ -13960,7 +13956,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" hidden="1">
+    <row r="27" spans="1:10">
       <c r="A27" s="4" t="s">
         <v>126</v>
       </c>
@@ -13983,7 +13979,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" hidden="1">
+    <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
         <v>127</v>
       </c>
@@ -14000,7 +13996,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" hidden="1">
+    <row r="29" spans="1:10">
       <c r="A29" s="4" t="s">
         <v>72</v>
       </c>
@@ -14017,7 +14013,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" hidden="1">
+    <row r="30" spans="1:10">
       <c r="A30" s="4" t="s">
         <v>128</v>
       </c>
@@ -14057,7 +14053,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" hidden="1">
+    <row r="32" spans="1:10">
       <c r="A32" s="4" t="s">
         <v>130</v>
       </c>
@@ -14080,7 +14076,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" hidden="1">
+    <row r="33" spans="1:10">
       <c r="A33" s="4" t="s">
         <v>131</v>
       </c>
@@ -14097,7 +14093,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" hidden="1">
+    <row r="34" spans="1:10">
       <c r="A34" s="4" t="s">
         <v>31</v>
       </c>
@@ -14114,7 +14110,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" hidden="1">
+    <row r="35" spans="1:10">
       <c r="A35" s="4" t="s">
         <v>132</v>
       </c>
@@ -14131,7 +14127,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" hidden="1">
+    <row r="36" spans="1:10">
       <c r="A36" s="4" t="s">
         <v>133</v>
       </c>
@@ -14148,7 +14144,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" hidden="1">
+    <row r="37" spans="1:10">
       <c r="A37" s="4" t="s">
         <v>134</v>
       </c>
@@ -14171,7 +14167,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" hidden="1">
+    <row r="38" spans="1:10">
       <c r="A38" s="4" t="s">
         <v>135</v>
       </c>
@@ -14188,7 +14184,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" hidden="1">
+    <row r="39" spans="1:10">
       <c r="A39" s="4" t="s">
         <v>136</v>
       </c>
@@ -14211,7 +14207,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" hidden="1">
+    <row r="40" spans="1:10">
       <c r="A40" s="4" t="s">
         <v>137</v>
       </c>
@@ -14228,7 +14224,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" hidden="1">
+    <row r="41" spans="1:10">
       <c r="A41" s="4" t="s">
         <v>138</v>
       </c>
@@ -14266,7 +14262,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" hidden="1">
+    <row r="43" spans="1:10" ht="27">
       <c r="A43" s="4" t="s">
         <v>140</v>
       </c>
@@ -14287,7 +14283,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" hidden="1">
+    <row r="44" spans="1:10">
       <c r="A44" s="4" t="s">
         <v>77</v>
       </c>
@@ -14304,7 +14300,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" hidden="1">
+    <row r="45" spans="1:10" ht="27">
       <c r="A45" s="4" t="s">
         <v>141</v>
       </c>
@@ -14325,7 +14321,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" hidden="1">
+    <row r="46" spans="1:10">
       <c r="A46" s="4" t="s">
         <v>35</v>
       </c>
@@ -14342,7 +14338,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" hidden="1">
+    <row r="47" spans="1:10">
       <c r="A47" s="4" t="s">
         <v>142</v>
       </c>
@@ -14365,7 +14361,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" hidden="1">
+    <row r="48" spans="1:10">
       <c r="A48" s="4" t="s">
         <v>143</v>
       </c>
@@ -14382,7 +14378,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" hidden="1">
+    <row r="49" spans="1:10">
       <c r="A49" s="4" t="s">
         <v>40</v>
       </c>
@@ -14399,7 +14395,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" hidden="1">
+    <row r="50" spans="1:10">
       <c r="A50" s="4" t="s">
         <v>144</v>
       </c>
@@ -14422,7 +14418,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" hidden="1">
+    <row r="51" spans="1:10">
       <c r="A51" s="4" t="s">
         <v>45</v>
       </c>
@@ -14439,7 +14435,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" hidden="1">
+    <row r="52" spans="1:10">
       <c r="A52" s="4" t="s">
         <v>145</v>
       </c>
@@ -14456,7 +14452,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" hidden="1">
+    <row r="53" spans="1:10">
       <c r="A53" s="4" t="s">
         <v>146</v>
       </c>
@@ -14473,7 +14469,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" hidden="1">
+    <row r="54" spans="1:10">
       <c r="A54" s="4" t="s">
         <v>147</v>
       </c>
@@ -14490,26 +14486,26 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" ht="27">
       <c r="A55" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>811</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>813</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="7" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G55" s="5"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" hidden="1">
+    <row r="56" spans="1:10">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
@@ -14526,45 +14522,45 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" ht="27">
       <c r="A57" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>816</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="7" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G57" s="5"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" ht="27">
       <c r="A58" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>817</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>819</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="7" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G58" s="5"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" hidden="1">
+    <row r="59" spans="1:10">
       <c r="A59" s="4" t="s">
         <v>151</v>
       </c>
@@ -14581,7 +14577,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" hidden="1">
+    <row r="60" spans="1:10">
       <c r="A60" s="4" t="s">
         <v>398</v>
       </c>
@@ -14598,7 +14594,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" hidden="1">
+    <row r="61" spans="1:10">
       <c r="A61" s="4" t="s">
         <v>152</v>
       </c>
@@ -14621,26 +14617,26 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" ht="27">
       <c r="A62" s="4" t="s">
         <v>153</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>820</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>822</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="7" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G62" s="5"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" hidden="1">
+    <row r="63" spans="1:10">
       <c r="A63" s="4" t="s">
         <v>154</v>
       </c>
@@ -14663,20 +14659,20 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" hidden="1">
+    <row r="64" spans="1:10" ht="27">
       <c r="A64" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>823</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>825</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="7" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G64" s="5">
         <v>1</v>
@@ -14684,26 +14680,26 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" ht="27">
       <c r="A65" s="4" t="s">
         <v>156</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>826</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>828</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="7" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="G65" s="5"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" hidden="1">
+    <row r="66" spans="1:10">
       <c r="A66" s="4" t="s">
         <v>336</v>
       </c>
@@ -14720,26 +14716,26 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" ht="27">
       <c r="A67" s="4" t="s">
         <v>157</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>829</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>831</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="7" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G67" s="5"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10" hidden="1">
+    <row r="68" spans="1:10">
       <c r="A68" s="4" t="s">
         <v>158</v>
       </c>
@@ -14762,7 +14758,7 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10" hidden="1">
+    <row r="69" spans="1:10">
       <c r="A69" s="4" t="s">
         <v>82</v>
       </c>
@@ -14779,26 +14775,26 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" ht="27">
       <c r="A70" s="4" t="s">
         <v>159</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>832</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>834</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G70" s="5"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10" hidden="1">
+    <row r="71" spans="1:10">
       <c r="A71" s="4" t="s">
         <v>160</v>
       </c>
@@ -14821,7 +14817,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" hidden="1">
+    <row r="72" spans="1:10">
       <c r="A72" s="4" t="s">
         <v>161</v>
       </c>
@@ -14844,123 +14840,123 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" ht="27">
       <c r="A73" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>835</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>837</v>
-      </c>
       <c r="D73" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="7" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G73" s="5"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" ht="27">
       <c r="A74" s="4" t="s">
         <v>163</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>838</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>840</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="7" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="G74" s="5"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" ht="27">
       <c r="A75" s="4" t="s">
         <v>164</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>841</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>843</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="4" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G75" s="5"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" ht="27">
       <c r="A76" s="4" t="s">
         <v>165</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="7" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G76" s="5"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" ht="27">
       <c r="A77" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>847</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>849</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="7" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G77" s="5"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" ht="27">
       <c r="A78" s="4" t="s">
         <v>167</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="7" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G78" s="5"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10" hidden="1">
+    <row r="79" spans="1:10">
       <c r="A79" s="4" t="s">
         <v>168</v>
       </c>
@@ -14977,31 +14973,31 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" ht="27">
       <c r="A80" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="7" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G80" s="5"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" ht="27">
       <c r="A81" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>616</v>
@@ -15013,13 +15009,13 @@
         <v>617</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G81" s="5"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10" hidden="1">
+    <row r="82" spans="1:10">
       <c r="A82" s="4" t="s">
         <v>171</v>
       </c>
@@ -15036,7 +15032,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10" hidden="1">
+    <row r="83" spans="1:10" ht="27">
       <c r="A83" s="4" t="s">
         <v>172</v>
       </c>
@@ -15044,12 +15040,12 @@
         <v>670</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="7" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G83" s="5">
         <v>1</v>
@@ -15057,7 +15053,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="1:10" hidden="1">
+    <row r="84" spans="1:10">
       <c r="A84" s="4" t="s">
         <v>173</v>
       </c>
@@ -15074,7 +15070,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:10" hidden="1">
+    <row r="85" spans="1:10">
       <c r="A85" s="4" t="s">
         <v>174</v>
       </c>
@@ -15097,22 +15093,22 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" hidden="1">
+    <row r="86" spans="1:10" ht="27">
       <c r="A86" s="4" t="s">
         <v>175</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="7" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G86" s="5">
         <v>1</v>
@@ -15120,7 +15116,7 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="1:10" hidden="1">
+    <row r="87" spans="1:10">
       <c r="A87" s="4" t="s">
         <v>176</v>
       </c>
@@ -15137,39 +15133,39 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" ht="27">
       <c r="A88" s="4" t="s">
         <v>177</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="7" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="G88" s="5"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10" hidden="1">
+    <row r="89" spans="1:10" ht="27">
       <c r="A89" s="4" t="s">
         <v>178</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="7" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G89" s="5">
         <v>1</v>
@@ -15177,7 +15173,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="1:10" hidden="1">
+    <row r="90" spans="1:10">
       <c r="A90" s="4" t="s">
         <v>87</v>
       </c>
@@ -15194,7 +15190,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="1:10" hidden="1">
+    <row r="91" spans="1:10">
       <c r="A91" s="4" t="s">
         <v>55</v>
       </c>
@@ -15211,7 +15207,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:10" hidden="1">
+    <row r="92" spans="1:10">
       <c r="A92" s="4" t="s">
         <v>179</v>
       </c>
@@ -15234,7 +15230,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:10" hidden="1">
+    <row r="93" spans="1:10">
       <c r="A93" s="4" t="s">
         <v>180</v>
       </c>
@@ -15251,20 +15247,20 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" hidden="1">
+    <row r="94" spans="1:10" ht="27">
       <c r="A94" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="7" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G94" s="5">
         <v>1</v>
@@ -15272,26 +15268,26 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" ht="27">
       <c r="A95" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="7" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G95" s="5"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:10" hidden="1">
+    <row r="96" spans="1:10">
       <c r="A96" s="4" t="s">
         <v>183</v>
       </c>
@@ -15314,7 +15310,7 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10" hidden="1">
+    <row r="97" spans="1:10">
       <c r="A97" s="4" t="s">
         <v>184</v>
       </c>
@@ -15331,7 +15327,7 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10" hidden="1">
+    <row r="98" spans="1:10">
       <c r="A98" s="4" t="s">
         <v>348</v>
       </c>
@@ -15348,41 +15344,41 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" ht="27">
       <c r="A99" s="4" t="s">
         <v>185</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="7" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G99" s="5"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:10" ht="27" hidden="1">
+    <row r="100" spans="1:10" ht="27">
       <c r="A100" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="7" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G100" s="5">
         <v>1</v>
@@ -15390,7 +15386,7 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="1:10" hidden="1">
+    <row r="101" spans="1:10">
       <c r="A101" s="4" t="s">
         <v>187</v>
       </c>
@@ -15411,7 +15407,7 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
     </row>
-    <row r="102" spans="1:10" hidden="1">
+    <row r="102" spans="1:10">
       <c r="A102" s="4" t="s">
         <v>188</v>
       </c>
@@ -15434,7 +15430,7 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="1:10" hidden="1">
+    <row r="103" spans="1:10">
       <c r="A103" s="4" t="s">
         <v>189</v>
       </c>
@@ -15451,26 +15447,26 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" ht="27">
       <c r="A104" s="4" t="s">
         <v>190</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="7" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G104" s="5"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10" hidden="1">
+    <row r="105" spans="1:10">
       <c r="A105" s="4" t="s">
         <v>191</v>
       </c>
@@ -15493,7 +15489,7 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:10" hidden="1">
+    <row r="106" spans="1:10">
       <c r="A106" s="4" t="s">
         <v>192</v>
       </c>
@@ -15510,7 +15506,7 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="1:10" hidden="1">
+    <row r="107" spans="1:10">
       <c r="A107" s="4" t="s">
         <v>193</v>
       </c>
@@ -15527,7 +15523,7 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="1:10" hidden="1">
+    <row r="108" spans="1:10">
       <c r="A108" s="4" t="s">
         <v>194</v>
       </c>
@@ -15544,7 +15540,7 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:10" hidden="1">
+    <row r="109" spans="1:10">
       <c r="A109" s="4" t="s">
         <v>195</v>
       </c>
@@ -15561,7 +15557,7 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="1:10" hidden="1">
+    <row r="110" spans="1:10">
       <c r="A110" s="4" t="s">
         <v>60</v>
       </c>
@@ -15578,26 +15574,26 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" ht="27">
       <c r="A111" s="4" t="s">
         <v>196</v>
       </c>
       <c r="B111" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>886</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>888</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="7" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="G111" s="5"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="1:10" hidden="1">
+    <row r="112" spans="1:10">
       <c r="A112" s="4" t="s">
         <v>197</v>
       </c>
@@ -15614,7 +15610,7 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="1:10" hidden="1">
+    <row r="113" spans="1:10">
       <c r="A113" s="4" t="s">
         <v>198</v>
       </c>
@@ -15637,7 +15633,7 @@
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
     </row>
-    <row r="114" spans="1:10" hidden="1">
+    <row r="114" spans="1:10">
       <c r="A114" s="4" t="s">
         <v>199</v>
       </c>
@@ -15660,7 +15656,7 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
     </row>
-    <row r="115" spans="1:10" hidden="1">
+    <row r="115" spans="1:10">
       <c r="A115" s="4" t="s">
         <v>92</v>
       </c>
@@ -15677,7 +15673,7 @@
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
     </row>
-    <row r="116" spans="1:10" hidden="1">
+    <row r="116" spans="1:10">
       <c r="A116" s="4" t="s">
         <v>200</v>
       </c>
@@ -15694,7 +15690,7 @@
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
     </row>
-    <row r="117" spans="1:10" hidden="1">
+    <row r="117" spans="1:10">
       <c r="A117" s="4" t="s">
         <v>201</v>
       </c>
@@ -15711,7 +15707,7 @@
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="1:10" hidden="1">
+    <row r="118" spans="1:10">
       <c r="A118" s="4" t="s">
         <v>63</v>
       </c>
@@ -15728,7 +15724,7 @@
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
     </row>
-    <row r="119" spans="1:10" hidden="1">
+    <row r="119" spans="1:10">
       <c r="A119" s="4" t="s">
         <v>97</v>
       </c>
@@ -15745,7 +15741,7 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="1:10" hidden="1">
+    <row r="120" spans="1:10">
       <c r="A120" s="4" t="s">
         <v>202</v>
       </c>
@@ -15756,7 +15752,7 @@
         <v>608</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>610</v>
@@ -15768,7 +15764,7 @@
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="1:10" hidden="1">
+    <row r="121" spans="1:10">
       <c r="A121" s="4" t="s">
         <v>203</v>
       </c>
@@ -15785,45 +15781,45 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" ht="27">
       <c r="A122" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="7" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G122" s="5"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" ht="27">
       <c r="A123" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="7" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="G123" s="5"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="1:10" hidden="1">
+    <row r="124" spans="1:10">
       <c r="A124" s="4" t="s">
         <v>206</v>
       </c>
@@ -15846,7 +15842,7 @@
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="1:10" hidden="1">
+    <row r="125" spans="1:10">
       <c r="A125" s="4" t="s">
         <v>207</v>
       </c>
@@ -15869,7 +15865,7 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="1:10" hidden="1">
+    <row r="126" spans="1:10">
       <c r="A126" s="4" t="s">
         <v>208</v>
       </c>
@@ -15886,7 +15882,7 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="1:10" hidden="1">
+    <row r="127" spans="1:10">
       <c r="A127" s="4" t="s">
         <v>209</v>
       </c>
@@ -15903,7 +15899,7 @@
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
     </row>
-    <row r="128" spans="1:10" hidden="1">
+    <row r="128" spans="1:10">
       <c r="A128" s="4" t="s">
         <v>210</v>
       </c>
@@ -15920,7 +15916,7 @@
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
     </row>
-    <row r="129" spans="1:10" hidden="1">
+    <row r="129" spans="1:10">
       <c r="A129" s="4" t="s">
         <v>211</v>
       </c>

--- a/统计清单/2017国内编号清单.xlsx
+++ b/统计清单/2017国内编号清单.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="978">
   <si>
     <t>本地编号</t>
   </si>
@@ -3309,10 +3309,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Chamaecereus</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Chamaecereus Lincoln Gem</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3557,6 +3553,61 @@
   </si>
   <si>
     <t>惜别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trichocereus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trichocereus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞碟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lobivia ochielen</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lobivia</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌艳丸、方便面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echinopsis</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echinopsis</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chamaecereus</t>
+  </si>
+  <si>
+    <t>Chamaecereus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echinopsis</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯特恩泰勒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩草319</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>胭脂复色白檀</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3793,7 +3844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3918,6 +3969,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4328,8 +4380,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:L186" totalsRowShown="0">
-  <autoFilter ref="A1:L186"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:L197" totalsRowShown="0">
+  <autoFilter ref="A1:L197"/>
   <tableColumns count="12">
     <tableColumn id="1" name="145"/>
     <tableColumn id="2" name="属"/>
@@ -4665,10 +4717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L186"/>
+  <dimension ref="A1:L197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="D176" sqref="D176"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4707,7 +4759,7 @@
         <v>736</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>735</v>
@@ -8786,7 +8838,7 @@
         <v>320</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E128" s="14" t="s">
         <v>272</v>
@@ -9381,7 +9433,7 @@
         <v>496</v>
       </c>
       <c r="D148" s="39" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E148" s="39" t="s">
         <v>488</v>
@@ -9409,7 +9461,7 @@
         <v>497</v>
       </c>
       <c r="D149" s="39" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E149" s="39" t="s">
         <v>333</v>
@@ -9465,7 +9517,7 @@
         <v>712</v>
       </c>
       <c r="D151" s="39" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E151" s="39" t="s">
         <v>713</v>
@@ -9579,7 +9631,7 @@
         <v>143</v>
       </c>
       <c r="B156" s="51" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C156" s="52" t="s">
         <v>751</v>
@@ -9601,7 +9653,7 @@
         <v>144</v>
       </c>
       <c r="B157" s="37" t="s">
-        <v>741</v>
+        <v>964</v>
       </c>
       <c r="C157" s="40" t="s">
         <v>755</v>
@@ -9685,7 +9737,7 @@
         <v>766</v>
       </c>
       <c r="D160" s="39" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E160" s="39" t="s">
         <v>770</v>
@@ -9967,7 +10019,7 @@
         <v>159</v>
       </c>
       <c r="B172" s="37" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C172" s="68" t="s">
         <v>202</v>
@@ -9996,16 +10048,16 @@
         <v>160</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>902</v>
+        <v>973</v>
       </c>
       <c r="C173" s="13" t="s">
         <v>901</v>
       </c>
       <c r="D173" s="14" t="s">
+        <v>902</v>
+      </c>
+      <c r="E173" s="14" t="s">
         <v>903</v>
-      </c>
-      <c r="E173" s="14" t="s">
-        <v>904</v>
       </c>
       <c r="F173" s="14"/>
       <c r="G173" s="14"/>
@@ -10020,14 +10072,14 @@
         <v>161</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C174" s="13"/>
       <c r="D174" s="14" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E174" s="14" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F174" s="14"/>
       <c r="G174" s="14"/>
@@ -10042,12 +10094,12 @@
         <v>162</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C175" s="13"/>
       <c r="D175" s="14"/>
       <c r="E175" s="14" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F175" s="14"/>
       <c r="G175" s="14"/>
@@ -10060,20 +10112,20 @@
         <v>163</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C176" s="13"/>
       <c r="D176" s="14" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E176" s="14" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F176" s="14"/>
       <c r="G176" s="14"/>
       <c r="H176" s="14"/>
       <c r="I176" s="36" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J176" s="14"/>
     </row>
@@ -10082,14 +10134,14 @@
         <v>164</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C177" s="13"/>
       <c r="D177" s="14" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E177" s="14" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="14"/>
@@ -10107,7 +10159,7 @@
       <c r="C178" s="15"/>
       <c r="D178" s="9"/>
       <c r="E178" s="9" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
@@ -10120,7 +10172,7 @@
         <v>166</v>
       </c>
       <c r="B179" s="37" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C179" s="68" t="s">
         <v>105</v>
@@ -10129,7 +10181,7 @@
         <v>514</v>
       </c>
       <c r="E179" s="69" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F179" s="39"/>
       <c r="G179" s="39">
@@ -10146,7 +10198,7 @@
         <v>167</v>
       </c>
       <c r="B180" s="37" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C180" s="68" t="s">
         <v>138</v>
@@ -10155,7 +10207,7 @@
         <v>675</v>
       </c>
       <c r="E180" s="69" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F180" s="39"/>
       <c r="G180" s="39">
@@ -10172,7 +10224,7 @@
         <v>168</v>
       </c>
       <c r="B181" s="37" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C181" s="72" t="s">
         <v>140</v>
@@ -10181,7 +10233,7 @@
         <v>682</v>
       </c>
       <c r="E181" s="73" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F181" s="74"/>
       <c r="G181" s="74">
@@ -10198,7 +10250,7 @@
         <v>169</v>
       </c>
       <c r="B182" s="37" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C182" s="77" t="s">
         <v>141</v>
@@ -10224,7 +10276,7 @@
         <v>170</v>
       </c>
       <c r="B183" s="37" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C183" s="77" t="s">
         <v>155</v>
@@ -10250,7 +10302,7 @@
         <v>171</v>
       </c>
       <c r="B184" s="37" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C184" s="77" t="s">
         <v>172</v>
@@ -10276,7 +10328,7 @@
         <v>172</v>
       </c>
       <c r="B185" s="37" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C185" s="77" t="s">
         <v>178</v>
@@ -10302,7 +10354,7 @@
         <v>173</v>
       </c>
       <c r="B186" s="37" t="s">
-        <v>956</v>
+        <v>970</v>
       </c>
       <c r="C186" s="77" t="s">
         <v>181</v>
@@ -10322,6 +10374,165 @@
       </c>
       <c r="I186" s="66"/>
       <c r="J186" s="39"/>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187" s="37">
+        <v>174</v>
+      </c>
+      <c r="B187" s="37" t="s">
+        <v>965</v>
+      </c>
+      <c r="C187" s="40"/>
+      <c r="D187" s="39"/>
+      <c r="E187" s="39" t="s">
+        <v>966</v>
+      </c>
+      <c r="F187" s="9"/>
+      <c r="H187" s="9"/>
+      <c r="I187" s="64"/>
+      <c r="J187" s="9"/>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188" s="37">
+        <v>175</v>
+      </c>
+      <c r="B188" s="37" t="s">
+        <v>968</v>
+      </c>
+      <c r="C188" s="40"/>
+      <c r="D188" s="39" t="s">
+        <v>967</v>
+      </c>
+      <c r="E188" s="39" t="s">
+        <v>969</v>
+      </c>
+      <c r="F188" s="9"/>
+      <c r="H188" s="9"/>
+      <c r="I188" s="64"/>
+      <c r="J188" s="9"/>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189">
+        <v>176</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="C189" s="15"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="14" t="s">
+        <v>976</v>
+      </c>
+      <c r="F189" s="9"/>
+      <c r="H189" s="9"/>
+      <c r="I189" s="64"/>
+      <c r="J189" s="9"/>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190">
+        <v>177</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="C190" s="62"/>
+      <c r="D190" s="63"/>
+      <c r="E190" s="60" t="s">
+        <v>975</v>
+      </c>
+      <c r="F190" s="63"/>
+      <c r="H190" s="63"/>
+      <c r="I190" s="78"/>
+      <c r="J190" s="63"/>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="A191">
+        <v>178</v>
+      </c>
+      <c r="B191" t="s">
+        <v>972</v>
+      </c>
+      <c r="C191" s="62"/>
+      <c r="D191" s="63"/>
+      <c r="E191" s="60" t="s">
+        <v>977</v>
+      </c>
+      <c r="F191" s="63"/>
+      <c r="H191" s="63"/>
+      <c r="I191" s="78"/>
+      <c r="J191" s="63"/>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="A192">
+        <v>179</v>
+      </c>
+      <c r="C192" s="62"/>
+      <c r="D192" s="63"/>
+      <c r="E192" s="63"/>
+      <c r="F192" s="63"/>
+      <c r="H192" s="63"/>
+      <c r="I192" s="78"/>
+      <c r="J192" s="63"/>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193">
+        <v>180</v>
+      </c>
+      <c r="C193" s="62"/>
+      <c r="D193" s="63"/>
+      <c r="E193" s="63"/>
+      <c r="F193" s="63"/>
+      <c r="H193" s="63"/>
+      <c r="I193" s="78"/>
+      <c r="J193" s="63"/>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194">
+        <v>181</v>
+      </c>
+      <c r="C194" s="62"/>
+      <c r="D194" s="63"/>
+      <c r="E194" s="63"/>
+      <c r="F194" s="63"/>
+      <c r="H194" s="63"/>
+      <c r="I194" s="78"/>
+      <c r="J194" s="63"/>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195">
+        <v>182</v>
+      </c>
+      <c r="C195" s="62"/>
+      <c r="D195" s="63"/>
+      <c r="E195" s="63"/>
+      <c r="F195" s="63"/>
+      <c r="H195" s="63"/>
+      <c r="I195" s="78"/>
+      <c r="J195" s="63"/>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="A196">
+        <v>183</v>
+      </c>
+      <c r="C196" s="62"/>
+      <c r="D196" s="63"/>
+      <c r="E196" s="63"/>
+      <c r="F196" s="63"/>
+      <c r="H196" s="63"/>
+      <c r="I196" s="78"/>
+      <c r="J196" s="63"/>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="A197">
+        <v>184</v>
+      </c>
+      <c r="C197" s="62"/>
+      <c r="D197" s="63"/>
+      <c r="E197" s="63"/>
+      <c r="F197" s="63"/>
+      <c r="H197" s="63"/>
+      <c r="I197" s="78"/>
+      <c r="J197" s="63"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -10439,7 +10650,7 @@
         <v>764</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>734</v>
@@ -10448,7 +10659,7 @@
         <v>645</v>
       </c>
       <c r="E1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10498,7 +10709,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10512,7 +10723,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10526,7 +10737,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10540,7 +10751,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -10554,7 +10765,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10568,7 +10779,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -10646,7 +10857,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10722,7 +10933,7 @@
         <v>643</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -10736,7 +10947,7 @@
         <v>28</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -10802,7 +11013,7 @@
         <v>74</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -10856,7 +11067,7 @@
         <v>32</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -10894,7 +11105,7 @@
         <v>646</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -10946,7 +11157,7 @@
         <v>79</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -10960,7 +11171,7 @@
         <v>37</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -11000,7 +11211,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -11028,7 +11239,7 @@
         <v>47</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -11078,7 +11289,7 @@
         <v>52</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -11116,7 +11327,7 @@
         <v>654</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -11170,7 +11381,7 @@
         <v>84</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -11274,7 +11485,7 @@
         <v>89</v>
       </c>
       <c r="D64" s="39" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -11288,7 +11499,7 @@
         <v>57</v>
       </c>
       <c r="D65" s="39" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -11302,7 +11513,7 @@
         <v>648</v>
       </c>
       <c r="D66" s="43" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -11392,7 +11603,7 @@
         <v>653</v>
       </c>
       <c r="D73" s="43" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -11454,7 +11665,7 @@
         <v>61</v>
       </c>
       <c r="D78" s="47" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -11494,7 +11705,7 @@
         <v>650</v>
       </c>
       <c r="D81" s="43" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -11508,7 +11719,7 @@
         <v>94</v>
       </c>
       <c r="D82" s="39" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -11546,7 +11757,7 @@
         <v>64</v>
       </c>
       <c r="D85" s="39" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -11560,7 +11771,7 @@
         <v>98</v>
       </c>
       <c r="D86" s="39" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -11662,7 +11873,7 @@
         <v>67</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -11676,7 +11887,7 @@
         <v>695</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -11773,10 +11984,10 @@
         <v>711</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -11919,7 +12130,7 @@
         <v>765</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D115" s="14" t="s">
         <v>772</v>
@@ -11933,7 +12144,7 @@
         <v>766</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D116" s="14" t="s">
         <v>773</v>
@@ -12091,7 +12302,7 @@
         <v>901</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D129" s="14"/>
     </row>
@@ -12101,7 +12312,7 @@
       </c>
       <c r="B130" s="13"/>
       <c r="C130" s="14" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D130" s="14"/>
     </row>
@@ -12111,7 +12322,7 @@
       </c>
       <c r="B131" s="13"/>
       <c r="C131" s="14" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D131" s="14"/>
     </row>
@@ -12121,7 +12332,7 @@
       </c>
       <c r="B132" s="13"/>
       <c r="C132" s="14" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D132" s="14"/>
     </row>
@@ -12131,7 +12342,7 @@
       </c>
       <c r="B133" s="13"/>
       <c r="C133" s="14" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D133" s="14"/>
     </row>
@@ -12141,7 +12352,7 @@
       </c>
       <c r="B134" s="15"/>
       <c r="C134" s="9" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D134" s="9"/>
     </row>

--- a/统计清单/2017国内编号清单.xlsx
+++ b/统计清单/2017国内编号清单.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="981">
   <si>
     <t>本地编号</t>
   </si>
@@ -3608,6 +3608,18 @@
   </si>
   <si>
     <t>胭脂复色白檀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪漫</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对版</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对版</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3975,7 +3987,24 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -4380,19 +4409,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:L197" totalsRowShown="0">
-  <autoFilter ref="A1:L197"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M197" totalsRowShown="0">
+  <autoFilter ref="A1:M197"/>
+  <tableColumns count="13">
     <tableColumn id="1" name="145"/>
     <tableColumn id="2" name="属"/>
-    <tableColumn id="3" name="属内编号" dataDxfId="17"/>
-    <tableColumn id="4" name="拉丁名" dataDxfId="16"/>
-    <tableColumn id="5" name="中文" dataDxfId="15"/>
-    <tableColumn id="7" name="来源编号" dataDxfId="14"/>
+    <tableColumn id="3" name="属内编号" dataDxfId="18"/>
+    <tableColumn id="4" name="拉丁名" dataDxfId="17"/>
+    <tableColumn id="5" name="中文" dataDxfId="16"/>
+    <tableColumn id="9" name="对版" dataDxfId="0"/>
+    <tableColumn id="7" name="来源编号" dataDxfId="15"/>
     <tableColumn id="12" name="引进价格"/>
-    <tableColumn id="6" name="来源" dataDxfId="13"/>
-    <tableColumn id="8" name="参考链接" dataDxfId="12" dataCellStyle="超链接"/>
-    <tableColumn id="10" name="引进尺寸2" dataDxfId="11"/>
+    <tableColumn id="6" name="来源" dataDxfId="14"/>
+    <tableColumn id="8" name="参考链接" dataDxfId="13" dataCellStyle="超链接"/>
+    <tableColumn id="10" name="引进尺寸2" dataDxfId="12"/>
     <tableColumn id="11" name="引进日期"/>
     <tableColumn id="13" name="备注"/>
   </tableColumns>
@@ -4405,9 +4435,9 @@
   <autoFilter ref="A1:E162"/>
   <tableColumns count="5">
     <tableColumn id="1" name="145"/>
-    <tableColumn id="3" name="编号" dataDxfId="10"/>
-    <tableColumn id="5" name="中文" dataDxfId="9"/>
-    <tableColumn id="7" name="来源编号" dataDxfId="8"/>
+    <tableColumn id="3" name="编号" dataDxfId="11"/>
+    <tableColumn id="5" name="中文" dataDxfId="10"/>
+    <tableColumn id="7" name="来源编号" dataDxfId="9"/>
     <tableColumn id="2" name="数量"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4415,16 +4445,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G129" totalsRowShown="0" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G129" totalsRowShown="0" dataDxfId="8">
   <autoFilter ref="A1:G129"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="本地编号" dataDxfId="6"/>
-    <tableColumn id="2" name="编号" dataDxfId="5"/>
-    <tableColumn id="5" name="中文名" dataDxfId="4"/>
-    <tableColumn id="6" name="购买目标" dataDxfId="3"/>
-    <tableColumn id="7" name="来源编号" dataDxfId="2"/>
-    <tableColumn id="4" name="链接" dataDxfId="1"/>
-    <tableColumn id="3" name="购买数量" dataDxfId="0"/>
+    <tableColumn id="1" name="本地编号" dataDxfId="7"/>
+    <tableColumn id="2" name="编号" dataDxfId="6"/>
+    <tableColumn id="5" name="中文名" dataDxfId="5"/>
+    <tableColumn id="6" name="购买目标" dataDxfId="4"/>
+    <tableColumn id="7" name="来源编号" dataDxfId="3"/>
+    <tableColumn id="4" name="链接" dataDxfId="2"/>
+    <tableColumn id="3" name="购买数量" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4717,10 +4747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L197"/>
+  <dimension ref="A1:M197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4729,7 +4759,7 @@
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" customWidth="1"/>
     <col min="7" max="7" width="8.75" customWidth="1"/>
     <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="47.125" bestFit="1" customWidth="1"/>
@@ -4739,7 +4769,7 @@
     <col min="13" max="13" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>764</v>
       </c>
@@ -4756,28 +4786,31 @@
         <v>734</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>979</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>736</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>954</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>735</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="J1" s="61" t="s">
         <v>737</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>900</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="L1" s="27" t="s">
         <v>898</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -4794,23 +4827,24 @@
         <v>330</v>
       </c>
       <c r="F2" s="39"/>
-      <c r="G2" s="9">
+      <c r="G2" s="39"/>
+      <c r="H2" s="9">
         <v>15</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="K2" s="10">
+      <c r="L2" s="10">
         <v>42909</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="37">
         <v>2</v>
       </c>
@@ -4827,23 +4861,24 @@
         <v>468</v>
       </c>
       <c r="F3" s="39"/>
-      <c r="G3" s="9">
+      <c r="G3" s="39"/>
+      <c r="H3" s="9">
         <v>30</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="K3" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K3" s="10">
+      <c r="L3" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="37">
         <v>3</v>
       </c>
@@ -4860,23 +4895,24 @@
         <v>415</v>
       </c>
       <c r="F4" s="39"/>
-      <c r="G4" s="9">
+      <c r="G4" s="39"/>
+      <c r="H4" s="9">
         <v>30</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="K4" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K4" s="10">
+      <c r="L4" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="37">
         <v>4</v>
       </c>
@@ -4892,26 +4928,27 @@
       <c r="E5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="39"/>
+      <c r="G5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="9">
+      <c r="H5" s="9">
         <v>30</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="10">
+      <c r="L5" s="10">
         <v>42882</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="37">
         <v>5</v>
       </c>
@@ -4927,26 +4964,27 @@
       <c r="E6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="39"/>
+      <c r="G6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="9">
+      <c r="H6" s="9">
         <v>30</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="10">
+      <c r="L6" s="10">
         <v>42882</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="37">
         <v>6</v>
       </c>
@@ -4962,26 +5000,27 @@
       <c r="E7" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="39"/>
+      <c r="G7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="9">
+      <c r="H7" s="9">
         <v>30</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="10">
+      <c r="L7" s="10">
         <v>42882</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="37">
         <v>7</v>
       </c>
@@ -4997,26 +5036,27 @@
       <c r="E8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="39"/>
+      <c r="G8" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="9">
+      <c r="H8" s="9">
         <v>30</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="K8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="10">
+      <c r="L8" s="10">
         <v>42882</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="37">
         <v>8</v>
       </c>
@@ -5032,26 +5072,27 @@
       <c r="E9" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="9">
+      <c r="H9" s="9">
         <v>30</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="K9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="10">
+      <c r="L9" s="10">
         <v>42882</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="37">
         <v>9</v>
       </c>
@@ -5067,26 +5108,27 @@
       <c r="E10" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="39"/>
+      <c r="G10" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="9">
+      <c r="H10" s="9">
         <v>30</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="10">
+      <c r="L10" s="10">
         <v>42882</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -5102,20 +5144,21 @@
       <c r="E11" s="42" t="s">
         <v>584</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="42"/>
+      <c r="G11" s="43" t="s">
         <v>629</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="9"/>
+      <c r="I11" s="23" t="s">
         <v>590</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="10">
+      <c r="J11" s="11"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="37">
         <v>11</v>
       </c>
@@ -5131,20 +5174,21 @@
       <c r="E12" s="42" t="s">
         <v>612</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="42"/>
+      <c r="G12" s="43" t="s">
         <v>615</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="9"/>
+      <c r="I12" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="10">
+      <c r="J12" s="11"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="37">
         <v>12</v>
       </c>
@@ -5161,23 +5205,24 @@
         <v>429</v>
       </c>
       <c r="F13" s="39"/>
-      <c r="G13" s="9">
+      <c r="G13" s="39"/>
+      <c r="H13" s="9">
         <v>30</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="I13" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="J13" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="K13" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K13" s="10">
+      <c r="L13" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -5194,23 +5239,24 @@
         <v>437</v>
       </c>
       <c r="F14" s="39"/>
-      <c r="G14" s="9">
+      <c r="G14" s="39"/>
+      <c r="H14" s="9">
         <v>30</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="I14" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="J14" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="K14" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K14" s="10">
+      <c r="L14" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="37">
         <v>14</v>
       </c>
@@ -5227,23 +5273,24 @@
         <v>411</v>
       </c>
       <c r="F15" s="39"/>
-      <c r="G15" s="9">
+      <c r="G15" s="39"/>
+      <c r="H15" s="9">
         <v>30</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="I15" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="J15" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="K15" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K15" s="10">
+      <c r="L15" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="37">
         <v>15</v>
       </c>
@@ -5259,26 +5306,27 @@
       <c r="E16" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="39"/>
+      <c r="G16" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="9">
+      <c r="H16" s="9">
         <v>30</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="I16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="J16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="K16" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="10">
+      <c r="L16" s="10">
         <v>42882</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17" s="37">
         <v>16</v>
       </c>
@@ -5295,23 +5343,24 @@
         <v>361</v>
       </c>
       <c r="F17" s="39"/>
-      <c r="G17" s="9">
+      <c r="G17" s="39"/>
+      <c r="H17" s="9">
         <v>30</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="I17" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="J17" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="K17" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K17" s="10">
+      <c r="L17" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12">
       <c r="A18" s="37">
         <v>17</v>
       </c>
@@ -5328,23 +5377,24 @@
         <v>449</v>
       </c>
       <c r="F18" s="39"/>
-      <c r="G18" s="9">
+      <c r="G18" s="39"/>
+      <c r="H18" s="9">
         <v>30</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="I18" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="J18" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="K18" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K18" s="10">
+      <c r="L18" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12">
       <c r="A19" s="37">
         <v>18</v>
       </c>
@@ -5360,20 +5410,21 @@
       <c r="E19" s="42" t="s">
         <v>622</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="42"/>
+      <c r="G19" s="43" t="s">
         <v>623</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="9"/>
+      <c r="I19" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="10">
+      <c r="J19" s="11"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20" s="37">
         <v>19</v>
       </c>
@@ -5390,23 +5441,24 @@
         <v>413</v>
       </c>
       <c r="F20" s="39"/>
-      <c r="G20" s="9">
+      <c r="G20" s="39"/>
+      <c r="H20" s="9">
         <v>30</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="I20" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="J20" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="K20" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K20" s="10">
+      <c r="L20" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21" s="37">
         <v>20</v>
       </c>
@@ -5423,19 +5475,20 @@
         <v>484</v>
       </c>
       <c r="F21" s="39"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="14" t="s">
+      <c r="G21" s="39"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="J21" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10">
+      <c r="K21" s="9"/>
+      <c r="L21" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:12">
       <c r="A22" s="37">
         <v>21</v>
       </c>
@@ -5451,20 +5504,21 @@
       <c r="E22" s="42" t="s">
         <v>643</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="42"/>
+      <c r="G22" s="43" t="s">
         <v>644</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="9"/>
+      <c r="I22" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="10">
+      <c r="J22" s="11"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:12">
       <c r="A23" s="37">
         <v>22</v>
       </c>
@@ -5480,26 +5534,27 @@
       <c r="E23" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="39"/>
+      <c r="G23" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="9">
+      <c r="H23" s="9">
         <v>30</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="I23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="J23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="K23" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K23" s="10">
+      <c r="L23" s="10">
         <v>42882</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:12">
       <c r="A24" s="37">
         <v>23</v>
       </c>
@@ -5516,23 +5571,24 @@
         <v>456</v>
       </c>
       <c r="F24" s="39"/>
-      <c r="G24" s="9">
+      <c r="G24" s="39"/>
+      <c r="H24" s="9">
         <v>30</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="I24" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="J24" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="J24" s="14" t="s">
+      <c r="K24" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K24" s="10">
+      <c r="L24" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12">
       <c r="A25" s="37">
         <v>24</v>
       </c>
@@ -5548,20 +5604,21 @@
       <c r="E25" s="42" t="s">
         <v>630</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="42"/>
+      <c r="G25" s="43" t="s">
         <v>631</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="9"/>
+      <c r="I25" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="10">
+      <c r="J25" s="11"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12">
       <c r="A26" s="37">
         <v>25</v>
       </c>
@@ -5577,20 +5634,21 @@
       <c r="E26" s="42" t="s">
         <v>614</v>
       </c>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="42"/>
+      <c r="G26" s="43" t="s">
         <v>606</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="9"/>
+      <c r="I26" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="10">
+      <c r="J26" s="11"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:12">
       <c r="A27" s="37">
         <v>26</v>
       </c>
@@ -5607,23 +5665,24 @@
         <v>354</v>
       </c>
       <c r="F27" s="39"/>
-      <c r="G27" s="9">
+      <c r="G27" s="39"/>
+      <c r="H27" s="9">
         <v>30</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="I27" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="J27" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="J27" s="14" t="s">
+      <c r="K27" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K27" s="10">
+      <c r="L27" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:12">
       <c r="A28" s="37">
         <v>27</v>
       </c>
@@ -5639,26 +5698,27 @@
       <c r="E28" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="39" t="s">
+      <c r="F28" s="39"/>
+      <c r="G28" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="9">
+      <c r="H28" s="9">
         <v>30</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="I28" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="J28" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="K28" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K28" s="10">
+      <c r="L28" s="10">
         <v>42888</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:12">
       <c r="A29" s="37">
         <v>28</v>
       </c>
@@ -5674,20 +5734,21 @@
       <c r="E29" s="42" t="s">
         <v>638</v>
       </c>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="42"/>
+      <c r="G29" s="43" t="s">
         <v>639</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="9"/>
+      <c r="I29" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="10">
+      <c r="J29" s="11"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:12">
       <c r="A30" s="37">
         <v>29</v>
       </c>
@@ -5703,20 +5764,21 @@
       <c r="E30" s="42" t="s">
         <v>635</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="42"/>
+      <c r="G30" s="43" t="s">
         <v>634</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="9"/>
+      <c r="I30" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="10">
+      <c r="J30" s="11"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:12">
       <c r="A31" s="37">
         <v>30</v>
       </c>
@@ -5733,23 +5795,24 @@
         <v>394</v>
       </c>
       <c r="F31" s="39"/>
-      <c r="G31" s="9">
+      <c r="G31" s="39"/>
+      <c r="H31" s="9">
         <v>30</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="I31" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="J31" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="J31" s="14" t="s">
+      <c r="K31" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K31" s="10">
+      <c r="L31" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:12">
       <c r="A32" s="37">
         <v>31</v>
       </c>
@@ -5765,26 +5828,27 @@
       <c r="E32" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="39" t="s">
+      <c r="F32" s="39"/>
+      <c r="G32" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="9">
+      <c r="H32" s="9">
         <v>30</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="I32" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="J32" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="K32" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K32" s="10">
+      <c r="L32" s="10">
         <v>42882</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:12">
       <c r="A33" s="37">
         <v>32</v>
       </c>
@@ -5801,23 +5865,24 @@
         <v>459</v>
       </c>
       <c r="F33" s="39"/>
-      <c r="G33" s="9">
+      <c r="G33" s="39"/>
+      <c r="H33" s="9">
         <v>30</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="I33" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="J33" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="J33" s="14" t="s">
+      <c r="K33" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K33" s="10">
+      <c r="L33" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:12">
       <c r="A34" s="37">
         <v>33</v>
       </c>
@@ -5834,23 +5899,24 @@
         <v>453</v>
       </c>
       <c r="F34" s="39"/>
-      <c r="G34" s="9">
+      <c r="G34" s="39"/>
+      <c r="H34" s="9">
         <v>30</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="I34" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="J34" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="J34" s="14" t="s">
+      <c r="K34" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K34" s="10">
+      <c r="L34" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:12">
       <c r="A35" s="37">
         <v>34</v>
       </c>
@@ -5866,20 +5932,21 @@
       <c r="E35" s="42" t="s">
         <v>646</v>
       </c>
-      <c r="F35" s="43" t="s">
+      <c r="F35" s="42"/>
+      <c r="G35" s="43" t="s">
         <v>647</v>
       </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="20" t="s">
+      <c r="H35" s="9"/>
+      <c r="I35" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="10">
+      <c r="J35" s="11"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:12">
       <c r="A36" s="37">
         <v>35</v>
       </c>
@@ -5896,23 +5963,24 @@
         <v>391</v>
       </c>
       <c r="F36" s="39"/>
-      <c r="G36" s="9">
+      <c r="G36" s="39"/>
+      <c r="H36" s="9">
         <v>30</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="I36" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="J36" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="J36" s="14" t="s">
+      <c r="K36" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K36" s="10">
+      <c r="L36" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:12">
       <c r="A37" s="37">
         <v>36</v>
       </c>
@@ -5928,20 +5996,21 @@
       <c r="E37" s="42" t="s">
         <v>589</v>
       </c>
-      <c r="F37" s="43" t="s">
+      <c r="F37" s="42"/>
+      <c r="G37" s="43" t="s">
         <v>591</v>
       </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="20" t="s">
+      <c r="H37" s="9"/>
+      <c r="I37" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="10">
+      <c r="J37" s="11"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:12">
       <c r="A38" s="37">
         <v>37</v>
       </c>
@@ -5958,23 +6027,24 @@
         <v>458</v>
       </c>
       <c r="F38" s="39"/>
-      <c r="G38" s="9">
+      <c r="G38" s="39"/>
+      <c r="H38" s="9">
         <v>30</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="I38" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="J38" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="J38" s="14" t="s">
+      <c r="K38" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K38" s="10">
+      <c r="L38" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:12">
       <c r="A39" s="37">
         <v>38</v>
       </c>
@@ -5990,26 +6060,27 @@
       <c r="E39" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F39" s="39" t="s">
+      <c r="F39" s="39"/>
+      <c r="G39" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="G39" s="9">
+      <c r="H39" s="9">
         <v>30</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="I39" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="J39" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="K39" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K39" s="10">
+      <c r="L39" s="10">
         <v>42888</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:12">
       <c r="A40" s="37">
         <v>39</v>
       </c>
@@ -6025,26 +6096,27 @@
       <c r="E40" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="39" t="s">
+      <c r="F40" s="39"/>
+      <c r="G40" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="G40" s="9">
+      <c r="H40" s="9">
         <v>30</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="I40" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="J40" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J40" s="9" t="s">
+      <c r="K40" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K40" s="10">
+      <c r="L40" s="10">
         <v>42882</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:12">
       <c r="A41" s="37">
         <v>40</v>
       </c>
@@ -6060,20 +6132,21 @@
       <c r="E41" s="42" t="s">
         <v>604</v>
       </c>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="42"/>
+      <c r="G41" s="43" t="s">
         <v>605</v>
       </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="20" t="s">
+      <c r="H41" s="9"/>
+      <c r="I41" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="I41" s="11"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="10">
+      <c r="J41" s="11"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:12">
       <c r="A42" s="37">
         <v>41</v>
       </c>
@@ -6090,23 +6163,24 @@
         <v>407</v>
       </c>
       <c r="F42" s="39"/>
-      <c r="G42" s="9">
+      <c r="G42" s="39"/>
+      <c r="H42" s="9">
         <v>30</v>
       </c>
-      <c r="H42" s="14" t="s">
+      <c r="I42" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="J42" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="J42" s="14" t="s">
+      <c r="K42" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K42" s="10">
+      <c r="L42" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:12">
       <c r="A43" s="37">
         <v>42</v>
       </c>
@@ -6122,26 +6196,27 @@
       <c r="E43" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="39" t="s">
+      <c r="F43" s="39"/>
+      <c r="G43" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G43" s="9">
+      <c r="H43" s="9">
         <v>30</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="I43" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="J43" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="J43" s="9" t="s">
+      <c r="K43" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K43" s="10">
+      <c r="L43" s="10">
         <v>42882</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:12">
       <c r="A44" s="37">
         <v>43</v>
       </c>
@@ -6157,20 +6232,21 @@
       <c r="E44" s="42" t="s">
         <v>597</v>
       </c>
-      <c r="F44" s="43" t="s">
+      <c r="F44" s="42"/>
+      <c r="G44" s="43" t="s">
         <v>598</v>
       </c>
-      <c r="G44" s="9"/>
-      <c r="H44" s="20" t="s">
+      <c r="H44" s="9"/>
+      <c r="I44" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="I44" s="11"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="10">
+      <c r="J44" s="11"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:12">
       <c r="A45" s="37">
         <v>44</v>
       </c>
@@ -6186,26 +6262,27 @@
       <c r="E45" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F45" s="39" t="s">
+      <c r="F45" s="39"/>
+      <c r="G45" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G45" s="9">
+      <c r="H45" s="9">
         <v>30</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="I45" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="J45" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="K45" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K45" s="10">
+      <c r="L45" s="10">
         <v>42882</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:12">
       <c r="A46" s="37">
         <v>45</v>
       </c>
@@ -6222,23 +6299,24 @@
         <v>366</v>
       </c>
       <c r="F46" s="39"/>
-      <c r="G46" s="9">
+      <c r="G46" s="39"/>
+      <c r="H46" s="9">
         <v>30</v>
       </c>
-      <c r="H46" s="14" t="s">
+      <c r="I46" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="J46" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="J46" s="14" t="s">
+      <c r="K46" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K46" s="10">
+      <c r="L46" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:12">
       <c r="A47" s="37">
         <v>46</v>
       </c>
@@ -6255,23 +6333,24 @@
         <v>451</v>
       </c>
       <c r="F47" s="39"/>
-      <c r="G47" s="9">
+      <c r="G47" s="39"/>
+      <c r="H47" s="9">
         <v>30</v>
       </c>
-      <c r="H47" s="14" t="s">
+      <c r="I47" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="J47" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="J47" s="14" t="s">
+      <c r="K47" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K47" s="10">
+      <c r="L47" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:12">
       <c r="A48" s="37">
         <v>47</v>
       </c>
@@ -6288,23 +6367,24 @@
         <v>440</v>
       </c>
       <c r="F48" s="39"/>
-      <c r="G48" s="9">
+      <c r="G48" s="39"/>
+      <c r="H48" s="9">
         <v>30</v>
       </c>
-      <c r="H48" s="14" t="s">
+      <c r="I48" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="J48" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="J48" s="14" t="s">
+      <c r="K48" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K48" s="10">
+      <c r="L48" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:12">
       <c r="A49" s="37">
         <v>48</v>
       </c>
@@ -6320,26 +6400,27 @@
       <c r="E49" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="F49" s="39" t="s">
+      <c r="F49" s="39"/>
+      <c r="G49" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G49" s="9">
+      <c r="H49" s="9">
         <v>30</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="I49" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I49" s="11" t="s">
+      <c r="J49" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J49" s="9" t="s">
+      <c r="K49" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K49" s="10">
+      <c r="L49" s="10">
         <v>42882</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:12">
       <c r="A50" s="37">
         <v>49</v>
       </c>
@@ -6356,23 +6437,24 @@
         <v>375</v>
       </c>
       <c r="F50" s="39"/>
-      <c r="G50" s="9">
+      <c r="G50" s="39"/>
+      <c r="H50" s="9">
         <v>30</v>
       </c>
-      <c r="H50" s="14" t="s">
+      <c r="I50" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I50" s="11" t="s">
+      <c r="J50" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="J50" s="14" t="s">
+      <c r="K50" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K50" s="10">
+      <c r="L50" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:12">
       <c r="A51" s="37">
         <v>50</v>
       </c>
@@ -6389,23 +6471,24 @@
         <v>399</v>
       </c>
       <c r="F51" s="39"/>
-      <c r="G51" s="9">
+      <c r="G51" s="39"/>
+      <c r="H51" s="9">
         <v>30</v>
       </c>
-      <c r="H51" s="14" t="s">
+      <c r="I51" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I51" s="11" t="s">
+      <c r="J51" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="J51" s="14" t="s">
+      <c r="K51" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K51" s="10">
+      <c r="L51" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:12">
       <c r="A52" s="37">
         <v>51</v>
       </c>
@@ -6421,20 +6504,21 @@
       <c r="E52" s="42" t="s">
         <v>654</v>
       </c>
-      <c r="F52" s="43" t="s">
+      <c r="F52" s="42"/>
+      <c r="G52" s="43" t="s">
         <v>655</v>
       </c>
-      <c r="G52" s="9"/>
-      <c r="H52" s="20" t="s">
+      <c r="H52" s="9"/>
+      <c r="I52" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="I52" s="11"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="10">
+      <c r="J52" s="11"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:12">
       <c r="A53" s="37">
         <v>52</v>
       </c>
@@ -6450,20 +6534,21 @@
       <c r="E53" s="42" t="s">
         <v>633</v>
       </c>
-      <c r="F53" s="43" t="s">
+      <c r="F53" s="42"/>
+      <c r="G53" s="43" t="s">
         <v>632</v>
       </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="20" t="s">
+      <c r="H53" s="9"/>
+      <c r="I53" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="I53" s="11"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="10">
+      <c r="J53" s="11"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:12">
       <c r="A54" s="37">
         <v>53</v>
       </c>
@@ -6480,23 +6565,24 @@
         <v>332</v>
       </c>
       <c r="F54" s="39"/>
-      <c r="G54" s="9">
+      <c r="G54" s="39"/>
+      <c r="H54" s="9">
         <v>25</v>
       </c>
-      <c r="H54" s="14" t="s">
+      <c r="I54" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="I54" s="11" t="s">
+      <c r="J54" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="J54" s="14" t="s">
+      <c r="K54" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="K54" s="10">
+      <c r="L54" s="10">
         <v>42909</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:12">
       <c r="A55" s="37">
         <v>54</v>
       </c>
@@ -6512,20 +6598,21 @@
       <c r="E55" s="42" t="s">
         <v>592</v>
       </c>
-      <c r="F55" s="43" t="s">
+      <c r="F55" s="42"/>
+      <c r="G55" s="43" t="s">
         <v>594</v>
       </c>
-      <c r="G55" s="9"/>
-      <c r="H55" s="20" t="s">
+      <c r="H55" s="9"/>
+      <c r="I55" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="I55" s="11"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="10">
+      <c r="J55" s="11"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:12">
       <c r="A56" s="37">
         <v>55</v>
       </c>
@@ -6541,26 +6628,27 @@
       <c r="E56" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="F56" s="39" t="s">
+      <c r="F56" s="39"/>
+      <c r="G56" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="G56" s="9">
+      <c r="H56" s="9">
         <v>30</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="I56" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I56" s="21" t="s">
+      <c r="J56" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="J56" s="9" t="s">
+      <c r="K56" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K56" s="10">
+      <c r="L56" s="10">
         <v>42888</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:12">
       <c r="A57" s="37">
         <v>56</v>
       </c>
@@ -6576,20 +6664,21 @@
       <c r="E57" s="42" t="s">
         <v>599</v>
       </c>
-      <c r="F57" s="43" t="s">
+      <c r="F57" s="42"/>
+      <c r="G57" s="43" t="s">
         <v>600</v>
       </c>
-      <c r="G57" s="9"/>
-      <c r="H57" s="20" t="s">
+      <c r="H57" s="9"/>
+      <c r="I57" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="I57" s="11"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="10">
+      <c r="J57" s="11"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:12">
       <c r="A58" s="37">
         <v>57</v>
       </c>
@@ -6605,20 +6694,21 @@
       <c r="E58" s="42" t="s">
         <v>636</v>
       </c>
-      <c r="F58" s="43" t="s">
+      <c r="F58" s="42"/>
+      <c r="G58" s="43" t="s">
         <v>637</v>
       </c>
-      <c r="G58" s="9"/>
-      <c r="H58" s="20" t="s">
+      <c r="H58" s="9"/>
+      <c r="I58" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="I58" s="11"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="10">
+      <c r="J58" s="11"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:12">
       <c r="A59" s="37">
         <v>58</v>
       </c>
@@ -6635,23 +6725,24 @@
         <v>341</v>
       </c>
       <c r="F59" s="39"/>
-      <c r="G59" s="9">
+      <c r="G59" s="39"/>
+      <c r="H59" s="9">
         <v>30</v>
       </c>
-      <c r="H59" s="14" t="s">
+      <c r="I59" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I59" s="11" t="s">
+      <c r="J59" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="J59" s="14" t="s">
+      <c r="K59" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="K59" s="10">
+      <c r="L59" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:12">
       <c r="A60" s="37">
         <v>59</v>
       </c>
@@ -6668,23 +6759,24 @@
         <v>395</v>
       </c>
       <c r="F60" s="39"/>
-      <c r="G60" s="9">
+      <c r="G60" s="39"/>
+      <c r="H60" s="9">
         <v>30</v>
       </c>
-      <c r="H60" s="14" t="s">
+      <c r="I60" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I60" s="11" t="s">
+      <c r="J60" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="J60" s="14" t="s">
+      <c r="K60" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K60" s="10">
+      <c r="L60" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:12">
       <c r="A61" s="37">
         <v>60</v>
       </c>
@@ -6701,23 +6793,24 @@
         <v>382</v>
       </c>
       <c r="F61" s="39"/>
-      <c r="G61" s="9">
+      <c r="G61" s="39"/>
+      <c r="H61" s="9">
         <v>30</v>
       </c>
-      <c r="H61" s="14" t="s">
+      <c r="I61" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I61" s="11" t="s">
+      <c r="J61" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="J61" s="14" t="s">
+      <c r="K61" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K61" s="10">
+      <c r="L61" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:12">
       <c r="A62" s="37">
         <v>61</v>
       </c>
@@ -6733,20 +6826,21 @@
       <c r="E62" s="42" t="s">
         <v>601</v>
       </c>
-      <c r="F62" s="43" t="s">
+      <c r="F62" s="42"/>
+      <c r="G62" s="43" t="s">
         <v>603</v>
       </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="20" t="s">
+      <c r="H62" s="9"/>
+      <c r="I62" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="I62" s="11"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="10">
+      <c r="J62" s="11"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:12">
       <c r="A63" s="37">
         <v>62</v>
       </c>
@@ -6763,23 +6857,24 @@
         <v>402</v>
       </c>
       <c r="F63" s="39"/>
-      <c r="G63" s="9">
+      <c r="G63" s="39"/>
+      <c r="H63" s="9">
         <v>30</v>
       </c>
-      <c r="H63" s="14" t="s">
+      <c r="I63" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I63" s="11" t="s">
+      <c r="J63" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="J63" s="14" t="s">
+      <c r="K63" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K63" s="10">
+      <c r="L63" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:12">
       <c r="A64" s="37">
         <v>63</v>
       </c>
@@ -6795,26 +6890,27 @@
       <c r="E64" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="F64" s="39" t="s">
+      <c r="F64" s="39"/>
+      <c r="G64" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="G64" s="9">
+      <c r="H64" s="9">
         <v>30</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="I64" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I64" s="11" t="s">
+      <c r="J64" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="J64" s="9" t="s">
+      <c r="K64" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K64" s="10">
+      <c r="L64" s="10">
         <v>42888</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:12">
       <c r="A65" s="37">
         <v>64</v>
       </c>
@@ -6830,26 +6926,27 @@
       <c r="E65" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F65" s="39" t="s">
+      <c r="F65" s="39"/>
+      <c r="G65" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G65" s="9">
+      <c r="H65" s="9">
         <v>30</v>
       </c>
-      <c r="H65" s="9" t="s">
+      <c r="I65" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I65" s="11" t="s">
+      <c r="J65" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J65" s="9" t="s">
+      <c r="K65" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K65" s="10">
+      <c r="L65" s="10">
         <v>42882</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:12">
       <c r="A66" s="37">
         <v>65</v>
       </c>
@@ -6865,20 +6962,21 @@
       <c r="E66" s="42" t="s">
         <v>648</v>
       </c>
-      <c r="F66" s="43" t="s">
+      <c r="F66" s="42"/>
+      <c r="G66" s="43" t="s">
         <v>649</v>
       </c>
-      <c r="G66" s="9"/>
-      <c r="H66" s="20" t="s">
+      <c r="H66" s="9"/>
+      <c r="I66" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="I66" s="11"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="10">
+      <c r="J66" s="11"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:12">
       <c r="A67" s="37">
         <v>66</v>
       </c>
@@ -6895,19 +6993,20 @@
         <v>491</v>
       </c>
       <c r="F67" s="39"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="14" t="s">
+      <c r="G67" s="39"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="I67" s="11" t="s">
+      <c r="J67" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="J67" s="9"/>
-      <c r="K67" s="10">
+      <c r="K67" s="9"/>
+      <c r="L67" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:12">
       <c r="A68" s="37">
         <v>67</v>
       </c>
@@ -6923,20 +7022,21 @@
       <c r="E68" s="42" t="s">
         <v>627</v>
       </c>
-      <c r="F68" s="43" t="s">
+      <c r="F68" s="42"/>
+      <c r="G68" s="43" t="s">
         <v>687</v>
       </c>
-      <c r="G68" s="9"/>
-      <c r="H68" s="20" t="s">
+      <c r="H68" s="9"/>
+      <c r="I68" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="I68" s="11"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="10">
+      <c r="J68" s="11"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:12">
       <c r="A69" s="37">
         <v>68</v>
       </c>
@@ -6950,26 +7050,29 @@
         <v>471</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>447</v>
-      </c>
-      <c r="F69" s="39"/>
-      <c r="G69" s="9">
+        <v>978</v>
+      </c>
+      <c r="F69" s="39" t="s">
+        <v>980</v>
+      </c>
+      <c r="G69" s="39"/>
+      <c r="H69" s="9">
         <v>30</v>
       </c>
-      <c r="H69" s="14" t="s">
+      <c r="I69" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I69" s="11" t="s">
+      <c r="J69" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="J69" s="14" t="s">
+      <c r="K69" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K69" s="10">
+      <c r="L69" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:12">
       <c r="A70" s="37">
         <v>69</v>
       </c>
@@ -6986,23 +7089,24 @@
         <v>342</v>
       </c>
       <c r="F70" s="39"/>
-      <c r="G70" s="9">
+      <c r="G70" s="39"/>
+      <c r="H70" s="9">
         <v>30</v>
       </c>
-      <c r="H70" s="14" t="s">
+      <c r="I70" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="J70" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="J70" s="14" t="s">
+      <c r="K70" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="K70" s="10">
+      <c r="L70" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:12">
       <c r="A71" s="37">
         <v>70</v>
       </c>
@@ -7018,20 +7122,21 @@
       <c r="E71" s="42" t="s">
         <v>640</v>
       </c>
-      <c r="F71" s="43" t="s">
+      <c r="F71" s="42"/>
+      <c r="G71" s="43" t="s">
         <v>641</v>
       </c>
-      <c r="G71" s="9"/>
-      <c r="H71" s="20" t="s">
+      <c r="H71" s="9"/>
+      <c r="I71" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="I71" s="11"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="10">
+      <c r="J71" s="11"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:12">
       <c r="A72" s="37">
         <v>71</v>
       </c>
@@ -7048,23 +7153,24 @@
         <v>409</v>
       </c>
       <c r="F72" s="39"/>
-      <c r="G72" s="9">
+      <c r="G72" s="39"/>
+      <c r="H72" s="9">
         <v>30</v>
       </c>
-      <c r="H72" s="14" t="s">
+      <c r="I72" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I72" s="11" t="s">
+      <c r="J72" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="J72" s="14" t="s">
+      <c r="K72" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K72" s="10">
+      <c r="L72" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:12">
       <c r="A73" s="37">
         <v>72</v>
       </c>
@@ -7080,20 +7186,21 @@
       <c r="E73" s="42" t="s">
         <v>653</v>
       </c>
-      <c r="F73" s="43" t="s">
+      <c r="F73" s="42"/>
+      <c r="G73" s="43" t="s">
         <v>652</v>
       </c>
-      <c r="G73" s="9"/>
-      <c r="H73" s="20" t="s">
+      <c r="H73" s="9"/>
+      <c r="I73" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="I73" s="11"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="10">
+      <c r="J73" s="11"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:12">
       <c r="A74" s="37">
         <v>73</v>
       </c>
@@ -7110,23 +7217,24 @@
         <v>389</v>
       </c>
       <c r="F74" s="39"/>
-      <c r="G74" s="9">
+      <c r="G74" s="39"/>
+      <c r="H74" s="9">
         <v>30</v>
       </c>
-      <c r="H74" s="14" t="s">
+      <c r="I74" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I74" s="11" t="s">
+      <c r="J74" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="J74" s="14" t="s">
+      <c r="K74" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K74" s="10">
+      <c r="L74" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:12">
       <c r="A75" s="37">
         <v>74</v>
       </c>
@@ -7143,23 +7251,24 @@
         <v>368</v>
       </c>
       <c r="F75" s="39"/>
-      <c r="G75" s="9">
+      <c r="G75" s="39"/>
+      <c r="H75" s="9">
         <v>30</v>
       </c>
-      <c r="H75" s="14" t="s">
+      <c r="I75" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I75" s="11" t="s">
+      <c r="J75" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="J75" s="14" t="s">
+      <c r="K75" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K75" s="10">
+      <c r="L75" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:12">
       <c r="A76" s="37">
         <v>75</v>
       </c>
@@ -7176,23 +7285,24 @@
         <v>380</v>
       </c>
       <c r="F76" s="39"/>
-      <c r="G76" s="9">
+      <c r="G76" s="39"/>
+      <c r="H76" s="9">
         <v>30</v>
       </c>
-      <c r="H76" s="14" t="s">
+      <c r="I76" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I76" s="11" t="s">
+      <c r="J76" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="J76" s="14" t="s">
+      <c r="K76" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K76" s="10">
+      <c r="L76" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:12">
       <c r="A77" s="37">
         <v>76</v>
       </c>
@@ -7209,23 +7319,24 @@
         <v>432</v>
       </c>
       <c r="F77" s="39"/>
-      <c r="G77" s="9">
+      <c r="G77" s="39"/>
+      <c r="H77" s="9">
         <v>30</v>
       </c>
-      <c r="H77" s="14" t="s">
+      <c r="I77" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I77" s="11" t="s">
+      <c r="J77" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="J77" s="14" t="s">
+      <c r="K77" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K77" s="10">
+      <c r="L77" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:12">
       <c r="A78" s="45">
         <v>77</v>
       </c>
@@ -7241,26 +7352,27 @@
       <c r="E78" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="F78" s="47" t="s">
+      <c r="F78" s="47"/>
+      <c r="G78" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="G78" s="30">
+      <c r="H78" s="30">
         <v>30</v>
       </c>
-      <c r="H78" s="30" t="s">
+      <c r="I78" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I78" s="31" t="s">
+      <c r="J78" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="J78" s="30" t="s">
+      <c r="K78" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="K78" s="10">
+      <c r="L78" s="10">
         <v>42882</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:12">
       <c r="A79" s="45">
         <v>77</v>
       </c>
@@ -7277,23 +7389,24 @@
         <v>343</v>
       </c>
       <c r="F79" s="47"/>
-      <c r="G79" s="30">
+      <c r="G79" s="47"/>
+      <c r="H79" s="30">
         <v>30</v>
       </c>
-      <c r="H79" s="29" t="s">
+      <c r="I79" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="I79" s="31" t="s">
+      <c r="J79" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="J79" s="29" t="s">
+      <c r="K79" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="K79" s="10">
+      <c r="L79" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:12">
       <c r="A80" s="37">
         <v>78</v>
       </c>
@@ -7310,23 +7423,24 @@
         <v>463</v>
       </c>
       <c r="F80" s="39"/>
-      <c r="G80" s="9">
+      <c r="G80" s="39"/>
+      <c r="H80" s="9">
         <v>30</v>
       </c>
-      <c r="H80" s="14" t="s">
+      <c r="I80" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I80" s="11" t="s">
+      <c r="J80" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="J80" s="14" t="s">
+      <c r="K80" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K80" s="10">
+      <c r="L80" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:12">
       <c r="A81" s="37">
         <v>79</v>
       </c>
@@ -7342,20 +7456,21 @@
       <c r="E81" s="42" t="s">
         <v>847</v>
       </c>
-      <c r="F81" s="43" t="s">
+      <c r="F81" s="42"/>
+      <c r="G81" s="43" t="s">
         <v>625</v>
       </c>
-      <c r="G81" s="9"/>
-      <c r="H81" s="20" t="s">
+      <c r="H81" s="9"/>
+      <c r="I81" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="I81" s="11"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="10">
+      <c r="J81" s="11"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:12">
       <c r="A82" s="37">
         <v>80</v>
       </c>
@@ -7371,20 +7486,21 @@
       <c r="E82" s="42" t="s">
         <v>650</v>
       </c>
-      <c r="F82" s="43" t="s">
+      <c r="F82" s="42"/>
+      <c r="G82" s="43" t="s">
         <v>651</v>
       </c>
-      <c r="G82" s="9"/>
-      <c r="H82" s="20" t="s">
+      <c r="H82" s="9"/>
+      <c r="I82" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="I82" s="11"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="10">
+      <c r="J82" s="11"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:12">
       <c r="A83" s="37">
         <v>81</v>
       </c>
@@ -7400,26 +7516,27 @@
       <c r="E83" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="F83" s="39" t="s">
+      <c r="F83" s="39"/>
+      <c r="G83" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="G83" s="9">
+      <c r="H83" s="9">
         <v>30</v>
       </c>
-      <c r="H83" s="9" t="s">
+      <c r="I83" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="11" t="s">
+      <c r="J83" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="J83" s="9" t="s">
+      <c r="K83" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K83" s="10">
+      <c r="L83" s="10">
         <v>42888</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:12">
       <c r="A84" s="37">
         <v>82</v>
       </c>
@@ -7436,23 +7553,24 @@
         <v>466</v>
       </c>
       <c r="F84" s="39"/>
-      <c r="G84" s="9">
+      <c r="G84" s="39"/>
+      <c r="H84" s="9">
         <v>30</v>
       </c>
-      <c r="H84" s="14" t="s">
+      <c r="I84" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I84" s="11" t="s">
+      <c r="J84" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="J84" s="14" t="s">
+      <c r="K84" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K84" s="10">
+      <c r="L84" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:12">
       <c r="A85" s="37">
         <v>83</v>
       </c>
@@ -7469,23 +7587,24 @@
         <v>465</v>
       </c>
       <c r="F85" s="39"/>
-      <c r="G85" s="9">
+      <c r="G85" s="39"/>
+      <c r="H85" s="9">
         <v>30</v>
       </c>
-      <c r="H85" s="14" t="s">
+      <c r="I85" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I85" s="11" t="s">
+      <c r="J85" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="J85" s="14" t="s">
+      <c r="K85" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K85" s="10">
+      <c r="L85" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:12">
       <c r="A86" s="37">
         <v>84</v>
       </c>
@@ -7501,26 +7620,27 @@
       <c r="E86" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F86" s="39" t="s">
+      <c r="F86" s="39"/>
+      <c r="G86" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="G86" s="9">
+      <c r="H86" s="9">
         <v>30</v>
       </c>
-      <c r="H86" s="9" t="s">
+      <c r="I86" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I86" s="11" t="s">
+      <c r="J86" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J86" s="9" t="s">
+      <c r="K86" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K86" s="10">
+      <c r="L86" s="10">
         <v>42882</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:12">
       <c r="A87" s="37">
         <v>85</v>
       </c>
@@ -7536,26 +7656,27 @@
       <c r="E87" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="F87" s="39" t="s">
+      <c r="F87" s="39"/>
+      <c r="G87" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="G87" s="9">
+      <c r="H87" s="9">
         <v>30</v>
       </c>
-      <c r="H87" s="9" t="s">
+      <c r="I87" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I87" s="21" t="s">
+      <c r="J87" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="J87" s="9" t="s">
+      <c r="K87" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K87" s="10">
+      <c r="L87" s="10">
         <v>42888</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:12">
       <c r="A88" s="37">
         <v>86</v>
       </c>
@@ -7571,24 +7692,25 @@
       <c r="E88" s="43" t="s">
         <v>404</v>
       </c>
-      <c r="F88" s="39"/>
-      <c r="G88" s="9">
+      <c r="F88" s="43"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="9">
         <v>30</v>
       </c>
-      <c r="H88" s="14" t="s">
+      <c r="I88" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I88" s="11" t="s">
+      <c r="J88" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="J88" s="14" t="s">
+      <c r="K88" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K88" s="10">
+      <c r="L88" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:12">
       <c r="A89" s="37">
         <v>87</v>
       </c>
@@ -7604,20 +7726,21 @@
       <c r="E89" s="42" t="s">
         <v>595</v>
       </c>
-      <c r="F89" s="43" t="s">
+      <c r="F89" s="42"/>
+      <c r="G89" s="43" t="s">
         <v>596</v>
       </c>
-      <c r="G89" s="9"/>
-      <c r="H89" s="20" t="s">
+      <c r="H89" s="9"/>
+      <c r="I89" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="I89" s="11"/>
-      <c r="J89" s="14"/>
-      <c r="K89" s="10">
+      <c r="J89" s="11"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:12">
       <c r="A90" s="37">
         <v>88</v>
       </c>
@@ -7633,20 +7756,21 @@
       <c r="E90" s="42" t="s">
         <v>611</v>
       </c>
-      <c r="F90" s="43" t="s">
+      <c r="F90" s="42"/>
+      <c r="G90" s="43" t="s">
         <v>686</v>
       </c>
-      <c r="G90" s="9"/>
-      <c r="H90" s="20" t="s">
+      <c r="H90" s="9"/>
+      <c r="I90" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="I90" s="11"/>
-      <c r="J90" s="14"/>
-      <c r="K90" s="10">
+      <c r="J90" s="11"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:12">
       <c r="A91" s="37">
         <v>89</v>
       </c>
@@ -7663,23 +7787,24 @@
         <v>433</v>
       </c>
       <c r="F91" s="39"/>
-      <c r="G91" s="9">
+      <c r="G91" s="39"/>
+      <c r="H91" s="9">
         <v>30</v>
       </c>
-      <c r="H91" s="14" t="s">
+      <c r="I91" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I91" s="11" t="s">
+      <c r="J91" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="J91" s="14" t="s">
+      <c r="K91" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K91" s="10">
+      <c r="L91" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:12">
       <c r="A92" s="37">
         <v>90</v>
       </c>
@@ -7696,23 +7821,24 @@
         <v>385</v>
       </c>
       <c r="F92" s="39"/>
-      <c r="G92" s="9">
+      <c r="G92" s="39"/>
+      <c r="H92" s="9">
         <v>30</v>
       </c>
-      <c r="H92" s="14" t="s">
+      <c r="I92" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I92" s="11" t="s">
+      <c r="J92" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="J92" s="14" t="s">
+      <c r="K92" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K92" s="10">
+      <c r="L92" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:12">
       <c r="A93" s="37">
         <v>91</v>
       </c>
@@ -7729,23 +7855,24 @@
         <v>405</v>
       </c>
       <c r="F93" s="39"/>
-      <c r="G93" s="9">
+      <c r="G93" s="39"/>
+      <c r="H93" s="9">
         <v>30</v>
       </c>
-      <c r="H93" s="14" t="s">
+      <c r="I93" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I93" s="11" t="s">
+      <c r="J93" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="J93" s="14" t="s">
+      <c r="K93" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K93" s="10">
+      <c r="L93" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:12">
       <c r="A94" s="37">
         <v>92</v>
       </c>
@@ -7762,23 +7889,24 @@
         <v>436</v>
       </c>
       <c r="F94" s="39"/>
-      <c r="G94" s="9">
+      <c r="G94" s="39"/>
+      <c r="H94" s="9">
         <v>30</v>
       </c>
-      <c r="H94" s="14" t="s">
+      <c r="I94" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I94" s="11" t="s">
+      <c r="J94" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="J94" s="14" t="s">
+      <c r="K94" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K94" s="10">
+      <c r="L94" s="10">
         <v>42912</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:12">
       <c r="A95">
         <v>93</v>
       </c>
@@ -7794,26 +7922,27 @@
       <c r="E95" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F95" s="9"/>
+      <c r="G95" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G95" s="9">
+      <c r="H95" s="9">
         <v>30</v>
       </c>
-      <c r="H95" s="9" t="s">
+      <c r="I95" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I95" s="11" t="s">
+      <c r="J95" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="J95" s="9" t="s">
+      <c r="K95" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K95" s="10">
+      <c r="L95" s="10">
         <v>42882</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:12">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7829,20 +7958,21 @@
       <c r="E96" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="F96" s="9"/>
+      <c r="G96" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9" t="s">
+      <c r="H96" s="9"/>
+      <c r="I96" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="I96" s="11" t="s">
+      <c r="J96" s="11" t="s">
         <v>694</v>
       </c>
-      <c r="J96" s="9"/>
-      <c r="K96" s="10"/>
-    </row>
-    <row r="97" spans="1:12">
+      <c r="K96" s="9"/>
+      <c r="L96" s="10"/>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97">
         <v>95</v>
       </c>
@@ -7858,18 +7988,19 @@
       <c r="E97" s="17" t="s">
         <v>708</v>
       </c>
-      <c r="F97" s="17" t="s">
+      <c r="F97" s="17"/>
+      <c r="G97" s="17" t="s">
         <v>709</v>
       </c>
-      <c r="G97" s="17"/>
       <c r="H97" s="17"/>
-      <c r="I97" s="18" t="s">
+      <c r="I97" s="17"/>
+      <c r="J97" s="18" t="s">
         <v>710</v>
       </c>
-      <c r="J97" s="17"/>
-      <c r="K97" s="22"/>
-    </row>
-    <row r="98" spans="1:12">
+      <c r="K97" s="17"/>
+      <c r="L97" s="22"/>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98">
         <v>96</v>
       </c>
@@ -7885,23 +8016,24 @@
       <c r="E98" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9">
+      <c r="F98" s="14"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9">
         <v>8</v>
       </c>
-      <c r="H98" s="14" t="s">
+      <c r="I98" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14" t="s">
+      <c r="J98" s="14"/>
+      <c r="K98" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="K98" s="10">
+      <c r="L98" s="10">
         <v>42902</v>
       </c>
-      <c r="L98" s="12"/>
-    </row>
-    <row r="99" spans="1:12">
+      <c r="M98" s="12"/>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99">
         <v>97</v>
       </c>
@@ -7917,23 +8049,24 @@
       <c r="E99" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9">
+      <c r="F99" s="14"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9">
         <v>10</v>
       </c>
-      <c r="H99" s="14" t="s">
+      <c r="I99" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="I99" s="14"/>
-      <c r="J99" s="14" t="s">
+      <c r="J99" s="14"/>
+      <c r="K99" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="K99" s="10">
+      <c r="L99" s="10">
         <v>42899</v>
       </c>
-      <c r="L99" s="12"/>
-    </row>
-    <row r="100" spans="1:12">
+      <c r="M99" s="12"/>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100">
         <v>98</v>
       </c>
@@ -7949,23 +8082,24 @@
       <c r="E100" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9">
+      <c r="F100" s="14"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9">
         <v>15</v>
       </c>
-      <c r="H100" s="14" t="s">
+      <c r="I100" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="I100" s="14"/>
-      <c r="J100" s="14" t="s">
+      <c r="J100" s="14"/>
+      <c r="K100" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="K100" s="10">
+      <c r="L100" s="10">
         <v>42899</v>
       </c>
-      <c r="L100" s="12"/>
-    </row>
-    <row r="101" spans="1:12" s="28" customFormat="1">
+      <c r="M100" s="12"/>
+    </row>
+    <row r="101" spans="1:13" s="28" customFormat="1">
       <c r="A101" s="28">
         <v>99</v>
       </c>
@@ -7981,23 +8115,24 @@
       <c r="E101" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="F101" s="30"/>
-      <c r="G101" s="30">
+      <c r="F101" s="29"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30">
         <v>10</v>
       </c>
-      <c r="H101" s="29" t="s">
+      <c r="I101" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I101" s="29"/>
-      <c r="J101" s="29" t="s">
+      <c r="J101" s="29"/>
+      <c r="K101" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="K101" s="33">
+      <c r="L101" s="33">
         <v>42899</v>
       </c>
-      <c r="L101" s="34"/>
-    </row>
-    <row r="102" spans="1:12" s="28" customFormat="1">
+      <c r="M101" s="34"/>
+    </row>
+    <row r="102" spans="1:13" s="28" customFormat="1">
       <c r="A102" s="28">
         <v>99</v>
       </c>
@@ -8014,22 +8149,23 @@
         <v>279</v>
       </c>
       <c r="F102" s="30"/>
-      <c r="G102" s="30">
+      <c r="G102" s="30"/>
+      <c r="H102" s="30">
         <v>8</v>
       </c>
-      <c r="H102" s="29" t="s">
+      <c r="I102" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="I102" s="29"/>
-      <c r="J102" s="29" t="s">
+      <c r="J102" s="29"/>
+      <c r="K102" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="K102" s="33">
+      <c r="L102" s="33">
         <v>42902</v>
       </c>
-      <c r="L102" s="34"/>
-    </row>
-    <row r="103" spans="1:12">
+      <c r="M102" s="34"/>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103">
         <v>100</v>
       </c>
@@ -8045,19 +8181,20 @@
       <c r="E103" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9">
+      <c r="F103" s="14"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9">
         <v>0</v>
       </c>
-      <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="9">
+      <c r="J103" s="9"/>
+      <c r="K103" s="9">
         <v>0</v>
       </c>
-      <c r="K103" s="9"/>
-      <c r="L103" s="12"/>
-    </row>
-    <row r="104" spans="1:12">
+      <c r="L103" s="9"/>
+      <c r="M103" s="12"/>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104">
         <v>101</v>
       </c>
@@ -8074,22 +8211,23 @@
         <v>244</v>
       </c>
       <c r="F104" s="14"/>
-      <c r="G104" s="14">
+      <c r="G104" s="14"/>
+      <c r="H104" s="14">
         <v>0</v>
       </c>
-      <c r="H104" s="14" t="s">
+      <c r="I104" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="I104" s="14"/>
-      <c r="J104" s="14" t="s">
+      <c r="J104" s="14"/>
+      <c r="K104" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="K104" s="10">
+      <c r="L104" s="10">
         <v>42899</v>
       </c>
-      <c r="L104" s="12"/>
-    </row>
-    <row r="105" spans="1:12">
+      <c r="M104" s="12"/>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105">
         <v>102</v>
       </c>
@@ -8105,23 +8243,24 @@
       <c r="E105" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9">
+      <c r="F105" s="14"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9">
         <v>7</v>
       </c>
-      <c r="H105" s="14" t="s">
+      <c r="I105" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="I105" s="14"/>
-      <c r="J105" s="14" t="s">
+      <c r="J105" s="14"/>
+      <c r="K105" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="K105" s="10">
+      <c r="L105" s="10">
         <v>42899</v>
       </c>
-      <c r="L105" s="12"/>
-    </row>
-    <row r="106" spans="1:12">
+      <c r="M105" s="12"/>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106">
         <v>102</v>
       </c>
@@ -8138,22 +8277,23 @@
         <v>282</v>
       </c>
       <c r="F106" s="9"/>
-      <c r="G106" s="9">
+      <c r="G106" s="9"/>
+      <c r="H106" s="9">
         <v>8</v>
       </c>
-      <c r="H106" s="14" t="s">
+      <c r="I106" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="I106" s="14"/>
-      <c r="J106" s="14" t="s">
+      <c r="J106" s="14"/>
+      <c r="K106" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="K106" s="10">
+      <c r="L106" s="10">
         <v>42902</v>
       </c>
-      <c r="L106" s="12"/>
-    </row>
-    <row r="107" spans="1:12">
+      <c r="M106" s="12"/>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107">
         <v>103</v>
       </c>
@@ -8169,23 +8309,24 @@
       <c r="E107" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9">
+      <c r="F107" s="14"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9">
         <v>3</v>
       </c>
-      <c r="H107" s="14" t="s">
+      <c r="I107" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="I107" s="14"/>
-      <c r="J107" s="14" t="s">
+      <c r="J107" s="14"/>
+      <c r="K107" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="K107" s="10">
+      <c r="L107" s="10">
         <v>42899</v>
       </c>
-      <c r="L107" s="12"/>
-    </row>
-    <row r="108" spans="1:12">
+      <c r="M107" s="12"/>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108">
         <v>103</v>
       </c>
@@ -8202,22 +8343,23 @@
         <v>283</v>
       </c>
       <c r="F108" s="9"/>
-      <c r="G108" s="9">
+      <c r="G108" s="9"/>
+      <c r="H108" s="9">
         <v>8</v>
       </c>
-      <c r="H108" s="14" t="s">
+      <c r="I108" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="I108" s="14"/>
-      <c r="J108" s="14" t="s">
+      <c r="J108" s="14"/>
+      <c r="K108" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="K108" s="10">
+      <c r="L108" s="10">
         <v>42902</v>
       </c>
-      <c r="L108" s="12"/>
-    </row>
-    <row r="109" spans="1:12">
+      <c r="M108" s="12"/>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109">
         <v>104</v>
       </c>
@@ -8234,22 +8376,23 @@
         <v>213</v>
       </c>
       <c r="F109" s="14"/>
-      <c r="G109" s="14">
+      <c r="G109" s="14"/>
+      <c r="H109" s="14">
         <v>6</v>
       </c>
-      <c r="H109" s="14" t="s">
+      <c r="I109" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="I109" s="14"/>
-      <c r="J109" s="14" t="s">
+      <c r="J109" s="14"/>
+      <c r="K109" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="K109" s="10">
+      <c r="L109" s="10">
         <v>42899</v>
       </c>
-      <c r="L109" s="12"/>
-    </row>
-    <row r="110" spans="1:12">
+      <c r="M109" s="12"/>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110">
         <v>104</v>
       </c>
@@ -8266,22 +8409,23 @@
         <v>277</v>
       </c>
       <c r="F110" s="9"/>
-      <c r="G110" s="9">
+      <c r="G110" s="9"/>
+      <c r="H110" s="9">
         <v>8</v>
       </c>
-      <c r="H110" s="14" t="s">
+      <c r="I110" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="I110" s="14"/>
-      <c r="J110" s="14" t="s">
+      <c r="J110" s="14"/>
+      <c r="K110" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="K110" s="10">
+      <c r="L110" s="10">
         <v>42902</v>
       </c>
-      <c r="L110" s="12"/>
-    </row>
-    <row r="111" spans="1:12">
+      <c r="M110" s="12"/>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111">
         <v>105</v>
       </c>
@@ -8297,23 +8441,24 @@
       <c r="E111" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9">
+      <c r="F111" s="14"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9">
         <v>3</v>
       </c>
-      <c r="H111" s="14" t="s">
+      <c r="I111" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="I111" s="14"/>
-      <c r="J111" s="14" t="s">
+      <c r="J111" s="14"/>
+      <c r="K111" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="K111" s="10">
+      <c r="L111" s="10">
         <v>42899</v>
       </c>
-      <c r="L111" s="12"/>
-    </row>
-    <row r="112" spans="1:12">
+      <c r="M111" s="12"/>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112">
         <v>106</v>
       </c>
@@ -8329,23 +8474,24 @@
       <c r="E112" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9">
+      <c r="F112" s="14"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9">
         <v>15</v>
       </c>
-      <c r="H112" s="14" t="s">
+      <c r="I112" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="I112" s="14"/>
-      <c r="J112" s="14" t="s">
+      <c r="J112" s="14"/>
+      <c r="K112" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="K112" s="10">
+      <c r="L112" s="10">
         <v>42899</v>
       </c>
-      <c r="L112" s="12"/>
-    </row>
-    <row r="113" spans="1:12">
+      <c r="M112" s="12"/>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113">
         <v>107</v>
       </c>
@@ -8361,23 +8507,24 @@
       <c r="E113" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9">
+      <c r="F113" s="14"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9">
         <v>20</v>
       </c>
-      <c r="H113" s="14" t="s">
+      <c r="I113" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="I113" s="14"/>
-      <c r="J113" s="14" t="s">
+      <c r="J113" s="14"/>
+      <c r="K113" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="K113" s="10">
+      <c r="L113" s="10">
         <v>42899</v>
       </c>
-      <c r="L113" s="12"/>
-    </row>
-    <row r="114" spans="1:12">
+      <c r="M113" s="12"/>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114">
         <v>108</v>
       </c>
@@ -8393,23 +8540,24 @@
       <c r="E114" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9">
+      <c r="F114" s="14"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9">
         <v>15</v>
       </c>
-      <c r="H114" s="14" t="s">
+      <c r="I114" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="I114" s="14"/>
-      <c r="J114" s="14" t="s">
+      <c r="J114" s="14"/>
+      <c r="K114" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="K114" s="10">
+      <c r="L114" s="10">
         <v>42899</v>
       </c>
-      <c r="L114" s="12"/>
-    </row>
-    <row r="115" spans="1:12">
+      <c r="M114" s="12"/>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115">
         <v>109</v>
       </c>
@@ -8425,23 +8573,24 @@
       <c r="E115" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9">
+      <c r="F115" s="14"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9">
         <v>20</v>
       </c>
-      <c r="H115" s="14" t="s">
+      <c r="I115" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="I115" s="14"/>
-      <c r="J115" s="14" t="s">
+      <c r="J115" s="14"/>
+      <c r="K115" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="K115" s="10">
+      <c r="L115" s="10">
         <v>42899</v>
       </c>
-      <c r="L115" s="12"/>
-    </row>
-    <row r="116" spans="1:12" s="28" customFormat="1">
+      <c r="M115" s="12"/>
+    </row>
+    <row r="116" spans="1:13" s="28" customFormat="1">
       <c r="A116" s="28">
         <v>110</v>
       </c>
@@ -8457,23 +8606,24 @@
       <c r="E116" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="F116" s="30"/>
-      <c r="G116" s="30">
+      <c r="F116" s="29"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="30">
         <v>7</v>
       </c>
-      <c r="H116" s="29" t="s">
+      <c r="I116" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I116" s="29"/>
-      <c r="J116" s="29" t="s">
+      <c r="J116" s="29"/>
+      <c r="K116" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="K116" s="33">
+      <c r="L116" s="33">
         <v>42899</v>
       </c>
-      <c r="L116" s="34"/>
-    </row>
-    <row r="117" spans="1:12" s="28" customFormat="1">
+      <c r="M116" s="34"/>
+    </row>
+    <row r="117" spans="1:13" s="28" customFormat="1">
       <c r="A117" s="28">
         <v>111</v>
       </c>
@@ -8489,23 +8639,24 @@
       <c r="E117" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="F117" s="30"/>
-      <c r="G117" s="30">
+      <c r="F117" s="35"/>
+      <c r="G117" s="30"/>
+      <c r="H117" s="30">
         <v>8</v>
       </c>
-      <c r="H117" s="29" t="s">
+      <c r="I117" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I117" s="29"/>
-      <c r="J117" s="29" t="s">
+      <c r="J117" s="29"/>
+      <c r="K117" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="K117" s="33">
+      <c r="L117" s="33">
         <v>42899</v>
       </c>
-      <c r="L117" s="34"/>
-    </row>
-    <row r="118" spans="1:12" s="28" customFormat="1">
+      <c r="M117" s="34"/>
+    </row>
+    <row r="118" spans="1:13" s="28" customFormat="1">
       <c r="A118" s="28">
         <v>110</v>
       </c>
@@ -8522,22 +8673,23 @@
         <v>275</v>
       </c>
       <c r="F118" s="30"/>
-      <c r="G118" s="30">
+      <c r="G118" s="30"/>
+      <c r="H118" s="30">
         <v>8</v>
       </c>
-      <c r="H118" s="29" t="s">
+      <c r="I118" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="I118" s="29"/>
-      <c r="J118" s="29" t="s">
+      <c r="J118" s="29"/>
+      <c r="K118" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="K118" s="33">
+      <c r="L118" s="33">
         <v>42902</v>
       </c>
-      <c r="L118" s="34"/>
-    </row>
-    <row r="119" spans="1:12" s="28" customFormat="1">
+      <c r="M118" s="34"/>
+    </row>
+    <row r="119" spans="1:13" s="28" customFormat="1">
       <c r="A119" s="28">
         <v>111</v>
       </c>
@@ -8554,22 +8706,23 @@
         <v>284</v>
       </c>
       <c r="F119" s="30"/>
-      <c r="G119" s="30">
+      <c r="G119" s="30"/>
+      <c r="H119" s="30">
         <v>8</v>
       </c>
-      <c r="H119" s="29" t="s">
+      <c r="I119" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="I119" s="29"/>
-      <c r="J119" s="29" t="s">
+      <c r="J119" s="29"/>
+      <c r="K119" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="K119" s="33">
+      <c r="L119" s="33">
         <v>42902</v>
       </c>
-      <c r="L119" s="34"/>
-    </row>
-    <row r="120" spans="1:12" s="28" customFormat="1">
+      <c r="M119" s="34"/>
+    </row>
+    <row r="120" spans="1:13" s="28" customFormat="1">
       <c r="A120" s="28">
         <v>112</v>
       </c>
@@ -8585,23 +8738,24 @@
       <c r="E120" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="F120" s="30"/>
-      <c r="G120" s="30">
+      <c r="F120" s="29"/>
+      <c r="G120" s="30"/>
+      <c r="H120" s="30">
         <v>8</v>
       </c>
-      <c r="H120" s="29" t="s">
+      <c r="I120" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="I120" s="29"/>
-      <c r="J120" s="29" t="s">
+      <c r="J120" s="29"/>
+      <c r="K120" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="K120" s="33">
+      <c r="L120" s="33">
         <v>42899</v>
       </c>
-      <c r="L120" s="34"/>
-    </row>
-    <row r="121" spans="1:12" s="28" customFormat="1">
+      <c r="M120" s="34"/>
+    </row>
+    <row r="121" spans="1:13" s="28" customFormat="1">
       <c r="A121" s="28">
         <v>112</v>
       </c>
@@ -8618,22 +8772,23 @@
         <v>278</v>
       </c>
       <c r="F121" s="30"/>
-      <c r="G121" s="30">
+      <c r="G121" s="30"/>
+      <c r="H121" s="30">
         <v>8</v>
       </c>
-      <c r="H121" s="29" t="s">
+      <c r="I121" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="I121" s="29"/>
-      <c r="J121" s="29" t="s">
+      <c r="J121" s="29"/>
+      <c r="K121" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="K121" s="33">
+      <c r="L121" s="33">
         <v>42902</v>
       </c>
-      <c r="L121" s="34"/>
-    </row>
-    <row r="122" spans="1:12">
+      <c r="M121" s="34"/>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122">
         <v>113</v>
       </c>
@@ -8649,23 +8804,24 @@
       <c r="E122" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9">
+      <c r="F122" s="14"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9">
         <v>25</v>
       </c>
-      <c r="H122" s="14" t="s">
+      <c r="I122" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="I122" s="14"/>
-      <c r="J122" s="14" t="s">
+      <c r="J122" s="14"/>
+      <c r="K122" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="K122" s="10">
+      <c r="L122" s="10">
         <v>42899</v>
       </c>
-      <c r="L122" s="12"/>
-    </row>
-    <row r="123" spans="1:12">
+      <c r="M122" s="12"/>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123">
         <v>114</v>
       </c>
@@ -8681,23 +8837,24 @@
       <c r="E123" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9">
+      <c r="F123" s="14"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9">
         <v>15</v>
       </c>
-      <c r="H123" s="14" t="s">
+      <c r="I123" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="I123" s="14"/>
-      <c r="J123" s="14" t="s">
+      <c r="J123" s="14"/>
+      <c r="K123" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="K123" s="10">
+      <c r="L123" s="10">
         <v>42899</v>
       </c>
-      <c r="L123" s="12"/>
-    </row>
-    <row r="124" spans="1:12">
+      <c r="M123" s="12"/>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124">
         <v>115</v>
       </c>
@@ -8713,23 +8870,24 @@
       <c r="E124" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9">
+      <c r="F124" s="14"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9">
         <v>8</v>
       </c>
-      <c r="H124" s="14" t="s">
+      <c r="I124" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="I124" s="14"/>
-      <c r="J124" s="14" t="s">
+      <c r="J124" s="14"/>
+      <c r="K124" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="K124" s="10">
+      <c r="L124" s="10">
         <v>42899</v>
       </c>
-      <c r="L124" s="12"/>
-    </row>
-    <row r="125" spans="1:12">
+      <c r="M124" s="12"/>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125">
         <v>115</v>
       </c>
@@ -8745,23 +8903,24 @@
       <c r="E125" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9">
+      <c r="F125" s="14"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9">
         <v>3</v>
       </c>
-      <c r="H125" s="14" t="s">
+      <c r="I125" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="I125" s="14"/>
-      <c r="J125" s="14" t="s">
+      <c r="J125" s="14"/>
+      <c r="K125" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="K125" s="10">
+      <c r="L125" s="10">
         <v>42899</v>
       </c>
-      <c r="L125" s="12"/>
-    </row>
-    <row r="126" spans="1:12">
+      <c r="M125" s="12"/>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126">
         <v>116</v>
       </c>
@@ -8777,23 +8936,24 @@
       <c r="E126" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9">
+      <c r="F126" s="14"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9">
         <v>10</v>
       </c>
-      <c r="H126" s="14" t="s">
+      <c r="I126" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="I126" s="14"/>
-      <c r="J126" s="14" t="s">
+      <c r="J126" s="14"/>
+      <c r="K126" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="K126" s="10">
+      <c r="L126" s="10">
         <v>42899</v>
       </c>
-      <c r="L126" s="12"/>
-    </row>
-    <row r="127" spans="1:12">
+      <c r="M126" s="12"/>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127">
         <v>117</v>
       </c>
@@ -8810,24 +8970,25 @@
         <v>224</v>
       </c>
       <c r="F127" s="14"/>
-      <c r="G127" s="14">
+      <c r="G127" s="14"/>
+      <c r="H127" s="14">
         <v>5.3</v>
       </c>
-      <c r="H127" s="14" t="s">
+      <c r="I127" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="I127" s="14"/>
-      <c r="J127" s="14" t="s">
+      <c r="J127" s="14"/>
+      <c r="K127" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="K127" s="10">
+      <c r="L127" s="10">
         <v>42899</v>
       </c>
-      <c r="L127" s="26" t="s">
+      <c r="M127" s="26" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:13">
       <c r="A128">
         <v>118</v>
       </c>
@@ -8843,25 +9004,26 @@
       <c r="E128" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9">
+      <c r="F128" s="14"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9">
         <v>5</v>
       </c>
-      <c r="H128" s="14" t="s">
+      <c r="I128" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="I128" s="14"/>
-      <c r="J128" s="14" t="s">
+      <c r="J128" s="14"/>
+      <c r="K128" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="K128" s="10">
+      <c r="L128" s="10">
         <v>42899</v>
       </c>
-      <c r="L128" s="26" t="s">
+      <c r="M128" s="26" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="129" spans="1:12" s="28" customFormat="1">
+    <row r="129" spans="1:13" s="28" customFormat="1">
       <c r="A129" s="28">
         <v>119</v>
       </c>
@@ -8878,22 +9040,23 @@
         <v>276</v>
       </c>
       <c r="F129" s="30"/>
-      <c r="G129" s="30">
+      <c r="G129" s="30"/>
+      <c r="H129" s="30">
         <v>8</v>
       </c>
-      <c r="H129" s="29" t="s">
+      <c r="I129" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="I129" s="29"/>
-      <c r="J129" s="29" t="s">
+      <c r="J129" s="29"/>
+      <c r="K129" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="K129" s="33">
+      <c r="L129" s="33">
         <v>42902</v>
       </c>
-      <c r="L129" s="34"/>
-    </row>
-    <row r="130" spans="1:12" s="28" customFormat="1">
+      <c r="M129" s="34"/>
+    </row>
+    <row r="130" spans="1:13" s="28" customFormat="1">
       <c r="A130" s="28">
         <v>119</v>
       </c>
@@ -8909,23 +9072,24 @@
       <c r="E130" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="F130" s="30"/>
-      <c r="G130" s="30">
+      <c r="F130" s="29"/>
+      <c r="G130" s="30"/>
+      <c r="H130" s="30">
         <v>10</v>
       </c>
-      <c r="H130" s="29" t="s">
+      <c r="I130" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I130" s="29"/>
-      <c r="J130" s="29" t="s">
+      <c r="J130" s="29"/>
+      <c r="K130" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="K130" s="33">
+      <c r="L130" s="33">
         <v>42899</v>
       </c>
-      <c r="L130" s="34"/>
-    </row>
-    <row r="131" spans="1:12" s="28" customFormat="1">
+      <c r="M130" s="34"/>
+    </row>
+    <row r="131" spans="1:13" s="28" customFormat="1">
       <c r="A131" s="28">
         <v>119</v>
       </c>
@@ -8941,23 +9105,24 @@
       <c r="E131" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="F131" s="30"/>
-      <c r="G131" s="30">
+      <c r="F131" s="29"/>
+      <c r="G131" s="30"/>
+      <c r="H131" s="30">
         <v>4</v>
       </c>
-      <c r="H131" s="29" t="s">
+      <c r="I131" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="I131" s="29"/>
-      <c r="J131" s="29" t="s">
+      <c r="J131" s="29"/>
+      <c r="K131" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="K131" s="33">
+      <c r="L131" s="33">
         <v>42899</v>
       </c>
-      <c r="L131" s="34"/>
-    </row>
-    <row r="132" spans="1:12" s="28" customFormat="1">
+      <c r="M131" s="34"/>
+    </row>
+    <row r="132" spans="1:13" s="28" customFormat="1">
       <c r="A132" s="28">
         <v>120</v>
       </c>
@@ -8973,23 +9138,24 @@
       <c r="E132" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="F132" s="30"/>
-      <c r="G132" s="30">
+      <c r="F132" s="29"/>
+      <c r="G132" s="30"/>
+      <c r="H132" s="30">
         <v>15</v>
       </c>
-      <c r="H132" s="29" t="s">
+      <c r="I132" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I132" s="29"/>
-      <c r="J132" s="29" t="s">
+      <c r="J132" s="29"/>
+      <c r="K132" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="K132" s="33">
+      <c r="L132" s="33">
         <v>42899</v>
       </c>
-      <c r="L132" s="34"/>
-    </row>
-    <row r="133" spans="1:12" s="28" customFormat="1">
+      <c r="M132" s="34"/>
+    </row>
+    <row r="133" spans="1:13" s="28" customFormat="1">
       <c r="A133" s="28">
         <v>120</v>
       </c>
@@ -9005,23 +9171,24 @@
       <c r="E133" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="F133" s="30"/>
-      <c r="G133" s="30">
+      <c r="F133" s="29"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="30">
         <v>8</v>
       </c>
-      <c r="H133" s="29" t="s">
+      <c r="I133" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="I133" s="29"/>
-      <c r="J133" s="29" t="s">
+      <c r="J133" s="29"/>
+      <c r="K133" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="K133" s="33">
+      <c r="L133" s="33">
         <v>42902</v>
       </c>
-      <c r="L133" s="34"/>
-    </row>
-    <row r="134" spans="1:12">
+      <c r="M133" s="34"/>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134">
         <v>121</v>
       </c>
@@ -9037,23 +9204,24 @@
       <c r="E134" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9">
+      <c r="F134" s="14"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9">
         <v>8</v>
       </c>
-      <c r="H134" s="14" t="s">
+      <c r="I134" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="I134" s="14"/>
-      <c r="J134" s="14" t="s">
+      <c r="J134" s="14"/>
+      <c r="K134" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="K134" s="10">
+      <c r="L134" s="10">
         <v>42899</v>
       </c>
-      <c r="L134" s="12"/>
-    </row>
-    <row r="135" spans="1:12">
+      <c r="M134" s="12"/>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135">
         <v>122</v>
       </c>
@@ -9069,23 +9237,24 @@
       <c r="E135" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9">
+      <c r="F135" s="14"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9">
         <v>8</v>
       </c>
-      <c r="H135" s="14" t="s">
+      <c r="I135" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="I135" s="14"/>
-      <c r="J135" s="14" t="s">
+      <c r="J135" s="14"/>
+      <c r="K135" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="K135" s="10">
+      <c r="L135" s="10">
         <v>42899</v>
       </c>
-      <c r="L135" s="12"/>
-    </row>
-    <row r="136" spans="1:12">
+      <c r="M135" s="12"/>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136">
         <v>123</v>
       </c>
@@ -9101,23 +9270,24 @@
       <c r="E136" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9">
+      <c r="F136" s="14"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9">
         <v>10</v>
       </c>
-      <c r="H136" s="14" t="s">
+      <c r="I136" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="I136" s="14"/>
-      <c r="J136" s="14" t="s">
+      <c r="J136" s="14"/>
+      <c r="K136" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="K136" s="10">
+      <c r="L136" s="10">
         <v>42899</v>
       </c>
-      <c r="L136" s="12"/>
-    </row>
-    <row r="137" spans="1:12">
+      <c r="M136" s="12"/>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137">
         <v>124</v>
       </c>
@@ -9132,22 +9302,23 @@
       </c>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
-      <c r="G137" s="9">
+      <c r="G137" s="9"/>
+      <c r="H137" s="9">
         <v>10</v>
       </c>
-      <c r="H137" s="14" t="s">
+      <c r="I137" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="I137" s="14"/>
-      <c r="J137" s="14" t="s">
+      <c r="J137" s="14"/>
+      <c r="K137" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="K137" s="10">
+      <c r="L137" s="10">
         <v>42899</v>
       </c>
-      <c r="L137" s="12"/>
-    </row>
-    <row r="138" spans="1:12">
+      <c r="M137" s="12"/>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138">
         <v>125</v>
       </c>
@@ -9162,22 +9333,23 @@
       </c>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
-      <c r="G138" s="9">
+      <c r="G138" s="9"/>
+      <c r="H138" s="9">
         <v>8</v>
       </c>
-      <c r="H138" s="14" t="s">
+      <c r="I138" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="I138" s="14"/>
-      <c r="J138" s="14" t="s">
+      <c r="J138" s="14"/>
+      <c r="K138" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="K138" s="10">
+      <c r="L138" s="10">
         <v>42902</v>
       </c>
-      <c r="L138" s="12"/>
-    </row>
-    <row r="139" spans="1:12">
+      <c r="M138" s="12"/>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139">
         <v>126</v>
       </c>
@@ -9193,23 +9365,24 @@
       <c r="E139" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9">
+      <c r="F139" s="14"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9">
         <v>30</v>
       </c>
-      <c r="H139" s="14" t="s">
+      <c r="I139" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="I139" s="14"/>
-      <c r="J139" s="14" t="s">
+      <c r="J139" s="14"/>
+      <c r="K139" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="K139" s="10">
+      <c r="L139" s="10">
         <v>42899</v>
       </c>
-      <c r="L139" s="12"/>
-    </row>
-    <row r="140" spans="1:12">
+      <c r="M139" s="12"/>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140">
         <v>127</v>
       </c>
@@ -9225,23 +9398,24 @@
       <c r="E140" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="F140" s="17"/>
-      <c r="G140" s="17">
+      <c r="F140" s="25"/>
+      <c r="G140" s="17"/>
+      <c r="H140" s="17">
         <v>8</v>
       </c>
-      <c r="H140" s="25" t="s">
+      <c r="I140" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="I140" s="25"/>
-      <c r="J140" s="25" t="s">
+      <c r="J140" s="25"/>
+      <c r="K140" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="K140" s="22">
+      <c r="L140" s="22">
         <v>42902</v>
       </c>
-      <c r="L140" s="19"/>
-    </row>
-    <row r="141" spans="1:12">
+      <c r="M140" s="19"/>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141">
         <v>128</v>
       </c>
@@ -9255,20 +9429,21 @@
         <v>774</v>
       </c>
       <c r="E141" s="9"/>
-      <c r="F141" s="9">
+      <c r="F141" s="9"/>
+      <c r="G141" s="9">
         <v>3</v>
       </c>
-      <c r="H141" s="14" t="s">
+      <c r="I141" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="J141" s="9">
+      <c r="K141" s="9">
         <v>55</v>
       </c>
-      <c r="K141" s="10">
+      <c r="L141" s="10">
         <v>42928</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:13">
       <c r="A142">
         <v>129</v>
       </c>
@@ -9282,20 +9457,21 @@
         <v>508</v>
       </c>
       <c r="E142" s="14"/>
-      <c r="F142" s="9">
+      <c r="F142" s="14"/>
+      <c r="G142" s="9">
         <v>4</v>
       </c>
-      <c r="H142" s="14" t="s">
+      <c r="I142" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="J142" s="9">
+      <c r="K142" s="9">
         <v>55</v>
       </c>
-      <c r="K142" s="10">
+      <c r="L142" s="10">
         <v>42928</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:13">
       <c r="A143">
         <v>130</v>
       </c>
@@ -9309,20 +9485,21 @@
         <v>753</v>
       </c>
       <c r="E143" s="9"/>
-      <c r="F143" s="9">
+      <c r="F143" s="9"/>
+      <c r="G143" s="9">
         <v>6</v>
       </c>
-      <c r="H143" s="14" t="s">
+      <c r="I143" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="J143" s="9">
+      <c r="K143" s="9">
         <v>30</v>
       </c>
-      <c r="K143" s="10">
+      <c r="L143" s="10">
         <v>42928</v>
       </c>
     </row>
-    <row r="144" spans="1:12" s="37" customFormat="1">
+    <row r="144" spans="1:13" s="37" customFormat="1">
       <c r="A144" s="37">
         <v>131</v>
       </c>
@@ -9340,13 +9517,14 @@
       </c>
       <c r="F144" s="39"/>
       <c r="G144" s="39"/>
-      <c r="I144" s="65"/>
-      <c r="J144" s="39">
+      <c r="H144" s="39"/>
+      <c r="J144" s="65"/>
+      <c r="K144" s="39">
         <v>80</v>
       </c>
-      <c r="K144" s="66"/>
-    </row>
-    <row r="145" spans="1:11" s="37" customFormat="1">
+      <c r="L144" s="66"/>
+    </row>
+    <row r="145" spans="1:12" s="37" customFormat="1">
       <c r="A145" s="37">
         <v>132</v>
       </c>
@@ -9368,8 +9546,9 @@
       <c r="I145" s="39"/>
       <c r="J145" s="39"/>
       <c r="K145" s="39"/>
-    </row>
-    <row r="146" spans="1:11" s="37" customFormat="1">
+      <c r="L145" s="39"/>
+    </row>
+    <row r="146" spans="1:12" s="37" customFormat="1">
       <c r="A146" s="37">
         <v>133</v>
       </c>
@@ -9391,8 +9570,9 @@
       <c r="I146" s="50"/>
       <c r="J146" s="50"/>
       <c r="K146" s="50"/>
-    </row>
-    <row r="147" spans="1:11" s="37" customFormat="1">
+      <c r="L146" s="50"/>
+    </row>
+    <row r="147" spans="1:12" s="37" customFormat="1">
       <c r="A147" s="37">
         <v>134</v>
       </c>
@@ -9408,21 +9588,22 @@
       <c r="E147" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="F147" s="39" t="s">
+      <c r="F147" s="39"/>
+      <c r="G147" s="39" t="s">
         <v>729</v>
       </c>
-      <c r="H147" s="39" t="s">
+      <c r="I147" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="I147" s="66" t="s">
+      <c r="J147" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="J147" s="39"/>
-      <c r="K147" s="65">
+      <c r="K147" s="39"/>
+      <c r="L147" s="65">
         <v>42882</v>
       </c>
     </row>
-    <row r="148" spans="1:11" s="37" customFormat="1">
+    <row r="148" spans="1:12" s="37" customFormat="1">
       <c r="A148" s="37">
         <v>135</v>
       </c>
@@ -9439,18 +9620,19 @@
         <v>488</v>
       </c>
       <c r="F148" s="39"/>
-      <c r="H148" s="39" t="s">
+      <c r="G148" s="39"/>
+      <c r="I148" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="I148" s="66" t="s">
+      <c r="J148" s="66" t="s">
         <v>487</v>
       </c>
-      <c r="J148" s="39"/>
-      <c r="K148" s="65">
+      <c r="K148" s="39"/>
+      <c r="L148" s="65">
         <v>42912</v>
       </c>
     </row>
-    <row r="149" spans="1:11" s="37" customFormat="1">
+    <row r="149" spans="1:12" s="37" customFormat="1">
       <c r="A149" s="37">
         <v>136</v>
       </c>
@@ -9467,18 +9649,19 @@
         <v>333</v>
       </c>
       <c r="F149" s="39"/>
-      <c r="H149" s="39" t="s">
+      <c r="G149" s="39"/>
+      <c r="I149" s="39" t="s">
         <v>337</v>
       </c>
-      <c r="I149" s="66" t="s">
+      <c r="J149" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="J149" s="39"/>
-      <c r="K149" s="65">
+      <c r="K149" s="39"/>
+      <c r="L149" s="65">
         <v>42909</v>
       </c>
     </row>
-    <row r="150" spans="1:11" s="37" customFormat="1">
+    <row r="150" spans="1:12" s="37" customFormat="1">
       <c r="A150" s="37">
         <v>137</v>
       </c>
@@ -9495,18 +9678,19 @@
         <v>485</v>
       </c>
       <c r="F150" s="39"/>
-      <c r="H150" s="39" t="s">
+      <c r="G150" s="39"/>
+      <c r="I150" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="I150" s="66" t="s">
+      <c r="J150" s="66" t="s">
         <v>486</v>
       </c>
-      <c r="J150" s="39"/>
-      <c r="K150" s="65">
+      <c r="K150" s="39"/>
+      <c r="L150" s="65">
         <v>42912</v>
       </c>
     </row>
-    <row r="151" spans="1:11" s="37" customFormat="1">
+    <row r="151" spans="1:12" s="37" customFormat="1">
       <c r="A151" s="37">
         <v>138</v>
       </c>
@@ -9525,12 +9709,13 @@
       <c r="F151" s="39"/>
       <c r="G151" s="39"/>
       <c r="H151" s="39"/>
-      <c r="I151" s="66" t="s">
+      <c r="I151" s="39"/>
+      <c r="J151" s="66" t="s">
         <v>714</v>
       </c>
-      <c r="J151" s="39"/>
-    </row>
-    <row r="152" spans="1:11" s="37" customFormat="1">
+      <c r="K151" s="39"/>
+    </row>
+    <row r="152" spans="1:12" s="37" customFormat="1">
       <c r="A152" s="37">
         <v>139</v>
       </c>
@@ -9549,12 +9734,13 @@
       <c r="F152" s="39"/>
       <c r="G152" s="39"/>
       <c r="H152" s="39"/>
-      <c r="I152" s="66" t="s">
+      <c r="I152" s="39"/>
+      <c r="J152" s="66" t="s">
         <v>717</v>
       </c>
-      <c r="J152" s="39"/>
-    </row>
-    <row r="153" spans="1:11" s="37" customFormat="1">
+      <c r="K152" s="39"/>
+    </row>
+    <row r="153" spans="1:12" s="37" customFormat="1">
       <c r="A153" s="37">
         <v>140</v>
       </c>
@@ -9573,12 +9759,13 @@
       <c r="F153" s="39"/>
       <c r="G153" s="39"/>
       <c r="H153" s="39"/>
-      <c r="I153" s="66" t="s">
+      <c r="I153" s="39"/>
+      <c r="J153" s="66" t="s">
         <v>721</v>
       </c>
-      <c r="J153" s="39"/>
-    </row>
-    <row r="154" spans="1:11" s="37" customFormat="1">
+      <c r="K153" s="39"/>
+    </row>
+    <row r="154" spans="1:12" s="37" customFormat="1">
       <c r="A154" s="37">
         <v>141</v>
       </c>
@@ -9597,12 +9784,13 @@
       <c r="F154" s="39"/>
       <c r="G154" s="39"/>
       <c r="H154" s="39"/>
-      <c r="I154" s="66" t="s">
+      <c r="I154" s="39"/>
+      <c r="J154" s="66" t="s">
         <v>723</v>
       </c>
-      <c r="J154" s="39"/>
-    </row>
-    <row r="155" spans="1:11" s="37" customFormat="1">
+      <c r="K154" s="39"/>
+    </row>
+    <row r="155" spans="1:12" s="37" customFormat="1">
       <c r="A155" s="37">
         <v>142</v>
       </c>
@@ -9621,12 +9809,13 @@
       <c r="F155" s="50"/>
       <c r="G155" s="50"/>
       <c r="H155" s="50"/>
-      <c r="I155" s="67" t="s">
+      <c r="I155" s="50"/>
+      <c r="J155" s="67" t="s">
         <v>725</v>
       </c>
-      <c r="J155" s="50"/>
-    </row>
-    <row r="156" spans="1:11" s="37" customFormat="1">
+      <c r="K155" s="50"/>
+    </row>
+    <row r="156" spans="1:12" s="37" customFormat="1">
       <c r="A156" s="51">
         <v>143</v>
       </c>
@@ -9642,13 +9831,14 @@
       <c r="E156" s="53" t="s">
         <v>752</v>
       </c>
-      <c r="F156" s="39"/>
+      <c r="F156" s="53"/>
       <c r="G156" s="39"/>
       <c r="H156" s="39"/>
-      <c r="I156" s="66"/>
-      <c r="J156" s="39"/>
-    </row>
-    <row r="157" spans="1:11" s="37" customFormat="1">
+      <c r="I156" s="39"/>
+      <c r="J156" s="66"/>
+      <c r="K156" s="39"/>
+    </row>
+    <row r="157" spans="1:12" s="37" customFormat="1">
       <c r="A157" s="37">
         <v>144</v>
       </c>
@@ -9666,15 +9856,16 @@
       </c>
       <c r="F157" s="39"/>
       <c r="G157" s="39"/>
-      <c r="H157" s="39" t="s">
+      <c r="H157" s="39"/>
+      <c r="I157" s="39" t="s">
         <v>759</v>
       </c>
-      <c r="I157" s="66" t="s">
+      <c r="J157" s="66" t="s">
         <v>754</v>
       </c>
-      <c r="J157" s="39"/>
-    </row>
-    <row r="158" spans="1:11" s="37" customFormat="1">
+      <c r="K157" s="39"/>
+    </row>
+    <row r="158" spans="1:12" s="37" customFormat="1">
       <c r="A158" s="37">
         <v>145</v>
       </c>
@@ -9692,15 +9883,16 @@
       </c>
       <c r="F158" s="39"/>
       <c r="G158" s="39"/>
-      <c r="H158" s="39" t="s">
+      <c r="H158" s="39"/>
+      <c r="I158" s="39" t="s">
         <v>759</v>
       </c>
-      <c r="I158" s="66" t="s">
+      <c r="J158" s="66" t="s">
         <v>762</v>
       </c>
-      <c r="J158" s="39"/>
-    </row>
-    <row r="159" spans="1:11" s="37" customFormat="1">
+      <c r="K158" s="39"/>
+    </row>
+    <row r="159" spans="1:12" s="37" customFormat="1">
       <c r="A159" s="37">
         <v>146</v>
       </c>
@@ -9716,17 +9908,18 @@
       <c r="E159" s="39" t="s">
         <v>769</v>
       </c>
-      <c r="F159" s="39" t="s">
+      <c r="F159" s="39"/>
+      <c r="G159" s="39" t="s">
         <v>772</v>
       </c>
-      <c r="G159" s="39"/>
-      <c r="H159" s="39" t="s">
+      <c r="H159" s="39"/>
+      <c r="I159" s="39" t="s">
         <v>771</v>
       </c>
-      <c r="I159" s="66"/>
-      <c r="J159" s="39"/>
-    </row>
-    <row r="160" spans="1:11" s="37" customFormat="1">
+      <c r="J159" s="66"/>
+      <c r="K159" s="39"/>
+    </row>
+    <row r="160" spans="1:12" s="37" customFormat="1">
       <c r="A160" s="37">
         <v>147</v>
       </c>
@@ -9742,17 +9935,18 @@
       <c r="E160" s="39" t="s">
         <v>770</v>
       </c>
-      <c r="F160" s="39" t="s">
+      <c r="F160" s="39"/>
+      <c r="G160" s="39" t="s">
         <v>773</v>
       </c>
-      <c r="G160" s="39"/>
-      <c r="H160" s="39" t="s">
+      <c r="H160" s="39"/>
+      <c r="I160" s="39" t="s">
         <v>771</v>
       </c>
-      <c r="I160" s="66"/>
-      <c r="J160" s="39"/>
-    </row>
-    <row r="161" spans="1:11" s="37" customFormat="1">
+      <c r="J160" s="66"/>
+      <c r="K160" s="39"/>
+    </row>
+    <row r="161" spans="1:12" s="37" customFormat="1">
       <c r="A161" s="37">
         <v>148</v>
       </c>
@@ -9769,10 +9963,11 @@
       <c r="F161" s="39"/>
       <c r="G161" s="39"/>
       <c r="H161" s="39"/>
-      <c r="I161" s="66"/>
-      <c r="J161" s="39"/>
-    </row>
-    <row r="162" spans="1:11" s="37" customFormat="1">
+      <c r="I161" s="39"/>
+      <c r="J161" s="66"/>
+      <c r="K161" s="39"/>
+    </row>
+    <row r="162" spans="1:12" s="37" customFormat="1">
       <c r="A162" s="37">
         <v>149</v>
       </c>
@@ -9789,10 +9984,11 @@
       <c r="F162" s="39"/>
       <c r="G162" s="39"/>
       <c r="H162" s="39"/>
-      <c r="I162" s="66"/>
-      <c r="J162" s="39"/>
-    </row>
-    <row r="163" spans="1:11" s="37" customFormat="1">
+      <c r="I162" s="39"/>
+      <c r="J162" s="66"/>
+      <c r="K162" s="39"/>
+    </row>
+    <row r="163" spans="1:12" s="37" customFormat="1">
       <c r="A163" s="37">
         <v>150</v>
       </c>
@@ -9809,10 +10005,11 @@
       <c r="F163" s="39"/>
       <c r="G163" s="39"/>
       <c r="H163" s="39"/>
-      <c r="I163" s="66"/>
-      <c r="J163" s="39"/>
-    </row>
-    <row r="164" spans="1:11" s="37" customFormat="1">
+      <c r="I163" s="39"/>
+      <c r="J163" s="66"/>
+      <c r="K163" s="39"/>
+    </row>
+    <row r="164" spans="1:12" s="37" customFormat="1">
       <c r="A164" s="37">
         <v>151</v>
       </c>
@@ -9829,10 +10026,11 @@
       <c r="F164" s="39"/>
       <c r="G164" s="39"/>
       <c r="H164" s="39"/>
-      <c r="I164" s="66"/>
-      <c r="J164" s="39"/>
-    </row>
-    <row r="165" spans="1:11" s="37" customFormat="1">
+      <c r="I164" s="39"/>
+      <c r="J164" s="66"/>
+      <c r="K164" s="39"/>
+    </row>
+    <row r="165" spans="1:12" s="37" customFormat="1">
       <c r="A165" s="37">
         <v>152</v>
       </c>
@@ -9849,10 +10047,11 @@
       <c r="F165" s="39"/>
       <c r="G165" s="39"/>
       <c r="H165" s="39"/>
-      <c r="I165" s="66"/>
-      <c r="J165" s="39"/>
-    </row>
-    <row r="166" spans="1:11" s="37" customFormat="1">
+      <c r="I165" s="39"/>
+      <c r="J165" s="66"/>
+      <c r="K165" s="39"/>
+    </row>
+    <row r="166" spans="1:12" s="37" customFormat="1">
       <c r="A166" s="37">
         <v>153</v>
       </c>
@@ -9869,10 +10068,11 @@
       <c r="F166" s="39"/>
       <c r="G166" s="39"/>
       <c r="H166" s="39"/>
-      <c r="I166" s="66"/>
-      <c r="J166" s="39"/>
-    </row>
-    <row r="167" spans="1:11" s="37" customFormat="1">
+      <c r="I166" s="39"/>
+      <c r="J166" s="66"/>
+      <c r="K166" s="39"/>
+    </row>
+    <row r="167" spans="1:12" s="37" customFormat="1">
       <c r="A167" s="37">
         <v>154</v>
       </c>
@@ -9889,10 +10089,11 @@
       <c r="F167" s="39"/>
       <c r="G167" s="39"/>
       <c r="H167" s="39"/>
-      <c r="I167" s="66"/>
-      <c r="J167" s="39"/>
-    </row>
-    <row r="168" spans="1:11" s="37" customFormat="1">
+      <c r="I167" s="39"/>
+      <c r="J167" s="66"/>
+      <c r="K167" s="39"/>
+    </row>
+    <row r="168" spans="1:12" s="37" customFormat="1" ht="67.5">
       <c r="A168" s="37">
         <v>155</v>
       </c>
@@ -9908,22 +10109,23 @@
       <c r="E168" s="69" t="s">
         <v>672</v>
       </c>
-      <c r="F168" s="39"/>
-      <c r="G168" s="39">
+      <c r="F168" s="69"/>
+      <c r="G168" s="39"/>
+      <c r="H168" s="39">
         <v>50</v>
       </c>
-      <c r="H168" s="39" t="s">
+      <c r="I168" s="39" t="s">
         <v>894</v>
       </c>
-      <c r="I168" s="70" t="s">
+      <c r="J168" s="70" t="s">
         <v>681</v>
       </c>
-      <c r="J168" s="39"/>
-      <c r="K168" s="71">
+      <c r="K168" s="39"/>
+      <c r="L168" s="71">
         <v>42984</v>
       </c>
     </row>
-    <row r="169" spans="1:11" s="37" customFormat="1">
+    <row r="169" spans="1:12" s="37" customFormat="1" ht="54">
       <c r="A169" s="37">
         <v>156</v>
       </c>
@@ -9939,22 +10141,23 @@
       <c r="E169" s="69" t="s">
         <v>859</v>
       </c>
-      <c r="F169" s="39"/>
-      <c r="G169" s="39">
+      <c r="F169" s="69"/>
+      <c r="G169" s="39"/>
+      <c r="H169" s="39">
         <v>30</v>
       </c>
-      <c r="H169" s="39" t="s">
+      <c r="I169" s="39" t="s">
         <v>482</v>
       </c>
-      <c r="I169" s="70" t="s">
+      <c r="J169" s="70" t="s">
         <v>860</v>
       </c>
-      <c r="J169" s="39"/>
-      <c r="K169" s="71">
+      <c r="K169" s="39"/>
+      <c r="L169" s="71">
         <v>42984</v>
       </c>
     </row>
-    <row r="170" spans="1:11" s="37" customFormat="1">
+    <row r="170" spans="1:12" s="37" customFormat="1" ht="54">
       <c r="A170" s="37">
         <v>157</v>
       </c>
@@ -9970,22 +10173,23 @@
       <c r="E170" s="69" t="s">
         <v>877</v>
       </c>
-      <c r="F170" s="39"/>
-      <c r="G170" s="39">
+      <c r="F170" s="69"/>
+      <c r="G170" s="39"/>
+      <c r="H170" s="39">
         <v>50</v>
       </c>
-      <c r="H170" s="39" t="s">
+      <c r="I170" s="39" t="s">
         <v>482</v>
       </c>
-      <c r="I170" s="70" t="s">
+      <c r="J170" s="70" t="s">
         <v>878</v>
       </c>
-      <c r="J170" s="39"/>
-      <c r="K170" s="71">
+      <c r="K170" s="39"/>
+      <c r="L170" s="71">
         <v>42984</v>
       </c>
     </row>
-    <row r="171" spans="1:11" s="37" customFormat="1">
+    <row r="171" spans="1:12" s="37" customFormat="1">
       <c r="A171" s="37">
         <v>158</v>
       </c>
@@ -10001,20 +10205,21 @@
       <c r="E171" s="73" t="s">
         <v>588</v>
       </c>
-      <c r="F171" s="74"/>
-      <c r="G171" s="74">
+      <c r="F171" s="73"/>
+      <c r="G171" s="74"/>
+      <c r="H171" s="74">
         <v>50</v>
       </c>
-      <c r="H171" s="74" t="s">
+      <c r="I171" s="74" t="s">
         <v>482</v>
       </c>
-      <c r="I171" s="75"/>
-      <c r="J171" s="74"/>
-      <c r="K171" s="71">
+      <c r="J171" s="75"/>
+      <c r="K171" s="74"/>
+      <c r="L171" s="71">
         <v>42984</v>
       </c>
     </row>
-    <row r="172" spans="1:11" s="37" customFormat="1">
+    <row r="172" spans="1:12" s="37" customFormat="1">
       <c r="A172" s="37">
         <v>159</v>
       </c>
@@ -10030,20 +10235,21 @@
       <c r="E172" s="69" t="s">
         <v>608</v>
       </c>
-      <c r="F172" s="39"/>
-      <c r="G172" s="39">
+      <c r="F172" s="69"/>
+      <c r="G172" s="39"/>
+      <c r="H172" s="39">
         <v>30</v>
       </c>
-      <c r="H172" s="39" t="s">
+      <c r="I172" s="39" t="s">
         <v>482</v>
       </c>
-      <c r="I172" s="70"/>
-      <c r="J172" s="39"/>
-      <c r="K172" s="71">
+      <c r="J172" s="70"/>
+      <c r="K172" s="39"/>
+      <c r="L172" s="71">
         <v>42984</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:12">
       <c r="A173">
         <v>160</v>
       </c>
@@ -10061,13 +10267,14 @@
       </c>
       <c r="F173" s="14"/>
       <c r="G173" s="14"/>
-      <c r="H173" s="14" t="s">
+      <c r="H173" s="14"/>
+      <c r="I173" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I173" s="11"/>
-      <c r="J173" s="14"/>
-    </row>
-    <row r="174" spans="1:11">
+      <c r="J173" s="11"/>
+      <c r="K173" s="14"/>
+    </row>
+    <row r="174" spans="1:12">
       <c r="A174">
         <v>161</v>
       </c>
@@ -10083,13 +10290,14 @@
       </c>
       <c r="F174" s="14"/>
       <c r="G174" s="14"/>
-      <c r="H174" s="14" t="s">
+      <c r="H174" s="14"/>
+      <c r="I174" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="I174" s="11"/>
-      <c r="J174" s="14"/>
-    </row>
-    <row r="175" spans="1:11">
+      <c r="J174" s="11"/>
+      <c r="K174" s="14"/>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175">
         <v>162</v>
       </c>
@@ -10104,10 +10312,11 @@
       <c r="F175" s="14"/>
       <c r="G175" s="14"/>
       <c r="H175" s="14"/>
-      <c r="I175" s="11"/>
-      <c r="J175" s="14"/>
-    </row>
-    <row r="176" spans="1:11">
+      <c r="I175" s="14"/>
+      <c r="J175" s="11"/>
+      <c r="K175" s="14"/>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176">
         <v>163</v>
       </c>
@@ -10124,12 +10333,13 @@
       <c r="F176" s="14"/>
       <c r="G176" s="14"/>
       <c r="H176" s="14"/>
-      <c r="I176" s="36" t="s">
+      <c r="I176" s="14"/>
+      <c r="J176" s="36" t="s">
         <v>907</v>
       </c>
-      <c r="J176" s="14"/>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="K176" s="14"/>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177">
         <v>164</v>
       </c>
@@ -10146,10 +10356,11 @@
       <c r="F177" s="14"/>
       <c r="G177" s="14"/>
       <c r="H177" s="14"/>
-      <c r="I177" s="11"/>
-      <c r="J177" s="14"/>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="I177" s="14"/>
+      <c r="J177" s="11"/>
+      <c r="K177" s="14"/>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178">
         <v>165</v>
       </c>
@@ -10164,10 +10375,11 @@
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
       <c r="H178" s="9"/>
-      <c r="I178" s="64"/>
-      <c r="J178" s="9"/>
-    </row>
-    <row r="179" spans="1:10" s="37" customFormat="1">
+      <c r="I178" s="9"/>
+      <c r="J178" s="64"/>
+      <c r="K178" s="9"/>
+    </row>
+    <row r="179" spans="1:11" s="37" customFormat="1">
       <c r="A179" s="37">
         <v>166</v>
       </c>
@@ -10183,17 +10395,18 @@
       <c r="E179" s="69" t="s">
         <v>961</v>
       </c>
-      <c r="F179" s="39"/>
-      <c r="G179" s="39">
+      <c r="F179" s="69"/>
+      <c r="G179" s="39"/>
+      <c r="H179" s="39">
         <v>100</v>
       </c>
-      <c r="H179" s="39" t="s">
+      <c r="I179" s="39" t="s">
         <v>482</v>
       </c>
-      <c r="I179" s="66"/>
-      <c r="J179" s="39"/>
-    </row>
-    <row r="180" spans="1:10" s="37" customFormat="1">
+      <c r="J179" s="66"/>
+      <c r="K179" s="39"/>
+    </row>
+    <row r="180" spans="1:11" s="37" customFormat="1">
       <c r="A180" s="37">
         <v>167</v>
       </c>
@@ -10209,17 +10422,18 @@
       <c r="E180" s="69" t="s">
         <v>962</v>
       </c>
-      <c r="F180" s="39"/>
-      <c r="G180" s="39">
+      <c r="F180" s="69"/>
+      <c r="G180" s="39"/>
+      <c r="H180" s="39">
         <v>50</v>
       </c>
-      <c r="H180" s="39" t="s">
+      <c r="I180" s="39" t="s">
         <v>482</v>
       </c>
-      <c r="I180" s="66"/>
-      <c r="J180" s="39"/>
-    </row>
-    <row r="181" spans="1:10" s="37" customFormat="1">
+      <c r="J180" s="66"/>
+      <c r="K180" s="39"/>
+    </row>
+    <row r="181" spans="1:11" s="37" customFormat="1">
       <c r="A181" s="37">
         <v>168</v>
       </c>
@@ -10235,17 +10449,18 @@
       <c r="E181" s="73" t="s">
         <v>963</v>
       </c>
-      <c r="F181" s="74"/>
-      <c r="G181" s="74">
+      <c r="F181" s="73"/>
+      <c r="G181" s="74"/>
+      <c r="H181" s="74">
         <v>50</v>
       </c>
-      <c r="H181" s="39" t="s">
+      <c r="I181" s="39" t="s">
         <v>482</v>
       </c>
-      <c r="I181" s="76"/>
-      <c r="J181" s="74"/>
-    </row>
-    <row r="182" spans="1:10" s="37" customFormat="1">
+      <c r="J181" s="76"/>
+      <c r="K181" s="74"/>
+    </row>
+    <row r="182" spans="1:11" s="37" customFormat="1">
       <c r="A182" s="37">
         <v>169</v>
       </c>
@@ -10261,17 +10476,18 @@
       <c r="E182" s="77" t="s">
         <v>701</v>
       </c>
-      <c r="F182" s="39"/>
-      <c r="G182" s="37">
+      <c r="F182" s="77"/>
+      <c r="G182" s="39"/>
+      <c r="H182" s="37">
         <v>30</v>
       </c>
-      <c r="H182" s="39" t="s">
+      <c r="I182" s="39" t="s">
         <v>482</v>
       </c>
-      <c r="I182" s="66"/>
-      <c r="J182" s="39"/>
-    </row>
-    <row r="183" spans="1:10" s="37" customFormat="1">
+      <c r="J182" s="66"/>
+      <c r="K182" s="39"/>
+    </row>
+    <row r="183" spans="1:11" s="37" customFormat="1">
       <c r="A183" s="37">
         <v>170</v>
       </c>
@@ -10287,17 +10503,18 @@
       <c r="E183" s="77" t="s">
         <v>821</v>
       </c>
-      <c r="F183" s="39"/>
-      <c r="G183" s="37">
+      <c r="F183" s="77"/>
+      <c r="G183" s="39"/>
+      <c r="H183" s="37">
         <v>30</v>
       </c>
-      <c r="H183" s="39" t="s">
+      <c r="I183" s="39" t="s">
         <v>482</v>
       </c>
-      <c r="I183" s="66"/>
-      <c r="J183" s="39"/>
-    </row>
-    <row r="184" spans="1:10" s="37" customFormat="1">
+      <c r="J183" s="66"/>
+      <c r="K183" s="39"/>
+    </row>
+    <row r="184" spans="1:11" s="37" customFormat="1">
       <c r="A184" s="37">
         <v>171</v>
       </c>
@@ -10313,17 +10530,18 @@
       <c r="E184" s="77" t="s">
         <v>855</v>
       </c>
-      <c r="F184" s="39"/>
-      <c r="G184" s="37">
+      <c r="F184" s="77"/>
+      <c r="G184" s="39"/>
+      <c r="H184" s="37">
         <v>30</v>
       </c>
-      <c r="H184" s="39" t="s">
+      <c r="I184" s="39" t="s">
         <v>482</v>
       </c>
-      <c r="I184" s="66"/>
-      <c r="J184" s="39"/>
-    </row>
-    <row r="185" spans="1:10" s="37" customFormat="1">
+      <c r="J184" s="66"/>
+      <c r="K184" s="39"/>
+    </row>
+    <row r="185" spans="1:11" s="37" customFormat="1">
       <c r="A185" s="37">
         <v>172</v>
       </c>
@@ -10339,17 +10557,18 @@
       <c r="E185" s="77" t="s">
         <v>865</v>
       </c>
-      <c r="F185" s="39"/>
-      <c r="G185" s="37">
+      <c r="F185" s="77"/>
+      <c r="G185" s="39"/>
+      <c r="H185" s="37">
         <v>30</v>
       </c>
-      <c r="H185" s="39" t="s">
+      <c r="I185" s="39" t="s">
         <v>482</v>
       </c>
-      <c r="I185" s="66"/>
-      <c r="J185" s="39"/>
-    </row>
-    <row r="186" spans="1:10" s="37" customFormat="1">
+      <c r="J185" s="66"/>
+      <c r="K185" s="39"/>
+    </row>
+    <row r="186" spans="1:11" s="37" customFormat="1">
       <c r="A186" s="37">
         <v>173</v>
       </c>
@@ -10365,17 +10584,18 @@
       <c r="E186" s="77" t="s">
         <v>867</v>
       </c>
-      <c r="F186" s="39"/>
-      <c r="G186" s="37">
+      <c r="F186" s="77"/>
+      <c r="G186" s="39"/>
+      <c r="H186" s="37">
         <v>30</v>
       </c>
-      <c r="H186" s="39" t="s">
+      <c r="I186" s="39" t="s">
         <v>482</v>
       </c>
-      <c r="I186" s="66"/>
-      <c r="J186" s="39"/>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="J186" s="66"/>
+      <c r="K186" s="39"/>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" s="37">
         <v>174</v>
       </c>
@@ -10387,12 +10607,13 @@
       <c r="E187" s="39" t="s">
         <v>966</v>
       </c>
-      <c r="F187" s="9"/>
-      <c r="H187" s="9"/>
-      <c r="I187" s="64"/>
-      <c r="J187" s="9"/>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="F187" s="39"/>
+      <c r="G187" s="9"/>
+      <c r="I187" s="9"/>
+      <c r="J187" s="64"/>
+      <c r="K187" s="9"/>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" s="37">
         <v>175</v>
       </c>
@@ -10406,12 +10627,13 @@
       <c r="E188" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="F188" s="9"/>
-      <c r="H188" s="9"/>
-      <c r="I188" s="64"/>
-      <c r="J188" s="9"/>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="F188" s="39"/>
+      <c r="G188" s="9"/>
+      <c r="I188" s="9"/>
+      <c r="J188" s="64"/>
+      <c r="K188" s="9"/>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189">
         <v>176</v>
       </c>
@@ -10423,12 +10645,13 @@
       <c r="E189" s="14" t="s">
         <v>976</v>
       </c>
-      <c r="F189" s="9"/>
-      <c r="H189" s="9"/>
-      <c r="I189" s="64"/>
-      <c r="J189" s="9"/>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="F189" s="14"/>
+      <c r="G189" s="9"/>
+      <c r="I189" s="9"/>
+      <c r="J189" s="64"/>
+      <c r="K189" s="9"/>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190">
         <v>177</v>
       </c>
@@ -10440,12 +10663,13 @@
       <c r="E190" s="60" t="s">
         <v>975</v>
       </c>
-      <c r="F190" s="63"/>
-      <c r="H190" s="63"/>
-      <c r="I190" s="78"/>
-      <c r="J190" s="63"/>
-    </row>
-    <row r="191" spans="1:10">
+      <c r="F190" s="60"/>
+      <c r="G190" s="63"/>
+      <c r="I190" s="63"/>
+      <c r="J190" s="78"/>
+      <c r="K190" s="63"/>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191">
         <v>178</v>
       </c>
@@ -10457,12 +10681,13 @@
       <c r="E191" s="60" t="s">
         <v>977</v>
       </c>
-      <c r="F191" s="63"/>
-      <c r="H191" s="63"/>
-      <c r="I191" s="78"/>
-      <c r="J191" s="63"/>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="F191" s="60"/>
+      <c r="G191" s="63"/>
+      <c r="I191" s="63"/>
+      <c r="J191" s="78"/>
+      <c r="K191" s="63"/>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192">
         <v>179</v>
       </c>
@@ -10470,11 +10695,12 @@
       <c r="D192" s="63"/>
       <c r="E192" s="63"/>
       <c r="F192" s="63"/>
-      <c r="H192" s="63"/>
-      <c r="I192" s="78"/>
-      <c r="J192" s="63"/>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="G192" s="63"/>
+      <c r="I192" s="63"/>
+      <c r="J192" s="78"/>
+      <c r="K192" s="63"/>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193">
         <v>180</v>
       </c>
@@ -10482,11 +10708,12 @@
       <c r="D193" s="63"/>
       <c r="E193" s="63"/>
       <c r="F193" s="63"/>
-      <c r="H193" s="63"/>
-      <c r="I193" s="78"/>
-      <c r="J193" s="63"/>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="G193" s="63"/>
+      <c r="I193" s="63"/>
+      <c r="J193" s="78"/>
+      <c r="K193" s="63"/>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194">
         <v>181</v>
       </c>
@@ -10494,11 +10721,12 @@
       <c r="D194" s="63"/>
       <c r="E194" s="63"/>
       <c r="F194" s="63"/>
-      <c r="H194" s="63"/>
-      <c r="I194" s="78"/>
-      <c r="J194" s="63"/>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="G194" s="63"/>
+      <c r="I194" s="63"/>
+      <c r="J194" s="78"/>
+      <c r="K194" s="63"/>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195">
         <v>182</v>
       </c>
@@ -10506,11 +10734,12 @@
       <c r="D195" s="63"/>
       <c r="E195" s="63"/>
       <c r="F195" s="63"/>
-      <c r="H195" s="63"/>
-      <c r="I195" s="78"/>
-      <c r="J195" s="63"/>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="G195" s="63"/>
+      <c r="I195" s="63"/>
+      <c r="J195" s="78"/>
+      <c r="K195" s="63"/>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196">
         <v>183</v>
       </c>
@@ -10518,11 +10747,12 @@
       <c r="D196" s="63"/>
       <c r="E196" s="63"/>
       <c r="F196" s="63"/>
-      <c r="H196" s="63"/>
-      <c r="I196" s="78"/>
-      <c r="J196" s="63"/>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="G196" s="63"/>
+      <c r="I196" s="63"/>
+      <c r="J196" s="78"/>
+      <c r="K196" s="63"/>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197">
         <v>184</v>
       </c>
@@ -10530,95 +10760,96 @@
       <c r="D197" s="63"/>
       <c r="E197" s="63"/>
       <c r="F197" s="63"/>
-      <c r="H197" s="63"/>
-      <c r="I197" s="78"/>
-      <c r="J197" s="63"/>
+      <c r="G197" s="63"/>
+      <c r="I197" s="63"/>
+      <c r="J197" s="78"/>
+      <c r="K197" s="63"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I40" r:id="rId1"/>
-    <hyperlink ref="I23" r:id="rId2"/>
-    <hyperlink ref="I78" r:id="rId3"/>
-    <hyperlink ref="I65" r:id="rId4"/>
-    <hyperlink ref="I16" r:id="rId5"/>
-    <hyperlink ref="I86" r:id="rId6"/>
-    <hyperlink ref="I45" r:id="rId7"/>
-    <hyperlink ref="I49" r:id="rId8"/>
-    <hyperlink ref="I32" r:id="rId9"/>
-    <hyperlink ref="I43" r:id="rId10"/>
-    <hyperlink ref="I6" r:id="rId11"/>
-    <hyperlink ref="I5" r:id="rId12"/>
-    <hyperlink ref="I10" r:id="rId13"/>
-    <hyperlink ref="I8" r:id="rId14"/>
-    <hyperlink ref="I7" r:id="rId15"/>
-    <hyperlink ref="I9" r:id="rId16"/>
-    <hyperlink ref="I83" r:id="rId17"/>
-    <hyperlink ref="I28" r:id="rId18"/>
-    <hyperlink ref="I64" r:id="rId19"/>
-    <hyperlink ref="I39" r:id="rId20"/>
-    <hyperlink ref="I56" r:id="rId21"/>
-    <hyperlink ref="I87" r:id="rId22"/>
-    <hyperlink ref="I2" r:id="rId23"/>
-    <hyperlink ref="I54" r:id="rId24"/>
-    <hyperlink ref="I70" r:id="rId25"/>
-    <hyperlink ref="I79" r:id="rId26"/>
-    <hyperlink ref="I27" r:id="rId27"/>
-    <hyperlink ref="I17" r:id="rId28"/>
-    <hyperlink ref="I46" r:id="rId29"/>
-    <hyperlink ref="I75" r:id="rId30"/>
-    <hyperlink ref="I50" r:id="rId31"/>
-    <hyperlink ref="I76" r:id="rId32"/>
-    <hyperlink ref="I61" r:id="rId33"/>
-    <hyperlink ref="I92" r:id="rId34"/>
-    <hyperlink ref="I74" r:id="rId35"/>
-    <hyperlink ref="I31" r:id="rId36"/>
-    <hyperlink ref="I60" r:id="rId37"/>
-    <hyperlink ref="I51" r:id="rId38"/>
-    <hyperlink ref="I63" r:id="rId39"/>
-    <hyperlink ref="I88" r:id="rId40"/>
-    <hyperlink ref="I93" r:id="rId41"/>
-    <hyperlink ref="I42" r:id="rId42"/>
-    <hyperlink ref="I72" r:id="rId43"/>
-    <hyperlink ref="I15" r:id="rId44"/>
-    <hyperlink ref="I20" r:id="rId45"/>
-    <hyperlink ref="I4" r:id="rId46"/>
-    <hyperlink ref="I13" r:id="rId47"/>
-    <hyperlink ref="I77" r:id="rId48"/>
-    <hyperlink ref="I91" r:id="rId49"/>
-    <hyperlink ref="I94" r:id="rId50"/>
-    <hyperlink ref="I14" r:id="rId51"/>
-    <hyperlink ref="I48" r:id="rId52"/>
-    <hyperlink ref="I69" r:id="rId53"/>
-    <hyperlink ref="I18" r:id="rId54"/>
-    <hyperlink ref="I47" r:id="rId55"/>
-    <hyperlink ref="I34" r:id="rId56"/>
-    <hyperlink ref="I24" r:id="rId57"/>
-    <hyperlink ref="I38" r:id="rId58"/>
-    <hyperlink ref="I33" r:id="rId59"/>
-    <hyperlink ref="I80" r:id="rId60"/>
-    <hyperlink ref="I85" r:id="rId61"/>
-    <hyperlink ref="I84" r:id="rId62"/>
-    <hyperlink ref="I3" r:id="rId63"/>
-    <hyperlink ref="I21" r:id="rId64"/>
-    <hyperlink ref="I67" r:id="rId65"/>
-    <hyperlink ref="I96" r:id="rId66"/>
-    <hyperlink ref="I97" r:id="rId67"/>
-    <hyperlink ref="I147" r:id="rId68"/>
-    <hyperlink ref="I149" r:id="rId69"/>
-    <hyperlink ref="I150" r:id="rId70"/>
-    <hyperlink ref="I148" r:id="rId71"/>
-    <hyperlink ref="I151" r:id="rId72"/>
-    <hyperlink ref="I152" r:id="rId73"/>
-    <hyperlink ref="I153" r:id="rId74"/>
-    <hyperlink ref="I154" r:id="rId75"/>
-    <hyperlink ref="I155" r:id="rId76"/>
-    <hyperlink ref="I157" r:id="rId77"/>
-    <hyperlink ref="I158" r:id="rId78"/>
-    <hyperlink ref="I168" r:id="rId79"/>
-    <hyperlink ref="I169" r:id="rId80"/>
-    <hyperlink ref="I170" r:id="rId81"/>
-    <hyperlink ref="I176" r:id="rId82"/>
+    <hyperlink ref="J40" r:id="rId1"/>
+    <hyperlink ref="J23" r:id="rId2"/>
+    <hyperlink ref="J78" r:id="rId3"/>
+    <hyperlink ref="J65" r:id="rId4"/>
+    <hyperlink ref="J16" r:id="rId5"/>
+    <hyperlink ref="J86" r:id="rId6"/>
+    <hyperlink ref="J45" r:id="rId7"/>
+    <hyperlink ref="J49" r:id="rId8"/>
+    <hyperlink ref="J32" r:id="rId9"/>
+    <hyperlink ref="J43" r:id="rId10"/>
+    <hyperlink ref="J6" r:id="rId11"/>
+    <hyperlink ref="J5" r:id="rId12"/>
+    <hyperlink ref="J10" r:id="rId13"/>
+    <hyperlink ref="J8" r:id="rId14"/>
+    <hyperlink ref="J7" r:id="rId15"/>
+    <hyperlink ref="J9" r:id="rId16"/>
+    <hyperlink ref="J83" r:id="rId17"/>
+    <hyperlink ref="J28" r:id="rId18"/>
+    <hyperlink ref="J64" r:id="rId19"/>
+    <hyperlink ref="J39" r:id="rId20"/>
+    <hyperlink ref="J56" r:id="rId21"/>
+    <hyperlink ref="J87" r:id="rId22"/>
+    <hyperlink ref="J2" r:id="rId23"/>
+    <hyperlink ref="J54" r:id="rId24"/>
+    <hyperlink ref="J70" r:id="rId25"/>
+    <hyperlink ref="J79" r:id="rId26"/>
+    <hyperlink ref="J27" r:id="rId27"/>
+    <hyperlink ref="J17" r:id="rId28"/>
+    <hyperlink ref="J46" r:id="rId29"/>
+    <hyperlink ref="J75" r:id="rId30"/>
+    <hyperlink ref="J50" r:id="rId31"/>
+    <hyperlink ref="J76" r:id="rId32"/>
+    <hyperlink ref="J61" r:id="rId33"/>
+    <hyperlink ref="J92" r:id="rId34"/>
+    <hyperlink ref="J74" r:id="rId35"/>
+    <hyperlink ref="J31" r:id="rId36"/>
+    <hyperlink ref="J60" r:id="rId37"/>
+    <hyperlink ref="J51" r:id="rId38"/>
+    <hyperlink ref="J63" r:id="rId39"/>
+    <hyperlink ref="J88" r:id="rId40"/>
+    <hyperlink ref="J93" r:id="rId41"/>
+    <hyperlink ref="J42" r:id="rId42"/>
+    <hyperlink ref="J72" r:id="rId43"/>
+    <hyperlink ref="J15" r:id="rId44"/>
+    <hyperlink ref="J20" r:id="rId45"/>
+    <hyperlink ref="J4" r:id="rId46"/>
+    <hyperlink ref="J13" r:id="rId47"/>
+    <hyperlink ref="J77" r:id="rId48"/>
+    <hyperlink ref="J91" r:id="rId49"/>
+    <hyperlink ref="J94" r:id="rId50"/>
+    <hyperlink ref="J14" r:id="rId51"/>
+    <hyperlink ref="J48" r:id="rId52"/>
+    <hyperlink ref="J69" r:id="rId53"/>
+    <hyperlink ref="J18" r:id="rId54"/>
+    <hyperlink ref="J47" r:id="rId55"/>
+    <hyperlink ref="J34" r:id="rId56"/>
+    <hyperlink ref="J24" r:id="rId57"/>
+    <hyperlink ref="J38" r:id="rId58"/>
+    <hyperlink ref="J33" r:id="rId59"/>
+    <hyperlink ref="J80" r:id="rId60"/>
+    <hyperlink ref="J85" r:id="rId61"/>
+    <hyperlink ref="J84" r:id="rId62"/>
+    <hyperlink ref="J3" r:id="rId63"/>
+    <hyperlink ref="J21" r:id="rId64"/>
+    <hyperlink ref="J67" r:id="rId65"/>
+    <hyperlink ref="J96" r:id="rId66"/>
+    <hyperlink ref="J97" r:id="rId67"/>
+    <hyperlink ref="J147" r:id="rId68"/>
+    <hyperlink ref="J149" r:id="rId69"/>
+    <hyperlink ref="J150" r:id="rId70"/>
+    <hyperlink ref="J148" r:id="rId71"/>
+    <hyperlink ref="J151" r:id="rId72"/>
+    <hyperlink ref="J152" r:id="rId73"/>
+    <hyperlink ref="J153" r:id="rId74"/>
+    <hyperlink ref="J154" r:id="rId75"/>
+    <hyperlink ref="J155" r:id="rId76"/>
+    <hyperlink ref="J157" r:id="rId77"/>
+    <hyperlink ref="J158" r:id="rId78"/>
+    <hyperlink ref="J168" r:id="rId79"/>
+    <hyperlink ref="J169" r:id="rId80"/>
+    <hyperlink ref="J170" r:id="rId81"/>
+    <hyperlink ref="J176" r:id="rId82"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId83"/>

--- a/统计清单/2017国内编号清单.xlsx
+++ b/统计清单/2017国内编号清单.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="991">
   <si>
     <t>本地编号</t>
   </si>
@@ -3620,6 +3620,46 @@
   </si>
   <si>
     <t>对版</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echinopsis</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echinopsis</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">盖伯·弗兰茨 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chamaecereus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chamaecereus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chamaecereus Gelber Franz</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>天骄风信子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>天骄风信子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>江南百草园</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>江南百草园</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3856,7 +3896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3982,29 +4022,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -4328,6 +4353,23 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -4409,20 +4451,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M197" totalsRowShown="0">
-  <autoFilter ref="A1:M197"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M205" totalsRowShown="0">
+  <autoFilter ref="A1:M205"/>
   <tableColumns count="13">
     <tableColumn id="1" name="145"/>
     <tableColumn id="2" name="属"/>
     <tableColumn id="3" name="属内编号" dataDxfId="18"/>
     <tableColumn id="4" name="拉丁名" dataDxfId="17"/>
     <tableColumn id="5" name="中文" dataDxfId="16"/>
-    <tableColumn id="9" name="对版" dataDxfId="0"/>
-    <tableColumn id="7" name="来源编号" dataDxfId="15"/>
+    <tableColumn id="9" name="对版" dataDxfId="15"/>
+    <tableColumn id="7" name="来源编号" dataDxfId="14"/>
     <tableColumn id="12" name="引进价格"/>
-    <tableColumn id="6" name="来源" dataDxfId="14"/>
-    <tableColumn id="8" name="参考链接" dataDxfId="13" dataCellStyle="超链接"/>
-    <tableColumn id="10" name="引进尺寸2" dataDxfId="12"/>
+    <tableColumn id="6" name="来源" dataDxfId="13"/>
+    <tableColumn id="8" name="参考链接" dataDxfId="12" dataCellStyle="超链接"/>
+    <tableColumn id="10" name="引进尺寸2" dataDxfId="11"/>
     <tableColumn id="11" name="引进日期"/>
     <tableColumn id="13" name="备注"/>
   </tableColumns>
@@ -4435,9 +4477,9 @@
   <autoFilter ref="A1:E162"/>
   <tableColumns count="5">
     <tableColumn id="1" name="145"/>
-    <tableColumn id="3" name="编号" dataDxfId="11"/>
-    <tableColumn id="5" name="中文" dataDxfId="10"/>
-    <tableColumn id="7" name="来源编号" dataDxfId="9"/>
+    <tableColumn id="3" name="编号" dataDxfId="10"/>
+    <tableColumn id="5" name="中文" dataDxfId="9"/>
+    <tableColumn id="7" name="来源编号" dataDxfId="8"/>
     <tableColumn id="2" name="数量"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4445,16 +4487,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G129" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:G129"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G129" totalsRowShown="0" dataDxfId="7">
+  <autoFilter ref="A1:G129">
+    <filterColumn colId="6">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="本地编号" dataDxfId="7"/>
-    <tableColumn id="2" name="编号" dataDxfId="6"/>
-    <tableColumn id="5" name="中文名" dataDxfId="5"/>
-    <tableColumn id="6" name="购买目标" dataDxfId="4"/>
-    <tableColumn id="7" name="来源编号" dataDxfId="3"/>
-    <tableColumn id="4" name="链接" dataDxfId="2"/>
-    <tableColumn id="3" name="购买数量" dataDxfId="1"/>
+    <tableColumn id="1" name="本地编号" dataDxfId="6"/>
+    <tableColumn id="2" name="编号" dataDxfId="5"/>
+    <tableColumn id="5" name="中文名" dataDxfId="4"/>
+    <tableColumn id="6" name="购买目标" dataDxfId="3"/>
+    <tableColumn id="7" name="来源编号" dataDxfId="2"/>
+    <tableColumn id="4" name="链接" dataDxfId="1"/>
+    <tableColumn id="3" name="购买数量" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4747,10 +4793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M197"/>
+  <dimension ref="A1:M205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="I192" sqref="I192:I197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10365,7 +10411,7 @@
         <v>165</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>787</v>
+        <v>984</v>
       </c>
       <c r="C178" s="15"/>
       <c r="D178" s="9"/>
@@ -10519,7 +10565,7 @@
         <v>171</v>
       </c>
       <c r="B184" s="37" t="s">
-        <v>955</v>
+        <v>981</v>
       </c>
       <c r="C184" s="77" t="s">
         <v>172</v>
@@ -10590,7 +10636,7 @@
         <v>30</v>
       </c>
       <c r="I186" s="39" t="s">
-        <v>482</v>
+        <v>989</v>
       </c>
       <c r="J186" s="66"/>
       <c r="K186" s="39"/>
@@ -10647,7 +10693,9 @@
       </c>
       <c r="F189" s="14"/>
       <c r="G189" s="9"/>
-      <c r="I189" s="9"/>
+      <c r="I189" s="14" t="s">
+        <v>987</v>
+      </c>
       <c r="J189" s="64"/>
       <c r="K189" s="9"/>
     </row>
@@ -10665,7 +10713,9 @@
       </c>
       <c r="F190" s="60"/>
       <c r="G190" s="63"/>
-      <c r="I190" s="63"/>
+      <c r="I190" s="60" t="s">
+        <v>988</v>
+      </c>
       <c r="J190" s="78"/>
       <c r="K190" s="63"/>
     </row>
@@ -10683,7 +10733,9 @@
       </c>
       <c r="F191" s="60"/>
       <c r="G191" s="63"/>
-      <c r="I191" s="63"/>
+      <c r="I191" s="60" t="s">
+        <v>987</v>
+      </c>
       <c r="J191" s="78"/>
       <c r="K191" s="63"/>
     </row>
@@ -10691,12 +10743,23 @@
       <c r="A192">
         <v>179</v>
       </c>
-      <c r="C192" s="62"/>
-      <c r="D192" s="63"/>
-      <c r="E192" s="63"/>
+      <c r="B192" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>618</v>
+      </c>
       <c r="F192" s="63"/>
       <c r="G192" s="63"/>
-      <c r="I192" s="63"/>
+      <c r="I192" s="60" t="s">
+        <v>990</v>
+      </c>
       <c r="J192" s="78"/>
       <c r="K192" s="63"/>
     </row>
@@ -10704,12 +10767,23 @@
       <c r="A193">
         <v>180</v>
       </c>
-      <c r="C193" s="62"/>
-      <c r="D193" s="63"/>
-      <c r="E193" s="63"/>
+      <c r="B193" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>663</v>
+      </c>
       <c r="F193" s="63"/>
       <c r="G193" s="63"/>
-      <c r="I193" s="63"/>
+      <c r="I193" s="60" t="s">
+        <v>990</v>
+      </c>
       <c r="J193" s="78"/>
       <c r="K193" s="63"/>
     </row>
@@ -10717,12 +10791,23 @@
       <c r="A194">
         <v>181</v>
       </c>
-      <c r="C194" s="62"/>
-      <c r="D194" s="63"/>
-      <c r="E194" s="63"/>
+      <c r="B194" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>669</v>
+      </c>
       <c r="F194" s="63"/>
       <c r="G194" s="63"/>
-      <c r="I194" s="63"/>
+      <c r="I194" s="60" t="s">
+        <v>990</v>
+      </c>
       <c r="J194" s="78"/>
       <c r="K194" s="63"/>
     </row>
@@ -10730,12 +10815,23 @@
       <c r="A195">
         <v>182</v>
       </c>
-      <c r="C195" s="62"/>
-      <c r="D195" s="63"/>
-      <c r="E195" s="63"/>
+      <c r="B195" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>833</v>
+      </c>
       <c r="F195" s="63"/>
       <c r="G195" s="63"/>
-      <c r="I195" s="63"/>
+      <c r="I195" s="60" t="s">
+        <v>990</v>
+      </c>
       <c r="J195" s="78"/>
       <c r="K195" s="63"/>
     </row>
@@ -10743,12 +10839,23 @@
       <c r="A196">
         <v>183</v>
       </c>
-      <c r="C196" s="62"/>
-      <c r="D196" s="63"/>
-      <c r="E196" s="63"/>
+      <c r="B196" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>836</v>
+      </c>
       <c r="F196" s="63"/>
       <c r="G196" s="63"/>
-      <c r="I196" s="63"/>
+      <c r="I196" s="60" t="s">
+        <v>990</v>
+      </c>
       <c r="J196" s="78"/>
       <c r="K196" s="63"/>
     </row>
@@ -10756,14 +10863,127 @@
       <c r="A197">
         <v>184</v>
       </c>
+      <c r="B197" s="3" t="s">
+        <v>985</v>
+      </c>
       <c r="C197" s="62"/>
-      <c r="D197" s="63"/>
-      <c r="E197" s="63"/>
+      <c r="D197" s="60" t="s">
+        <v>986</v>
+      </c>
+      <c r="E197" s="60" t="s">
+        <v>983</v>
+      </c>
       <c r="F197" s="63"/>
       <c r="G197" s="63"/>
-      <c r="I197" s="63"/>
+      <c r="I197" s="60" t="s">
+        <v>990</v>
+      </c>
       <c r="J197" s="78"/>
       <c r="K197" s="63"/>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>185</v>
+      </c>
+      <c r="C198" s="13"/>
+      <c r="D198" s="14"/>
+      <c r="E198" s="14"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="14"/>
+      <c r="I198" s="14"/>
+      <c r="J198" s="11"/>
+      <c r="K198" s="14"/>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>186</v>
+      </c>
+      <c r="C199" s="79"/>
+      <c r="D199" s="60"/>
+      <c r="E199" s="60"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="60"/>
+      <c r="I199" s="60"/>
+      <c r="J199" s="80"/>
+      <c r="K199" s="60"/>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>187</v>
+      </c>
+      <c r="C200" s="79"/>
+      <c r="D200" s="60"/>
+      <c r="E200" s="60"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="60"/>
+      <c r="I200" s="60"/>
+      <c r="J200" s="80"/>
+      <c r="K200" s="60"/>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>188</v>
+      </c>
+      <c r="C201" s="79"/>
+      <c r="D201" s="60"/>
+      <c r="E201" s="60"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="60"/>
+      <c r="I201" s="60"/>
+      <c r="J201" s="80"/>
+      <c r="K201" s="60"/>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>189</v>
+      </c>
+      <c r="C202" s="79"/>
+      <c r="D202" s="60"/>
+      <c r="E202" s="60"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="60"/>
+      <c r="I202" s="60"/>
+      <c r="J202" s="80"/>
+      <c r="K202" s="60"/>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>190</v>
+      </c>
+      <c r="C203" s="79"/>
+      <c r="D203" s="60"/>
+      <c r="E203" s="60"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="60"/>
+      <c r="I203" s="60"/>
+      <c r="J203" s="80"/>
+      <c r="K203" s="60"/>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>191</v>
+      </c>
+      <c r="C204" s="79"/>
+      <c r="D204" s="60"/>
+      <c r="E204" s="60"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="60"/>
+      <c r="I204" s="60"/>
+      <c r="J204" s="80"/>
+      <c r="K204" s="60"/>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>192</v>
+      </c>
+      <c r="C205" s="79"/>
+      <c r="D205" s="60"/>
+      <c r="E205" s="60"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="60"/>
+      <c r="I205" s="60"/>
+      <c r="J205" s="80"/>
+      <c r="K205" s="60"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -13877,8 +14097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13888,7 +14108,7 @@
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.75" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
@@ -13919,7 +14139,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" hidden="1">
       <c r="A2" s="4" t="s">
         <v>103</v>
       </c>
@@ -13942,7 +14162,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" hidden="1">
       <c r="A3" s="4" t="s">
         <v>104</v>
       </c>
@@ -13955,11 +14175,13 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" hidden="1">
       <c r="A4" s="4" t="s">
         <v>105</v>
       </c>
@@ -13980,7 +14202,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" hidden="1">
       <c r="A5" s="4" t="s">
         <v>106</v>
       </c>
@@ -14003,7 +14225,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" hidden="1">
       <c r="A6" s="4" t="s">
         <v>107</v>
       </c>
@@ -14020,7 +14242,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" hidden="1">
       <c r="A7" s="4" t="s">
         <v>108</v>
       </c>
@@ -14037,7 +14259,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" hidden="1">
       <c r="A8" s="4" t="s">
         <v>109</v>
       </c>
@@ -14054,7 +14276,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" hidden="1">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -14088,7 +14310,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" hidden="1">
       <c r="A11" s="4" t="s">
         <v>111</v>
       </c>
@@ -14122,7 +14344,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" hidden="1">
       <c r="A13" s="4" t="s">
         <v>113</v>
       </c>
@@ -14139,7 +14361,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" hidden="1">
       <c r="A14" s="4" t="s">
         <v>114</v>
       </c>
@@ -14162,7 +14384,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" hidden="1">
       <c r="A15" s="4" t="s">
         <v>115</v>
       </c>
@@ -14175,11 +14397,13 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" hidden="1">
       <c r="A16" s="4" t="s">
         <v>116</v>
       </c>
@@ -14213,7 +14437,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" hidden="1">
       <c r="A18" s="4" t="s">
         <v>118</v>
       </c>
@@ -14247,7 +14471,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" s="4" t="s">
         <v>120</v>
       </c>
@@ -14260,11 +14484,13 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" hidden="1">
       <c r="A21" s="4" t="s">
         <v>121</v>
       </c>
@@ -14287,7 +14513,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" hidden="1">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -14304,7 +14530,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" hidden="1">
       <c r="A23" s="4" t="s">
         <v>122</v>
       </c>
@@ -14342,7 +14568,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" hidden="1">
       <c r="A25" s="4" t="s">
         <v>124</v>
       </c>
@@ -14365,7 +14591,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="27">
+    <row r="26" spans="1:10" ht="27" hidden="1">
       <c r="A26" s="4" t="s">
         <v>125</v>
       </c>
@@ -14388,7 +14614,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" hidden="1">
       <c r="A27" s="4" t="s">
         <v>126</v>
       </c>
@@ -14411,7 +14637,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" hidden="1">
       <c r="A28" s="4" t="s">
         <v>127</v>
       </c>
@@ -14428,7 +14654,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" hidden="1">
       <c r="A29" s="4" t="s">
         <v>72</v>
       </c>
@@ -14445,7 +14671,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" hidden="1">
       <c r="A30" s="4" t="s">
         <v>128</v>
       </c>
@@ -14485,7 +14711,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" hidden="1">
       <c r="A32" s="4" t="s">
         <v>130</v>
       </c>
@@ -14508,7 +14734,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" hidden="1">
       <c r="A33" s="4" t="s">
         <v>131</v>
       </c>
@@ -14525,7 +14751,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" hidden="1">
       <c r="A34" s="4" t="s">
         <v>31</v>
       </c>
@@ -14542,7 +14768,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" hidden="1">
       <c r="A35" s="4" t="s">
         <v>132</v>
       </c>
@@ -14559,7 +14785,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" hidden="1">
       <c r="A36" s="4" t="s">
         <v>133</v>
       </c>
@@ -14576,7 +14802,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" hidden="1">
       <c r="A37" s="4" t="s">
         <v>134</v>
       </c>
@@ -14599,7 +14825,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" hidden="1">
       <c r="A38" s="4" t="s">
         <v>135</v>
       </c>
@@ -14616,7 +14842,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" hidden="1">
       <c r="A39" s="4" t="s">
         <v>136</v>
       </c>
@@ -14639,7 +14865,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" hidden="1">
       <c r="A40" s="4" t="s">
         <v>137</v>
       </c>
@@ -14656,7 +14882,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" hidden="1">
       <c r="A41" s="4" t="s">
         <v>138</v>
       </c>
@@ -14694,7 +14920,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" ht="27">
+    <row r="43" spans="1:10" ht="27" hidden="1">
       <c r="A43" s="4" t="s">
         <v>140</v>
       </c>
@@ -14715,7 +14941,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" hidden="1">
       <c r="A44" s="4" t="s">
         <v>77</v>
       </c>
@@ -14732,7 +14958,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" ht="27">
+    <row r="45" spans="1:10" ht="27" hidden="1">
       <c r="A45" s="4" t="s">
         <v>141</v>
       </c>
@@ -14753,7 +14979,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" hidden="1">
       <c r="A46" s="4" t="s">
         <v>35</v>
       </c>
@@ -14770,7 +14996,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" hidden="1">
       <c r="A47" s="4" t="s">
         <v>142</v>
       </c>
@@ -14793,7 +15019,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" hidden="1">
       <c r="A48" s="4" t="s">
         <v>143</v>
       </c>
@@ -14810,7 +15036,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" hidden="1">
       <c r="A49" s="4" t="s">
         <v>40</v>
       </c>
@@ -14827,7 +15053,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" hidden="1">
       <c r="A50" s="4" t="s">
         <v>144</v>
       </c>
@@ -14850,7 +15076,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" hidden="1">
       <c r="A51" s="4" t="s">
         <v>45</v>
       </c>
@@ -14867,7 +15093,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52" s="4" t="s">
         <v>145</v>
       </c>
@@ -14884,7 +15110,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" hidden="1">
       <c r="A53" s="4" t="s">
         <v>146</v>
       </c>
@@ -14901,7 +15127,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" hidden="1">
       <c r="A54" s="4" t="s">
         <v>147</v>
       </c>
@@ -14937,7 +15163,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" hidden="1">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
@@ -14992,7 +15218,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" hidden="1">
       <c r="A59" s="4" t="s">
         <v>151</v>
       </c>
@@ -15009,7 +15235,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" hidden="1">
       <c r="A60" s="4" t="s">
         <v>398</v>
       </c>
@@ -15026,7 +15252,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" hidden="1">
       <c r="A61" s="4" t="s">
         <v>152</v>
       </c>
@@ -15068,7 +15294,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" hidden="1">
       <c r="A63" s="4" t="s">
         <v>154</v>
       </c>
@@ -15091,7 +15317,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" ht="27">
+    <row r="64" spans="1:10" ht="27" hidden="1">
       <c r="A64" s="4" t="s">
         <v>155</v>
       </c>
@@ -15131,7 +15357,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" hidden="1">
       <c r="A66" s="4" t="s">
         <v>336</v>
       </c>
@@ -15167,7 +15393,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" hidden="1">
       <c r="A68" s="4" t="s">
         <v>158</v>
       </c>
@@ -15190,7 +15416,7 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" hidden="1">
       <c r="A69" s="4" t="s">
         <v>82</v>
       </c>
@@ -15226,7 +15452,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" hidden="1">
       <c r="A71" s="4" t="s">
         <v>160</v>
       </c>
@@ -15249,7 +15475,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" hidden="1">
       <c r="A72" s="4" t="s">
         <v>161</v>
       </c>
@@ -15272,7 +15498,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10" ht="27">
+    <row r="73" spans="1:10" ht="27" hidden="1">
       <c r="A73" s="4" t="s">
         <v>162</v>
       </c>
@@ -15289,11 +15515,13 @@
       <c r="F73" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="G73" s="5"/>
+      <c r="G73" s="5">
+        <v>1</v>
+      </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10" ht="27">
+    <row r="74" spans="1:10" ht="27" hidden="1">
       <c r="A74" s="4" t="s">
         <v>163</v>
       </c>
@@ -15308,7 +15536,9 @@
       <c r="F74" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="G74" s="5"/>
+      <c r="G74" s="5">
+        <v>1</v>
+      </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
@@ -15388,7 +15618,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" hidden="1">
       <c r="A79" s="4" t="s">
         <v>168</v>
       </c>
@@ -15447,7 +15677,7 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" hidden="1">
       <c r="A82" s="4" t="s">
         <v>171</v>
       </c>
@@ -15464,7 +15694,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10" ht="27">
+    <row r="83" spans="1:10" ht="27" hidden="1">
       <c r="A83" s="4" t="s">
         <v>172</v>
       </c>
@@ -15485,7 +15715,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" hidden="1">
       <c r="A84" s="4" t="s">
         <v>173</v>
       </c>
@@ -15502,7 +15732,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" hidden="1">
       <c r="A85" s="4" t="s">
         <v>174</v>
       </c>
@@ -15525,7 +15755,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" ht="27">
+    <row r="86" spans="1:10" ht="27" hidden="1">
       <c r="A86" s="4" t="s">
         <v>175</v>
       </c>
@@ -15548,7 +15778,7 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" hidden="1">
       <c r="A87" s="4" t="s">
         <v>176</v>
       </c>
@@ -15584,7 +15814,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10" ht="27">
+    <row r="89" spans="1:10" ht="27" hidden="1">
       <c r="A89" s="4" t="s">
         <v>178</v>
       </c>
@@ -15605,7 +15835,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" hidden="1">
       <c r="A90" s="4" t="s">
         <v>87</v>
       </c>
@@ -15622,7 +15852,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" hidden="1">
       <c r="A91" s="4" t="s">
         <v>55</v>
       </c>
@@ -15639,7 +15869,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" hidden="1">
       <c r="A92" s="4" t="s">
         <v>179</v>
       </c>
@@ -15662,7 +15892,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" hidden="1">
       <c r="A93" s="4" t="s">
         <v>180</v>
       </c>
@@ -15679,7 +15909,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" ht="27">
+    <row r="94" spans="1:10" ht="27" hidden="1">
       <c r="A94" s="4" t="s">
         <v>181</v>
       </c>
@@ -15719,7 +15949,7 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" hidden="1">
       <c r="A96" s="4" t="s">
         <v>183</v>
       </c>
@@ -15742,7 +15972,7 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" hidden="1">
       <c r="A97" s="4" t="s">
         <v>184</v>
       </c>
@@ -15759,7 +15989,7 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" hidden="1">
       <c r="A98" s="4" t="s">
         <v>348</v>
       </c>
@@ -15795,7 +16025,7 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:10" ht="27">
+    <row r="100" spans="1:10" ht="27" hidden="1">
       <c r="A100" s="4" t="s">
         <v>186</v>
       </c>
@@ -15818,7 +16048,7 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" hidden="1">
       <c r="A101" s="4" t="s">
         <v>187</v>
       </c>
@@ -15839,7 +16069,7 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" hidden="1">
       <c r="A102" s="4" t="s">
         <v>188</v>
       </c>
@@ -15862,7 +16092,7 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" hidden="1">
       <c r="A103" s="4" t="s">
         <v>189</v>
       </c>
@@ -15898,7 +16128,7 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" hidden="1">
       <c r="A105" s="4" t="s">
         <v>191</v>
       </c>
@@ -15921,7 +16151,7 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" hidden="1">
       <c r="A106" s="4" t="s">
         <v>192</v>
       </c>
@@ -15938,7 +16168,7 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" hidden="1">
       <c r="A107" s="4" t="s">
         <v>193</v>
       </c>
@@ -15955,7 +16185,7 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" hidden="1">
       <c r="A108" s="4" t="s">
         <v>194</v>
       </c>
@@ -15972,7 +16202,7 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" hidden="1">
       <c r="A109" s="4" t="s">
         <v>195</v>
       </c>
@@ -15989,7 +16219,7 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" hidden="1">
       <c r="A110" s="4" t="s">
         <v>60</v>
       </c>
@@ -16025,7 +16255,7 @@
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" hidden="1">
       <c r="A112" s="4" t="s">
         <v>197</v>
       </c>
@@ -16042,7 +16272,7 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" hidden="1">
       <c r="A113" s="4" t="s">
         <v>198</v>
       </c>
@@ -16065,7 +16295,7 @@
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" hidden="1">
       <c r="A114" s="4" t="s">
         <v>199</v>
       </c>
@@ -16088,7 +16318,7 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" hidden="1">
       <c r="A115" s="4" t="s">
         <v>92</v>
       </c>
@@ -16105,7 +16335,7 @@
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" hidden="1">
       <c r="A116" s="4" t="s">
         <v>200</v>
       </c>
@@ -16122,7 +16352,7 @@
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" hidden="1">
       <c r="A117" s="4" t="s">
         <v>201</v>
       </c>
@@ -16139,7 +16369,7 @@
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" hidden="1">
       <c r="A118" s="4" t="s">
         <v>63</v>
       </c>
@@ -16156,7 +16386,7 @@
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" hidden="1">
       <c r="A119" s="4" t="s">
         <v>97</v>
       </c>
@@ -16173,7 +16403,7 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" hidden="1">
       <c r="A120" s="4" t="s">
         <v>202</v>
       </c>
@@ -16196,7 +16426,7 @@
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" hidden="1">
       <c r="A121" s="4" t="s">
         <v>203</v>
       </c>
@@ -16251,7 +16481,7 @@
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" hidden="1">
       <c r="A124" s="4" t="s">
         <v>206</v>
       </c>
@@ -16274,7 +16504,7 @@
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" hidden="1">
       <c r="A125" s="4" t="s">
         <v>207</v>
       </c>
@@ -16297,7 +16527,7 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" hidden="1">
       <c r="A126" s="4" t="s">
         <v>208</v>
       </c>
@@ -16314,7 +16544,7 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" hidden="1">
       <c r="A127" s="4" t="s">
         <v>209</v>
       </c>
@@ -16331,7 +16561,7 @@
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" hidden="1">
       <c r="A128" s="4" t="s">
         <v>210</v>
       </c>
@@ -16348,7 +16578,7 @@
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" hidden="1">
       <c r="A129" s="4" t="s">
         <v>211</v>
       </c>

--- a/统计清单/2017国内编号清单.xlsx
+++ b/统计清单/2017国内编号清单.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="1058">
   <si>
     <t>本地编号</t>
   </si>
@@ -1694,10 +1694,6 @@
   </si>
   <si>
     <t>江南百草园</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.caicao.net/thread-69-1-1.html</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -3345,10 +3341,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Lobivia</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>56e</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3560,106 +3552,366 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>飞碟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lobivia ochielen</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lobivia</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌艳丸、方便面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echinopsis</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echinopsis</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chamaecereus</t>
+  </si>
+  <si>
+    <t>Chamaecereus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echinopsis</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯特恩泰勒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩草319</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>胭脂复色白檀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪漫</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对版</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对版</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echinopsis</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echinopsis</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">盖伯·弗兰茨 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chamaecereus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chamaecereus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chamaecereus Gelber Franz</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>天骄风信子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>天骄风信子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>江南百草园</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>江南百草园</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>烛光</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对版</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查理曼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.caicao.net/thread-69-1-1.html</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对版</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Frühlingsgold </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pink Noid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marmalade And Honey Reg No.12436 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunland </t>
+  </si>
+  <si>
+    <t>Stern Von Erlau</t>
+  </si>
+  <si>
+    <t>Spring Bok</t>
+  </si>
+  <si>
+    <t>Not Much</t>
+  </si>
+  <si>
+    <t>Marmalade Punch</t>
+  </si>
+  <si>
+    <t>Takin It To The Streets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maientag </t>
+  </si>
+  <si>
+    <t>Ernst Gündchen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helga Due </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayou Belle </t>
+  </si>
+  <si>
+    <t>Flamingo</t>
+  </si>
+  <si>
+    <t>Silvia3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nopalxochia </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lobivia</t>
+  </si>
+  <si>
     <t>Trichocereus</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>飞碟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lobivia ochielen</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lobivia</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌艳丸、方便面</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Echinopsis</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Echinopsis</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chamaecereus</t>
-  </si>
-  <si>
-    <t>Chamaecereus</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Echinopsis</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>斯特恩泰勒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩草319</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>胭脂复色白檀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>浪漫</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>对版</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>对版</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Echinopsis</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Echinopsis</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">盖伯·弗兰茨 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chamaecereus</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chamaecereus</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chamaecereus Gelber Franz</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>天骄风信子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>天骄风信子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>江南百草园</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>江南百草园</t>
+    <t>Trichocereus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nadamas</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳达马斯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hermes</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱马仕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-37</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂交丽花</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Superapricot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级杏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>千叶可爱的黎明(小辫黄)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Marian Burlingham </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金色病毒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Nr.105 Gefüllt Blühe </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗红复色</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pacesetter</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>标兵</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">夜宴 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Going Bananas</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉黄</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫红复色 超大花</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Carnival </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂欢节</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Nina Paetz </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫白复色</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lotus Queen</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">莲花皇后  粉色 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Osterholz</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥斯特霍尔茨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raymond Eden</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷蒙德·伊登</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">King Midas </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王迈达斯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Clara Ann </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">克拉安 红色 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>White Splendor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>白蝶舞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wild Thing</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂的东西</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seven Seas</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>七海</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow Gem </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色宝石 黄色</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>49er</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 黄白</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">London Sunshine </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">伦敦阳光 黄白 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>醉香花令箭 橙色</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3896,7 +4148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4024,6 +4276,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4451,8 +4704,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M205" totalsRowShown="0">
-  <autoFilter ref="A1:M205"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M272" totalsRowShown="0">
+  <autoFilter ref="A1:M272"/>
   <tableColumns count="13">
     <tableColumn id="1" name="145"/>
     <tableColumn id="2" name="属"/>
@@ -4793,10 +5046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M205"/>
+  <dimension ref="A1:M272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="I192" sqref="I192:I197"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="G205" sqref="G205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4817,43 +5070,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>731</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="14" t="s">
         <v>732</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>733</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
+        <v>976</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>952</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>734</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>979</v>
-      </c>
-      <c r="G1" s="14" t="s">
+      <c r="J1" s="61" t="s">
         <v>736</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>954</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>735</v>
-      </c>
-      <c r="J1" s="61" t="s">
-        <v>737</v>
-      </c>
       <c r="K1" s="14" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="L1" s="27" t="s">
+        <v>897</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>898</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4861,13 +5114,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E2" s="39" t="s">
         <v>330</v>
@@ -4895,13 +5148,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>468</v>
@@ -4929,13 +5182,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E4" s="39" t="s">
         <v>415</v>
@@ -4963,13 +5216,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>1</v>
@@ -4999,13 +5252,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E6" s="39" t="s">
         <v>6</v>
@@ -5035,13 +5288,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E7" s="39" t="s">
         <v>9</v>
@@ -5071,13 +5324,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E8" s="39" t="s">
         <v>12</v>
@@ -5107,13 +5360,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E9" s="39" t="s">
         <v>15</v>
@@ -5143,13 +5396,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E10" s="39" t="s">
         <v>18</v>
@@ -5179,24 +5432,24 @@
         <v>10</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>103</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="14"/>
@@ -5209,24 +5462,24 @@
         <v>11</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>106</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="43" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="14"/>
@@ -5239,10 +5492,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>442</v>
@@ -5273,7 +5526,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>108</v>
@@ -5307,7 +5560,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>109</v>
@@ -5341,7 +5594,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C16" s="44" t="s">
         <v>21</v>
@@ -5377,7 +5630,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>360</v>
@@ -5411,7 +5664,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>113</v>
@@ -5445,24 +5698,24 @@
         <v>18</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>114</v>
       </c>
       <c r="D19" s="42" t="s">
+        <v>620</v>
+      </c>
+      <c r="E19" s="42" t="s">
         <v>621</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>622</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="43" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="14"/>
@@ -5475,7 +5728,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>116</v>
@@ -5509,25 +5762,27 @@
         <v>20</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>118</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>484</v>
-      </c>
-      <c r="F21" s="39"/>
+        <v>990</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>992</v>
+      </c>
       <c r="G21" s="39"/>
       <c r="H21" s="9"/>
       <c r="I21" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>483</v>
+        <v>491</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>991</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="10">
@@ -5539,24 +5794,24 @@
         <v>21</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>121</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F22" s="42"/>
       <c r="G22" s="43" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="14"/>
@@ -5569,7 +5824,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C23" s="44" t="s">
         <v>26</v>
@@ -5605,7 +5860,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C24" s="41" t="s">
         <v>122</v>
@@ -5639,24 +5894,24 @@
         <v>24</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>124</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F25" s="42"/>
       <c r="G25" s="43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="14"/>
@@ -5669,24 +5924,24 @@
         <v>25</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>126</v>
       </c>
       <c r="D26" s="42" t="s">
+        <v>612</v>
+      </c>
+      <c r="E26" s="42" t="s">
         <v>613</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>614</v>
       </c>
       <c r="F26" s="42"/>
       <c r="G26" s="43" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="14"/>
@@ -5699,7 +5954,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C27" s="40" t="s">
         <v>352</v>
@@ -5733,7 +5988,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C28" s="44" t="s">
         <v>72</v>
@@ -5769,24 +6024,24 @@
         <v>28</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C29" s="41" t="s">
         <v>128</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F29" s="42"/>
       <c r="G29" s="43" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="14"/>
@@ -5799,24 +6054,24 @@
         <v>29</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C30" s="41" t="s">
         <v>130</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F30" s="42"/>
       <c r="G30" s="43" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J30" s="11"/>
       <c r="K30" s="14"/>
@@ -5829,7 +6084,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>392</v>
@@ -5863,7 +6118,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C32" s="44" t="s">
         <v>31</v>
@@ -5899,7 +6154,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C33" s="41" t="s">
         <v>132</v>
@@ -5933,7 +6188,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C34" s="41" t="s">
         <v>133</v>
@@ -5967,24 +6222,24 @@
         <v>34</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C35" s="41" t="s">
         <v>134</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F35" s="42"/>
       <c r="G35" s="43" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="14"/>
@@ -5997,10 +6252,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>418</v>
@@ -6031,24 +6286,24 @@
         <v>36</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C37" s="41" t="s">
         <v>136</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F37" s="42"/>
       <c r="G37" s="43" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="14"/>
@@ -6061,7 +6316,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C38" s="41" t="s">
         <v>137</v>
@@ -6095,7 +6350,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C39" s="44" t="s">
         <v>77</v>
@@ -6131,7 +6386,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C40" s="44" t="s">
         <v>35</v>
@@ -6167,24 +6422,24 @@
         <v>40</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C41" s="41" t="s">
         <v>142</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F41" s="42"/>
       <c r="G41" s="43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J41" s="11"/>
       <c r="K41" s="14"/>
@@ -6197,7 +6452,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C42" s="41" t="s">
         <v>143</v>
@@ -6231,7 +6486,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C43" s="44" t="s">
         <v>40</v>
@@ -6267,24 +6522,24 @@
         <v>43</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C44" s="41" t="s">
         <v>144</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F44" s="42"/>
       <c r="G44" s="43" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="14"/>
@@ -6297,7 +6552,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C45" s="44" t="s">
         <v>45</v>
@@ -6333,7 +6588,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C46" s="40" t="s">
         <v>363</v>
@@ -6367,7 +6622,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C47" s="41" t="s">
         <v>146</v>
@@ -6401,7 +6656,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C48" s="41" t="s">
         <v>439</v>
@@ -6435,7 +6690,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C49" s="44" t="s">
         <v>50</v>
@@ -6471,7 +6726,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C50" s="40" t="s">
         <v>372</v>
@@ -6505,7 +6760,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C51" s="41" t="s">
         <v>398</v>
@@ -6539,24 +6794,24 @@
         <v>51</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C52" s="41" t="s">
         <v>152</v>
       </c>
       <c r="D52" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F52" s="42"/>
       <c r="G52" s="43" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="14"/>
@@ -6569,24 +6824,24 @@
         <v>52</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C53" s="41" t="s">
         <v>154</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F53" s="42"/>
       <c r="G53" s="43" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H53" s="9"/>
       <c r="I53" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J53" s="11"/>
       <c r="K53" s="14"/>
@@ -6599,7 +6854,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C54" s="38" t="s">
         <v>336</v>
@@ -6633,24 +6888,24 @@
         <v>54</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C55" s="41" t="s">
         <v>158</v>
       </c>
       <c r="D55" s="42" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E55" s="42" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F55" s="42"/>
       <c r="G55" s="43" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="14"/>
@@ -6663,7 +6918,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C56" s="44" t="s">
         <v>82</v>
@@ -6699,24 +6954,24 @@
         <v>56</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C57" s="41" t="s">
         <v>160</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F57" s="42"/>
       <c r="G57" s="43" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="14"/>
@@ -6729,24 +6984,24 @@
         <v>57</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C58" s="41" t="s">
         <v>161</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F58" s="42"/>
       <c r="G58" s="43" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J58" s="11"/>
       <c r="K58" s="14"/>
@@ -6759,7 +7014,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C59" s="40" t="s">
         <v>344</v>
@@ -6793,7 +7048,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C60" s="40" t="s">
         <v>396</v>
@@ -6827,13 +7082,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C61" s="40" t="s">
         <v>381</v>
       </c>
       <c r="D61" s="39" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E61" s="39" t="s">
         <v>382</v>
@@ -6861,24 +7116,24 @@
         <v>61</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C62" s="41" t="s">
         <v>174</v>
       </c>
       <c r="D62" s="42" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E62" s="42" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F62" s="42"/>
       <c r="G62" s="43" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J62" s="11"/>
       <c r="K62" s="14"/>
@@ -6891,7 +7146,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C63" s="41" t="s">
         <v>176</v>
@@ -6925,7 +7180,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C64" s="44" t="s">
         <v>87</v>
@@ -6961,7 +7216,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C65" s="44" t="s">
         <v>55</v>
@@ -6997,24 +7252,24 @@
         <v>65</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C66" s="41" t="s">
         <v>179</v>
       </c>
       <c r="D66" s="42" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E66" s="42" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F66" s="42"/>
       <c r="G66" s="43" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H66" s="9"/>
       <c r="I66" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J66" s="11"/>
       <c r="K66" s="14"/>
@@ -7027,25 +7282,25 @@
         <v>66</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C67" s="41" t="s">
         <v>180</v>
       </c>
       <c r="D67" s="42" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E67" s="39" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F67" s="39"/>
       <c r="G67" s="39"/>
       <c r="H67" s="9"/>
       <c r="I67" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K67" s="9"/>
       <c r="L67" s="10">
@@ -7057,24 +7312,24 @@
         <v>67</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C68" s="41" t="s">
         <v>183</v>
       </c>
       <c r="D68" s="42" t="s">
+        <v>625</v>
+      </c>
+      <c r="E68" s="42" t="s">
         <v>626</v>
-      </c>
-      <c r="E68" s="42" t="s">
-        <v>627</v>
       </c>
       <c r="F68" s="42"/>
       <c r="G68" s="43" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J68" s="11"/>
       <c r="K68" s="14"/>
@@ -7087,7 +7342,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C69" s="41" t="s">
         <v>184</v>
@@ -7096,10 +7351,10 @@
         <v>471</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="F69" s="39" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="G69" s="39"/>
       <c r="H69" s="9">
@@ -7123,7 +7378,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C70" s="40" t="s">
         <v>348</v>
@@ -7157,24 +7412,24 @@
         <v>70</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C71" s="41" t="s">
         <v>188</v>
       </c>
       <c r="D71" s="42" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E71" s="42" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F71" s="42"/>
       <c r="G71" s="43" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J71" s="11"/>
       <c r="K71" s="14"/>
@@ -7187,7 +7442,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C72" s="41" t="s">
         <v>189</v>
@@ -7221,24 +7476,24 @@
         <v>72</v>
       </c>
       <c r="B73" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C73" s="41" t="s">
         <v>191</v>
       </c>
       <c r="D73" s="42" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E73" s="42" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F73" s="42"/>
       <c r="G73" s="43" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J73" s="11"/>
       <c r="K73" s="14"/>
@@ -7251,7 +7506,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C74" s="40" t="s">
         <v>387</v>
@@ -7285,7 +7540,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C75" s="40" t="s">
         <v>371</v>
@@ -7319,7 +7574,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C76" s="40" t="s">
         <v>377</v>
@@ -7353,7 +7608,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C77" s="41" t="s">
         <v>195</v>
@@ -7387,7 +7642,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C78" s="46" t="s">
         <v>350</v>
@@ -7423,7 +7678,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C79" s="48" t="s">
         <v>350</v>
@@ -7457,7 +7712,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C80" s="41" t="s">
         <v>461</v>
@@ -7491,24 +7746,24 @@
         <v>79</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C81" s="41" t="s">
         <v>198</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E81" s="42" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F81" s="42"/>
       <c r="G81" s="43" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H81" s="9"/>
       <c r="I81" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J81" s="11"/>
       <c r="K81" s="14"/>
@@ -7521,24 +7776,24 @@
         <v>80</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C82" s="41" t="s">
         <v>199</v>
       </c>
       <c r="D82" s="42" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E82" s="42" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F82" s="42"/>
       <c r="G82" s="43" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H82" s="9"/>
       <c r="I82" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J82" s="11"/>
       <c r="K82" s="14"/>
@@ -7551,7 +7806,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C83" s="44" t="s">
         <v>92</v>
@@ -7587,7 +7842,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C84" s="41" t="s">
         <v>200</v>
@@ -7621,7 +7876,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C85" s="41" t="s">
         <v>201</v>
@@ -7655,7 +7910,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C86" s="44" t="s">
         <v>63</v>
@@ -7691,7 +7946,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C87" s="44" t="s">
         <v>97</v>
@@ -7727,7 +7982,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C88" s="41" t="s">
         <v>203</v>
@@ -7761,24 +8016,24 @@
         <v>87</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C89" s="41" t="s">
         <v>206</v>
       </c>
       <c r="D89" s="42" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E89" s="42" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F89" s="42"/>
       <c r="G89" s="43" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H89" s="9"/>
       <c r="I89" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J89" s="11"/>
       <c r="K89" s="14"/>
@@ -7791,24 +8046,24 @@
         <v>88</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C90" s="41" t="s">
         <v>207</v>
       </c>
       <c r="D90" s="42" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E90" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F90" s="42"/>
       <c r="G90" s="43" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H90" s="9"/>
       <c r="I90" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J90" s="11"/>
       <c r="K90" s="14"/>
@@ -7821,7 +8076,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C91" s="41" t="s">
         <v>208</v>
@@ -7855,7 +8110,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C92" s="40" t="s">
         <v>384</v>
@@ -7889,7 +8144,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C93" s="41" t="s">
         <v>210</v>
@@ -7923,7 +8178,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C94" s="41" t="s">
         <v>211</v>
@@ -7957,13 +8212,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>67</v>
@@ -7993,27 +8248,27 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F96" s="9"/>
       <c r="G96" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J96" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K96" s="9"/>
       <c r="L96" s="10"/>
@@ -8023,25 +8278,25 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C97" s="16" t="s">
+        <v>705</v>
+      </c>
+      <c r="D97" s="17" t="s">
         <v>706</v>
       </c>
-      <c r="D97" s="17" t="s">
+      <c r="E97" s="17" t="s">
         <v>707</v>
-      </c>
-      <c r="E97" s="17" t="s">
-        <v>708</v>
       </c>
       <c r="F97" s="17"/>
       <c r="G97" s="17" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
       <c r="J97" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K97" s="17"/>
       <c r="L97" s="22"/>
@@ -8051,7 +8306,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>298</v>
@@ -8084,7 +8339,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C99" s="15" t="s">
         <v>299</v>
@@ -8117,7 +8372,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C100" s="15" t="s">
         <v>300</v>
@@ -8150,7 +8405,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C101" s="32" t="s">
         <v>301</v>
@@ -8183,7 +8438,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C102" s="32" t="s">
         <v>301</v>
@@ -8216,7 +8471,7 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C103" s="13" t="s">
         <v>302</v>
@@ -8245,7 +8500,7 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>303</v>
@@ -8278,7 +8533,7 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>304</v>
@@ -8311,7 +8566,7 @@
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>304</v>
@@ -8344,7 +8599,7 @@
         <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>305</v>
@@ -8377,7 +8632,7 @@
         <v>103</v>
       </c>
       <c r="B108" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>305</v>
@@ -8410,7 +8665,7 @@
         <v>104</v>
       </c>
       <c r="B109" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C109" s="13" t="s">
         <v>306</v>
@@ -8443,7 +8698,7 @@
         <v>104</v>
       </c>
       <c r="B110" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C110" s="13" t="s">
         <v>306</v>
@@ -8476,7 +8731,7 @@
         <v>105</v>
       </c>
       <c r="B111" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C111" s="13" t="s">
         <v>307</v>
@@ -8509,7 +8764,7 @@
         <v>106</v>
       </c>
       <c r="B112" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C112" s="13" t="s">
         <v>308</v>
@@ -8542,7 +8797,7 @@
         <v>107</v>
       </c>
       <c r="B113" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C113" s="13" t="s">
         <v>309</v>
@@ -8575,7 +8830,7 @@
         <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>310</v>
@@ -8608,7 +8863,7 @@
         <v>109</v>
       </c>
       <c r="B115" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C115" s="13" t="s">
         <v>311</v>
@@ -8641,7 +8896,7 @@
         <v>110</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C116" s="32" t="s">
         <v>312</v>
@@ -8674,7 +8929,7 @@
         <v>111</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C117" s="32" t="s">
         <v>313</v>
@@ -8707,7 +8962,7 @@
         <v>110</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C118" s="32" t="s">
         <v>312</v>
@@ -8740,7 +8995,7 @@
         <v>111</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C119" s="32" t="s">
         <v>313</v>
@@ -8773,7 +9028,7 @@
         <v>112</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C120" s="32" t="s">
         <v>314</v>
@@ -8806,7 +9061,7 @@
         <v>112</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C121" s="32" t="s">
         <v>314</v>
@@ -8839,7 +9094,7 @@
         <v>113</v>
       </c>
       <c r="B122" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C122" s="13" t="s">
         <v>315</v>
@@ -8872,7 +9127,7 @@
         <v>114</v>
       </c>
       <c r="B123" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C123" s="13" t="s">
         <v>316</v>
@@ -8905,7 +9160,7 @@
         <v>115</v>
       </c>
       <c r="B124" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C124" s="13" t="s">
         <v>317</v>
@@ -8938,7 +9193,7 @@
         <v>115</v>
       </c>
       <c r="B125" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C125" s="13" t="s">
         <v>317</v>
@@ -8971,7 +9226,7 @@
         <v>116</v>
       </c>
       <c r="B126" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C126" s="13" t="s">
         <v>318</v>
@@ -9004,7 +9259,7 @@
         <v>117</v>
       </c>
       <c r="B127" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C127" s="13" t="s">
         <v>319</v>
@@ -9039,13 +9294,13 @@
         <v>118</v>
       </c>
       <c r="B128" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C128" s="13" t="s">
         <v>320</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E128" s="14" t="s">
         <v>272</v>
@@ -9074,7 +9329,7 @@
         <v>119</v>
       </c>
       <c r="B129" s="28" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C129" s="32" t="s">
         <v>321</v>
@@ -9107,7 +9362,7 @@
         <v>119</v>
       </c>
       <c r="B130" s="28" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C130" s="32" t="s">
         <v>321</v>
@@ -9140,7 +9395,7 @@
         <v>119</v>
       </c>
       <c r="B131" s="28" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C131" s="32" t="s">
         <v>321</v>
@@ -9173,7 +9428,7 @@
         <v>120</v>
       </c>
       <c r="B132" s="28" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C132" s="32" t="s">
         <v>322</v>
@@ -9206,7 +9461,7 @@
         <v>120</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C133" s="32" t="s">
         <v>322</v>
@@ -9239,7 +9494,7 @@
         <v>121</v>
       </c>
       <c r="B134" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>323</v>
@@ -9272,7 +9527,7 @@
         <v>122</v>
       </c>
       <c r="B135" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C135" s="13" t="s">
         <v>324</v>
@@ -9305,7 +9560,7 @@
         <v>123</v>
       </c>
       <c r="B136" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C136" s="13" t="s">
         <v>325</v>
@@ -9338,7 +9593,7 @@
         <v>124</v>
       </c>
       <c r="B137" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C137" s="13" t="s">
         <v>326</v>
@@ -9369,7 +9624,7 @@
         <v>125</v>
       </c>
       <c r="B138" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C138" s="13" t="s">
         <v>327</v>
@@ -9400,7 +9655,7 @@
         <v>126</v>
       </c>
       <c r="B139" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C139" s="13" t="s">
         <v>328</v>
@@ -9433,7 +9688,7 @@
         <v>127</v>
       </c>
       <c r="B140" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C140" s="24" t="s">
         <v>329</v>
@@ -9466,13 +9721,13 @@
         <v>128</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
@@ -9480,7 +9735,7 @@
         <v>3</v>
       </c>
       <c r="I141" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K141" s="9">
         <v>55</v>
@@ -9494,13 +9749,13 @@
         <v>129</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E142" s="14"/>
       <c r="F142" s="14"/>
@@ -9508,7 +9763,7 @@
         <v>4</v>
       </c>
       <c r="I142" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K142" s="9">
         <v>55</v>
@@ -9522,13 +9777,13 @@
         <v>130</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
@@ -9536,7 +9791,7 @@
         <v>6</v>
       </c>
       <c r="I143" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K143" s="9">
         <v>30</v>
@@ -9550,16 +9805,16 @@
         <v>131</v>
       </c>
       <c r="B144" s="37" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C144" s="40" t="s">
+        <v>696</v>
+      </c>
+      <c r="D144" s="39" t="s">
+        <v>727</v>
+      </c>
+      <c r="E144" s="39" t="s">
         <v>697</v>
-      </c>
-      <c r="D144" s="39" t="s">
-        <v>728</v>
-      </c>
-      <c r="E144" s="39" t="s">
-        <v>698</v>
       </c>
       <c r="F144" s="39"/>
       <c r="G144" s="39"/>
@@ -9575,16 +9830,16 @@
         <v>132</v>
       </c>
       <c r="B145" s="37" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C145" s="40" t="s">
+        <v>698</v>
+      </c>
+      <c r="D145" s="39" t="s">
+        <v>727</v>
+      </c>
+      <c r="E145" s="39" t="s">
         <v>699</v>
-      </c>
-      <c r="D145" s="39" t="s">
-        <v>728</v>
-      </c>
-      <c r="E145" s="39" t="s">
-        <v>700</v>
       </c>
       <c r="F145" s="39"/>
       <c r="G145" s="39"/>
@@ -9599,16 +9854,16 @@
         <v>133</v>
       </c>
       <c r="B146" s="37" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C146" s="49" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D146" s="50" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E146" s="50" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F146" s="50"/>
       <c r="G146" s="50"/>
@@ -9623,20 +9878,20 @@
         <v>134</v>
       </c>
       <c r="B147" s="37" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C147" s="38" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D147" s="39" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E147" s="39" t="s">
         <v>70</v>
       </c>
       <c r="F147" s="39"/>
       <c r="G147" s="39" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I147" s="39" t="s">
         <v>3</v>
@@ -9654,24 +9909,24 @@
         <v>135</v>
       </c>
       <c r="B148" s="37" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C148" s="40" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D148" s="39" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E148" s="39" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F148" s="39"/>
       <c r="G148" s="39"/>
       <c r="I148" s="39" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J148" s="66" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K148" s="39"/>
       <c r="L148" s="65">
@@ -9683,13 +9938,13 @@
         <v>136</v>
       </c>
       <c r="B149" s="37" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C149" s="40" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D149" s="39" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E149" s="39" t="s">
         <v>333</v>
@@ -9712,24 +9967,24 @@
         <v>137</v>
       </c>
       <c r="B150" s="37" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C150" s="40" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D150" s="39" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E150" s="39" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F150" s="39"/>
       <c r="G150" s="39"/>
       <c r="I150" s="39" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J150" s="66" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K150" s="39"/>
       <c r="L150" s="65">
@@ -9741,23 +9996,23 @@
         <v>138</v>
       </c>
       <c r="B151" s="37" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C151" s="40" t="s">
+        <v>711</v>
+      </c>
+      <c r="D151" s="39" t="s">
+        <v>958</v>
+      </c>
+      <c r="E151" s="39" t="s">
         <v>712</v>
-      </c>
-      <c r="D151" s="39" t="s">
-        <v>960</v>
-      </c>
-      <c r="E151" s="39" t="s">
-        <v>713</v>
       </c>
       <c r="F151" s="39"/>
       <c r="G151" s="39"/>
       <c r="H151" s="39"/>
       <c r="I151" s="39"/>
       <c r="J151" s="66" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K151" s="39"/>
     </row>
@@ -9766,23 +10021,23 @@
         <v>139</v>
       </c>
       <c r="B152" s="37" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C152" s="40" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D152" s="39" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E152" s="39" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F152" s="39"/>
       <c r="G152" s="39"/>
       <c r="H152" s="39"/>
       <c r="I152" s="39"/>
       <c r="J152" s="66" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K152" s="39"/>
     </row>
@@ -9791,23 +10046,23 @@
         <v>140</v>
       </c>
       <c r="B153" s="37" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C153" s="40" t="s">
+        <v>717</v>
+      </c>
+      <c r="D153" s="39" t="s">
+        <v>755</v>
+      </c>
+      <c r="E153" s="39" t="s">
         <v>718</v>
-      </c>
-      <c r="D153" s="39" t="s">
-        <v>756</v>
-      </c>
-      <c r="E153" s="39" t="s">
-        <v>719</v>
       </c>
       <c r="F153" s="39"/>
       <c r="G153" s="39"/>
       <c r="H153" s="39"/>
       <c r="I153" s="39"/>
       <c r="J153" s="66" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K153" s="39"/>
     </row>
@@ -9816,23 +10071,23 @@
         <v>141</v>
       </c>
       <c r="B154" s="37" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C154" s="40" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D154" s="39" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E154" s="39" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F154" s="39"/>
       <c r="G154" s="39"/>
       <c r="H154" s="39"/>
       <c r="I154" s="39"/>
       <c r="J154" s="66" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K154" s="39"/>
     </row>
@@ -9841,23 +10096,23 @@
         <v>142</v>
       </c>
       <c r="B155" s="37" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C155" s="49" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D155" s="50" t="s">
+        <v>725</v>
+      </c>
+      <c r="E155" s="50" t="s">
         <v>726</v>
-      </c>
-      <c r="E155" s="50" t="s">
-        <v>727</v>
       </c>
       <c r="F155" s="50"/>
       <c r="G155" s="50"/>
       <c r="H155" s="50"/>
       <c r="I155" s="50"/>
       <c r="J155" s="67" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K155" s="50"/>
     </row>
@@ -9866,16 +10121,16 @@
         <v>143</v>
       </c>
       <c r="B156" s="51" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C156" s="52" t="s">
+        <v>750</v>
+      </c>
+      <c r="D156" s="53" t="s">
+        <v>727</v>
+      </c>
+      <c r="E156" s="53" t="s">
         <v>751</v>
-      </c>
-      <c r="D156" s="53" t="s">
-        <v>728</v>
-      </c>
-      <c r="E156" s="53" t="s">
-        <v>752</v>
       </c>
       <c r="F156" s="53"/>
       <c r="G156" s="39"/>
@@ -9889,25 +10144,25 @@
         <v>144</v>
       </c>
       <c r="B157" s="37" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C157" s="40" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D157" s="39" t="s">
+        <v>756</v>
+      </c>
+      <c r="E157" s="39" t="s">
         <v>757</v>
-      </c>
-      <c r="E157" s="39" t="s">
-        <v>758</v>
       </c>
       <c r="F157" s="39"/>
       <c r="G157" s="39"/>
       <c r="H157" s="39"/>
       <c r="I157" s="39" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J157" s="66" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K157" s="39"/>
     </row>
@@ -9916,25 +10171,25 @@
         <v>145</v>
       </c>
       <c r="B158" s="37" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C158" s="40" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D158" s="39" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E158" s="39" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F158" s="39"/>
       <c r="G158" s="39"/>
       <c r="H158" s="39"/>
       <c r="I158" s="39" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J158" s="66" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K158" s="39"/>
     </row>
@@ -9943,24 +10198,24 @@
         <v>146</v>
       </c>
       <c r="B159" s="37" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C159" s="40" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D159" s="39" t="s">
+        <v>767</v>
+      </c>
+      <c r="E159" s="39" t="s">
         <v>768</v>
-      </c>
-      <c r="E159" s="39" t="s">
-        <v>769</v>
       </c>
       <c r="F159" s="39"/>
       <c r="G159" s="39" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H159" s="39"/>
       <c r="I159" s="39" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J159" s="66"/>
       <c r="K159" s="39"/>
@@ -9970,24 +10225,24 @@
         <v>147</v>
       </c>
       <c r="B160" s="37" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C160" s="40" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D160" s="39" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E160" s="39" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F160" s="39"/>
       <c r="G160" s="39" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H160" s="39"/>
       <c r="I160" s="39" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J160" s="66"/>
       <c r="K160" s="39"/>
@@ -9997,14 +10252,14 @@
         <v>148</v>
       </c>
       <c r="B161" s="37" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C161" s="40" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D161" s="39"/>
       <c r="E161" s="39" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F161" s="39"/>
       <c r="G161" s="39"/>
@@ -10018,14 +10273,14 @@
         <v>149</v>
       </c>
       <c r="B162" s="37" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C162" s="40" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D162" s="39"/>
       <c r="E162" s="39" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F162" s="39"/>
       <c r="G162" s="39"/>
@@ -10039,14 +10294,14 @@
         <v>150</v>
       </c>
       <c r="B163" s="37" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C163" s="40" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D163" s="39"/>
       <c r="E163" s="39" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F163" s="39"/>
       <c r="G163" s="39"/>
@@ -10060,14 +10315,14 @@
         <v>151</v>
       </c>
       <c r="B164" s="37" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C164" s="40" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D164" s="39"/>
       <c r="E164" s="39" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F164" s="39"/>
       <c r="G164" s="39"/>
@@ -10081,14 +10336,14 @@
         <v>152</v>
       </c>
       <c r="B165" s="37" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C165" s="40" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D165" s="39"/>
       <c r="E165" s="39" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F165" s="39"/>
       <c r="G165" s="39"/>
@@ -10102,14 +10357,14 @@
         <v>153</v>
       </c>
       <c r="B166" s="37" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C166" s="40" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D166" s="39"/>
       <c r="E166" s="39" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F166" s="39"/>
       <c r="G166" s="39"/>
@@ -10123,14 +10378,14 @@
         <v>154</v>
       </c>
       <c r="B167" s="37" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C167" s="40" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D167" s="39"/>
       <c r="E167" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F167" s="39"/>
       <c r="G167" s="39"/>
@@ -10144,16 +10399,16 @@
         <v>155</v>
       </c>
       <c r="B168" s="37" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C168" s="68" t="s">
         <v>125</v>
       </c>
       <c r="D168" s="69" t="s">
+        <v>670</v>
+      </c>
+      <c r="E168" s="69" t="s">
         <v>671</v>
-      </c>
-      <c r="E168" s="69" t="s">
-        <v>672</v>
       </c>
       <c r="F168" s="69"/>
       <c r="G168" s="39"/>
@@ -10161,10 +10416,10 @@
         <v>50</v>
       </c>
       <c r="I168" s="39" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J168" s="70" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K168" s="39"/>
       <c r="L168" s="71">
@@ -10176,16 +10431,16 @@
         <v>156</v>
       </c>
       <c r="B169" s="37" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C169" s="68" t="s">
         <v>175</v>
       </c>
       <c r="D169" s="69" t="s">
+        <v>857</v>
+      </c>
+      <c r="E169" s="69" t="s">
         <v>858</v>
-      </c>
-      <c r="E169" s="69" t="s">
-        <v>859</v>
       </c>
       <c r="F169" s="69"/>
       <c r="G169" s="39"/>
@@ -10196,7 +10451,7 @@
         <v>482</v>
       </c>
       <c r="J169" s="70" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K169" s="39"/>
       <c r="L169" s="71">
@@ -10208,16 +10463,16 @@
         <v>157</v>
       </c>
       <c r="B170" s="37" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C170" s="68" t="s">
         <v>186</v>
       </c>
       <c r="D170" s="69" t="s">
+        <v>875</v>
+      </c>
+      <c r="E170" s="69" t="s">
         <v>876</v>
-      </c>
-      <c r="E170" s="69" t="s">
-        <v>877</v>
       </c>
       <c r="F170" s="69"/>
       <c r="G170" s="39"/>
@@ -10228,7 +10483,7 @@
         <v>482</v>
       </c>
       <c r="J170" s="70" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K170" s="39"/>
       <c r="L170" s="71">
@@ -10240,16 +10495,16 @@
         <v>158</v>
       </c>
       <c r="B171" s="37" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C171" s="72" t="s">
         <v>187</v>
       </c>
       <c r="D171" s="73" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E171" s="73" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F171" s="73"/>
       <c r="G171" s="74"/>
@@ -10270,16 +10525,16 @@
         <v>159</v>
       </c>
       <c r="B172" s="37" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C172" s="68" t="s">
         <v>202</v>
       </c>
       <c r="D172" s="69" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E172" s="69" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F172" s="69"/>
       <c r="G172" s="39"/>
@@ -10300,16 +10555,16 @@
         <v>160</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="C173" s="13" t="s">
+        <v>900</v>
+      </c>
+      <c r="D173" s="14" t="s">
         <v>901</v>
       </c>
-      <c r="D173" s="14" t="s">
+      <c r="E173" s="14" t="s">
         <v>902</v>
-      </c>
-      <c r="E173" s="14" t="s">
-        <v>903</v>
       </c>
       <c r="F173" s="14"/>
       <c r="G173" s="14"/>
@@ -10325,14 +10580,14 @@
         <v>161</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C174" s="13"/>
       <c r="D174" s="14" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E174" s="14" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F174" s="14"/>
       <c r="G174" s="14"/>
@@ -10348,12 +10603,12 @@
         <v>162</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C175" s="13"/>
       <c r="D175" s="14"/>
       <c r="E175" s="14" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F175" s="14"/>
       <c r="G175" s="14"/>
@@ -10367,21 +10622,21 @@
         <v>163</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C176" s="13"/>
       <c r="D176" s="14" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E176" s="14" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F176" s="14"/>
       <c r="G176" s="14"/>
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
       <c r="J176" s="36" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="K176" s="14"/>
     </row>
@@ -10390,14 +10645,14 @@
         <v>164</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>911</v>
+        <v>739</v>
       </c>
       <c r="C177" s="13"/>
       <c r="D177" s="14" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E177" s="14" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="14"/>
@@ -10411,12 +10666,12 @@
         <v>165</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C178" s="15"/>
       <c r="D178" s="9"/>
       <c r="E178" s="9" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
@@ -10430,16 +10685,16 @@
         <v>166</v>
       </c>
       <c r="B179" s="37" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C179" s="68" t="s">
         <v>105</v>
       </c>
       <c r="D179" s="69" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E179" s="69" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F179" s="69"/>
       <c r="G179" s="39"/>
@@ -10457,16 +10712,16 @@
         <v>167</v>
       </c>
       <c r="B180" s="37" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C180" s="68" t="s">
         <v>138</v>
       </c>
       <c r="D180" s="69" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E180" s="69" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F180" s="69"/>
       <c r="G180" s="39"/>
@@ -10484,16 +10739,16 @@
         <v>168</v>
       </c>
       <c r="B181" s="37" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C181" s="72" t="s">
         <v>140</v>
       </c>
       <c r="D181" s="73" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E181" s="73" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F181" s="73"/>
       <c r="G181" s="74"/>
@@ -10511,16 +10766,16 @@
         <v>169</v>
       </c>
       <c r="B182" s="37" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C182" s="77" t="s">
         <v>141</v>
       </c>
       <c r="D182" s="77" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E182" s="77" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F182" s="77"/>
       <c r="G182" s="39"/>
@@ -10538,16 +10793,16 @@
         <v>170</v>
       </c>
       <c r="B183" s="37" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C183" s="77" t="s">
         <v>155</v>
       </c>
       <c r="D183" s="77" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E183" s="77" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F183" s="77"/>
       <c r="G183" s="39"/>
@@ -10565,16 +10820,16 @@
         <v>171</v>
       </c>
       <c r="B184" s="37" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C184" s="77" t="s">
         <v>172</v>
       </c>
       <c r="D184" s="77" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E184" s="77" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F184" s="77"/>
       <c r="G184" s="39"/>
@@ -10592,16 +10847,16 @@
         <v>172</v>
       </c>
       <c r="B185" s="37" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C185" s="77" t="s">
         <v>178</v>
       </c>
       <c r="D185" s="77" t="s">
+        <v>863</v>
+      </c>
+      <c r="E185" s="77" t="s">
         <v>864</v>
-      </c>
-      <c r="E185" s="77" t="s">
-        <v>865</v>
       </c>
       <c r="F185" s="77"/>
       <c r="G185" s="39"/>
@@ -10619,16 +10874,16 @@
         <v>173</v>
       </c>
       <c r="B186" s="37" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C186" s="77" t="s">
         <v>181</v>
       </c>
       <c r="D186" s="77" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E186" s="77" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F186" s="77"/>
       <c r="G186" s="39"/>
@@ -10636,7 +10891,7 @@
         <v>30</v>
       </c>
       <c r="I186" s="39" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="J186" s="66"/>
       <c r="K186" s="39"/>
@@ -10646,12 +10901,12 @@
         <v>174</v>
       </c>
       <c r="B187" s="37" t="s">
-        <v>965</v>
+        <v>1010</v>
       </c>
       <c r="C187" s="40"/>
       <c r="D187" s="39"/>
       <c r="E187" s="39" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="F187" s="39"/>
       <c r="G187" s="9"/>
@@ -10664,14 +10919,14 @@
         <v>175</v>
       </c>
       <c r="B188" s="37" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C188" s="40"/>
       <c r="D188" s="39" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="E188" s="39" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="F188" s="39"/>
       <c r="G188" s="9"/>
@@ -10684,17 +10939,17 @@
         <v>176</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C189" s="15"/>
       <c r="D189" s="9"/>
       <c r="E189" s="14" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="F189" s="14"/>
       <c r="G189" s="9"/>
       <c r="I189" s="14" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="J189" s="64"/>
       <c r="K189" s="9"/>
@@ -10704,17 +10959,17 @@
         <v>177</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C190" s="62"/>
       <c r="D190" s="63"/>
       <c r="E190" s="60" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F190" s="60"/>
       <c r="G190" s="63"/>
       <c r="I190" s="60" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="J190" s="78"/>
       <c r="K190" s="63"/>
@@ -10724,17 +10979,17 @@
         <v>178</v>
       </c>
       <c r="B191" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C191" s="62"/>
       <c r="D191" s="63"/>
       <c r="E191" s="60" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="F191" s="60"/>
       <c r="G191" s="63"/>
       <c r="I191" s="60" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="J191" s="78"/>
       <c r="K191" s="63"/>
@@ -10744,69 +10999,71 @@
         <v>179</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F192" s="63"/>
       <c r="G192" s="63"/>
       <c r="I192" s="60" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="J192" s="78"/>
       <c r="K192" s="63"/>
     </row>
-    <row r="193" spans="1:11">
-      <c r="A193">
+    <row r="193" spans="1:11" s="37" customFormat="1">
+      <c r="A193" s="37">
         <v>180</v>
       </c>
-      <c r="B193" s="3" t="s">
-        <v>982</v>
-      </c>
-      <c r="C193" s="4" t="s">
+      <c r="B193" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="C193" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="D193" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="E193" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="F193" s="63"/>
-      <c r="G193" s="63"/>
-      <c r="I193" s="60" t="s">
-        <v>990</v>
-      </c>
-      <c r="J193" s="78"/>
-      <c r="K193" s="63"/>
+      <c r="D193" s="77" t="s">
+        <v>661</v>
+      </c>
+      <c r="E193" s="77" t="s">
+        <v>988</v>
+      </c>
+      <c r="F193" s="74" t="s">
+        <v>989</v>
+      </c>
+      <c r="G193" s="74"/>
+      <c r="I193" s="74" t="s">
+        <v>987</v>
+      </c>
+      <c r="J193" s="76"/>
+      <c r="K193" s="74"/>
     </row>
     <row r="194" spans="1:11">
       <c r="A194">
         <v>181</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D194" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="E194" s="4" t="s">
         <v>668</v>
-      </c>
-      <c r="E194" s="4" t="s">
-        <v>669</v>
       </c>
       <c r="F194" s="63"/>
       <c r="G194" s="63"/>
       <c r="I194" s="60" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="J194" s="78"/>
       <c r="K194" s="63"/>
@@ -10816,21 +11073,21 @@
         <v>182</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>162</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F195" s="63"/>
       <c r="G195" s="63"/>
       <c r="I195" s="60" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="J195" s="78"/>
       <c r="K195" s="63"/>
@@ -10840,21 +11097,21 @@
         <v>183</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>163</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F196" s="63"/>
       <c r="G196" s="63"/>
       <c r="I196" s="60" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="J196" s="78"/>
       <c r="K196" s="63"/>
@@ -10864,19 +11121,19 @@
         <v>184</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C197" s="62"/>
       <c r="D197" s="60" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="E197" s="60" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="F197" s="63"/>
       <c r="G197" s="63"/>
       <c r="I197" s="60" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="J197" s="78"/>
       <c r="K197" s="63"/>
@@ -10885,9 +11142,14 @@
       <c r="A198">
         <v>185</v>
       </c>
+      <c r="B198" s="3" t="s">
+        <v>1008</v>
+      </c>
       <c r="C198" s="13"/>
       <c r="D198" s="14"/>
-      <c r="E198" s="14"/>
+      <c r="E198" s="14" t="s">
+        <v>1057</v>
+      </c>
       <c r="F198" s="3"/>
       <c r="G198" s="14"/>
       <c r="I198" s="14"/>
@@ -10898,9 +11160,16 @@
       <c r="A199">
         <v>186</v>
       </c>
+      <c r="B199" s="3" t="s">
+        <v>1008</v>
+      </c>
       <c r="C199" s="79"/>
-      <c r="D199" s="60"/>
-      <c r="E199" s="60"/>
+      <c r="D199" s="60" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E199" s="60" t="s">
+        <v>1056</v>
+      </c>
       <c r="F199" s="3"/>
       <c r="G199" s="60"/>
       <c r="I199" s="60"/>
@@ -10911,8 +11180,13 @@
       <c r="A200">
         <v>187</v>
       </c>
+      <c r="B200" s="3" t="s">
+        <v>1008</v>
+      </c>
       <c r="C200" s="79"/>
-      <c r="D200" s="60"/>
+      <c r="D200" s="60" t="s">
+        <v>993</v>
+      </c>
       <c r="E200" s="60"/>
       <c r="F200" s="3"/>
       <c r="G200" s="60"/>
@@ -10924,8 +11198,13 @@
       <c r="A201">
         <v>188</v>
       </c>
+      <c r="B201" s="3" t="s">
+        <v>1008</v>
+      </c>
       <c r="C201" s="79"/>
-      <c r="D201" s="60"/>
+      <c r="D201" s="60" t="s">
+        <v>994</v>
+      </c>
       <c r="E201" s="60"/>
       <c r="F201" s="3"/>
       <c r="G201" s="60"/>
@@ -10937,8 +11216,13 @@
       <c r="A202">
         <v>189</v>
       </c>
+      <c r="B202" s="3" t="s">
+        <v>1008</v>
+      </c>
       <c r="C202" s="79"/>
-      <c r="D202" s="60"/>
+      <c r="D202" s="60" t="s">
+        <v>995</v>
+      </c>
       <c r="E202" s="60"/>
       <c r="F202" s="3"/>
       <c r="G202" s="60"/>
@@ -10950,9 +11234,16 @@
       <c r="A203">
         <v>190</v>
       </c>
+      <c r="B203" s="3" t="s">
+        <v>1008</v>
+      </c>
       <c r="C203" s="79"/>
-      <c r="D203" s="60"/>
-      <c r="E203" s="60"/>
+      <c r="D203" s="60" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E203" s="60" t="s">
+        <v>1054</v>
+      </c>
       <c r="F203" s="3"/>
       <c r="G203" s="60"/>
       <c r="I203" s="60"/>
@@ -10963,8 +11254,13 @@
       <c r="A204">
         <v>191</v>
       </c>
+      <c r="B204" s="3" t="s">
+        <v>1008</v>
+      </c>
       <c r="C204" s="79"/>
-      <c r="D204" s="60"/>
+      <c r="D204" s="60" t="s">
+        <v>996</v>
+      </c>
       <c r="E204" s="60"/>
       <c r="F204" s="3"/>
       <c r="G204" s="60"/>
@@ -10976,14 +11272,1097 @@
       <c r="A205">
         <v>192</v>
       </c>
+      <c r="B205" s="3" t="s">
+        <v>1008</v>
+      </c>
       <c r="C205" s="79"/>
-      <c r="D205" s="60"/>
+      <c r="D205" s="60" t="s">
+        <v>997</v>
+      </c>
       <c r="E205" s="60"/>
       <c r="F205" s="3"/>
       <c r="G205" s="60"/>
       <c r="I205" s="60"/>
       <c r="J205" s="80"/>
       <c r="K205" s="60"/>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>193</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C206" s="15"/>
+      <c r="D206" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="E206" s="9"/>
+      <c r="F206" s="81"/>
+      <c r="G206" s="9"/>
+      <c r="I206" s="9"/>
+      <c r="J206" s="64"/>
+      <c r="K206" s="9"/>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>194</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C207" s="62"/>
+      <c r="D207" s="63" t="s">
+        <v>999</v>
+      </c>
+      <c r="E207" s="63"/>
+      <c r="F207" s="81"/>
+      <c r="G207" s="63"/>
+      <c r="I207" s="63"/>
+      <c r="J207" s="78"/>
+      <c r="K207" s="63"/>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>195</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C208" s="62"/>
+      <c r="D208" s="60" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E208" s="60" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F208" s="81"/>
+      <c r="G208" s="63"/>
+      <c r="I208" s="63"/>
+      <c r="J208" s="78"/>
+      <c r="K208" s="63"/>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>196</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C209" s="62"/>
+      <c r="D209" s="60" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E209" s="60" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F209" s="81"/>
+      <c r="G209" s="63"/>
+      <c r="I209" s="63"/>
+      <c r="J209" s="78"/>
+      <c r="K209" s="63"/>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>197</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C210" s="62"/>
+      <c r="D210" s="63" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E210" s="63"/>
+      <c r="F210" s="81"/>
+      <c r="G210" s="63"/>
+      <c r="I210" s="63"/>
+      <c r="J210" s="78"/>
+      <c r="K210" s="63"/>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>198</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C211" s="62"/>
+      <c r="D211" s="60" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E211" s="60" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F211" s="81"/>
+      <c r="G211" s="63"/>
+      <c r="I211" s="63"/>
+      <c r="J211" s="78"/>
+      <c r="K211" s="63"/>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>199</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C212" s="62"/>
+      <c r="D212" s="60" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E212" s="60" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F212" s="81"/>
+      <c r="G212" s="63"/>
+      <c r="I212" s="63"/>
+      <c r="J212" s="78"/>
+      <c r="K212" s="63"/>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>200</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C213" s="62"/>
+      <c r="D213" s="60" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E213" s="60" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F213" s="81"/>
+      <c r="G213" s="63"/>
+      <c r="I213" s="63"/>
+      <c r="J213" s="78"/>
+      <c r="K213" s="63"/>
+    </row>
+    <row r="214" spans="1:11">
+      <c r="A214">
+        <v>201</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C214" s="62"/>
+      <c r="D214" s="60" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E214" s="60" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F214" s="81"/>
+      <c r="G214" s="63"/>
+      <c r="I214" s="63"/>
+      <c r="J214" s="78"/>
+      <c r="K214" s="63"/>
+    </row>
+    <row r="215" spans="1:11">
+      <c r="A215">
+        <v>202</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C215" s="62"/>
+      <c r="D215" s="60" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E215" s="60" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F215" s="81"/>
+      <c r="G215" s="63"/>
+      <c r="I215" s="63"/>
+      <c r="J215" s="78"/>
+      <c r="K215" s="63"/>
+    </row>
+    <row r="216" spans="1:11">
+      <c r="A216">
+        <v>203</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C216" s="62"/>
+      <c r="D216" s="63" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E216" s="63"/>
+      <c r="F216" s="81"/>
+      <c r="G216" s="63"/>
+      <c r="I216" s="63"/>
+      <c r="J216" s="78"/>
+      <c r="K216" s="63"/>
+    </row>
+    <row r="217" spans="1:11">
+      <c r="A217">
+        <v>204</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C217" s="62"/>
+      <c r="D217" s="60" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E217" s="60" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F217" s="81"/>
+      <c r="G217" s="63"/>
+      <c r="I217" s="63"/>
+      <c r="J217" s="78"/>
+      <c r="K217" s="63"/>
+    </row>
+    <row r="218" spans="1:11">
+      <c r="A218">
+        <v>205</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C218" s="62"/>
+      <c r="D218" s="63" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E218" s="63"/>
+      <c r="F218" s="81"/>
+      <c r="G218" s="63"/>
+      <c r="I218" s="63"/>
+      <c r="J218" s="78"/>
+      <c r="K218" s="63"/>
+    </row>
+    <row r="219" spans="1:11">
+      <c r="A219">
+        <v>206</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C219" s="62"/>
+      <c r="D219" s="60" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E219" s="60" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F219" s="81"/>
+      <c r="G219" s="63"/>
+      <c r="I219" s="63"/>
+      <c r="J219" s="78"/>
+      <c r="K219" s="63"/>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="A220">
+        <v>207</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C220" s="62"/>
+      <c r="D220" s="63" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E220" s="63"/>
+      <c r="F220" s="81"/>
+      <c r="G220" s="63"/>
+      <c r="I220" s="63"/>
+      <c r="J220" s="78"/>
+      <c r="K220" s="63"/>
+    </row>
+    <row r="221" spans="1:11">
+      <c r="A221">
+        <v>208</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C221" s="62"/>
+      <c r="D221" s="60" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E221" s="60" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F221" s="81"/>
+      <c r="G221" s="63"/>
+      <c r="I221" s="63"/>
+      <c r="J221" s="78"/>
+      <c r="K221" s="63"/>
+    </row>
+    <row r="222" spans="1:11">
+      <c r="A222">
+        <v>209</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C222" s="62"/>
+      <c r="D222" s="60" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E222" s="60" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F222" s="81"/>
+      <c r="G222" s="63"/>
+      <c r="I222" s="63"/>
+      <c r="J222" s="78"/>
+      <c r="K222" s="63"/>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="A223">
+        <v>210</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C223" s="62"/>
+      <c r="D223" s="63" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E223" s="63"/>
+      <c r="F223" s="81"/>
+      <c r="G223" s="63"/>
+      <c r="I223" s="63"/>
+      <c r="J223" s="78"/>
+      <c r="K223" s="63"/>
+    </row>
+    <row r="224" spans="1:11">
+      <c r="A224">
+        <v>211</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C224" s="62"/>
+      <c r="D224" s="63"/>
+      <c r="E224" s="60" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F224" s="81"/>
+      <c r="G224" s="63"/>
+      <c r="I224" s="63"/>
+      <c r="J224" s="78"/>
+      <c r="K224" s="63"/>
+    </row>
+    <row r="225" spans="1:11">
+      <c r="A225">
+        <v>212</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C225" s="13"/>
+      <c r="D225" s="14" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E225" s="14"/>
+      <c r="F225" s="3"/>
+      <c r="G225" s="14"/>
+      <c r="I225" s="14"/>
+      <c r="J225" s="11"/>
+      <c r="K225" s="14"/>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="A226">
+        <v>213</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C226" s="79"/>
+      <c r="D226" s="60" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E226" s="60" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F226" s="3"/>
+      <c r="G226" s="60"/>
+      <c r="I226" s="60"/>
+      <c r="J226" s="80"/>
+      <c r="K226" s="60"/>
+    </row>
+    <row r="227" spans="1:11">
+      <c r="A227">
+        <v>214</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C227" s="79"/>
+      <c r="D227" s="60"/>
+      <c r="E227" s="60" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F227" s="3"/>
+      <c r="G227" s="60"/>
+      <c r="I227" s="60"/>
+      <c r="J227" s="80"/>
+      <c r="K227" s="60"/>
+    </row>
+    <row r="228" spans="1:11">
+      <c r="A228">
+        <v>215</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C228" s="79"/>
+      <c r="D228" s="60" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E228" s="60"/>
+      <c r="F228" s="3"/>
+      <c r="G228" s="60"/>
+      <c r="I228" s="60"/>
+      <c r="J228" s="80"/>
+      <c r="K228" s="60"/>
+    </row>
+    <row r="229" spans="1:11">
+      <c r="A229">
+        <v>216</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C229" s="79"/>
+      <c r="D229" s="60" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E229" s="60" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F229" s="3"/>
+      <c r="G229" s="60"/>
+      <c r="I229" s="60"/>
+      <c r="J229" s="80"/>
+      <c r="K229" s="60"/>
+    </row>
+    <row r="230" spans="1:11">
+      <c r="A230">
+        <v>217</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C230" s="79"/>
+      <c r="D230" s="60" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E230" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F230" s="3"/>
+      <c r="G230" s="60"/>
+      <c r="I230" s="60"/>
+      <c r="J230" s="80"/>
+      <c r="K230" s="60"/>
+    </row>
+    <row r="231" spans="1:11">
+      <c r="A231">
+        <v>218</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C231" s="79"/>
+      <c r="D231" s="60" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E231" s="60" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F231" s="3"/>
+      <c r="G231" s="60"/>
+      <c r="I231" s="60"/>
+      <c r="J231" s="80"/>
+      <c r="K231" s="60"/>
+    </row>
+    <row r="232" spans="1:11">
+      <c r="A232">
+        <v>219</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C232" s="79"/>
+      <c r="D232" s="60"/>
+      <c r="E232" s="60" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F232" s="3"/>
+      <c r="G232" s="60"/>
+      <c r="I232" s="60"/>
+      <c r="J232" s="80"/>
+      <c r="K232" s="60"/>
+    </row>
+    <row r="233" spans="1:11">
+      <c r="A233">
+        <v>220</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C233" s="79"/>
+      <c r="D233" s="60" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E233" s="60" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F233" s="3"/>
+      <c r="G233" s="60"/>
+      <c r="I233" s="60"/>
+      <c r="J233" s="80"/>
+      <c r="K233" s="60"/>
+    </row>
+    <row r="234" spans="1:11">
+      <c r="A234">
+        <v>221</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C234" s="79"/>
+      <c r="D234" s="60" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E234" s="60"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="60"/>
+      <c r="I234" s="60"/>
+      <c r="J234" s="80"/>
+      <c r="K234" s="60"/>
+    </row>
+    <row r="235" spans="1:11">
+      <c r="A235">
+        <v>222</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C235" s="79"/>
+      <c r="D235" s="60" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E235" s="60" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F235" s="3"/>
+      <c r="G235" s="60"/>
+      <c r="I235" s="60"/>
+      <c r="J235" s="80"/>
+      <c r="K235" s="60"/>
+    </row>
+    <row r="236" spans="1:11">
+      <c r="A236">
+        <v>223</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="C236" s="79"/>
+      <c r="D236" s="60" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E236" s="60" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F236" s="3"/>
+      <c r="G236" s="60"/>
+      <c r="I236" s="60"/>
+      <c r="J236" s="80"/>
+      <c r="K236" s="60"/>
+    </row>
+    <row r="237" spans="1:11">
+      <c r="A237">
+        <v>224</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="C237" s="79"/>
+      <c r="D237" s="60" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E237" s="60" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F237" s="3"/>
+      <c r="G237" s="60"/>
+      <c r="I237" s="60"/>
+      <c r="J237" s="80"/>
+      <c r="K237" s="60"/>
+    </row>
+    <row r="238" spans="1:11">
+      <c r="A238">
+        <v>225</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="F238" s="3"/>
+      <c r="G238" s="60"/>
+      <c r="I238" s="60"/>
+      <c r="J238" s="80"/>
+      <c r="K238" s="60"/>
+    </row>
+    <row r="239" spans="1:11">
+      <c r="A239">
+        <v>226</v>
+      </c>
+      <c r="C239" s="13"/>
+      <c r="D239" s="14"/>
+      <c r="E239" s="14"/>
+      <c r="F239" s="3"/>
+      <c r="G239" s="14"/>
+      <c r="I239" s="14"/>
+      <c r="J239" s="11"/>
+      <c r="K239" s="14"/>
+    </row>
+    <row r="240" spans="1:11">
+      <c r="A240">
+        <v>227</v>
+      </c>
+      <c r="C240" s="79"/>
+      <c r="D240" s="60"/>
+      <c r="E240" s="60"/>
+      <c r="F240" s="3"/>
+      <c r="G240" s="60"/>
+      <c r="I240" s="60"/>
+      <c r="J240" s="80"/>
+      <c r="K240" s="60"/>
+    </row>
+    <row r="241" spans="1:11">
+      <c r="A241">
+        <v>228</v>
+      </c>
+      <c r="C241" s="79"/>
+      <c r="D241" s="60"/>
+      <c r="E241" s="60"/>
+      <c r="F241" s="3"/>
+      <c r="G241" s="60"/>
+      <c r="I241" s="60"/>
+      <c r="J241" s="80"/>
+      <c r="K241" s="60"/>
+    </row>
+    <row r="242" spans="1:11">
+      <c r="A242">
+        <v>229</v>
+      </c>
+      <c r="C242" s="79"/>
+      <c r="D242" s="60"/>
+      <c r="E242" s="60"/>
+      <c r="F242" s="3"/>
+      <c r="G242" s="60"/>
+      <c r="I242" s="60"/>
+      <c r="J242" s="80"/>
+      <c r="K242" s="60"/>
+    </row>
+    <row r="243" spans="1:11">
+      <c r="A243">
+        <v>230</v>
+      </c>
+      <c r="C243" s="79"/>
+      <c r="D243" s="60"/>
+      <c r="E243" s="60"/>
+      <c r="F243" s="3"/>
+      <c r="G243" s="60"/>
+      <c r="I243" s="60"/>
+      <c r="J243" s="80"/>
+      <c r="K243" s="60"/>
+    </row>
+    <row r="244" spans="1:11">
+      <c r="A244">
+        <v>231</v>
+      </c>
+      <c r="C244" s="79"/>
+      <c r="D244" s="60"/>
+      <c r="E244" s="60"/>
+      <c r="F244" s="3"/>
+      <c r="G244" s="60"/>
+      <c r="I244" s="60"/>
+      <c r="J244" s="80"/>
+      <c r="K244" s="60"/>
+    </row>
+    <row r="245" spans="1:11">
+      <c r="A245">
+        <v>232</v>
+      </c>
+      <c r="C245" s="79"/>
+      <c r="D245" s="60"/>
+      <c r="E245" s="60"/>
+      <c r="F245" s="3"/>
+      <c r="G245" s="60"/>
+      <c r="I245" s="60"/>
+      <c r="J245" s="80"/>
+      <c r="K245" s="60"/>
+    </row>
+    <row r="246" spans="1:11">
+      <c r="A246">
+        <v>233</v>
+      </c>
+      <c r="C246" s="79"/>
+      <c r="D246" s="60"/>
+      <c r="E246" s="60"/>
+      <c r="F246" s="3"/>
+      <c r="G246" s="60"/>
+      <c r="I246" s="60"/>
+      <c r="J246" s="80"/>
+      <c r="K246" s="60"/>
+    </row>
+    <row r="247" spans="1:11">
+      <c r="A247">
+        <v>234</v>
+      </c>
+      <c r="C247" s="79"/>
+      <c r="D247" s="60"/>
+      <c r="E247" s="60"/>
+      <c r="F247" s="3"/>
+      <c r="G247" s="60"/>
+      <c r="I247" s="60"/>
+      <c r="J247" s="80"/>
+      <c r="K247" s="60"/>
+    </row>
+    <row r="248" spans="1:11">
+      <c r="A248">
+        <v>235</v>
+      </c>
+      <c r="C248" s="79"/>
+      <c r="D248" s="60"/>
+      <c r="E248" s="60"/>
+      <c r="F248" s="3"/>
+      <c r="G248" s="60"/>
+      <c r="I248" s="60"/>
+      <c r="J248" s="80"/>
+      <c r="K248" s="60"/>
+    </row>
+    <row r="249" spans="1:11">
+      <c r="A249">
+        <v>236</v>
+      </c>
+      <c r="C249" s="79"/>
+      <c r="D249" s="60"/>
+      <c r="E249" s="60"/>
+      <c r="F249" s="3"/>
+      <c r="G249" s="60"/>
+      <c r="I249" s="60"/>
+      <c r="J249" s="80"/>
+      <c r="K249" s="60"/>
+    </row>
+    <row r="250" spans="1:11">
+      <c r="A250">
+        <v>237</v>
+      </c>
+      <c r="C250" s="79"/>
+      <c r="D250" s="60"/>
+      <c r="E250" s="60"/>
+      <c r="F250" s="3"/>
+      <c r="G250" s="60"/>
+      <c r="I250" s="60"/>
+      <c r="J250" s="80"/>
+      <c r="K250" s="60"/>
+    </row>
+    <row r="251" spans="1:11">
+      <c r="A251">
+        <v>238</v>
+      </c>
+      <c r="C251" s="79"/>
+      <c r="D251" s="60"/>
+      <c r="E251" s="60"/>
+      <c r="F251" s="3"/>
+      <c r="G251" s="60"/>
+      <c r="I251" s="60"/>
+      <c r="J251" s="80"/>
+      <c r="K251" s="60"/>
+    </row>
+    <row r="252" spans="1:11">
+      <c r="A252">
+        <v>239</v>
+      </c>
+      <c r="C252" s="79"/>
+      <c r="D252" s="60"/>
+      <c r="E252" s="60"/>
+      <c r="F252" s="3"/>
+      <c r="G252" s="60"/>
+      <c r="I252" s="60"/>
+      <c r="J252" s="80"/>
+      <c r="K252" s="60"/>
+    </row>
+    <row r="253" spans="1:11">
+      <c r="A253">
+        <v>240</v>
+      </c>
+      <c r="C253" s="79"/>
+      <c r="D253" s="60"/>
+      <c r="E253" s="60"/>
+      <c r="F253" s="3"/>
+      <c r="G253" s="60"/>
+      <c r="I253" s="60"/>
+      <c r="J253" s="80"/>
+      <c r="K253" s="60"/>
+    </row>
+    <row r="254" spans="1:11">
+      <c r="A254">
+        <v>241</v>
+      </c>
+      <c r="C254" s="79"/>
+      <c r="D254" s="60"/>
+      <c r="E254" s="60"/>
+      <c r="F254" s="3"/>
+      <c r="G254" s="60"/>
+      <c r="I254" s="60"/>
+      <c r="J254" s="80"/>
+      <c r="K254" s="60"/>
+    </row>
+    <row r="255" spans="1:11">
+      <c r="A255">
+        <v>242</v>
+      </c>
+      <c r="C255" s="79"/>
+      <c r="D255" s="60"/>
+      <c r="E255" s="60"/>
+      <c r="F255" s="3"/>
+      <c r="G255" s="60"/>
+      <c r="I255" s="60"/>
+      <c r="J255" s="80"/>
+      <c r="K255" s="60"/>
+    </row>
+    <row r="256" spans="1:11">
+      <c r="A256">
+        <v>243</v>
+      </c>
+      <c r="C256" s="79"/>
+      <c r="D256" s="60"/>
+      <c r="E256" s="60"/>
+      <c r="F256" s="3"/>
+      <c r="G256" s="60"/>
+      <c r="I256" s="60"/>
+      <c r="J256" s="80"/>
+      <c r="K256" s="60"/>
+    </row>
+    <row r="257" spans="1:11">
+      <c r="A257">
+        <v>244</v>
+      </c>
+      <c r="C257" s="79"/>
+      <c r="D257" s="60"/>
+      <c r="E257" s="60"/>
+      <c r="F257" s="3"/>
+      <c r="G257" s="60"/>
+      <c r="I257" s="60"/>
+      <c r="J257" s="80"/>
+      <c r="K257" s="60"/>
+    </row>
+    <row r="258" spans="1:11">
+      <c r="A258">
+        <v>245</v>
+      </c>
+      <c r="C258" s="79"/>
+      <c r="D258" s="60"/>
+      <c r="E258" s="60"/>
+      <c r="F258" s="3"/>
+      <c r="G258" s="60"/>
+      <c r="I258" s="60"/>
+      <c r="J258" s="80"/>
+      <c r="K258" s="60"/>
+    </row>
+    <row r="259" spans="1:11">
+      <c r="A259">
+        <v>246</v>
+      </c>
+      <c r="C259" s="79"/>
+      <c r="D259" s="60"/>
+      <c r="E259" s="60"/>
+      <c r="F259" s="3"/>
+      <c r="G259" s="60"/>
+      <c r="I259" s="60"/>
+      <c r="J259" s="80"/>
+      <c r="K259" s="60"/>
+    </row>
+    <row r="260" spans="1:11">
+      <c r="A260">
+        <v>247</v>
+      </c>
+      <c r="C260" s="79"/>
+      <c r="D260" s="60"/>
+      <c r="E260" s="60"/>
+      <c r="F260" s="3"/>
+      <c r="G260" s="60"/>
+      <c r="I260" s="60"/>
+      <c r="J260" s="80"/>
+      <c r="K260" s="60"/>
+    </row>
+    <row r="261" spans="1:11">
+      <c r="A261">
+        <v>248</v>
+      </c>
+      <c r="C261" s="79"/>
+      <c r="D261" s="60"/>
+      <c r="E261" s="60"/>
+      <c r="F261" s="3"/>
+      <c r="G261" s="60"/>
+      <c r="I261" s="60"/>
+      <c r="J261" s="80"/>
+      <c r="K261" s="60"/>
+    </row>
+    <row r="262" spans="1:11">
+      <c r="A262">
+        <v>249</v>
+      </c>
+      <c r="C262" s="79"/>
+      <c r="D262" s="60"/>
+      <c r="E262" s="60"/>
+      <c r="F262" s="3"/>
+      <c r="G262" s="60"/>
+      <c r="I262" s="60"/>
+      <c r="J262" s="80"/>
+      <c r="K262" s="60"/>
+    </row>
+    <row r="263" spans="1:11">
+      <c r="A263">
+        <v>250</v>
+      </c>
+      <c r="C263" s="79"/>
+      <c r="D263" s="60"/>
+      <c r="E263" s="60"/>
+      <c r="F263" s="3"/>
+      <c r="G263" s="60"/>
+      <c r="I263" s="60"/>
+      <c r="J263" s="80"/>
+      <c r="K263" s="60"/>
+    </row>
+    <row r="264" spans="1:11">
+      <c r="A264">
+        <v>251</v>
+      </c>
+      <c r="C264" s="79"/>
+      <c r="D264" s="60"/>
+      <c r="E264" s="60"/>
+      <c r="F264" s="3"/>
+      <c r="G264" s="60"/>
+      <c r="I264" s="60"/>
+      <c r="J264" s="80"/>
+      <c r="K264" s="60"/>
+    </row>
+    <row r="265" spans="1:11">
+      <c r="A265">
+        <v>252</v>
+      </c>
+      <c r="C265" s="79"/>
+      <c r="D265" s="60"/>
+      <c r="E265" s="60"/>
+      <c r="F265" s="3"/>
+      <c r="G265" s="60"/>
+      <c r="I265" s="60"/>
+      <c r="J265" s="80"/>
+      <c r="K265" s="60"/>
+    </row>
+    <row r="266" spans="1:11">
+      <c r="A266">
+        <v>253</v>
+      </c>
+      <c r="C266" s="79"/>
+      <c r="D266" s="60"/>
+      <c r="E266" s="60"/>
+      <c r="F266" s="3"/>
+      <c r="G266" s="60"/>
+      <c r="I266" s="60"/>
+      <c r="J266" s="80"/>
+      <c r="K266" s="60"/>
+    </row>
+    <row r="267" spans="1:11">
+      <c r="A267">
+        <v>254</v>
+      </c>
+      <c r="C267" s="79"/>
+      <c r="D267" s="60"/>
+      <c r="E267" s="60"/>
+      <c r="F267" s="3"/>
+      <c r="G267" s="60"/>
+      <c r="I267" s="60"/>
+      <c r="J267" s="80"/>
+      <c r="K267" s="60"/>
+    </row>
+    <row r="268" spans="1:11">
+      <c r="A268">
+        <v>255</v>
+      </c>
+      <c r="C268" s="79"/>
+      <c r="D268" s="60"/>
+      <c r="E268" s="60"/>
+      <c r="F268" s="3"/>
+      <c r="G268" s="60"/>
+      <c r="I268" s="60"/>
+      <c r="J268" s="80"/>
+      <c r="K268" s="60"/>
+    </row>
+    <row r="269" spans="1:11">
+      <c r="A269">
+        <v>256</v>
+      </c>
+      <c r="C269" s="79"/>
+      <c r="D269" s="60"/>
+      <c r="E269" s="60"/>
+      <c r="F269" s="3"/>
+      <c r="G269" s="60"/>
+      <c r="I269" s="60"/>
+      <c r="J269" s="80"/>
+      <c r="K269" s="60"/>
+    </row>
+    <row r="270" spans="1:11">
+      <c r="A270">
+        <v>257</v>
+      </c>
+      <c r="C270" s="79"/>
+      <c r="D270" s="60"/>
+      <c r="E270" s="60"/>
+      <c r="F270" s="3"/>
+      <c r="G270" s="60"/>
+      <c r="I270" s="60"/>
+      <c r="J270" s="80"/>
+      <c r="K270" s="60"/>
+    </row>
+    <row r="271" spans="1:11">
+      <c r="A271">
+        <v>258</v>
+      </c>
+      <c r="C271" s="79"/>
+      <c r="D271" s="60"/>
+      <c r="E271" s="60"/>
+      <c r="F271" s="3"/>
+      <c r="G271" s="60"/>
+      <c r="I271" s="60"/>
+      <c r="J271" s="80"/>
+      <c r="K271" s="60"/>
+    </row>
+    <row r="272" spans="1:11">
+      <c r="A272">
+        <v>259</v>
+      </c>
+      <c r="C272" s="79"/>
+      <c r="D272" s="60"/>
+      <c r="E272" s="60"/>
+      <c r="F272" s="3"/>
+      <c r="G272" s="60"/>
+      <c r="I272" s="60"/>
+      <c r="J272" s="80"/>
+      <c r="K272" s="60"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -11098,19 +12477,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11118,7 +12497,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>330</v>
@@ -11130,7 +12509,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>468</v>
@@ -11142,7 +12521,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>415</v>
@@ -11154,13 +12533,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -11168,13 +12547,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C6" s="39" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -11182,13 +12561,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C7" s="39" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -11196,13 +12575,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -11210,13 +12589,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C9" s="39" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -11224,13 +12603,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C10" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -11241,10 +12620,10 @@
         <v>103</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -11255,10 +12634,10 @@
         <v>106</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -11266,7 +12645,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>429</v>
@@ -11308,7 +12687,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -11343,10 +12722,10 @@
         <v>114</v>
       </c>
       <c r="C19" s="42" t="s">
+        <v>621</v>
+      </c>
+      <c r="D19" s="43" t="s">
         <v>622</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -11369,7 +12748,7 @@
         <v>118</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D21" s="39"/>
     </row>
@@ -11381,10 +12760,10 @@
         <v>121</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -11398,7 +12777,7 @@
         <v>28</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -11421,10 +12800,10 @@
         <v>124</v>
       </c>
       <c r="C25" s="42" t="s">
+        <v>629</v>
+      </c>
+      <c r="D25" s="43" t="s">
         <v>630</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -11435,10 +12814,10 @@
         <v>126</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -11464,7 +12843,7 @@
         <v>74</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -11475,10 +12854,10 @@
         <v>128</v>
       </c>
       <c r="C29" s="42" t="s">
+        <v>637</v>
+      </c>
+      <c r="D29" s="43" t="s">
         <v>638</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -11489,10 +12868,10 @@
         <v>130</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -11518,7 +12897,7 @@
         <v>32</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -11553,10 +12932,10 @@
         <v>134</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -11564,7 +12943,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C36" s="39" t="s">
         <v>391</v>
@@ -11579,10 +12958,10 @@
         <v>136</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -11608,7 +12987,7 @@
         <v>79</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -11622,7 +13001,7 @@
         <v>37</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -11633,10 +13012,10 @@
         <v>142</v>
       </c>
       <c r="C41" s="42" t="s">
+        <v>603</v>
+      </c>
+      <c r="D41" s="43" t="s">
         <v>604</v>
-      </c>
-      <c r="D41" s="43" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -11662,7 +13041,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -11673,10 +13052,10 @@
         <v>144</v>
       </c>
       <c r="C44" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="D44" s="43" t="s">
         <v>597</v>
-      </c>
-      <c r="D44" s="43" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -11690,7 +13069,7 @@
         <v>47</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -11740,7 +13119,7 @@
         <v>52</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -11775,10 +13154,10 @@
         <v>152</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -11789,10 +13168,10 @@
         <v>154</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D53" s="43" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -11815,10 +13194,10 @@
         <v>158</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D55" s="43" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -11832,7 +13211,7 @@
         <v>84</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -11843,10 +13222,10 @@
         <v>160</v>
       </c>
       <c r="C57" s="42" t="s">
+        <v>598</v>
+      </c>
+      <c r="D57" s="43" t="s">
         <v>599</v>
-      </c>
-      <c r="D57" s="43" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -11857,10 +13236,10 @@
         <v>161</v>
       </c>
       <c r="C58" s="42" t="s">
+        <v>635</v>
+      </c>
+      <c r="D58" s="43" t="s">
         <v>636</v>
-      </c>
-      <c r="D58" s="43" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -11907,10 +13286,10 @@
         <v>174</v>
       </c>
       <c r="C62" s="42" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D62" s="43" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -11936,7 +13315,7 @@
         <v>89</v>
       </c>
       <c r="D64" s="39" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -11950,7 +13329,7 @@
         <v>57</v>
       </c>
       <c r="D65" s="39" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -11961,10 +13340,10 @@
         <v>179</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D66" s="43" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -11975,7 +13354,7 @@
         <v>180</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D67" s="39"/>
     </row>
@@ -11987,10 +13366,10 @@
         <v>183</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D68" s="43" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -12025,10 +13404,10 @@
         <v>188</v>
       </c>
       <c r="C71" s="42" t="s">
+        <v>639</v>
+      </c>
+      <c r="D71" s="43" t="s">
         <v>640</v>
-      </c>
-      <c r="D71" s="43" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -12051,10 +13430,10 @@
         <v>191</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D73" s="43" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -12116,7 +13495,7 @@
         <v>61</v>
       </c>
       <c r="D78" s="47" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -12139,10 +13518,10 @@
         <v>198</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -12153,10 +13532,10 @@
         <v>199</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D81" s="43" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -12170,7 +13549,7 @@
         <v>94</v>
       </c>
       <c r="D82" s="39" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -12208,7 +13587,7 @@
         <v>64</v>
       </c>
       <c r="D85" s="39" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -12222,7 +13601,7 @@
         <v>98</v>
       </c>
       <c r="D86" s="39" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -12245,10 +13624,10 @@
         <v>206</v>
       </c>
       <c r="C88" s="42" t="s">
+        <v>594</v>
+      </c>
+      <c r="D88" s="43" t="s">
         <v>595</v>
-      </c>
-      <c r="D88" s="43" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -12259,10 +13638,10 @@
         <v>207</v>
       </c>
       <c r="C89" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D89" s="43" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -12318,13 +13697,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>67</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -12332,13 +13711,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -12346,13 +13725,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -12360,7 +13739,7 @@
         <v>128</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9">
@@ -12372,7 +13751,7 @@
         <v>129</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C98" s="14"/>
       <c r="D98" s="9">
@@ -12384,7 +13763,7 @@
         <v>130</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9">
@@ -12396,10 +13775,10 @@
         <v>131</v>
       </c>
       <c r="B100" s="40" t="s">
+        <v>696</v>
+      </c>
+      <c r="C100" s="39" t="s">
         <v>697</v>
-      </c>
-      <c r="C100" s="39" t="s">
-        <v>698</v>
       </c>
       <c r="D100" s="9"/>
     </row>
@@ -12408,10 +13787,10 @@
         <v>132</v>
       </c>
       <c r="B101" s="40" t="s">
+        <v>698</v>
+      </c>
+      <c r="C101" s="39" t="s">
         <v>699</v>
-      </c>
-      <c r="C101" s="39" t="s">
-        <v>700</v>
       </c>
       <c r="D101" s="9"/>
     </row>
@@ -12420,10 +13799,10 @@
         <v>133</v>
       </c>
       <c r="B102" s="49" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C102" s="50" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D102" s="50"/>
     </row>
@@ -12432,13 +13811,13 @@
         <v>134</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -12446,10 +13825,10 @@
         <v>135</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D104" s="14"/>
     </row>
@@ -12458,7 +13837,7 @@
         <v>136</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C105" s="14" t="s">
         <v>333</v>
@@ -12470,10 +13849,10 @@
         <v>137</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D106" s="14"/>
     </row>
@@ -12482,10 +13861,10 @@
         <v>138</v>
       </c>
       <c r="B107" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="C107" s="14" t="s">
         <v>712</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>713</v>
       </c>
       <c r="D107" s="14"/>
     </row>
@@ -12494,10 +13873,10 @@
         <v>139</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D108" s="14"/>
     </row>
@@ -12506,10 +13885,10 @@
         <v>140</v>
       </c>
       <c r="B109" s="13" t="s">
+        <v>717</v>
+      </c>
+      <c r="C109" s="14" t="s">
         <v>718</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>719</v>
       </c>
       <c r="D109" s="14"/>
     </row>
@@ -12518,10 +13897,10 @@
         <v>141</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D110" s="14"/>
     </row>
@@ -12530,10 +13909,10 @@
         <v>142</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D111" s="25"/>
     </row>
@@ -12542,10 +13921,10 @@
         <v>143</v>
       </c>
       <c r="B112" s="52" t="s">
+        <v>750</v>
+      </c>
+      <c r="C112" s="53" t="s">
         <v>751</v>
-      </c>
-      <c r="C112" s="53" t="s">
-        <v>752</v>
       </c>
       <c r="D112" s="9"/>
     </row>
@@ -12554,10 +13933,10 @@
         <v>144</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D113" s="9"/>
     </row>
@@ -12566,10 +13945,10 @@
         <v>145</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D114" s="9"/>
     </row>
@@ -12578,13 +13957,13 @@
         <v>146</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -12592,13 +13971,13 @@
         <v>147</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -12606,10 +13985,10 @@
         <v>148</v>
       </c>
       <c r="B117" s="40" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C117" s="39" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D117" s="14"/>
     </row>
@@ -12618,10 +13997,10 @@
         <v>149</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D118" s="14"/>
     </row>
@@ -12630,10 +14009,10 @@
         <v>150</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D119" s="14"/>
     </row>
@@ -12642,10 +14021,10 @@
         <v>151</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D120" s="14"/>
     </row>
@@ -12654,10 +14033,10 @@
         <v>152</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D121" s="14"/>
     </row>
@@ -12666,10 +14045,10 @@
         <v>153</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D122" s="14"/>
     </row>
@@ -12678,10 +14057,10 @@
         <v>154</v>
       </c>
       <c r="B123" s="40" t="s">
+        <v>804</v>
+      </c>
+      <c r="C123" s="39" t="s">
         <v>805</v>
-      </c>
-      <c r="C123" s="39" t="s">
-        <v>806</v>
       </c>
       <c r="D123" s="14"/>
     </row>
@@ -12693,7 +14072,7 @@
         <v>125</v>
       </c>
       <c r="C124" s="55" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D124" s="9"/>
     </row>
@@ -12705,7 +14084,7 @@
         <v>175</v>
       </c>
       <c r="C125" s="57" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D125" s="14"/>
     </row>
@@ -12717,7 +14096,7 @@
         <v>186</v>
       </c>
       <c r="C126" s="57" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D126" s="14"/>
     </row>
@@ -12729,7 +14108,7 @@
         <v>187</v>
       </c>
       <c r="C127" s="59" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D127" s="60"/>
     </row>
@@ -12741,7 +14120,7 @@
         <v>202</v>
       </c>
       <c r="C128" s="57" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D128" s="14"/>
     </row>
@@ -12750,10 +14129,10 @@
         <v>160</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D129" s="14"/>
     </row>
@@ -12763,7 +14142,7 @@
       </c>
       <c r="B130" s="13"/>
       <c r="C130" s="14" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D130" s="14"/>
     </row>
@@ -12773,7 +14152,7 @@
       </c>
       <c r="B131" s="13"/>
       <c r="C131" s="14" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D131" s="14"/>
     </row>
@@ -12783,7 +14162,7 @@
       </c>
       <c r="B132" s="13"/>
       <c r="C132" s="14" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D132" s="14"/>
     </row>
@@ -12793,7 +14172,7 @@
       </c>
       <c r="B133" s="13"/>
       <c r="C133" s="14" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D133" s="14"/>
     </row>
@@ -12803,7 +14182,7 @@
       </c>
       <c r="B134" s="15"/>
       <c r="C134" s="9" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D134" s="9"/>
     </row>
@@ -12815,7 +14194,7 @@
         <v>105</v>
       </c>
       <c r="C135" s="55" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D135" s="63"/>
     </row>
@@ -12827,7 +14206,7 @@
         <v>138</v>
       </c>
       <c r="C136" s="57" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D136" s="63"/>
     </row>
@@ -12839,7 +14218,7 @@
         <v>140</v>
       </c>
       <c r="C137" s="59" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D137" s="63"/>
     </row>
@@ -12851,7 +14230,7 @@
         <v>141</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D138" s="63"/>
     </row>
@@ -12863,7 +14242,7 @@
         <v>155</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D139" s="63"/>
     </row>
@@ -12875,7 +14254,7 @@
         <v>172</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D140" s="63"/>
     </row>
@@ -12887,7 +14266,7 @@
         <v>178</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D141" s="63"/>
     </row>
@@ -12899,7 +14278,7 @@
         <v>181</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D142" s="63"/>
     </row>
@@ -14098,7 +15477,7 @@
   <dimension ref="A1:J129"/>
   <sheetViews>
     <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B123"/>
+      <selection activeCell="A122" sqref="A122:C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14122,16 +15501,16 @@
         <v>101</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>102</v>
@@ -14144,16 +15523,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5">
@@ -14167,10 +15546,10 @@
         <v>104</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -14186,13 +15565,13 @@
         <v>105</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="4"/>
@@ -14207,16 +15586,16 @@
         <v>106</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="5">
@@ -14230,7 +15609,7 @@
         <v>107</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -14247,7 +15626,7 @@
         <v>108</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -14264,7 +15643,7 @@
         <v>109</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -14298,10 +15677,10 @@
         <v>110</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -14315,7 +15694,7 @@
         <v>111</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
@@ -14332,10 +15711,10 @@
         <v>112</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>658</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>659</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -14349,7 +15728,7 @@
         <v>113</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
@@ -14366,16 +15745,16 @@
         <v>114</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>622</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>623</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="5">
@@ -14389,10 +15768,10 @@
         <v>115</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>662</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>663</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -14408,7 +15787,7 @@
         <v>116</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
@@ -14425,10 +15804,10 @@
         <v>117</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>664</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>665</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -14442,7 +15821,7 @@
         <v>118</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
@@ -14459,10 +15838,10 @@
         <v>119</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -14476,10 +15855,10 @@
         <v>120</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>668</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>669</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -14495,16 +15874,16 @@
         <v>121</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>643</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>644</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="5">
@@ -14535,7 +15914,7 @@
         <v>122</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
@@ -14552,16 +15931,16 @@
         <v>123</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>656</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>657</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="5"/>
@@ -14573,16 +15952,16 @@
         <v>124</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>630</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>631</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="5">
@@ -14591,22 +15970,22 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="27" hidden="1">
+    <row r="26" spans="1:10" hidden="1">
       <c r="A26" s="4" t="s">
         <v>125</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>672</v>
-      </c>
       <c r="D26" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G26" s="5">
         <v>1</v>
@@ -14619,16 +15998,16 @@
         <v>126</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>614</v>
-      </c>
       <c r="D27" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="5">
@@ -14642,7 +16021,7 @@
         <v>127</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
@@ -14676,16 +16055,16 @@
         <v>128</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>638</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>639</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="5">
@@ -14699,10 +16078,10 @@
         <v>129</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>673</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>674</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -14716,16 +16095,16 @@
         <v>130</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="5">
@@ -14739,7 +16118,7 @@
         <v>131</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
@@ -14756,7 +16135,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
@@ -14773,7 +16152,7 @@
         <v>132</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
@@ -14790,7 +16169,7 @@
         <v>133</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
@@ -14807,16 +16186,16 @@
         <v>134</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>646</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>647</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="5">
@@ -14830,7 +16209,7 @@
         <v>135</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
@@ -14847,16 +16226,16 @@
         <v>136</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>590</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>591</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="5">
@@ -14870,7 +16249,7 @@
         <v>137</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
@@ -14887,10 +16266,10 @@
         <v>138</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>675</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>676</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -14906,34 +16285,34 @@
         <v>139</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>677</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>678</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G42" s="5"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" ht="27" hidden="1">
+    <row r="43" spans="1:10" hidden="1">
       <c r="A43" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>682</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>683</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G43" s="5">
         <v>1</v>
@@ -14958,20 +16337,20 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" ht="27" hidden="1">
+    <row r="45" spans="1:10" hidden="1">
       <c r="A45" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G45" s="5">
         <v>1</v>
@@ -15001,16 +16380,16 @@
         <v>142</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>604</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>605</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="5">
@@ -15024,7 +16403,7 @@
         <v>143</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
@@ -15058,16 +16437,16 @@
         <v>144</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>597</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>598</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="5">
@@ -15098,7 +16477,7 @@
         <v>145</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
@@ -15115,7 +16494,7 @@
         <v>146</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
@@ -15132,7 +16511,7 @@
         <v>147</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
@@ -15144,20 +16523,20 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" ht="27">
+    <row r="55" spans="1:10">
       <c r="A55" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G55" s="5"/>
       <c r="I55" s="1"/>
@@ -15168,7 +16547,7 @@
         <v>50</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
@@ -15180,39 +16559,39 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" ht="27">
+    <row r="57" spans="1:10">
       <c r="A57" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G57" s="5"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10" ht="27">
+    <row r="58" spans="1:10">
       <c r="A58" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G58" s="5"/>
       <c r="I58" s="1"/>
@@ -15223,7 +16602,7 @@
         <v>151</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
@@ -15240,7 +16619,7 @@
         <v>398</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
@@ -15257,16 +16636,16 @@
         <v>152</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>654</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>655</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="5">
@@ -15275,20 +16654,20 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" ht="27">
+    <row r="62" spans="1:10">
       <c r="A62" s="4" t="s">
         <v>153</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G62" s="5"/>
       <c r="I62" s="1"/>
@@ -15299,16 +16678,16 @@
         <v>154</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="5">
@@ -15317,20 +16696,20 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" ht="27" hidden="1">
+    <row r="64" spans="1:10" hidden="1">
       <c r="A64" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G64" s="5">
         <v>1</v>
@@ -15338,20 +16717,20 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" ht="27">
+    <row r="65" spans="1:10">
       <c r="A65" s="4" t="s">
         <v>156</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G65" s="5"/>
       <c r="I65" s="1"/>
@@ -15362,7 +16741,7 @@
         <v>336</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
@@ -15374,20 +16753,20 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10" ht="27">
+    <row r="67" spans="1:10">
       <c r="A67" s="4" t="s">
         <v>157</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="7" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G67" s="5"/>
       <c r="I67" s="1"/>
@@ -15398,16 +16777,16 @@
         <v>158</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>593</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>594</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="5">
@@ -15433,20 +16812,20 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10" ht="27">
+    <row r="70" spans="1:10">
       <c r="A70" s="4" t="s">
         <v>159</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G70" s="5"/>
       <c r="I70" s="1"/>
@@ -15457,16 +16836,16 @@
         <v>160</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>599</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>600</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="5">
@@ -15480,16 +16859,16 @@
         <v>161</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>636</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>637</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="5">
@@ -15498,22 +16877,22 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10" ht="27" hidden="1">
+    <row r="73" spans="1:10" hidden="1">
       <c r="A73" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="7" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G73" s="5">
         <v>1</v>
@@ -15521,20 +16900,20 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10" ht="27" hidden="1">
+    <row r="74" spans="1:10" hidden="1">
       <c r="A74" s="4" t="s">
         <v>163</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G74" s="5">
         <v>1</v>
@@ -15542,77 +16921,77 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10" ht="27">
+    <row r="75" spans="1:10">
       <c r="A75" s="4" t="s">
         <v>164</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G75" s="5"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:10" ht="27">
+    <row r="76" spans="1:10">
       <c r="A76" s="4" t="s">
         <v>165</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>840</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>841</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G76" s="5"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10" ht="27">
+    <row r="77" spans="1:10">
       <c r="A77" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G77" s="5"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:10" ht="27">
+    <row r="78" spans="1:10">
       <c r="A78" s="4" t="s">
         <v>167</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>848</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>849</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="7" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G78" s="5"/>
       <c r="I78" s="1"/>
@@ -15623,7 +17002,7 @@
         <v>168</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="5"/>
@@ -15635,43 +17014,43 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10" ht="27">
+    <row r="80" spans="1:10">
       <c r="A80" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>851</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>852</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G80" s="5"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10" ht="27">
+    <row r="81" spans="1:10">
       <c r="A81" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C81" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>617</v>
-      </c>
       <c r="F81" s="7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G81" s="5"/>
       <c r="I81" s="1"/>
@@ -15682,7 +17061,7 @@
         <v>171</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="5"/>
@@ -15694,20 +17073,20 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10" ht="27" hidden="1">
+    <row r="83" spans="1:10" hidden="1">
       <c r="A83" s="4" t="s">
         <v>172</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G83" s="5">
         <v>1</v>
@@ -15720,7 +17099,7 @@
         <v>173</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
@@ -15737,16 +17116,16 @@
         <v>174</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="E85" s="5" t="s">
         <v>602</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>603</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="5">
@@ -15755,22 +17134,22 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" ht="27" hidden="1">
+    <row r="86" spans="1:10" hidden="1">
       <c r="A86" s="4" t="s">
         <v>175</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>859</v>
-      </c>
       <c r="D86" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G86" s="5">
         <v>1</v>
@@ -15783,7 +17162,7 @@
         <v>176</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="5"/>
@@ -15795,39 +17174,39 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:10" ht="27">
+    <row r="88" spans="1:10">
       <c r="A88" s="4" t="s">
         <v>177</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>861</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>862</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="7" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G88" s="5"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10" ht="27" hidden="1">
+    <row r="89" spans="1:10" hidden="1">
       <c r="A89" s="4" t="s">
         <v>178</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>864</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>865</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G89" s="5">
         <v>1</v>
@@ -15874,16 +17253,16 @@
         <v>179</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C92" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E92" s="5" t="s">
         <v>648</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>649</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="5">
@@ -15897,7 +17276,7 @@
         <v>180</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="5"/>
@@ -15909,20 +17288,20 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" ht="27" hidden="1">
+    <row r="94" spans="1:10" hidden="1">
       <c r="A94" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G94" s="5">
         <v>1</v>
@@ -15930,20 +17309,20 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10" ht="27">
+    <row r="95" spans="1:10">
       <c r="A95" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>870</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>871</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G95" s="5"/>
       <c r="I95" s="1"/>
@@ -15954,16 +17333,16 @@
         <v>183</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="D96" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>628</v>
-      </c>
       <c r="E96" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="5">
@@ -15977,7 +17356,7 @@
         <v>184</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="5"/>
@@ -15994,7 +17373,7 @@
         <v>348</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="5"/>
@@ -16006,20 +17385,20 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10" ht="27">
+    <row r="99" spans="1:10">
       <c r="A99" s="4" t="s">
         <v>185</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>873</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>874</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G99" s="5"/>
       <c r="I99" s="1"/>
@@ -16030,17 +17409,17 @@
         <v>186</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>876</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>877</v>
-      </c>
       <c r="D100" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G100" s="5">
         <v>1</v>
@@ -16053,10 +17432,10 @@
         <v>187</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>482</v>
@@ -16074,16 +17453,16 @@
         <v>188</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C102" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="E102" s="5" t="s">
         <v>640</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>641</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="5">
@@ -16097,7 +17476,7 @@
         <v>189</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="5"/>
@@ -16109,20 +17488,20 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:10" ht="27">
+    <row r="104" spans="1:10">
       <c r="A104" s="4" t="s">
         <v>190</v>
       </c>
       <c r="B104" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>879</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>880</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G104" s="5"/>
       <c r="I104" s="1"/>
@@ -16133,16 +17512,16 @@
         <v>191</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="5">
@@ -16156,7 +17535,7 @@
         <v>192</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="5"/>
@@ -16173,7 +17552,7 @@
         <v>193</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="5"/>
@@ -16190,7 +17569,7 @@
         <v>194</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="5"/>
@@ -16207,7 +17586,7 @@
         <v>195</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="5"/>
@@ -16224,7 +17603,7 @@
         <v>60</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="5"/>
@@ -16236,20 +17615,20 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:10" ht="27">
+    <row r="111" spans="1:10">
       <c r="A111" s="4" t="s">
         <v>196</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="7" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G111" s="5"/>
       <c r="I111" s="1"/>
@@ -16260,7 +17639,7 @@
         <v>197</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="5"/>
@@ -16277,16 +17656,16 @@
         <v>198</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C113" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E113" s="5" t="s">
         <v>624</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>625</v>
       </c>
       <c r="F113" s="4"/>
       <c r="G113" s="5">
@@ -16300,16 +17679,16 @@
         <v>199</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C114" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E114" s="5" t="s">
         <v>650</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>651</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="5">
@@ -16340,7 +17719,7 @@
         <v>200</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="5"/>
@@ -16357,7 +17736,7 @@
         <v>201</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="5"/>
@@ -16374,7 +17753,7 @@
         <v>63</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="5"/>
@@ -16391,7 +17770,7 @@
         <v>97</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="5"/>
@@ -16408,16 +17787,16 @@
         <v>202</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="5">
@@ -16431,7 +17810,7 @@
         <v>203</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="5"/>
@@ -16443,39 +17822,41 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="1:10" ht="27">
+    <row r="122" spans="1:10">
       <c r="A122" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="7" t="s">
-        <v>886</v>
-      </c>
-      <c r="G122" s="5"/>
+        <v>885</v>
+      </c>
+      <c r="G122" s="5">
+        <v>1</v>
+      </c>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="1:10" ht="27">
+    <row r="123" spans="1:10">
       <c r="A123" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="7" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G123" s="5"/>
       <c r="I123" s="1"/>
@@ -16486,16 +17867,16 @@
         <v>206</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C124" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E124" s="5" t="s">
         <v>595</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>596</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="5">
@@ -16509,16 +17890,16 @@
         <v>207</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="5">
@@ -16532,7 +17913,7 @@
         <v>208</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="5"/>
@@ -16549,7 +17930,7 @@
         <v>209</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="5"/>
@@ -16566,7 +17947,7 @@
         <v>210</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="5"/>
@@ -16583,7 +17964,7 @@
         <v>211</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="5"/>

--- a/统计清单/2017国内编号清单.xlsx
+++ b/统计清单/2017国内编号清单.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="1058">
   <si>
     <t>本地编号</t>
   </si>
@@ -5048,8 +5048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="G205" sqref="G205"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="D243" sqref="D243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11925,6 +11925,9 @@
     <row r="239" spans="1:11">
       <c r="A239">
         <v>226</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
       </c>
       <c r="C239" s="13"/>
       <c r="D239" s="14"/>

--- a/统计清单/2017国内编号清单.xlsx
+++ b/统计清单/2017国内编号清单.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="1058">
   <si>
     <t>本地编号</t>
   </si>
@@ -5048,8 +5048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="D243" sqref="D243"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="I221" sqref="I221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11151,7 +11151,9 @@
         <v>1057</v>
       </c>
       <c r="F198" s="3"/>
-      <c r="G198" s="14"/>
+      <c r="G198" s="14">
+        <v>2011</v>
+      </c>
       <c r="I198" s="14"/>
       <c r="J198" s="11"/>
       <c r="K198" s="14"/>
@@ -11171,7 +11173,9 @@
         <v>1056</v>
       </c>
       <c r="F199" s="3"/>
-      <c r="G199" s="60"/>
+      <c r="G199" s="60">
+        <v>2053</v>
+      </c>
       <c r="I199" s="60"/>
       <c r="J199" s="80"/>
       <c r="K199" s="60"/>
@@ -11189,7 +11193,9 @@
       </c>
       <c r="E200" s="60"/>
       <c r="F200" s="3"/>
-      <c r="G200" s="60"/>
+      <c r="G200" s="60">
+        <v>2035</v>
+      </c>
       <c r="I200" s="60"/>
       <c r="J200" s="80"/>
       <c r="K200" s="60"/>
@@ -11207,7 +11213,9 @@
       </c>
       <c r="E201" s="60"/>
       <c r="F201" s="3"/>
-      <c r="G201" s="60"/>
+      <c r="G201" s="60">
+        <v>2094</v>
+      </c>
       <c r="I201" s="60"/>
       <c r="J201" s="80"/>
       <c r="K201" s="60"/>
@@ -11225,7 +11233,9 @@
       </c>
       <c r="E202" s="60"/>
       <c r="F202" s="3"/>
-      <c r="G202" s="60"/>
+      <c r="G202" s="60">
+        <v>2192</v>
+      </c>
       <c r="I202" s="60"/>
       <c r="J202" s="80"/>
       <c r="K202" s="60"/>
@@ -11245,7 +11255,9 @@
         <v>1054</v>
       </c>
       <c r="F203" s="3"/>
-      <c r="G203" s="60"/>
+      <c r="G203" s="60">
+        <v>2096</v>
+      </c>
       <c r="I203" s="60"/>
       <c r="J203" s="80"/>
       <c r="K203" s="60"/>
@@ -11263,7 +11275,9 @@
       </c>
       <c r="E204" s="60"/>
       <c r="F204" s="3"/>
-      <c r="G204" s="60"/>
+      <c r="G204" s="60">
+        <v>2172</v>
+      </c>
       <c r="I204" s="60"/>
       <c r="J204" s="80"/>
       <c r="K204" s="60"/>
@@ -11281,7 +11295,9 @@
       </c>
       <c r="E205" s="60"/>
       <c r="F205" s="3"/>
-      <c r="G205" s="60"/>
+      <c r="G205" s="60">
+        <v>2157</v>
+      </c>
       <c r="I205" s="60"/>
       <c r="J205" s="80"/>
       <c r="K205" s="60"/>
@@ -11299,7 +11315,9 @@
       </c>
       <c r="E206" s="9"/>
       <c r="F206" s="81"/>
-      <c r="G206" s="9"/>
+      <c r="G206" s="9">
+        <v>2135</v>
+      </c>
       <c r="I206" s="9"/>
       <c r="J206" s="64"/>
       <c r="K206" s="9"/>
@@ -11317,7 +11335,9 @@
       </c>
       <c r="E207" s="63"/>
       <c r="F207" s="81"/>
-      <c r="G207" s="63"/>
+      <c r="G207" s="63">
+        <v>2181</v>
+      </c>
       <c r="I207" s="63"/>
       <c r="J207" s="78"/>
       <c r="K207" s="63"/>
@@ -11337,7 +11357,9 @@
         <v>1052</v>
       </c>
       <c r="F208" s="81"/>
-      <c r="G208" s="63"/>
+      <c r="G208" s="63">
+        <v>2062</v>
+      </c>
       <c r="I208" s="63"/>
       <c r="J208" s="78"/>
       <c r="K208" s="63"/>
@@ -11357,7 +11379,9 @@
         <v>1050</v>
       </c>
       <c r="F209" s="81"/>
-      <c r="G209" s="63"/>
+      <c r="G209" s="63">
+        <v>2048</v>
+      </c>
       <c r="I209" s="63"/>
       <c r="J209" s="78"/>
       <c r="K209" s="63"/>
@@ -11375,7 +11399,9 @@
       </c>
       <c r="E210" s="63"/>
       <c r="F210" s="81"/>
-      <c r="G210" s="63"/>
+      <c r="G210" s="63">
+        <v>2163</v>
+      </c>
       <c r="I210" s="63"/>
       <c r="J210" s="78"/>
       <c r="K210" s="63"/>
@@ -11395,7 +11421,9 @@
         <v>1048</v>
       </c>
       <c r="F211" s="81"/>
-      <c r="G211" s="63"/>
+      <c r="G211" s="63">
+        <v>2077</v>
+      </c>
       <c r="I211" s="63"/>
       <c r="J211" s="78"/>
       <c r="K211" s="63"/>
@@ -11415,7 +11443,9 @@
         <v>1046</v>
       </c>
       <c r="F212" s="81"/>
-      <c r="G212" s="63"/>
+      <c r="G212" s="63">
+        <v>2038</v>
+      </c>
       <c r="I212" s="63"/>
       <c r="J212" s="78"/>
       <c r="K212" s="63"/>
@@ -11435,7 +11465,9 @@
         <v>1044</v>
       </c>
       <c r="F213" s="81"/>
-      <c r="G213" s="63"/>
+      <c r="G213" s="63">
+        <v>2072</v>
+      </c>
       <c r="I213" s="63"/>
       <c r="J213" s="78"/>
       <c r="K213" s="63"/>
@@ -11455,7 +11487,9 @@
         <v>1042</v>
       </c>
       <c r="F214" s="81"/>
-      <c r="G214" s="63"/>
+      <c r="G214" s="63">
+        <v>2041</v>
+      </c>
       <c r="I214" s="63"/>
       <c r="J214" s="78"/>
       <c r="K214" s="63"/>
@@ -11475,7 +11509,9 @@
         <v>1040</v>
       </c>
       <c r="F215" s="81"/>
-      <c r="G215" s="63"/>
+      <c r="G215" s="63">
+        <v>2128</v>
+      </c>
       <c r="I215" s="63"/>
       <c r="J215" s="78"/>
       <c r="K215" s="63"/>
@@ -11493,7 +11529,9 @@
       </c>
       <c r="E216" s="63"/>
       <c r="F216" s="81"/>
-      <c r="G216" s="63"/>
+      <c r="G216" s="63">
+        <v>2161</v>
+      </c>
       <c r="I216" s="63"/>
       <c r="J216" s="78"/>
       <c r="K216" s="63"/>
@@ -11513,7 +11551,9 @@
         <v>1038</v>
       </c>
       <c r="F217" s="81"/>
-      <c r="G217" s="63"/>
+      <c r="G217" s="63">
+        <v>2050</v>
+      </c>
       <c r="I217" s="63"/>
       <c r="J217" s="78"/>
       <c r="K217" s="63"/>
@@ -11531,7 +11571,9 @@
       </c>
       <c r="E218" s="63"/>
       <c r="F218" s="81"/>
-      <c r="G218" s="63"/>
+      <c r="G218" s="63">
+        <v>2043</v>
+      </c>
       <c r="I218" s="63"/>
       <c r="J218" s="78"/>
       <c r="K218" s="63"/>
@@ -11551,7 +11593,9 @@
         <v>1036</v>
       </c>
       <c r="F219" s="81"/>
-      <c r="G219" s="63"/>
+      <c r="G219" s="63">
+        <v>2078</v>
+      </c>
       <c r="I219" s="63"/>
       <c r="J219" s="78"/>
       <c r="K219" s="63"/>
@@ -11569,7 +11613,9 @@
       </c>
       <c r="E220" s="63"/>
       <c r="F220" s="81"/>
-      <c r="G220" s="63"/>
+      <c r="G220" s="63">
+        <v>2022</v>
+      </c>
       <c r="I220" s="63"/>
       <c r="J220" s="78"/>
       <c r="K220" s="63"/>
@@ -11589,7 +11635,9 @@
         <v>1034</v>
       </c>
       <c r="F221" s="81"/>
-      <c r="G221" s="63"/>
+      <c r="G221" s="63">
+        <v>2059</v>
+      </c>
       <c r="I221" s="63"/>
       <c r="J221" s="78"/>
       <c r="K221" s="63"/>
@@ -11609,7 +11657,9 @@
         <v>1032</v>
       </c>
       <c r="F222" s="81"/>
-      <c r="G222" s="63"/>
+      <c r="G222" s="63">
+        <v>2130</v>
+      </c>
       <c r="I222" s="63"/>
       <c r="J222" s="78"/>
       <c r="K222" s="63"/>
@@ -11627,7 +11677,9 @@
       </c>
       <c r="E223" s="63"/>
       <c r="F223" s="81"/>
-      <c r="G223" s="63"/>
+      <c r="G223" s="63">
+        <v>2177</v>
+      </c>
       <c r="I223" s="63"/>
       <c r="J223" s="78"/>
       <c r="K223" s="63"/>
@@ -11645,7 +11697,9 @@
         <v>1030</v>
       </c>
       <c r="F224" s="81"/>
-      <c r="G224" s="63"/>
+      <c r="G224" s="63">
+        <v>2101</v>
+      </c>
       <c r="I224" s="63"/>
       <c r="J224" s="78"/>
       <c r="K224" s="63"/>
@@ -11663,7 +11717,9 @@
       </c>
       <c r="E225" s="14"/>
       <c r="F225" s="3"/>
-      <c r="G225" s="14"/>
+      <c r="G225" s="14">
+        <v>2231</v>
+      </c>
       <c r="I225" s="14"/>
       <c r="J225" s="11"/>
       <c r="K225" s="14"/>
@@ -11683,7 +11739,9 @@
         <v>1029</v>
       </c>
       <c r="F226" s="3"/>
-      <c r="G226" s="60"/>
+      <c r="G226" s="60">
+        <v>2099</v>
+      </c>
       <c r="I226" s="60"/>
       <c r="J226" s="80"/>
       <c r="K226" s="60"/>
@@ -11701,7 +11759,9 @@
         <v>1027</v>
       </c>
       <c r="F227" s="3"/>
-      <c r="G227" s="60"/>
+      <c r="G227" s="60">
+        <v>2137</v>
+      </c>
       <c r="I227" s="60"/>
       <c r="J227" s="80"/>
       <c r="K227" s="60"/>
@@ -11719,7 +11779,9 @@
       </c>
       <c r="E228" s="60"/>
       <c r="F228" s="3"/>
-      <c r="G228" s="60"/>
+      <c r="G228" s="60">
+        <v>2150</v>
+      </c>
       <c r="I228" s="60"/>
       <c r="J228" s="80"/>
       <c r="K228" s="60"/>
@@ -11739,7 +11801,9 @@
         <v>1026</v>
       </c>
       <c r="F229" s="3"/>
-      <c r="G229" s="60"/>
+      <c r="G229" s="60">
+        <v>2054</v>
+      </c>
       <c r="I229" s="60"/>
       <c r="J229" s="80"/>
       <c r="K229" s="60"/>
@@ -11759,7 +11823,9 @@
         <v>1024</v>
       </c>
       <c r="F230" s="3"/>
-      <c r="G230" s="60"/>
+      <c r="G230" s="60">
+        <v>2104</v>
+      </c>
       <c r="I230" s="60"/>
       <c r="J230" s="80"/>
       <c r="K230" s="60"/>
@@ -11779,7 +11845,9 @@
         <v>1022</v>
       </c>
       <c r="F231" s="3"/>
-      <c r="G231" s="60"/>
+      <c r="G231" s="60">
+        <v>2212</v>
+      </c>
       <c r="I231" s="60"/>
       <c r="J231" s="80"/>
       <c r="K231" s="60"/>
@@ -11797,7 +11865,9 @@
         <v>1020</v>
       </c>
       <c r="F232" s="3"/>
-      <c r="G232" s="60"/>
+      <c r="G232" s="60">
+        <v>2107</v>
+      </c>
       <c r="I232" s="60"/>
       <c r="J232" s="80"/>
       <c r="K232" s="60"/>
@@ -11817,7 +11887,9 @@
         <v>1019</v>
       </c>
       <c r="F233" s="3"/>
-      <c r="G233" s="60"/>
+      <c r="G233" s="60">
+        <v>804</v>
+      </c>
       <c r="I233" s="60"/>
       <c r="J233" s="80"/>
       <c r="K233" s="60"/>
@@ -11835,7 +11907,9 @@
       </c>
       <c r="E234" s="60"/>
       <c r="F234" s="3"/>
-      <c r="G234" s="60"/>
+      <c r="G234" s="60">
+        <v>3037</v>
+      </c>
       <c r="I234" s="60"/>
       <c r="J234" s="80"/>
       <c r="K234" s="60"/>
@@ -11855,7 +11929,9 @@
         <v>1017</v>
       </c>
       <c r="F235" s="3"/>
-      <c r="G235" s="60"/>
+      <c r="G235" s="60">
+        <v>3003</v>
+      </c>
       <c r="I235" s="60"/>
       <c r="J235" s="80"/>
       <c r="K235" s="60"/>
@@ -11875,7 +11951,9 @@
         <v>1015</v>
       </c>
       <c r="F236" s="3"/>
-      <c r="G236" s="60"/>
+      <c r="G236" s="60">
+        <v>305</v>
+      </c>
       <c r="I236" s="60"/>
       <c r="J236" s="80"/>
       <c r="K236" s="60"/>
@@ -11895,7 +11973,9 @@
         <v>1013</v>
       </c>
       <c r="F237" s="3"/>
-      <c r="G237" s="60"/>
+      <c r="G237" s="60">
+        <v>205</v>
+      </c>
       <c r="I237" s="60"/>
       <c r="J237" s="80"/>
       <c r="K237" s="60"/>
@@ -11917,7 +11997,9 @@
         <v>887</v>
       </c>
       <c r="F238" s="3"/>
-      <c r="G238" s="60"/>
+      <c r="G238" s="60">
+        <v>121</v>
+      </c>
       <c r="I238" s="60"/>
       <c r="J238" s="80"/>
       <c r="K238" s="60"/>
@@ -11925,9 +12007,6 @@
     <row r="239" spans="1:11">
       <c r="A239">
         <v>226</v>
-      </c>
-      <c r="B239">
-        <v>1</v>
       </c>
       <c r="C239" s="13"/>
       <c r="D239" s="14"/>
